--- a/ตรวจงาน/รายการตรวจสอบแผนภาพ.xlsx
+++ b/ตรวจงาน/รายการตรวจสอบแผนภาพ.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pee20\OneDrive\เดสก์ท็อป\SE3.1\team4\ตรวจงาน\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\team4\ตรวจงาน\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24EF351D-4C63-4A3E-B05E-57C18489AD3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40B7FC84-C1D0-45F7-A236-6545F624F37C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{C108298C-C5B1-4B19-85F2-2856099ECD84}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C108298C-C5B1-4B19-85F2-2856099ECD84}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,10 +23,6 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -34,12 +30,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>คำผิด</t>
-  </si>
-  <si>
-    <t>ไฟล์ 2</t>
   </si>
   <si>
     <t>Version</t>
@@ -66,9 +59,6 @@
     <t>วันที่ตรวจ</t>
   </si>
   <si>
-    <t>1.1.1</t>
-  </si>
-  <si>
     <t>รวม</t>
   </si>
   <si>
@@ -87,7 +77,16 @@
     <t>Diagram ขัดแย้งกัน</t>
   </si>
   <si>
-    <t xml:space="preserve"> Diagram เพิ่มตู้</t>
+    <t>ER Diagram</t>
+  </si>
+  <si>
+    <t>V1.1.4</t>
+  </si>
+  <si>
+    <t>ผู้ตรวจ</t>
+  </si>
+  <si>
+    <t>วิรัตน์</t>
   </si>
 </sst>
 </file>
@@ -120,7 +119,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
+        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -178,7 +177,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -205,9 +204,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -216,17 +221,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -542,139 +550,145 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E552DF3-66E3-4350-8BDE-D3162A98C3B8}">
-  <dimension ref="B2:U168"/>
+  <dimension ref="B2:V168"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="P7" sqref="P7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.796875" style="1"/>
-    <col min="2" max="2" width="26.19921875" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="8.796875" style="1"/>
+    <col min="1" max="1" width="8.75" style="1"/>
+    <col min="2" max="2" width="26.25" style="1" customWidth="1"/>
+    <col min="3" max="3" width="8.75" style="1"/>
+    <col min="4" max="4" width="9.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.125" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.75" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:21" ht="50.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="11" t="s">
+    <row r="2" spans="2:22" ht="50.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="G2" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="H2" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="J2" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="K2" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="L2" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="M2" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="N2" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="O2" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="P2" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q2" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="R2" s="14"/>
+      <c r="S2" s="14"/>
+      <c r="T2" s="14"/>
+      <c r="U2" s="14"/>
+      <c r="V2" s="14"/>
+    </row>
+    <row r="3" spans="2:22" ht="44.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="12"/>
+      <c r="K3" s="12"/>
+      <c r="L3" s="12"/>
+      <c r="M3" s="12"/>
+      <c r="N3" s="12"/>
+      <c r="O3" s="12"/>
+      <c r="P3" s="12"/>
+      <c r="Q3" s="12"/>
+      <c r="R3" s="14"/>
+      <c r="S3" s="14"/>
+      <c r="T3" s="14"/>
+      <c r="U3" s="14"/>
+      <c r="V3" s="14"/>
+    </row>
+    <row r="4" spans="2:22" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="6">
+        <v>44380</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="5">
         <v>2</v>
       </c>
-      <c r="D2" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="F2" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="G2" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="H2" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="I2" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="J2" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="K2" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="L2" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="M2" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="N2" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="O2" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="P2" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q2" s="12"/>
-      <c r="R2" s="12"/>
-      <c r="S2" s="12"/>
-      <c r="T2" s="12"/>
-      <c r="U2" s="12"/>
-    </row>
-    <row r="3" spans="2:21" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
-      <c r="K3" s="9"/>
-      <c r="L3" s="9"/>
-      <c r="M3" s="9"/>
-      <c r="N3" s="9"/>
-      <c r="O3" s="9"/>
-      <c r="P3" s="9"/>
-      <c r="Q3" s="12"/>
-      <c r="R3" s="12"/>
-      <c r="S3" s="12"/>
-      <c r="T3" s="12"/>
-      <c r="U3" s="12"/>
-    </row>
-    <row r="4" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="6">
-        <v>44379</v>
-      </c>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5">
-        <v>1</v>
-      </c>
-      <c r="G4" s="5">
-        <v>1</v>
-      </c>
+      <c r="G4" s="5"/>
       <c r="H4" s="5"/>
-      <c r="I4" s="5">
-        <v>1</v>
-      </c>
+      <c r="I4" s="5"/>
       <c r="J4" s="5"/>
       <c r="K4" s="5"/>
       <c r="L4" s="5"/>
       <c r="M4" s="5">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N4" s="5"/>
-      <c r="O4" s="5"/>
-      <c r="P4" s="5">
-        <f>SUM(E4:O4)</f>
-        <v>8</v>
+      <c r="O4" s="5">
+        <v>4</v>
       </c>
-      <c r="Q4" s="13"/>
-      <c r="R4" s="13"/>
-      <c r="S4" s="13"/>
-      <c r="T4" s="13"/>
-      <c r="U4" s="13"/>
-    </row>
-    <row r="5" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P4" s="5"/>
+      <c r="Q4" s="5">
+        <f>SUM(F4:P4)</f>
+        <v>7</v>
+      </c>
+      <c r="R4" s="10"/>
+      <c r="S4" s="10"/>
+      <c r="T4" s="10"/>
+      <c r="U4" s="10"/>
+      <c r="V4" s="10"/>
+    </row>
+    <row r="5" spans="2:22" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="16"/>
       <c r="C5" s="5"/>
-      <c r="D5" s="6">
-        <v>44381</v>
-      </c>
-      <c r="E5" s="5"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
       <c r="H5" s="5"/>
@@ -686,22 +700,19 @@
       <c r="N5" s="5"/>
       <c r="O5" s="5"/>
       <c r="P5" s="5"/>
-      <c r="Q5" s="13"/>
-      <c r="R5" s="13"/>
-      <c r="S5" s="13"/>
-      <c r="T5" s="13"/>
-      <c r="U5" s="13"/>
-    </row>
-    <row r="6" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="4" t="s">
-        <v>1</v>
-      </c>
+      <c r="Q5" s="5"/>
+      <c r="R5" s="10"/>
+      <c r="S5" s="10"/>
+      <c r="T5" s="10"/>
+      <c r="U5" s="10"/>
+      <c r="V5" s="10"/>
+    </row>
+    <row r="6" spans="2:22" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="4"/>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5">
-        <v>1</v>
-      </c>
+      <c r="E6" s="9"/>
+      <c r="F6" s="5"/>
       <c r="G6" s="5"/>
       <c r="H6" s="5"/>
       <c r="I6" s="5"/>
@@ -712,17 +723,18 @@
       <c r="N6" s="5"/>
       <c r="O6" s="5"/>
       <c r="P6" s="5"/>
-      <c r="Q6" s="13"/>
-      <c r="R6" s="13"/>
-      <c r="S6" s="13"/>
-      <c r="T6" s="13"/>
-      <c r="U6" s="13"/>
-    </row>
-    <row r="7" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q6" s="5"/>
+      <c r="R6" s="10"/>
+      <c r="S6" s="10"/>
+      <c r="T6" s="10"/>
+      <c r="U6" s="10"/>
+      <c r="V6" s="10"/>
+    </row>
+    <row r="7" spans="2:22" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="7"/>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
+      <c r="E7" s="9"/>
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
       <c r="H7" s="5"/>
@@ -734,17 +746,18 @@
       <c r="N7" s="5"/>
       <c r="O7" s="5"/>
       <c r="P7" s="5"/>
-      <c r="Q7" s="13"/>
-      <c r="R7" s="13"/>
-      <c r="S7" s="13"/>
-      <c r="T7" s="13"/>
-      <c r="U7" s="13"/>
-    </row>
-    <row r="8" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q7" s="5"/>
+      <c r="R7" s="10"/>
+      <c r="S7" s="10"/>
+      <c r="T7" s="10"/>
+      <c r="U7" s="10"/>
+      <c r="V7" s="10"/>
+    </row>
+    <row r="8" spans="2:22" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="7"/>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
+      <c r="E8" s="9"/>
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
       <c r="H8" s="5"/>
@@ -756,17 +769,18 @@
       <c r="N8" s="5"/>
       <c r="O8" s="5"/>
       <c r="P8" s="5"/>
-      <c r="Q8" s="13"/>
-      <c r="R8" s="13"/>
-      <c r="S8" s="13"/>
-      <c r="T8" s="13"/>
-      <c r="U8" s="13"/>
-    </row>
-    <row r="9" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q8" s="5"/>
+      <c r="R8" s="10"/>
+      <c r="S8" s="10"/>
+      <c r="T8" s="10"/>
+      <c r="U8" s="10"/>
+      <c r="V8" s="10"/>
+    </row>
+    <row r="9" spans="2:22" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="7"/>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
+      <c r="E9" s="9"/>
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
       <c r="H9" s="5"/>
@@ -778,17 +792,18 @@
       <c r="N9" s="5"/>
       <c r="O9" s="5"/>
       <c r="P9" s="5"/>
-      <c r="Q9" s="13"/>
-      <c r="R9" s="13"/>
-      <c r="S9" s="13"/>
-      <c r="T9" s="13"/>
-      <c r="U9" s="13"/>
-    </row>
-    <row r="10" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q9" s="5"/>
+      <c r="R9" s="10"/>
+      <c r="S9" s="10"/>
+      <c r="T9" s="10"/>
+      <c r="U9" s="10"/>
+      <c r="V9" s="10"/>
+    </row>
+    <row r="10" spans="2:22" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="7"/>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
+      <c r="E10" s="9"/>
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
       <c r="H10" s="5"/>
@@ -800,17 +815,18 @@
       <c r="N10" s="5"/>
       <c r="O10" s="5"/>
       <c r="P10" s="5"/>
-      <c r="Q10" s="13"/>
-      <c r="R10" s="13"/>
-      <c r="S10" s="13"/>
-      <c r="T10" s="13"/>
-      <c r="U10" s="13"/>
-    </row>
-    <row r="11" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q10" s="5"/>
+      <c r="R10" s="10"/>
+      <c r="S10" s="10"/>
+      <c r="T10" s="10"/>
+      <c r="U10" s="10"/>
+      <c r="V10" s="10"/>
+    </row>
+    <row r="11" spans="2:22" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="7"/>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
+      <c r="E11" s="9"/>
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>
       <c r="H11" s="5"/>
@@ -822,17 +838,18 @@
       <c r="N11" s="5"/>
       <c r="O11" s="5"/>
       <c r="P11" s="5"/>
-      <c r="Q11" s="13"/>
-      <c r="R11" s="13"/>
-      <c r="S11" s="13"/>
-      <c r="T11" s="13"/>
-      <c r="U11" s="13"/>
-    </row>
-    <row r="12" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q11" s="5"/>
+      <c r="R11" s="10"/>
+      <c r="S11" s="10"/>
+      <c r="T11" s="10"/>
+      <c r="U11" s="10"/>
+      <c r="V11" s="10"/>
+    </row>
+    <row r="12" spans="2:22" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="7"/>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
+      <c r="E12" s="9"/>
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
       <c r="H12" s="5"/>
@@ -844,17 +861,18 @@
       <c r="N12" s="5"/>
       <c r="O12" s="5"/>
       <c r="P12" s="5"/>
-      <c r="Q12" s="13"/>
-      <c r="R12" s="13"/>
-      <c r="S12" s="13"/>
-      <c r="T12" s="13"/>
-      <c r="U12" s="13"/>
-    </row>
-    <row r="13" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q12" s="5"/>
+      <c r="R12" s="10"/>
+      <c r="S12" s="10"/>
+      <c r="T12" s="10"/>
+      <c r="U12" s="10"/>
+      <c r="V12" s="10"/>
+    </row>
+    <row r="13" spans="2:22" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="7"/>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
+      <c r="E13" s="9"/>
       <c r="F13" s="5"/>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
@@ -866,17 +884,18 @@
       <c r="N13" s="5"/>
       <c r="O13" s="5"/>
       <c r="P13" s="5"/>
-      <c r="Q13" s="13"/>
-      <c r="R13" s="13"/>
-      <c r="S13" s="13"/>
-      <c r="T13" s="13"/>
-      <c r="U13" s="13"/>
-    </row>
-    <row r="14" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q13" s="5"/>
+      <c r="R13" s="10"/>
+      <c r="S13" s="10"/>
+      <c r="T13" s="10"/>
+      <c r="U13" s="10"/>
+      <c r="V13" s="10"/>
+    </row>
+    <row r="14" spans="2:22" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="7"/>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
+      <c r="E14" s="9"/>
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
       <c r="H14" s="5"/>
@@ -888,17 +907,18 @@
       <c r="N14" s="5"/>
       <c r="O14" s="5"/>
       <c r="P14" s="5"/>
-      <c r="Q14" s="13"/>
-      <c r="R14" s="13"/>
-      <c r="S14" s="13"/>
-      <c r="T14" s="13"/>
-      <c r="U14" s="13"/>
-    </row>
-    <row r="15" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q14" s="5"/>
+      <c r="R14" s="10"/>
+      <c r="S14" s="10"/>
+      <c r="T14" s="10"/>
+      <c r="U14" s="10"/>
+      <c r="V14" s="10"/>
+    </row>
+    <row r="15" spans="2:22" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="7"/>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
+      <c r="E15" s="9"/>
       <c r="F15" s="5"/>
       <c r="G15" s="5"/>
       <c r="H15" s="5"/>
@@ -910,17 +930,18 @@
       <c r="N15" s="5"/>
       <c r="O15" s="5"/>
       <c r="P15" s="5"/>
-      <c r="Q15" s="13"/>
-      <c r="R15" s="13"/>
-      <c r="S15" s="13"/>
-      <c r="T15" s="13"/>
-      <c r="U15" s="13"/>
-    </row>
-    <row r="16" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q15" s="5"/>
+      <c r="R15" s="10"/>
+      <c r="S15" s="10"/>
+      <c r="T15" s="10"/>
+      <c r="U15" s="10"/>
+      <c r="V15" s="10"/>
+    </row>
+    <row r="16" spans="2:22" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="7"/>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
+      <c r="E16" s="9"/>
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
       <c r="H16" s="5"/>
@@ -932,17 +953,18 @@
       <c r="N16" s="5"/>
       <c r="O16" s="5"/>
       <c r="P16" s="5"/>
-      <c r="Q16" s="13"/>
-      <c r="R16" s="13"/>
-      <c r="S16" s="13"/>
-      <c r="T16" s="13"/>
-      <c r="U16" s="13"/>
-    </row>
-    <row r="17" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q16" s="5"/>
+      <c r="R16" s="10"/>
+      <c r="S16" s="10"/>
+      <c r="T16" s="10"/>
+      <c r="U16" s="10"/>
+      <c r="V16" s="10"/>
+    </row>
+    <row r="17" spans="2:22" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="7"/>
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
+      <c r="E17" s="9"/>
       <c r="F17" s="5"/>
       <c r="G17" s="5"/>
       <c r="H17" s="5"/>
@@ -954,17 +976,18 @@
       <c r="N17" s="5"/>
       <c r="O17" s="5"/>
       <c r="P17" s="5"/>
-      <c r="Q17" s="13"/>
-      <c r="R17" s="13"/>
-      <c r="S17" s="13"/>
-      <c r="T17" s="13"/>
-      <c r="U17" s="13"/>
-    </row>
-    <row r="18" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q17" s="5"/>
+      <c r="R17" s="10"/>
+      <c r="S17" s="10"/>
+      <c r="T17" s="10"/>
+      <c r="U17" s="10"/>
+      <c r="V17" s="10"/>
+    </row>
+    <row r="18" spans="2:22" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="7"/>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
+      <c r="E18" s="9"/>
       <c r="F18" s="5"/>
       <c r="G18" s="5"/>
       <c r="H18" s="5"/>
@@ -976,17 +999,18 @@
       <c r="N18" s="5"/>
       <c r="O18" s="5"/>
       <c r="P18" s="5"/>
-      <c r="Q18" s="13"/>
-      <c r="R18" s="13"/>
-      <c r="S18" s="13"/>
-      <c r="T18" s="13"/>
-      <c r="U18" s="13"/>
-    </row>
-    <row r="19" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q18" s="5"/>
+      <c r="R18" s="10"/>
+      <c r="S18" s="10"/>
+      <c r="T18" s="10"/>
+      <c r="U18" s="10"/>
+      <c r="V18" s="10"/>
+    </row>
+    <row r="19" spans="2:22" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="7"/>
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
+      <c r="E19" s="9"/>
       <c r="F19" s="5"/>
       <c r="G19" s="5"/>
       <c r="H19" s="5"/>
@@ -998,17 +1022,18 @@
       <c r="N19" s="5"/>
       <c r="O19" s="5"/>
       <c r="P19" s="5"/>
-      <c r="Q19" s="13"/>
-      <c r="R19" s="13"/>
-      <c r="S19" s="13"/>
-      <c r="T19" s="13"/>
-      <c r="U19" s="13"/>
-    </row>
-    <row r="20" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q19" s="5"/>
+      <c r="R19" s="10"/>
+      <c r="S19" s="10"/>
+      <c r="T19" s="10"/>
+      <c r="U19" s="10"/>
+      <c r="V19" s="10"/>
+    </row>
+    <row r="20" spans="2:22" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="7"/>
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
+      <c r="E20" s="9"/>
       <c r="F20" s="5"/>
       <c r="G20" s="5"/>
       <c r="H20" s="5"/>
@@ -1020,17 +1045,18 @@
       <c r="N20" s="5"/>
       <c r="O20" s="5"/>
       <c r="P20" s="5"/>
-      <c r="Q20" s="13"/>
-      <c r="R20" s="13"/>
-      <c r="S20" s="13"/>
-      <c r="T20" s="13"/>
-      <c r="U20" s="13"/>
-    </row>
-    <row r="21" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q20" s="5"/>
+      <c r="R20" s="10"/>
+      <c r="S20" s="10"/>
+      <c r="T20" s="10"/>
+      <c r="U20" s="10"/>
+      <c r="V20" s="10"/>
+    </row>
+    <row r="21" spans="2:22" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="7"/>
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
+      <c r="E21" s="9"/>
       <c r="F21" s="5"/>
       <c r="G21" s="5"/>
       <c r="H21" s="5"/>
@@ -1042,17 +1068,18 @@
       <c r="N21" s="5"/>
       <c r="O21" s="5"/>
       <c r="P21" s="5"/>
-      <c r="Q21" s="13"/>
-      <c r="R21" s="13"/>
-      <c r="S21" s="13"/>
-      <c r="T21" s="13"/>
-      <c r="U21" s="13"/>
-    </row>
-    <row r="22" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q21" s="5"/>
+      <c r="R21" s="10"/>
+      <c r="S21" s="10"/>
+      <c r="T21" s="10"/>
+      <c r="U21" s="10"/>
+      <c r="V21" s="10"/>
+    </row>
+    <row r="22" spans="2:22" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="7"/>
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
+      <c r="E22" s="9"/>
       <c r="F22" s="5"/>
       <c r="G22" s="5"/>
       <c r="H22" s="5"/>
@@ -1064,17 +1091,18 @@
       <c r="N22" s="5"/>
       <c r="O22" s="5"/>
       <c r="P22" s="5"/>
-      <c r="Q22" s="13"/>
-      <c r="R22" s="13"/>
-      <c r="S22" s="13"/>
-      <c r="T22" s="13"/>
-      <c r="U22" s="13"/>
-    </row>
-    <row r="23" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q22" s="5"/>
+      <c r="R22" s="10"/>
+      <c r="S22" s="10"/>
+      <c r="T22" s="10"/>
+      <c r="U22" s="10"/>
+      <c r="V22" s="10"/>
+    </row>
+    <row r="23" spans="2:22" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="7"/>
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
+      <c r="E23" s="9"/>
       <c r="F23" s="5"/>
       <c r="G23" s="5"/>
       <c r="H23" s="5"/>
@@ -1086,17 +1114,18 @@
       <c r="N23" s="5"/>
       <c r="O23" s="5"/>
       <c r="P23" s="5"/>
-      <c r="Q23" s="13"/>
-      <c r="R23" s="13"/>
-      <c r="S23" s="13"/>
-      <c r="T23" s="13"/>
-      <c r="U23" s="13"/>
-    </row>
-    <row r="24" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q23" s="5"/>
+      <c r="R23" s="10"/>
+      <c r="S23" s="10"/>
+      <c r="T23" s="10"/>
+      <c r="U23" s="10"/>
+      <c r="V23" s="10"/>
+    </row>
+    <row r="24" spans="2:22" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="7"/>
       <c r="C24" s="5"/>
       <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
+      <c r="E24" s="9"/>
       <c r="F24" s="5"/>
       <c r="G24" s="5"/>
       <c r="H24" s="5"/>
@@ -1108,17 +1137,18 @@
       <c r="N24" s="5"/>
       <c r="O24" s="5"/>
       <c r="P24" s="5"/>
-      <c r="Q24" s="13"/>
-      <c r="R24" s="13"/>
-      <c r="S24" s="13"/>
-      <c r="T24" s="13"/>
-      <c r="U24" s="13"/>
-    </row>
-    <row r="25" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q24" s="5"/>
+      <c r="R24" s="10"/>
+      <c r="S24" s="10"/>
+      <c r="T24" s="10"/>
+      <c r="U24" s="10"/>
+      <c r="V24" s="10"/>
+    </row>
+    <row r="25" spans="2:22" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="7"/>
       <c r="C25" s="5"/>
       <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
+      <c r="E25" s="9"/>
       <c r="F25" s="5"/>
       <c r="G25" s="5"/>
       <c r="H25" s="5"/>
@@ -1130,17 +1160,18 @@
       <c r="N25" s="5"/>
       <c r="O25" s="5"/>
       <c r="P25" s="5"/>
-      <c r="Q25" s="13"/>
-      <c r="R25" s="13"/>
-      <c r="S25" s="13"/>
-      <c r="T25" s="13"/>
-      <c r="U25" s="13"/>
-    </row>
-    <row r="26" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q25" s="5"/>
+      <c r="R25" s="10"/>
+      <c r="S25" s="10"/>
+      <c r="T25" s="10"/>
+      <c r="U25" s="10"/>
+      <c r="V25" s="10"/>
+    </row>
+    <row r="26" spans="2:22" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="7"/>
       <c r="C26" s="5"/>
       <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
+      <c r="E26" s="9"/>
       <c r="F26" s="5"/>
       <c r="G26" s="5"/>
       <c r="H26" s="5"/>
@@ -1152,17 +1183,18 @@
       <c r="N26" s="5"/>
       <c r="O26" s="5"/>
       <c r="P26" s="5"/>
-      <c r="Q26" s="13"/>
-      <c r="R26" s="13"/>
-      <c r="S26" s="13"/>
-      <c r="T26" s="13"/>
-      <c r="U26" s="13"/>
-    </row>
-    <row r="27" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q26" s="5"/>
+      <c r="R26" s="10"/>
+      <c r="S26" s="10"/>
+      <c r="T26" s="10"/>
+      <c r="U26" s="10"/>
+      <c r="V26" s="10"/>
+    </row>
+    <row r="27" spans="2:22" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="7"/>
       <c r="C27" s="5"/>
       <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
+      <c r="E27" s="9"/>
       <c r="F27" s="5"/>
       <c r="G27" s="5"/>
       <c r="H27" s="5"/>
@@ -1174,17 +1206,18 @@
       <c r="N27" s="5"/>
       <c r="O27" s="5"/>
       <c r="P27" s="5"/>
-      <c r="Q27" s="13"/>
-      <c r="R27" s="13"/>
-      <c r="S27" s="13"/>
-      <c r="T27" s="13"/>
-      <c r="U27" s="13"/>
-    </row>
-    <row r="28" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q27" s="5"/>
+      <c r="R27" s="10"/>
+      <c r="S27" s="10"/>
+      <c r="T27" s="10"/>
+      <c r="U27" s="10"/>
+      <c r="V27" s="10"/>
+    </row>
+    <row r="28" spans="2:22" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="7"/>
       <c r="C28" s="5"/>
       <c r="D28" s="5"/>
-      <c r="E28" s="5"/>
+      <c r="E28" s="9"/>
       <c r="F28" s="5"/>
       <c r="G28" s="5"/>
       <c r="H28" s="5"/>
@@ -1196,17 +1229,18 @@
       <c r="N28" s="5"/>
       <c r="O28" s="5"/>
       <c r="P28" s="5"/>
-      <c r="Q28" s="13"/>
-      <c r="R28" s="13"/>
-      <c r="S28" s="13"/>
-      <c r="T28" s="13"/>
-      <c r="U28" s="13"/>
-    </row>
-    <row r="29" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q28" s="5"/>
+      <c r="R28" s="10"/>
+      <c r="S28" s="10"/>
+      <c r="T28" s="10"/>
+      <c r="U28" s="10"/>
+      <c r="V28" s="10"/>
+    </row>
+    <row r="29" spans="2:22" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="7"/>
       <c r="C29" s="5"/>
       <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
+      <c r="E29" s="9"/>
       <c r="F29" s="5"/>
       <c r="G29" s="5"/>
       <c r="H29" s="5"/>
@@ -1218,17 +1252,18 @@
       <c r="N29" s="5"/>
       <c r="O29" s="5"/>
       <c r="P29" s="5"/>
-      <c r="Q29" s="13"/>
-      <c r="R29" s="13"/>
-      <c r="S29" s="13"/>
-      <c r="T29" s="13"/>
-      <c r="U29" s="13"/>
-    </row>
-    <row r="30" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q29" s="5"/>
+      <c r="R29" s="10"/>
+      <c r="S29" s="10"/>
+      <c r="T29" s="10"/>
+      <c r="U29" s="10"/>
+      <c r="V29" s="10"/>
+    </row>
+    <row r="30" spans="2:22" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="7"/>
       <c r="C30" s="5"/>
       <c r="D30" s="5"/>
-      <c r="E30" s="5"/>
+      <c r="E30" s="9"/>
       <c r="F30" s="5"/>
       <c r="G30" s="5"/>
       <c r="H30" s="5"/>
@@ -1240,17 +1275,18 @@
       <c r="N30" s="5"/>
       <c r="O30" s="5"/>
       <c r="P30" s="5"/>
-      <c r="Q30" s="13"/>
-      <c r="R30" s="13"/>
-      <c r="S30" s="13"/>
-      <c r="T30" s="13"/>
-      <c r="U30" s="13"/>
-    </row>
-    <row r="31" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q30" s="5"/>
+      <c r="R30" s="10"/>
+      <c r="S30" s="10"/>
+      <c r="T30" s="10"/>
+      <c r="U30" s="10"/>
+      <c r="V30" s="10"/>
+    </row>
+    <row r="31" spans="2:22" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="7"/>
       <c r="C31" s="5"/>
       <c r="D31" s="5"/>
-      <c r="E31" s="5"/>
+      <c r="E31" s="9"/>
       <c r="F31" s="5"/>
       <c r="G31" s="5"/>
       <c r="H31" s="5"/>
@@ -1262,17 +1298,18 @@
       <c r="N31" s="5"/>
       <c r="O31" s="5"/>
       <c r="P31" s="5"/>
-      <c r="Q31" s="13"/>
-      <c r="R31" s="13"/>
-      <c r="S31" s="13"/>
-      <c r="T31" s="13"/>
-      <c r="U31" s="13"/>
-    </row>
-    <row r="32" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q31" s="5"/>
+      <c r="R31" s="10"/>
+      <c r="S31" s="10"/>
+      <c r="T31" s="10"/>
+      <c r="U31" s="10"/>
+      <c r="V31" s="10"/>
+    </row>
+    <row r="32" spans="2:22" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="7"/>
       <c r="C32" s="5"/>
       <c r="D32" s="5"/>
-      <c r="E32" s="5"/>
+      <c r="E32" s="9"/>
       <c r="F32" s="5"/>
       <c r="G32" s="5"/>
       <c r="H32" s="5"/>
@@ -1284,17 +1321,18 @@
       <c r="N32" s="5"/>
       <c r="O32" s="5"/>
       <c r="P32" s="5"/>
-      <c r="Q32" s="13"/>
-      <c r="R32" s="13"/>
-      <c r="S32" s="13"/>
-      <c r="T32" s="13"/>
-      <c r="U32" s="13"/>
-    </row>
-    <row r="33" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q32" s="5"/>
+      <c r="R32" s="10"/>
+      <c r="S32" s="10"/>
+      <c r="T32" s="10"/>
+      <c r="U32" s="10"/>
+      <c r="V32" s="10"/>
+    </row>
+    <row r="33" spans="2:22" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B33" s="7"/>
       <c r="C33" s="5"/>
       <c r="D33" s="5"/>
-      <c r="E33" s="5"/>
+      <c r="E33" s="9"/>
       <c r="F33" s="5"/>
       <c r="G33" s="5"/>
       <c r="H33" s="5"/>
@@ -1306,17 +1344,18 @@
       <c r="N33" s="5"/>
       <c r="O33" s="5"/>
       <c r="P33" s="5"/>
-      <c r="Q33" s="13"/>
-      <c r="R33" s="13"/>
-      <c r="S33" s="13"/>
-      <c r="T33" s="13"/>
-      <c r="U33" s="13"/>
-    </row>
-    <row r="34" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q33" s="5"/>
+      <c r="R33" s="10"/>
+      <c r="S33" s="10"/>
+      <c r="T33" s="10"/>
+      <c r="U33" s="10"/>
+      <c r="V33" s="10"/>
+    </row>
+    <row r="34" spans="2:22" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B34" s="7"/>
       <c r="C34" s="5"/>
       <c r="D34" s="5"/>
-      <c r="E34" s="5"/>
+      <c r="E34" s="9"/>
       <c r="F34" s="5"/>
       <c r="G34" s="5"/>
       <c r="H34" s="5"/>
@@ -1328,17 +1367,18 @@
       <c r="N34" s="5"/>
       <c r="O34" s="5"/>
       <c r="P34" s="5"/>
-      <c r="Q34" s="13"/>
-      <c r="R34" s="13"/>
-      <c r="S34" s="13"/>
-      <c r="T34" s="13"/>
-      <c r="U34" s="13"/>
-    </row>
-    <row r="35" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q34" s="5"/>
+      <c r="R34" s="10"/>
+      <c r="S34" s="10"/>
+      <c r="T34" s="10"/>
+      <c r="U34" s="10"/>
+      <c r="V34" s="10"/>
+    </row>
+    <row r="35" spans="2:22" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B35" s="7"/>
       <c r="C35" s="5"/>
       <c r="D35" s="5"/>
-      <c r="E35" s="5"/>
+      <c r="E35" s="9"/>
       <c r="F35" s="5"/>
       <c r="G35" s="5"/>
       <c r="H35" s="5"/>
@@ -1350,17 +1390,18 @@
       <c r="N35" s="5"/>
       <c r="O35" s="5"/>
       <c r="P35" s="5"/>
-      <c r="Q35" s="13"/>
-      <c r="R35" s="13"/>
-      <c r="S35" s="13"/>
-      <c r="T35" s="13"/>
-      <c r="U35" s="13"/>
-    </row>
-    <row r="36" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q35" s="5"/>
+      <c r="R35" s="10"/>
+      <c r="S35" s="10"/>
+      <c r="T35" s="10"/>
+      <c r="U35" s="10"/>
+      <c r="V35" s="10"/>
+    </row>
+    <row r="36" spans="2:22" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B36" s="7"/>
       <c r="C36" s="5"/>
       <c r="D36" s="5"/>
-      <c r="E36" s="5"/>
+      <c r="E36" s="9"/>
       <c r="F36" s="5"/>
       <c r="G36" s="5"/>
       <c r="H36" s="5"/>
@@ -1372,17 +1413,18 @@
       <c r="N36" s="5"/>
       <c r="O36" s="5"/>
       <c r="P36" s="5"/>
-      <c r="Q36" s="13"/>
-      <c r="R36" s="13"/>
-      <c r="S36" s="13"/>
-      <c r="T36" s="13"/>
-      <c r="U36" s="13"/>
-    </row>
-    <row r="37" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q36" s="5"/>
+      <c r="R36" s="10"/>
+      <c r="S36" s="10"/>
+      <c r="T36" s="10"/>
+      <c r="U36" s="10"/>
+      <c r="V36" s="10"/>
+    </row>
+    <row r="37" spans="2:22" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B37" s="7"/>
       <c r="C37" s="5"/>
       <c r="D37" s="5"/>
-      <c r="E37" s="5"/>
+      <c r="E37" s="9"/>
       <c r="F37" s="5"/>
       <c r="G37" s="5"/>
       <c r="H37" s="5"/>
@@ -1394,17 +1436,18 @@
       <c r="N37" s="5"/>
       <c r="O37" s="5"/>
       <c r="P37" s="5"/>
-      <c r="Q37" s="13"/>
-      <c r="R37" s="13"/>
-      <c r="S37" s="13"/>
-      <c r="T37" s="13"/>
-      <c r="U37" s="13"/>
-    </row>
-    <row r="38" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q37" s="5"/>
+      <c r="R37" s="10"/>
+      <c r="S37" s="10"/>
+      <c r="T37" s="10"/>
+      <c r="U37" s="10"/>
+      <c r="V37" s="10"/>
+    </row>
+    <row r="38" spans="2:22" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B38" s="7"/>
       <c r="C38" s="5"/>
       <c r="D38" s="5"/>
-      <c r="E38" s="5"/>
+      <c r="E38" s="9"/>
       <c r="F38" s="5"/>
       <c r="G38" s="5"/>
       <c r="H38" s="5"/>
@@ -1416,17 +1459,18 @@
       <c r="N38" s="5"/>
       <c r="O38" s="5"/>
       <c r="P38" s="5"/>
-      <c r="Q38" s="13"/>
-      <c r="R38" s="13"/>
-      <c r="S38" s="13"/>
-      <c r="T38" s="13"/>
-      <c r="U38" s="13"/>
-    </row>
-    <row r="39" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q38" s="5"/>
+      <c r="R38" s="10"/>
+      <c r="S38" s="10"/>
+      <c r="T38" s="10"/>
+      <c r="U38" s="10"/>
+      <c r="V38" s="10"/>
+    </row>
+    <row r="39" spans="2:22" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B39" s="7"/>
       <c r="C39" s="5"/>
       <c r="D39" s="5"/>
-      <c r="E39" s="5"/>
+      <c r="E39" s="9"/>
       <c r="F39" s="5"/>
       <c r="G39" s="5"/>
       <c r="H39" s="5"/>
@@ -1438,17 +1482,18 @@
       <c r="N39" s="5"/>
       <c r="O39" s="5"/>
       <c r="P39" s="5"/>
-      <c r="Q39" s="13"/>
-      <c r="R39" s="13"/>
-      <c r="S39" s="13"/>
-      <c r="T39" s="13"/>
-      <c r="U39" s="13"/>
-    </row>
-    <row r="40" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q39" s="5"/>
+      <c r="R39" s="10"/>
+      <c r="S39" s="10"/>
+      <c r="T39" s="10"/>
+      <c r="U39" s="10"/>
+      <c r="V39" s="10"/>
+    </row>
+    <row r="40" spans="2:22" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B40" s="7"/>
       <c r="C40" s="5"/>
       <c r="D40" s="5"/>
-      <c r="E40" s="5"/>
+      <c r="E40" s="9"/>
       <c r="F40" s="5"/>
       <c r="G40" s="5"/>
       <c r="H40" s="5"/>
@@ -1460,17 +1505,18 @@
       <c r="N40" s="5"/>
       <c r="O40" s="5"/>
       <c r="P40" s="5"/>
-      <c r="Q40" s="13"/>
-      <c r="R40" s="13"/>
-      <c r="S40" s="13"/>
-      <c r="T40" s="13"/>
-      <c r="U40" s="13"/>
-    </row>
-    <row r="41" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q40" s="5"/>
+      <c r="R40" s="10"/>
+      <c r="S40" s="10"/>
+      <c r="T40" s="10"/>
+      <c r="U40" s="10"/>
+      <c r="V40" s="10"/>
+    </row>
+    <row r="41" spans="2:22" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B41" s="7"/>
       <c r="C41" s="5"/>
       <c r="D41" s="5"/>
-      <c r="E41" s="5"/>
+      <c r="E41" s="9"/>
       <c r="F41" s="5"/>
       <c r="G41" s="5"/>
       <c r="H41" s="5"/>
@@ -1482,17 +1528,18 @@
       <c r="N41" s="5"/>
       <c r="O41" s="5"/>
       <c r="P41" s="5"/>
-      <c r="Q41" s="13"/>
-      <c r="R41" s="13"/>
-      <c r="S41" s="13"/>
-      <c r="T41" s="13"/>
-      <c r="U41" s="13"/>
-    </row>
-    <row r="42" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q41" s="5"/>
+      <c r="R41" s="10"/>
+      <c r="S41" s="10"/>
+      <c r="T41" s="10"/>
+      <c r="U41" s="10"/>
+      <c r="V41" s="10"/>
+    </row>
+    <row r="42" spans="2:22" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B42" s="7"/>
       <c r="C42" s="5"/>
       <c r="D42" s="5"/>
-      <c r="E42" s="5"/>
+      <c r="E42" s="9"/>
       <c r="F42" s="5"/>
       <c r="G42" s="5"/>
       <c r="H42" s="5"/>
@@ -1504,17 +1551,18 @@
       <c r="N42" s="5"/>
       <c r="O42" s="5"/>
       <c r="P42" s="5"/>
-      <c r="Q42" s="13"/>
-      <c r="R42" s="13"/>
-      <c r="S42" s="13"/>
-      <c r="T42" s="13"/>
-      <c r="U42" s="13"/>
-    </row>
-    <row r="43" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q42" s="5"/>
+      <c r="R42" s="10"/>
+      <c r="S42" s="10"/>
+      <c r="T42" s="10"/>
+      <c r="U42" s="10"/>
+      <c r="V42" s="10"/>
+    </row>
+    <row r="43" spans="2:22" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B43" s="7"/>
       <c r="C43" s="5"/>
       <c r="D43" s="5"/>
-      <c r="E43" s="5"/>
+      <c r="E43" s="9"/>
       <c r="F43" s="5"/>
       <c r="G43" s="5"/>
       <c r="H43" s="5"/>
@@ -1526,17 +1574,18 @@
       <c r="N43" s="5"/>
       <c r="O43" s="5"/>
       <c r="P43" s="5"/>
-      <c r="Q43" s="13"/>
-      <c r="R43" s="13"/>
-      <c r="S43" s="13"/>
-      <c r="T43" s="13"/>
-      <c r="U43" s="13"/>
-    </row>
-    <row r="44" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q43" s="5"/>
+      <c r="R43" s="10"/>
+      <c r="S43" s="10"/>
+      <c r="T43" s="10"/>
+      <c r="U43" s="10"/>
+      <c r="V43" s="10"/>
+    </row>
+    <row r="44" spans="2:22" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B44" s="7"/>
       <c r="C44" s="5"/>
       <c r="D44" s="5"/>
-      <c r="E44" s="5"/>
+      <c r="E44" s="9"/>
       <c r="F44" s="5"/>
       <c r="G44" s="5"/>
       <c r="H44" s="5"/>
@@ -1548,17 +1597,18 @@
       <c r="N44" s="5"/>
       <c r="O44" s="5"/>
       <c r="P44" s="5"/>
-      <c r="Q44" s="13"/>
-      <c r="R44" s="13"/>
-      <c r="S44" s="13"/>
-      <c r="T44" s="13"/>
-      <c r="U44" s="13"/>
-    </row>
-    <row r="45" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q44" s="5"/>
+      <c r="R44" s="10"/>
+      <c r="S44" s="10"/>
+      <c r="T44" s="10"/>
+      <c r="U44" s="10"/>
+      <c r="V44" s="10"/>
+    </row>
+    <row r="45" spans="2:22" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B45" s="7"/>
       <c r="C45" s="5"/>
       <c r="D45" s="5"/>
-      <c r="E45" s="5"/>
+      <c r="E45" s="9"/>
       <c r="F45" s="5"/>
       <c r="G45" s="5"/>
       <c r="H45" s="5"/>
@@ -1570,17 +1620,18 @@
       <c r="N45" s="5"/>
       <c r="O45" s="5"/>
       <c r="P45" s="5"/>
-      <c r="Q45" s="13"/>
-      <c r="R45" s="13"/>
-      <c r="S45" s="13"/>
-      <c r="T45" s="13"/>
-      <c r="U45" s="13"/>
-    </row>
-    <row r="46" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q45" s="5"/>
+      <c r="R45" s="10"/>
+      <c r="S45" s="10"/>
+      <c r="T45" s="10"/>
+      <c r="U45" s="10"/>
+      <c r="V45" s="10"/>
+    </row>
+    <row r="46" spans="2:22" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B46" s="7"/>
       <c r="C46" s="5"/>
       <c r="D46" s="5"/>
-      <c r="E46" s="5"/>
+      <c r="E46" s="9"/>
       <c r="F46" s="5"/>
       <c r="G46" s="5"/>
       <c r="H46" s="5"/>
@@ -1592,17 +1643,18 @@
       <c r="N46" s="5"/>
       <c r="O46" s="5"/>
       <c r="P46" s="5"/>
-      <c r="Q46" s="13"/>
-      <c r="R46" s="13"/>
-      <c r="S46" s="13"/>
-      <c r="T46" s="13"/>
-      <c r="U46" s="13"/>
-    </row>
-    <row r="47" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q46" s="5"/>
+      <c r="R46" s="10"/>
+      <c r="S46" s="10"/>
+      <c r="T46" s="10"/>
+      <c r="U46" s="10"/>
+      <c r="V46" s="10"/>
+    </row>
+    <row r="47" spans="2:22" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B47" s="7"/>
       <c r="C47" s="5"/>
       <c r="D47" s="5"/>
-      <c r="E47" s="5"/>
+      <c r="E47" s="9"/>
       <c r="F47" s="5"/>
       <c r="G47" s="5"/>
       <c r="H47" s="5"/>
@@ -1614,17 +1666,18 @@
       <c r="N47" s="5"/>
       <c r="O47" s="5"/>
       <c r="P47" s="5"/>
-      <c r="Q47" s="13"/>
-      <c r="R47" s="13"/>
-      <c r="S47" s="13"/>
-      <c r="T47" s="13"/>
-      <c r="U47" s="13"/>
-    </row>
-    <row r="48" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q47" s="5"/>
+      <c r="R47" s="10"/>
+      <c r="S47" s="10"/>
+      <c r="T47" s="10"/>
+      <c r="U47" s="10"/>
+      <c r="V47" s="10"/>
+    </row>
+    <row r="48" spans="2:22" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B48" s="7"/>
       <c r="C48" s="5"/>
       <c r="D48" s="5"/>
-      <c r="E48" s="5"/>
+      <c r="E48" s="9"/>
       <c r="F48" s="5"/>
       <c r="G48" s="5"/>
       <c r="H48" s="5"/>
@@ -1636,17 +1689,18 @@
       <c r="N48" s="5"/>
       <c r="O48" s="5"/>
       <c r="P48" s="5"/>
-      <c r="Q48" s="13"/>
-      <c r="R48" s="13"/>
-      <c r="S48" s="13"/>
-      <c r="T48" s="13"/>
-      <c r="U48" s="13"/>
-    </row>
-    <row r="49" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q48" s="5"/>
+      <c r="R48" s="10"/>
+      <c r="S48" s="10"/>
+      <c r="T48" s="10"/>
+      <c r="U48" s="10"/>
+      <c r="V48" s="10"/>
+    </row>
+    <row r="49" spans="2:22" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B49" s="7"/>
       <c r="C49" s="5"/>
       <c r="D49" s="5"/>
-      <c r="E49" s="5"/>
+      <c r="E49" s="9"/>
       <c r="F49" s="5"/>
       <c r="G49" s="5"/>
       <c r="H49" s="5"/>
@@ -1658,17 +1712,18 @@
       <c r="N49" s="5"/>
       <c r="O49" s="5"/>
       <c r="P49" s="5"/>
-      <c r="Q49" s="13"/>
-      <c r="R49" s="13"/>
-      <c r="S49" s="13"/>
-      <c r="T49" s="13"/>
-      <c r="U49" s="13"/>
-    </row>
-    <row r="50" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q49" s="5"/>
+      <c r="R49" s="10"/>
+      <c r="S49" s="10"/>
+      <c r="T49" s="10"/>
+      <c r="U49" s="10"/>
+      <c r="V49" s="10"/>
+    </row>
+    <row r="50" spans="2:22" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B50" s="7"/>
       <c r="C50" s="5"/>
       <c r="D50" s="5"/>
-      <c r="E50" s="5"/>
+      <c r="E50" s="9"/>
       <c r="F50" s="5"/>
       <c r="G50" s="5"/>
       <c r="H50" s="5"/>
@@ -1680,17 +1735,18 @@
       <c r="N50" s="5"/>
       <c r="O50" s="5"/>
       <c r="P50" s="5"/>
-      <c r="Q50" s="13"/>
-      <c r="R50" s="13"/>
-      <c r="S50" s="13"/>
-      <c r="T50" s="13"/>
-      <c r="U50" s="13"/>
-    </row>
-    <row r="51" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q50" s="5"/>
+      <c r="R50" s="10"/>
+      <c r="S50" s="10"/>
+      <c r="T50" s="10"/>
+      <c r="U50" s="10"/>
+      <c r="V50" s="10"/>
+    </row>
+    <row r="51" spans="2:22" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B51" s="7"/>
       <c r="C51" s="5"/>
       <c r="D51" s="5"/>
-      <c r="E51" s="5"/>
+      <c r="E51" s="9"/>
       <c r="F51" s="5"/>
       <c r="G51" s="5"/>
       <c r="H51" s="5"/>
@@ -1702,17 +1758,18 @@
       <c r="N51" s="5"/>
       <c r="O51" s="5"/>
       <c r="P51" s="5"/>
-      <c r="Q51" s="13"/>
-      <c r="R51" s="13"/>
-      <c r="S51" s="13"/>
-      <c r="T51" s="13"/>
-      <c r="U51" s="13"/>
-    </row>
-    <row r="52" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q51" s="5"/>
+      <c r="R51" s="10"/>
+      <c r="S51" s="10"/>
+      <c r="T51" s="10"/>
+      <c r="U51" s="10"/>
+      <c r="V51" s="10"/>
+    </row>
+    <row r="52" spans="2:22" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B52" s="7"/>
       <c r="C52" s="5"/>
       <c r="D52" s="5"/>
-      <c r="E52" s="5"/>
+      <c r="E52" s="9"/>
       <c r="F52" s="5"/>
       <c r="G52" s="5"/>
       <c r="H52" s="5"/>
@@ -1724,17 +1781,18 @@
       <c r="N52" s="5"/>
       <c r="O52" s="5"/>
       <c r="P52" s="5"/>
-      <c r="Q52" s="13"/>
-      <c r="R52" s="13"/>
-      <c r="S52" s="13"/>
-      <c r="T52" s="13"/>
-      <c r="U52" s="13"/>
-    </row>
-    <row r="53" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q52" s="5"/>
+      <c r="R52" s="10"/>
+      <c r="S52" s="10"/>
+      <c r="T52" s="10"/>
+      <c r="U52" s="10"/>
+      <c r="V52" s="10"/>
+    </row>
+    <row r="53" spans="2:22" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B53" s="7"/>
       <c r="C53" s="5"/>
       <c r="D53" s="5"/>
-      <c r="E53" s="5"/>
+      <c r="E53" s="9"/>
       <c r="F53" s="5"/>
       <c r="G53" s="5"/>
       <c r="H53" s="5"/>
@@ -1746,17 +1804,18 @@
       <c r="N53" s="5"/>
       <c r="O53" s="5"/>
       <c r="P53" s="5"/>
-      <c r="Q53" s="13"/>
-      <c r="R53" s="13"/>
-      <c r="S53" s="13"/>
-      <c r="T53" s="13"/>
-      <c r="U53" s="13"/>
-    </row>
-    <row r="54" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q53" s="5"/>
+      <c r="R53" s="10"/>
+      <c r="S53" s="10"/>
+      <c r="T53" s="10"/>
+      <c r="U53" s="10"/>
+      <c r="V53" s="10"/>
+    </row>
+    <row r="54" spans="2:22" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B54" s="7"/>
       <c r="C54" s="5"/>
       <c r="D54" s="5"/>
-      <c r="E54" s="5"/>
+      <c r="E54" s="9"/>
       <c r="F54" s="5"/>
       <c r="G54" s="5"/>
       <c r="H54" s="5"/>
@@ -1768,17 +1827,18 @@
       <c r="N54" s="5"/>
       <c r="O54" s="5"/>
       <c r="P54" s="5"/>
-      <c r="Q54" s="13"/>
-      <c r="R54" s="13"/>
-      <c r="S54" s="13"/>
-      <c r="T54" s="13"/>
-      <c r="U54" s="13"/>
-    </row>
-    <row r="55" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q54" s="5"/>
+      <c r="R54" s="10"/>
+      <c r="S54" s="10"/>
+      <c r="T54" s="10"/>
+      <c r="U54" s="10"/>
+      <c r="V54" s="10"/>
+    </row>
+    <row r="55" spans="2:22" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B55" s="7"/>
       <c r="C55" s="5"/>
       <c r="D55" s="5"/>
-      <c r="E55" s="5"/>
+      <c r="E55" s="9"/>
       <c r="F55" s="5"/>
       <c r="G55" s="5"/>
       <c r="H55" s="5"/>
@@ -1790,17 +1850,18 @@
       <c r="N55" s="5"/>
       <c r="O55" s="5"/>
       <c r="P55" s="5"/>
-      <c r="Q55" s="13"/>
-      <c r="R55" s="13"/>
-      <c r="S55" s="13"/>
-      <c r="T55" s="13"/>
-      <c r="U55" s="13"/>
-    </row>
-    <row r="56" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q55" s="5"/>
+      <c r="R55" s="10"/>
+      <c r="S55" s="10"/>
+      <c r="T55" s="10"/>
+      <c r="U55" s="10"/>
+      <c r="V55" s="10"/>
+    </row>
+    <row r="56" spans="2:22" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B56" s="7"/>
       <c r="C56" s="5"/>
       <c r="D56" s="5"/>
-      <c r="E56" s="5"/>
+      <c r="E56" s="9"/>
       <c r="F56" s="5"/>
       <c r="G56" s="5"/>
       <c r="H56" s="5"/>
@@ -1812,17 +1873,18 @@
       <c r="N56" s="5"/>
       <c r="O56" s="5"/>
       <c r="P56" s="5"/>
-      <c r="Q56" s="13"/>
-      <c r="R56" s="13"/>
-      <c r="S56" s="13"/>
-      <c r="T56" s="13"/>
-      <c r="U56" s="13"/>
-    </row>
-    <row r="57" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q56" s="5"/>
+      <c r="R56" s="10"/>
+      <c r="S56" s="10"/>
+      <c r="T56" s="10"/>
+      <c r="U56" s="10"/>
+      <c r="V56" s="10"/>
+    </row>
+    <row r="57" spans="2:22" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B57" s="7"/>
       <c r="C57" s="5"/>
       <c r="D57" s="5"/>
-      <c r="E57" s="5"/>
+      <c r="E57" s="9"/>
       <c r="F57" s="5"/>
       <c r="G57" s="5"/>
       <c r="H57" s="5"/>
@@ -1834,17 +1896,18 @@
       <c r="N57" s="5"/>
       <c r="O57" s="5"/>
       <c r="P57" s="5"/>
-      <c r="Q57" s="13"/>
-      <c r="R57" s="13"/>
-      <c r="S57" s="13"/>
-      <c r="T57" s="13"/>
-      <c r="U57" s="13"/>
-    </row>
-    <row r="58" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q57" s="5"/>
+      <c r="R57" s="10"/>
+      <c r="S57" s="10"/>
+      <c r="T57" s="10"/>
+      <c r="U57" s="10"/>
+      <c r="V57" s="10"/>
+    </row>
+    <row r="58" spans="2:22" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B58" s="7"/>
       <c r="C58" s="5"/>
       <c r="D58" s="5"/>
-      <c r="E58" s="5"/>
+      <c r="E58" s="9"/>
       <c r="F58" s="5"/>
       <c r="G58" s="5"/>
       <c r="H58" s="5"/>
@@ -1856,17 +1919,18 @@
       <c r="N58" s="5"/>
       <c r="O58" s="5"/>
       <c r="P58" s="5"/>
-      <c r="Q58" s="13"/>
-      <c r="R58" s="13"/>
-      <c r="S58" s="13"/>
-      <c r="T58" s="13"/>
-      <c r="U58" s="13"/>
-    </row>
-    <row r="59" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q58" s="5"/>
+      <c r="R58" s="10"/>
+      <c r="S58" s="10"/>
+      <c r="T58" s="10"/>
+      <c r="U58" s="10"/>
+      <c r="V58" s="10"/>
+    </row>
+    <row r="59" spans="2:22" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B59" s="7"/>
       <c r="C59" s="5"/>
       <c r="D59" s="5"/>
-      <c r="E59" s="5"/>
+      <c r="E59" s="9"/>
       <c r="F59" s="5"/>
       <c r="G59" s="5"/>
       <c r="H59" s="5"/>
@@ -1878,17 +1942,18 @@
       <c r="N59" s="5"/>
       <c r="O59" s="5"/>
       <c r="P59" s="5"/>
-      <c r="Q59" s="13"/>
-      <c r="R59" s="13"/>
-      <c r="S59" s="13"/>
-      <c r="T59" s="13"/>
-      <c r="U59" s="13"/>
-    </row>
-    <row r="60" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q59" s="5"/>
+      <c r="R59" s="10"/>
+      <c r="S59" s="10"/>
+      <c r="T59" s="10"/>
+      <c r="U59" s="10"/>
+      <c r="V59" s="10"/>
+    </row>
+    <row r="60" spans="2:22" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B60" s="7"/>
       <c r="C60" s="5"/>
       <c r="D60" s="5"/>
-      <c r="E60" s="5"/>
+      <c r="E60" s="9"/>
       <c r="F60" s="5"/>
       <c r="G60" s="5"/>
       <c r="H60" s="5"/>
@@ -1900,17 +1965,18 @@
       <c r="N60" s="5"/>
       <c r="O60" s="5"/>
       <c r="P60" s="5"/>
-      <c r="Q60" s="13"/>
-      <c r="R60" s="13"/>
-      <c r="S60" s="13"/>
-      <c r="T60" s="13"/>
-      <c r="U60" s="13"/>
-    </row>
-    <row r="61" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q60" s="5"/>
+      <c r="R60" s="10"/>
+      <c r="S60" s="10"/>
+      <c r="T60" s="10"/>
+      <c r="U60" s="10"/>
+      <c r="V60" s="10"/>
+    </row>
+    <row r="61" spans="2:22" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B61" s="7"/>
       <c r="C61" s="5"/>
       <c r="D61" s="5"/>
-      <c r="E61" s="5"/>
+      <c r="E61" s="9"/>
       <c r="F61" s="5"/>
       <c r="G61" s="5"/>
       <c r="H61" s="5"/>
@@ -1922,17 +1988,18 @@
       <c r="N61" s="5"/>
       <c r="O61" s="5"/>
       <c r="P61" s="5"/>
-      <c r="Q61" s="13"/>
-      <c r="R61" s="13"/>
-      <c r="S61" s="13"/>
-      <c r="T61" s="13"/>
-      <c r="U61" s="13"/>
-    </row>
-    <row r="62" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q61" s="5"/>
+      <c r="R61" s="10"/>
+      <c r="S61" s="10"/>
+      <c r="T61" s="10"/>
+      <c r="U61" s="10"/>
+      <c r="V61" s="10"/>
+    </row>
+    <row r="62" spans="2:22" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B62" s="7"/>
       <c r="C62" s="5"/>
       <c r="D62" s="5"/>
-      <c r="E62" s="5"/>
+      <c r="E62" s="9"/>
       <c r="F62" s="5"/>
       <c r="G62" s="5"/>
       <c r="H62" s="5"/>
@@ -1944,17 +2011,18 @@
       <c r="N62" s="5"/>
       <c r="O62" s="5"/>
       <c r="P62" s="5"/>
-      <c r="Q62" s="13"/>
-      <c r="R62" s="13"/>
-      <c r="S62" s="13"/>
-      <c r="T62" s="13"/>
-      <c r="U62" s="13"/>
-    </row>
-    <row r="63" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q62" s="5"/>
+      <c r="R62" s="10"/>
+      <c r="S62" s="10"/>
+      <c r="T62" s="10"/>
+      <c r="U62" s="10"/>
+      <c r="V62" s="10"/>
+    </row>
+    <row r="63" spans="2:22" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B63" s="7"/>
       <c r="C63" s="5"/>
       <c r="D63" s="5"/>
-      <c r="E63" s="5"/>
+      <c r="E63" s="9"/>
       <c r="F63" s="5"/>
       <c r="G63" s="5"/>
       <c r="H63" s="5"/>
@@ -1966,17 +2034,18 @@
       <c r="N63" s="5"/>
       <c r="O63" s="5"/>
       <c r="P63" s="5"/>
-      <c r="Q63" s="13"/>
-      <c r="R63" s="13"/>
-      <c r="S63" s="13"/>
-      <c r="T63" s="13"/>
-      <c r="U63" s="13"/>
-    </row>
-    <row r="64" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q63" s="5"/>
+      <c r="R63" s="10"/>
+      <c r="S63" s="10"/>
+      <c r="T63" s="10"/>
+      <c r="U63" s="10"/>
+      <c r="V63" s="10"/>
+    </row>
+    <row r="64" spans="2:22" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B64" s="7"/>
       <c r="C64" s="5"/>
       <c r="D64" s="5"/>
-      <c r="E64" s="5"/>
+      <c r="E64" s="9"/>
       <c r="F64" s="5"/>
       <c r="G64" s="5"/>
       <c r="H64" s="5"/>
@@ -1988,17 +2057,18 @@
       <c r="N64" s="5"/>
       <c r="O64" s="5"/>
       <c r="P64" s="5"/>
-      <c r="Q64" s="13"/>
-      <c r="R64" s="13"/>
-      <c r="S64" s="13"/>
-      <c r="T64" s="13"/>
-      <c r="U64" s="13"/>
-    </row>
-    <row r="65" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q64" s="5"/>
+      <c r="R64" s="10"/>
+      <c r="S64" s="10"/>
+      <c r="T64" s="10"/>
+      <c r="U64" s="10"/>
+      <c r="V64" s="10"/>
+    </row>
+    <row r="65" spans="2:22" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B65" s="7"/>
       <c r="C65" s="5"/>
       <c r="D65" s="5"/>
-      <c r="E65" s="5"/>
+      <c r="E65" s="9"/>
       <c r="F65" s="5"/>
       <c r="G65" s="5"/>
       <c r="H65" s="5"/>
@@ -2010,17 +2080,18 @@
       <c r="N65" s="5"/>
       <c r="O65" s="5"/>
       <c r="P65" s="5"/>
-      <c r="Q65" s="13"/>
-      <c r="R65" s="13"/>
-      <c r="S65" s="13"/>
-      <c r="T65" s="13"/>
-      <c r="U65" s="13"/>
-    </row>
-    <row r="66" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q65" s="5"/>
+      <c r="R65" s="10"/>
+      <c r="S65" s="10"/>
+      <c r="T65" s="10"/>
+      <c r="U65" s="10"/>
+      <c r="V65" s="10"/>
+    </row>
+    <row r="66" spans="2:22" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B66" s="7"/>
       <c r="C66" s="5"/>
       <c r="D66" s="5"/>
-      <c r="E66" s="5"/>
+      <c r="E66" s="9"/>
       <c r="F66" s="5"/>
       <c r="G66" s="5"/>
       <c r="H66" s="5"/>
@@ -2032,17 +2103,18 @@
       <c r="N66" s="5"/>
       <c r="O66" s="5"/>
       <c r="P66" s="5"/>
-      <c r="Q66" s="13"/>
-      <c r="R66" s="13"/>
-      <c r="S66" s="13"/>
-      <c r="T66" s="13"/>
-      <c r="U66" s="13"/>
-    </row>
-    <row r="67" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q66" s="5"/>
+      <c r="R66" s="10"/>
+      <c r="S66" s="10"/>
+      <c r="T66" s="10"/>
+      <c r="U66" s="10"/>
+      <c r="V66" s="10"/>
+    </row>
+    <row r="67" spans="2:22" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B67" s="7"/>
       <c r="C67" s="5"/>
       <c r="D67" s="5"/>
-      <c r="E67" s="5"/>
+      <c r="E67" s="9"/>
       <c r="F67" s="5"/>
       <c r="G67" s="5"/>
       <c r="H67" s="5"/>
@@ -2054,17 +2126,18 @@
       <c r="N67" s="5"/>
       <c r="O67" s="5"/>
       <c r="P67" s="5"/>
-      <c r="Q67" s="13"/>
-      <c r="R67" s="13"/>
-      <c r="S67" s="13"/>
-      <c r="T67" s="13"/>
-      <c r="U67" s="13"/>
-    </row>
-    <row r="68" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q67" s="5"/>
+      <c r="R67" s="10"/>
+      <c r="S67" s="10"/>
+      <c r="T67" s="10"/>
+      <c r="U67" s="10"/>
+      <c r="V67" s="10"/>
+    </row>
+    <row r="68" spans="2:22" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B68" s="7"/>
       <c r="C68" s="5"/>
       <c r="D68" s="5"/>
-      <c r="E68" s="5"/>
+      <c r="E68" s="9"/>
       <c r="F68" s="5"/>
       <c r="G68" s="5"/>
       <c r="H68" s="5"/>
@@ -2076,17 +2149,18 @@
       <c r="N68" s="5"/>
       <c r="O68" s="5"/>
       <c r="P68" s="5"/>
-      <c r="Q68" s="13"/>
-      <c r="R68" s="13"/>
-      <c r="S68" s="13"/>
-      <c r="T68" s="13"/>
-      <c r="U68" s="13"/>
-    </row>
-    <row r="69" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q68" s="5"/>
+      <c r="R68" s="10"/>
+      <c r="S68" s="10"/>
+      <c r="T68" s="10"/>
+      <c r="U68" s="10"/>
+      <c r="V68" s="10"/>
+    </row>
+    <row r="69" spans="2:22" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B69" s="7"/>
       <c r="C69" s="5"/>
       <c r="D69" s="5"/>
-      <c r="E69" s="5"/>
+      <c r="E69" s="9"/>
       <c r="F69" s="5"/>
       <c r="G69" s="5"/>
       <c r="H69" s="5"/>
@@ -2098,13 +2172,14 @@
       <c r="N69" s="5"/>
       <c r="O69" s="5"/>
       <c r="P69" s="5"/>
-      <c r="Q69" s="13"/>
-      <c r="R69" s="13"/>
-      <c r="S69" s="13"/>
-      <c r="T69" s="13"/>
-      <c r="U69" s="13"/>
-    </row>
-    <row r="70" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q69" s="5"/>
+      <c r="R69" s="10"/>
+      <c r="S69" s="10"/>
+      <c r="T69" s="10"/>
+      <c r="U69" s="10"/>
+      <c r="V69" s="10"/>
+    </row>
+    <row r="70" spans="2:22" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B70" s="7"/>
       <c r="C70" s="8"/>
       <c r="D70" s="8"/>
@@ -2120,13 +2195,14 @@
       <c r="N70" s="8"/>
       <c r="O70" s="8"/>
       <c r="P70" s="8"/>
-      <c r="Q70" s="14"/>
-      <c r="R70" s="14"/>
-      <c r="S70" s="14"/>
-      <c r="T70" s="14"/>
-      <c r="U70" s="13"/>
-    </row>
-    <row r="71" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q70" s="8"/>
+      <c r="R70" s="11"/>
+      <c r="S70" s="11"/>
+      <c r="T70" s="11"/>
+      <c r="U70" s="11"/>
+      <c r="V70" s="10"/>
+    </row>
+    <row r="71" spans="2:22" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B71" s="7"/>
       <c r="C71" s="8"/>
       <c r="D71" s="8"/>
@@ -2142,13 +2218,14 @@
       <c r="N71" s="8"/>
       <c r="O71" s="8"/>
       <c r="P71" s="8"/>
-      <c r="Q71" s="14"/>
-      <c r="R71" s="14"/>
-      <c r="S71" s="14"/>
-      <c r="T71" s="14"/>
-      <c r="U71" s="13"/>
-    </row>
-    <row r="72" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q71" s="8"/>
+      <c r="R71" s="11"/>
+      <c r="S71" s="11"/>
+      <c r="T71" s="11"/>
+      <c r="U71" s="11"/>
+      <c r="V71" s="10"/>
+    </row>
+    <row r="72" spans="2:22" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B72" s="7"/>
       <c r="C72" s="8"/>
       <c r="D72" s="8"/>
@@ -2164,13 +2241,14 @@
       <c r="N72" s="8"/>
       <c r="O72" s="8"/>
       <c r="P72" s="8"/>
-      <c r="Q72" s="14"/>
-      <c r="R72" s="14"/>
-      <c r="S72" s="14"/>
-      <c r="T72" s="14"/>
-      <c r="U72" s="13"/>
-    </row>
-    <row r="73" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q72" s="8"/>
+      <c r="R72" s="11"/>
+      <c r="S72" s="11"/>
+      <c r="T72" s="11"/>
+      <c r="U72" s="11"/>
+      <c r="V72" s="10"/>
+    </row>
+    <row r="73" spans="2:22" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B73" s="7"/>
       <c r="C73" s="8"/>
       <c r="D73" s="8"/>
@@ -2186,13 +2264,14 @@
       <c r="N73" s="8"/>
       <c r="O73" s="8"/>
       <c r="P73" s="8"/>
-      <c r="Q73" s="14"/>
-      <c r="R73" s="14"/>
-      <c r="S73" s="14"/>
-      <c r="T73" s="14"/>
-      <c r="U73" s="13"/>
-    </row>
-    <row r="74" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q73" s="8"/>
+      <c r="R73" s="11"/>
+      <c r="S73" s="11"/>
+      <c r="T73" s="11"/>
+      <c r="U73" s="11"/>
+      <c r="V73" s="10"/>
+    </row>
+    <row r="74" spans="2:22" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B74" s="7"/>
       <c r="C74" s="8"/>
       <c r="D74" s="8"/>
@@ -2208,13 +2287,14 @@
       <c r="N74" s="8"/>
       <c r="O74" s="8"/>
       <c r="P74" s="8"/>
-      <c r="Q74" s="14"/>
-      <c r="R74" s="14"/>
-      <c r="S74" s="14"/>
-      <c r="T74" s="14"/>
-      <c r="U74" s="13"/>
-    </row>
-    <row r="75" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q74" s="8"/>
+      <c r="R74" s="11"/>
+      <c r="S74" s="11"/>
+      <c r="T74" s="11"/>
+      <c r="U74" s="11"/>
+      <c r="V74" s="10"/>
+    </row>
+    <row r="75" spans="2:22" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B75" s="7"/>
       <c r="C75" s="8"/>
       <c r="D75" s="8"/>
@@ -2230,13 +2310,14 @@
       <c r="N75" s="8"/>
       <c r="O75" s="8"/>
       <c r="P75" s="8"/>
-      <c r="Q75" s="14"/>
-      <c r="R75" s="14"/>
-      <c r="S75" s="14"/>
-      <c r="T75" s="14"/>
-      <c r="U75" s="13"/>
-    </row>
-    <row r="76" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q75" s="8"/>
+      <c r="R75" s="11"/>
+      <c r="S75" s="11"/>
+      <c r="T75" s="11"/>
+      <c r="U75" s="11"/>
+      <c r="V75" s="10"/>
+    </row>
+    <row r="76" spans="2:22" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B76" s="7"/>
       <c r="C76" s="8"/>
       <c r="D76" s="8"/>
@@ -2252,13 +2333,14 @@
       <c r="N76" s="8"/>
       <c r="O76" s="8"/>
       <c r="P76" s="8"/>
-      <c r="Q76" s="14"/>
-      <c r="R76" s="14"/>
-      <c r="S76" s="14"/>
-      <c r="T76" s="14"/>
-      <c r="U76" s="13"/>
-    </row>
-    <row r="77" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q76" s="8"/>
+      <c r="R76" s="11"/>
+      <c r="S76" s="11"/>
+      <c r="T76" s="11"/>
+      <c r="U76" s="11"/>
+      <c r="V76" s="10"/>
+    </row>
+    <row r="77" spans="2:22" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B77" s="7"/>
       <c r="C77" s="8"/>
       <c r="D77" s="8"/>
@@ -2274,13 +2356,14 @@
       <c r="N77" s="8"/>
       <c r="O77" s="8"/>
       <c r="P77" s="8"/>
-      <c r="Q77" s="14"/>
-      <c r="R77" s="14"/>
-      <c r="S77" s="14"/>
-      <c r="T77" s="14"/>
-      <c r="U77" s="13"/>
-    </row>
-    <row r="78" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q77" s="8"/>
+      <c r="R77" s="11"/>
+      <c r="S77" s="11"/>
+      <c r="T77" s="11"/>
+      <c r="U77" s="11"/>
+      <c r="V77" s="10"/>
+    </row>
+    <row r="78" spans="2:22" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B78" s="7"/>
       <c r="C78" s="8"/>
       <c r="D78" s="8"/>
@@ -2296,13 +2379,14 @@
       <c r="N78" s="8"/>
       <c r="O78" s="8"/>
       <c r="P78" s="8"/>
-      <c r="Q78" s="14"/>
-      <c r="R78" s="14"/>
-      <c r="S78" s="14"/>
-      <c r="T78" s="14"/>
-      <c r="U78" s="13"/>
-    </row>
-    <row r="79" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q78" s="8"/>
+      <c r="R78" s="11"/>
+      <c r="S78" s="11"/>
+      <c r="T78" s="11"/>
+      <c r="U78" s="11"/>
+      <c r="V78" s="10"/>
+    </row>
+    <row r="79" spans="2:22" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B79" s="7"/>
       <c r="C79" s="8"/>
       <c r="D79" s="8"/>
@@ -2318,13 +2402,14 @@
       <c r="N79" s="8"/>
       <c r="O79" s="8"/>
       <c r="P79" s="8"/>
-      <c r="Q79" s="14"/>
-      <c r="R79" s="14"/>
-      <c r="S79" s="14"/>
-      <c r="T79" s="14"/>
-      <c r="U79" s="13"/>
-    </row>
-    <row r="80" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q79" s="8"/>
+      <c r="R79" s="11"/>
+      <c r="S79" s="11"/>
+      <c r="T79" s="11"/>
+      <c r="U79" s="11"/>
+      <c r="V79" s="10"/>
+    </row>
+    <row r="80" spans="2:22" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B80" s="7"/>
       <c r="C80" s="8"/>
       <c r="D80" s="8"/>
@@ -2340,13 +2425,14 @@
       <c r="N80" s="8"/>
       <c r="O80" s="8"/>
       <c r="P80" s="8"/>
-      <c r="Q80" s="14"/>
-      <c r="R80" s="14"/>
-      <c r="S80" s="14"/>
-      <c r="T80" s="14"/>
-      <c r="U80" s="13"/>
-    </row>
-    <row r="81" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q80" s="8"/>
+      <c r="R80" s="11"/>
+      <c r="S80" s="11"/>
+      <c r="T80" s="11"/>
+      <c r="U80" s="11"/>
+      <c r="V80" s="10"/>
+    </row>
+    <row r="81" spans="2:22" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B81" s="7"/>
       <c r="C81" s="8"/>
       <c r="D81" s="8"/>
@@ -2362,13 +2448,14 @@
       <c r="N81" s="8"/>
       <c r="O81" s="8"/>
       <c r="P81" s="8"/>
-      <c r="Q81" s="14"/>
-      <c r="R81" s="14"/>
-      <c r="S81" s="14"/>
-      <c r="T81" s="14"/>
-      <c r="U81" s="13"/>
-    </row>
-    <row r="82" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q81" s="8"/>
+      <c r="R81" s="11"/>
+      <c r="S81" s="11"/>
+      <c r="T81" s="11"/>
+      <c r="U81" s="11"/>
+      <c r="V81" s="10"/>
+    </row>
+    <row r="82" spans="2:22" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B82" s="7"/>
       <c r="C82" s="8"/>
       <c r="D82" s="8"/>
@@ -2384,13 +2471,14 @@
       <c r="N82" s="8"/>
       <c r="O82" s="8"/>
       <c r="P82" s="8"/>
-      <c r="Q82" s="14"/>
-      <c r="R82" s="14"/>
-      <c r="S82" s="14"/>
-      <c r="T82" s="14"/>
-      <c r="U82" s="13"/>
-    </row>
-    <row r="83" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q82" s="8"/>
+      <c r="R82" s="11"/>
+      <c r="S82" s="11"/>
+      <c r="T82" s="11"/>
+      <c r="U82" s="11"/>
+      <c r="V82" s="10"/>
+    </row>
+    <row r="83" spans="2:22" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B83" s="7"/>
       <c r="C83" s="8"/>
       <c r="D83" s="8"/>
@@ -2406,13 +2494,14 @@
       <c r="N83" s="8"/>
       <c r="O83" s="8"/>
       <c r="P83" s="8"/>
-      <c r="Q83" s="14"/>
-      <c r="R83" s="14"/>
-      <c r="S83" s="14"/>
-      <c r="T83" s="14"/>
-      <c r="U83" s="13"/>
-    </row>
-    <row r="84" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q83" s="8"/>
+      <c r="R83" s="11"/>
+      <c r="S83" s="11"/>
+      <c r="T83" s="11"/>
+      <c r="U83" s="11"/>
+      <c r="V83" s="10"/>
+    </row>
+    <row r="84" spans="2:22" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B84" s="7"/>
       <c r="C84" s="8"/>
       <c r="D84" s="8"/>
@@ -2428,13 +2517,14 @@
       <c r="N84" s="8"/>
       <c r="O84" s="8"/>
       <c r="P84" s="8"/>
-      <c r="Q84" s="14"/>
-      <c r="R84" s="14"/>
-      <c r="S84" s="14"/>
-      <c r="T84" s="14"/>
-      <c r="U84" s="13"/>
-    </row>
-    <row r="85" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q84" s="8"/>
+      <c r="R84" s="11"/>
+      <c r="S84" s="11"/>
+      <c r="T84" s="11"/>
+      <c r="U84" s="11"/>
+      <c r="V84" s="10"/>
+    </row>
+    <row r="85" spans="2:22" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B85" s="7"/>
       <c r="C85" s="8"/>
       <c r="D85" s="8"/>
@@ -2450,13 +2540,14 @@
       <c r="N85" s="8"/>
       <c r="O85" s="8"/>
       <c r="P85" s="8"/>
-      <c r="Q85" s="14"/>
-      <c r="R85" s="14"/>
-      <c r="S85" s="14"/>
-      <c r="T85" s="14"/>
-      <c r="U85" s="13"/>
-    </row>
-    <row r="86" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q85" s="8"/>
+      <c r="R85" s="11"/>
+      <c r="S85" s="11"/>
+      <c r="T85" s="11"/>
+      <c r="U85" s="11"/>
+      <c r="V85" s="10"/>
+    </row>
+    <row r="86" spans="2:22" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B86" s="7"/>
       <c r="C86" s="8"/>
       <c r="D86" s="8"/>
@@ -2472,13 +2563,14 @@
       <c r="N86" s="8"/>
       <c r="O86" s="8"/>
       <c r="P86" s="8"/>
-      <c r="Q86" s="14"/>
-      <c r="R86" s="14"/>
-      <c r="S86" s="14"/>
-      <c r="T86" s="14"/>
-      <c r="U86" s="13"/>
-    </row>
-    <row r="87" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q86" s="8"/>
+      <c r="R86" s="11"/>
+      <c r="S86" s="11"/>
+      <c r="T86" s="11"/>
+      <c r="U86" s="11"/>
+      <c r="V86" s="10"/>
+    </row>
+    <row r="87" spans="2:22" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B87" s="7"/>
       <c r="C87" s="8"/>
       <c r="D87" s="8"/>
@@ -2494,13 +2586,14 @@
       <c r="N87" s="8"/>
       <c r="O87" s="8"/>
       <c r="P87" s="8"/>
-      <c r="Q87" s="14"/>
-      <c r="R87" s="14"/>
-      <c r="S87" s="14"/>
-      <c r="T87" s="14"/>
-      <c r="U87" s="13"/>
-    </row>
-    <row r="88" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q87" s="8"/>
+      <c r="R87" s="11"/>
+      <c r="S87" s="11"/>
+      <c r="T87" s="11"/>
+      <c r="U87" s="11"/>
+      <c r="V87" s="10"/>
+    </row>
+    <row r="88" spans="2:22" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B88" s="7"/>
       <c r="C88" s="8"/>
       <c r="D88" s="8"/>
@@ -2516,13 +2609,14 @@
       <c r="N88" s="8"/>
       <c r="O88" s="8"/>
       <c r="P88" s="8"/>
-      <c r="Q88" s="14"/>
-      <c r="R88" s="14"/>
-      <c r="S88" s="14"/>
-      <c r="T88" s="14"/>
-      <c r="U88" s="13"/>
-    </row>
-    <row r="89" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q88" s="8"/>
+      <c r="R88" s="11"/>
+      <c r="S88" s="11"/>
+      <c r="T88" s="11"/>
+      <c r="U88" s="11"/>
+      <c r="V88" s="10"/>
+    </row>
+    <row r="89" spans="2:22" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B89" s="7"/>
       <c r="C89" s="8"/>
       <c r="D89" s="8"/>
@@ -2538,13 +2632,14 @@
       <c r="N89" s="8"/>
       <c r="O89" s="8"/>
       <c r="P89" s="8"/>
-      <c r="Q89" s="14"/>
-      <c r="R89" s="14"/>
-      <c r="S89" s="14"/>
-      <c r="T89" s="14"/>
-      <c r="U89" s="13"/>
-    </row>
-    <row r="90" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q89" s="8"/>
+      <c r="R89" s="11"/>
+      <c r="S89" s="11"/>
+      <c r="T89" s="11"/>
+      <c r="U89" s="11"/>
+      <c r="V89" s="10"/>
+    </row>
+    <row r="90" spans="2:22" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B90" s="7"/>
       <c r="C90" s="8"/>
       <c r="D90" s="8"/>
@@ -2560,13 +2655,14 @@
       <c r="N90" s="8"/>
       <c r="O90" s="8"/>
       <c r="P90" s="8"/>
-      <c r="Q90" s="14"/>
-      <c r="R90" s="14"/>
-      <c r="S90" s="14"/>
-      <c r="T90" s="14"/>
-      <c r="U90" s="13"/>
-    </row>
-    <row r="91" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q90" s="8"/>
+      <c r="R90" s="11"/>
+      <c r="S90" s="11"/>
+      <c r="T90" s="11"/>
+      <c r="U90" s="11"/>
+      <c r="V90" s="10"/>
+    </row>
+    <row r="91" spans="2:22" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B91" s="7"/>
       <c r="C91" s="8"/>
       <c r="D91" s="8"/>
@@ -2582,13 +2678,14 @@
       <c r="N91" s="8"/>
       <c r="O91" s="8"/>
       <c r="P91" s="8"/>
-      <c r="Q91" s="14"/>
-      <c r="R91" s="14"/>
-      <c r="S91" s="14"/>
-      <c r="T91" s="14"/>
-      <c r="U91" s="13"/>
-    </row>
-    <row r="92" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q91" s="8"/>
+      <c r="R91" s="11"/>
+      <c r="S91" s="11"/>
+      <c r="T91" s="11"/>
+      <c r="U91" s="11"/>
+      <c r="V91" s="10"/>
+    </row>
+    <row r="92" spans="2:22" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B92" s="7"/>
       <c r="C92" s="8"/>
       <c r="D92" s="8"/>
@@ -2604,13 +2701,14 @@
       <c r="N92" s="8"/>
       <c r="O92" s="8"/>
       <c r="P92" s="8"/>
-      <c r="Q92" s="14"/>
-      <c r="R92" s="14"/>
-      <c r="S92" s="14"/>
-      <c r="T92" s="14"/>
-      <c r="U92" s="13"/>
-    </row>
-    <row r="93" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q92" s="8"/>
+      <c r="R92" s="11"/>
+      <c r="S92" s="11"/>
+      <c r="T92" s="11"/>
+      <c r="U92" s="11"/>
+      <c r="V92" s="10"/>
+    </row>
+    <row r="93" spans="2:22" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B93" s="7"/>
       <c r="C93" s="8"/>
       <c r="D93" s="8"/>
@@ -2626,13 +2724,14 @@
       <c r="N93" s="8"/>
       <c r="O93" s="8"/>
       <c r="P93" s="8"/>
-      <c r="Q93" s="14"/>
-      <c r="R93" s="14"/>
-      <c r="S93" s="14"/>
-      <c r="T93" s="14"/>
-      <c r="U93" s="13"/>
-    </row>
-    <row r="94" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q93" s="8"/>
+      <c r="R93" s="11"/>
+      <c r="S93" s="11"/>
+      <c r="T93" s="11"/>
+      <c r="U93" s="11"/>
+      <c r="V93" s="10"/>
+    </row>
+    <row r="94" spans="2:22" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B94" s="7"/>
       <c r="C94" s="8"/>
       <c r="D94" s="8"/>
@@ -2648,13 +2747,14 @@
       <c r="N94" s="8"/>
       <c r="O94" s="8"/>
       <c r="P94" s="8"/>
-      <c r="Q94" s="14"/>
-      <c r="R94" s="14"/>
-      <c r="S94" s="14"/>
-      <c r="T94" s="14"/>
-      <c r="U94" s="13"/>
-    </row>
-    <row r="95" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q94" s="8"/>
+      <c r="R94" s="11"/>
+      <c r="S94" s="11"/>
+      <c r="T94" s="11"/>
+      <c r="U94" s="11"/>
+      <c r="V94" s="10"/>
+    </row>
+    <row r="95" spans="2:22" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B95" s="7"/>
       <c r="C95" s="8"/>
       <c r="D95" s="8"/>
@@ -2670,13 +2770,14 @@
       <c r="N95" s="8"/>
       <c r="O95" s="8"/>
       <c r="P95" s="8"/>
-      <c r="Q95" s="14"/>
-      <c r="R95" s="14"/>
-      <c r="S95" s="14"/>
-      <c r="T95" s="14"/>
-      <c r="U95" s="13"/>
-    </row>
-    <row r="96" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q95" s="8"/>
+      <c r="R95" s="11"/>
+      <c r="S95" s="11"/>
+      <c r="T95" s="11"/>
+      <c r="U95" s="11"/>
+      <c r="V95" s="10"/>
+    </row>
+    <row r="96" spans="2:22" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B96" s="7"/>
       <c r="C96" s="8"/>
       <c r="D96" s="8"/>
@@ -2692,13 +2793,14 @@
       <c r="N96" s="8"/>
       <c r="O96" s="8"/>
       <c r="P96" s="8"/>
-      <c r="Q96" s="14"/>
-      <c r="R96" s="14"/>
-      <c r="S96" s="14"/>
-      <c r="T96" s="14"/>
-      <c r="U96" s="13"/>
-    </row>
-    <row r="97" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q96" s="8"/>
+      <c r="R96" s="11"/>
+      <c r="S96" s="11"/>
+      <c r="T96" s="11"/>
+      <c r="U96" s="11"/>
+      <c r="V96" s="10"/>
+    </row>
+    <row r="97" spans="2:22" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B97" s="7"/>
       <c r="C97" s="8"/>
       <c r="D97" s="8"/>
@@ -2714,13 +2816,14 @@
       <c r="N97" s="8"/>
       <c r="O97" s="8"/>
       <c r="P97" s="8"/>
-      <c r="Q97" s="14"/>
-      <c r="R97" s="14"/>
-      <c r="S97" s="14"/>
-      <c r="T97" s="14"/>
-      <c r="U97" s="13"/>
-    </row>
-    <row r="98" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q97" s="8"/>
+      <c r="R97" s="11"/>
+      <c r="S97" s="11"/>
+      <c r="T97" s="11"/>
+      <c r="U97" s="11"/>
+      <c r="V97" s="10"/>
+    </row>
+    <row r="98" spans="2:22" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B98" s="7"/>
       <c r="C98" s="8"/>
       <c r="D98" s="8"/>
@@ -2736,13 +2839,14 @@
       <c r="N98" s="8"/>
       <c r="O98" s="8"/>
       <c r="P98" s="8"/>
-      <c r="Q98" s="14"/>
-      <c r="R98" s="14"/>
-      <c r="S98" s="14"/>
-      <c r="T98" s="14"/>
-      <c r="U98" s="13"/>
-    </row>
-    <row r="99" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q98" s="8"/>
+      <c r="R98" s="11"/>
+      <c r="S98" s="11"/>
+      <c r="T98" s="11"/>
+      <c r="U98" s="11"/>
+      <c r="V98" s="10"/>
+    </row>
+    <row r="99" spans="2:22" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B99" s="7"/>
       <c r="C99" s="8"/>
       <c r="D99" s="8"/>
@@ -2758,13 +2862,14 @@
       <c r="N99" s="8"/>
       <c r="O99" s="8"/>
       <c r="P99" s="8"/>
-      <c r="Q99" s="14"/>
-      <c r="R99" s="14"/>
-      <c r="S99" s="14"/>
-      <c r="T99" s="14"/>
-      <c r="U99" s="13"/>
-    </row>
-    <row r="100" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q99" s="8"/>
+      <c r="R99" s="11"/>
+      <c r="S99" s="11"/>
+      <c r="T99" s="11"/>
+      <c r="U99" s="11"/>
+      <c r="V99" s="10"/>
+    </row>
+    <row r="100" spans="2:22" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B100" s="7"/>
       <c r="C100" s="8"/>
       <c r="D100" s="8"/>
@@ -2780,13 +2885,14 @@
       <c r="N100" s="8"/>
       <c r="O100" s="8"/>
       <c r="P100" s="8"/>
-      <c r="Q100" s="14"/>
-      <c r="R100" s="14"/>
-      <c r="S100" s="14"/>
-      <c r="T100" s="14"/>
-      <c r="U100" s="13"/>
-    </row>
-    <row r="101" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q100" s="8"/>
+      <c r="R100" s="11"/>
+      <c r="S100" s="11"/>
+      <c r="T100" s="11"/>
+      <c r="U100" s="11"/>
+      <c r="V100" s="10"/>
+    </row>
+    <row r="101" spans="2:22" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B101" s="7"/>
       <c r="C101" s="8"/>
       <c r="D101" s="8"/>
@@ -2802,13 +2908,14 @@
       <c r="N101" s="8"/>
       <c r="O101" s="8"/>
       <c r="P101" s="8"/>
-      <c r="Q101" s="14"/>
-      <c r="R101" s="14"/>
-      <c r="S101" s="14"/>
-      <c r="T101" s="14"/>
-      <c r="U101" s="13"/>
-    </row>
-    <row r="102" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q101" s="8"/>
+      <c r="R101" s="11"/>
+      <c r="S101" s="11"/>
+      <c r="T101" s="11"/>
+      <c r="U101" s="11"/>
+      <c r="V101" s="10"/>
+    </row>
+    <row r="102" spans="2:22" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B102" s="7"/>
       <c r="C102" s="8"/>
       <c r="D102" s="8"/>
@@ -2824,13 +2931,14 @@
       <c r="N102" s="8"/>
       <c r="O102" s="8"/>
       <c r="P102" s="8"/>
-      <c r="Q102" s="14"/>
-      <c r="R102" s="14"/>
-      <c r="S102" s="14"/>
-      <c r="T102" s="14"/>
-      <c r="U102" s="13"/>
-    </row>
-    <row r="103" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q102" s="8"/>
+      <c r="R102" s="11"/>
+      <c r="S102" s="11"/>
+      <c r="T102" s="11"/>
+      <c r="U102" s="11"/>
+      <c r="V102" s="10"/>
+    </row>
+    <row r="103" spans="2:22" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B103" s="7"/>
       <c r="C103" s="8"/>
       <c r="D103" s="8"/>
@@ -2846,13 +2954,14 @@
       <c r="N103" s="8"/>
       <c r="O103" s="8"/>
       <c r="P103" s="8"/>
-      <c r="Q103" s="14"/>
-      <c r="R103" s="14"/>
-      <c r="S103" s="14"/>
-      <c r="T103" s="14"/>
-      <c r="U103" s="13"/>
-    </row>
-    <row r="104" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q103" s="8"/>
+      <c r="R103" s="11"/>
+      <c r="S103" s="11"/>
+      <c r="T103" s="11"/>
+      <c r="U103" s="11"/>
+      <c r="V103" s="10"/>
+    </row>
+    <row r="104" spans="2:22" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B104" s="7"/>
       <c r="C104" s="8"/>
       <c r="D104" s="8"/>
@@ -2868,13 +2977,14 @@
       <c r="N104" s="8"/>
       <c r="O104" s="8"/>
       <c r="P104" s="8"/>
-      <c r="Q104" s="14"/>
-      <c r="R104" s="14"/>
-      <c r="S104" s="14"/>
-      <c r="T104" s="14"/>
-      <c r="U104" s="13"/>
-    </row>
-    <row r="105" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q104" s="8"/>
+      <c r="R104" s="11"/>
+      <c r="S104" s="11"/>
+      <c r="T104" s="11"/>
+      <c r="U104" s="11"/>
+      <c r="V104" s="10"/>
+    </row>
+    <row r="105" spans="2:22" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B105" s="7"/>
       <c r="C105" s="8"/>
       <c r="D105" s="8"/>
@@ -2890,13 +3000,14 @@
       <c r="N105" s="8"/>
       <c r="O105" s="8"/>
       <c r="P105" s="8"/>
-      <c r="Q105" s="14"/>
-      <c r="R105" s="14"/>
-      <c r="S105" s="14"/>
-      <c r="T105" s="14"/>
-      <c r="U105" s="13"/>
-    </row>
-    <row r="106" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q105" s="8"/>
+      <c r="R105" s="11"/>
+      <c r="S105" s="11"/>
+      <c r="T105" s="11"/>
+      <c r="U105" s="11"/>
+      <c r="V105" s="10"/>
+    </row>
+    <row r="106" spans="2:22" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B106" s="7"/>
       <c r="C106" s="8"/>
       <c r="D106" s="8"/>
@@ -2912,13 +3023,14 @@
       <c r="N106" s="8"/>
       <c r="O106" s="8"/>
       <c r="P106" s="8"/>
-      <c r="Q106" s="14"/>
-      <c r="R106" s="14"/>
-      <c r="S106" s="14"/>
-      <c r="T106" s="14"/>
-      <c r="U106" s="13"/>
-    </row>
-    <row r="107" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q106" s="8"/>
+      <c r="R106" s="11"/>
+      <c r="S106" s="11"/>
+      <c r="T106" s="11"/>
+      <c r="U106" s="11"/>
+      <c r="V106" s="10"/>
+    </row>
+    <row r="107" spans="2:22" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B107" s="7"/>
       <c r="C107" s="8"/>
       <c r="D107" s="8"/>
@@ -2934,13 +3046,14 @@
       <c r="N107" s="8"/>
       <c r="O107" s="8"/>
       <c r="P107" s="8"/>
-      <c r="Q107" s="14"/>
-      <c r="R107" s="14"/>
-      <c r="S107" s="14"/>
-      <c r="T107" s="14"/>
-      <c r="U107" s="13"/>
-    </row>
-    <row r="108" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q107" s="8"/>
+      <c r="R107" s="11"/>
+      <c r="S107" s="11"/>
+      <c r="T107" s="11"/>
+      <c r="U107" s="11"/>
+      <c r="V107" s="10"/>
+    </row>
+    <row r="108" spans="2:22" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B108" s="7"/>
       <c r="C108" s="8"/>
       <c r="D108" s="8"/>
@@ -2956,13 +3069,14 @@
       <c r="N108" s="8"/>
       <c r="O108" s="8"/>
       <c r="P108" s="8"/>
-      <c r="Q108" s="14"/>
-      <c r="R108" s="14"/>
-      <c r="S108" s="14"/>
-      <c r="T108" s="14"/>
-      <c r="U108" s="13"/>
-    </row>
-    <row r="109" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q108" s="8"/>
+      <c r="R108" s="11"/>
+      <c r="S108" s="11"/>
+      <c r="T108" s="11"/>
+      <c r="U108" s="11"/>
+      <c r="V108" s="10"/>
+    </row>
+    <row r="109" spans="2:22" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B109" s="7"/>
       <c r="C109" s="8"/>
       <c r="D109" s="8"/>
@@ -2978,13 +3092,14 @@
       <c r="N109" s="8"/>
       <c r="O109" s="8"/>
       <c r="P109" s="8"/>
-      <c r="Q109" s="14"/>
-      <c r="R109" s="14"/>
-      <c r="S109" s="14"/>
-      <c r="T109" s="14"/>
-      <c r="U109" s="13"/>
-    </row>
-    <row r="110" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q109" s="8"/>
+      <c r="R109" s="11"/>
+      <c r="S109" s="11"/>
+      <c r="T109" s="11"/>
+      <c r="U109" s="11"/>
+      <c r="V109" s="10"/>
+    </row>
+    <row r="110" spans="2:22" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B110" s="7"/>
       <c r="C110" s="8"/>
       <c r="D110" s="8"/>
@@ -3000,13 +3115,14 @@
       <c r="N110" s="8"/>
       <c r="O110" s="8"/>
       <c r="P110" s="8"/>
-      <c r="Q110" s="14"/>
-      <c r="R110" s="14"/>
-      <c r="S110" s="14"/>
-      <c r="T110" s="14"/>
-      <c r="U110" s="13"/>
-    </row>
-    <row r="111" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q110" s="8"/>
+      <c r="R110" s="11"/>
+      <c r="S110" s="11"/>
+      <c r="T110" s="11"/>
+      <c r="U110" s="11"/>
+      <c r="V110" s="10"/>
+    </row>
+    <row r="111" spans="2:22" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B111" s="7"/>
       <c r="C111" s="8"/>
       <c r="D111" s="8"/>
@@ -3022,13 +3138,14 @@
       <c r="N111" s="8"/>
       <c r="O111" s="8"/>
       <c r="P111" s="8"/>
-      <c r="Q111" s="14"/>
-      <c r="R111" s="14"/>
-      <c r="S111" s="14"/>
-      <c r="T111" s="14"/>
-      <c r="U111" s="13"/>
-    </row>
-    <row r="112" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q111" s="8"/>
+      <c r="R111" s="11"/>
+      <c r="S111" s="11"/>
+      <c r="T111" s="11"/>
+      <c r="U111" s="11"/>
+      <c r="V111" s="10"/>
+    </row>
+    <row r="112" spans="2:22" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B112" s="7"/>
       <c r="C112" s="8"/>
       <c r="D112" s="8"/>
@@ -3044,13 +3161,14 @@
       <c r="N112" s="8"/>
       <c r="O112" s="8"/>
       <c r="P112" s="8"/>
-      <c r="Q112" s="14"/>
-      <c r="R112" s="14"/>
-      <c r="S112" s="14"/>
-      <c r="T112" s="14"/>
-      <c r="U112" s="13"/>
-    </row>
-    <row r="113" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q112" s="8"/>
+      <c r="R112" s="11"/>
+      <c r="S112" s="11"/>
+      <c r="T112" s="11"/>
+      <c r="U112" s="11"/>
+      <c r="V112" s="10"/>
+    </row>
+    <row r="113" spans="2:22" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B113" s="7"/>
       <c r="C113" s="8"/>
       <c r="D113" s="8"/>
@@ -3066,13 +3184,14 @@
       <c r="N113" s="8"/>
       <c r="O113" s="8"/>
       <c r="P113" s="8"/>
-      <c r="Q113" s="14"/>
-      <c r="R113" s="14"/>
-      <c r="S113" s="14"/>
-      <c r="T113" s="14"/>
-      <c r="U113" s="13"/>
-    </row>
-    <row r="114" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q113" s="8"/>
+      <c r="R113" s="11"/>
+      <c r="S113" s="11"/>
+      <c r="T113" s="11"/>
+      <c r="U113" s="11"/>
+      <c r="V113" s="10"/>
+    </row>
+    <row r="114" spans="2:22" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B114" s="7"/>
       <c r="C114" s="8"/>
       <c r="D114" s="8"/>
@@ -3088,13 +3207,14 @@
       <c r="N114" s="8"/>
       <c r="O114" s="8"/>
       <c r="P114" s="8"/>
-      <c r="Q114" s="14"/>
-      <c r="R114" s="14"/>
-      <c r="S114" s="14"/>
-      <c r="T114" s="14"/>
-      <c r="U114" s="13"/>
-    </row>
-    <row r="115" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q114" s="8"/>
+      <c r="R114" s="11"/>
+      <c r="S114" s="11"/>
+      <c r="T114" s="11"/>
+      <c r="U114" s="11"/>
+      <c r="V114" s="10"/>
+    </row>
+    <row r="115" spans="2:22" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B115" s="7"/>
       <c r="C115" s="8"/>
       <c r="D115" s="8"/>
@@ -3110,13 +3230,14 @@
       <c r="N115" s="8"/>
       <c r="O115" s="8"/>
       <c r="P115" s="8"/>
-      <c r="Q115" s="14"/>
-      <c r="R115" s="14"/>
-      <c r="S115" s="14"/>
-      <c r="T115" s="14"/>
-      <c r="U115" s="13"/>
-    </row>
-    <row r="116" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q115" s="8"/>
+      <c r="R115" s="11"/>
+      <c r="S115" s="11"/>
+      <c r="T115" s="11"/>
+      <c r="U115" s="11"/>
+      <c r="V115" s="10"/>
+    </row>
+    <row r="116" spans="2:22" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B116" s="7"/>
       <c r="C116" s="8"/>
       <c r="D116" s="8"/>
@@ -3132,13 +3253,14 @@
       <c r="N116" s="8"/>
       <c r="O116" s="8"/>
       <c r="P116" s="8"/>
-      <c r="Q116" s="14"/>
-      <c r="R116" s="14"/>
-      <c r="S116" s="14"/>
-      <c r="T116" s="14"/>
-      <c r="U116" s="13"/>
-    </row>
-    <row r="117" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q116" s="8"/>
+      <c r="R116" s="11"/>
+      <c r="S116" s="11"/>
+      <c r="T116" s="11"/>
+      <c r="U116" s="11"/>
+      <c r="V116" s="10"/>
+    </row>
+    <row r="117" spans="2:22" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B117" s="7"/>
       <c r="C117" s="8"/>
       <c r="D117" s="8"/>
@@ -3154,13 +3276,14 @@
       <c r="N117" s="8"/>
       <c r="O117" s="8"/>
       <c r="P117" s="8"/>
-      <c r="Q117" s="14"/>
-      <c r="R117" s="14"/>
-      <c r="S117" s="14"/>
-      <c r="T117" s="14"/>
-      <c r="U117" s="13"/>
-    </row>
-    <row r="118" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q117" s="8"/>
+      <c r="R117" s="11"/>
+      <c r="S117" s="11"/>
+      <c r="T117" s="11"/>
+      <c r="U117" s="11"/>
+      <c r="V117" s="10"/>
+    </row>
+    <row r="118" spans="2:22" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B118" s="7"/>
       <c r="C118" s="8"/>
       <c r="D118" s="8"/>
@@ -3176,13 +3299,14 @@
       <c r="N118" s="8"/>
       <c r="O118" s="8"/>
       <c r="P118" s="8"/>
-      <c r="Q118" s="14"/>
-      <c r="R118" s="14"/>
-      <c r="S118" s="14"/>
-      <c r="T118" s="14"/>
-      <c r="U118" s="13"/>
-    </row>
-    <row r="119" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q118" s="8"/>
+      <c r="R118" s="11"/>
+      <c r="S118" s="11"/>
+      <c r="T118" s="11"/>
+      <c r="U118" s="11"/>
+      <c r="V118" s="10"/>
+    </row>
+    <row r="119" spans="2:22" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B119" s="7"/>
       <c r="C119" s="8"/>
       <c r="D119" s="8"/>
@@ -3198,13 +3322,14 @@
       <c r="N119" s="8"/>
       <c r="O119" s="8"/>
       <c r="P119" s="8"/>
-      <c r="Q119" s="14"/>
-      <c r="R119" s="14"/>
-      <c r="S119" s="14"/>
-      <c r="T119" s="14"/>
-      <c r="U119" s="13"/>
-    </row>
-    <row r="120" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q119" s="8"/>
+      <c r="R119" s="11"/>
+      <c r="S119" s="11"/>
+      <c r="T119" s="11"/>
+      <c r="U119" s="11"/>
+      <c r="V119" s="10"/>
+    </row>
+    <row r="120" spans="2:22" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B120" s="7"/>
       <c r="C120" s="8"/>
       <c r="D120" s="8"/>
@@ -3220,13 +3345,14 @@
       <c r="N120" s="8"/>
       <c r="O120" s="8"/>
       <c r="P120" s="8"/>
-      <c r="Q120" s="14"/>
-      <c r="R120" s="14"/>
-      <c r="S120" s="14"/>
-      <c r="T120" s="14"/>
-      <c r="U120" s="13"/>
-    </row>
-    <row r="121" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q120" s="8"/>
+      <c r="R120" s="11"/>
+      <c r="S120" s="11"/>
+      <c r="T120" s="11"/>
+      <c r="U120" s="11"/>
+      <c r="V120" s="10"/>
+    </row>
+    <row r="121" spans="2:22" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B121" s="7"/>
       <c r="C121" s="8"/>
       <c r="D121" s="8"/>
@@ -3242,13 +3368,14 @@
       <c r="N121" s="8"/>
       <c r="O121" s="8"/>
       <c r="P121" s="8"/>
-      <c r="Q121" s="14"/>
-      <c r="R121" s="14"/>
-      <c r="S121" s="14"/>
-      <c r="T121" s="14"/>
-      <c r="U121" s="13"/>
-    </row>
-    <row r="122" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q121" s="8"/>
+      <c r="R121" s="11"/>
+      <c r="S121" s="11"/>
+      <c r="T121" s="11"/>
+      <c r="U121" s="11"/>
+      <c r="V121" s="10"/>
+    </row>
+    <row r="122" spans="2:22" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B122" s="7"/>
       <c r="C122" s="8"/>
       <c r="D122" s="8"/>
@@ -3264,13 +3391,14 @@
       <c r="N122" s="8"/>
       <c r="O122" s="8"/>
       <c r="P122" s="8"/>
-      <c r="Q122" s="14"/>
-      <c r="R122" s="14"/>
-      <c r="S122" s="14"/>
-      <c r="T122" s="14"/>
-      <c r="U122" s="13"/>
-    </row>
-    <row r="123" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q122" s="8"/>
+      <c r="R122" s="11"/>
+      <c r="S122" s="11"/>
+      <c r="T122" s="11"/>
+      <c r="U122" s="11"/>
+      <c r="V122" s="10"/>
+    </row>
+    <row r="123" spans="2:22" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B123" s="7"/>
       <c r="C123" s="8"/>
       <c r="D123" s="8"/>
@@ -3286,13 +3414,14 @@
       <c r="N123" s="8"/>
       <c r="O123" s="8"/>
       <c r="P123" s="8"/>
-      <c r="Q123" s="14"/>
-      <c r="R123" s="14"/>
-      <c r="S123" s="14"/>
-      <c r="T123" s="14"/>
-      <c r="U123" s="13"/>
-    </row>
-    <row r="124" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q123" s="8"/>
+      <c r="R123" s="11"/>
+      <c r="S123" s="11"/>
+      <c r="T123" s="11"/>
+      <c r="U123" s="11"/>
+      <c r="V123" s="10"/>
+    </row>
+    <row r="124" spans="2:22" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B124" s="7"/>
       <c r="C124" s="8"/>
       <c r="D124" s="8"/>
@@ -3308,13 +3437,14 @@
       <c r="N124" s="8"/>
       <c r="O124" s="8"/>
       <c r="P124" s="8"/>
-      <c r="Q124" s="14"/>
-      <c r="R124" s="14"/>
-      <c r="S124" s="14"/>
-      <c r="T124" s="14"/>
-      <c r="U124" s="13"/>
-    </row>
-    <row r="125" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q124" s="8"/>
+      <c r="R124" s="11"/>
+      <c r="S124" s="11"/>
+      <c r="T124" s="11"/>
+      <c r="U124" s="11"/>
+      <c r="V124" s="10"/>
+    </row>
+    <row r="125" spans="2:22" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B125" s="7"/>
       <c r="C125" s="8"/>
       <c r="D125" s="8"/>
@@ -3330,13 +3460,14 @@
       <c r="N125" s="8"/>
       <c r="O125" s="8"/>
       <c r="P125" s="8"/>
-      <c r="Q125" s="14"/>
-      <c r="R125" s="14"/>
-      <c r="S125" s="14"/>
-      <c r="T125" s="14"/>
-      <c r="U125" s="13"/>
-    </row>
-    <row r="126" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q125" s="8"/>
+      <c r="R125" s="11"/>
+      <c r="S125" s="11"/>
+      <c r="T125" s="11"/>
+      <c r="U125" s="11"/>
+      <c r="V125" s="10"/>
+    </row>
+    <row r="126" spans="2:22" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B126" s="7"/>
       <c r="C126" s="8"/>
       <c r="D126" s="8"/>
@@ -3352,13 +3483,14 @@
       <c r="N126" s="8"/>
       <c r="O126" s="8"/>
       <c r="P126" s="8"/>
-      <c r="Q126" s="14"/>
-      <c r="R126" s="14"/>
-      <c r="S126" s="14"/>
-      <c r="T126" s="14"/>
-      <c r="U126" s="13"/>
-    </row>
-    <row r="127" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q126" s="8"/>
+      <c r="R126" s="11"/>
+      <c r="S126" s="11"/>
+      <c r="T126" s="11"/>
+      <c r="U126" s="11"/>
+      <c r="V126" s="10"/>
+    </row>
+    <row r="127" spans="2:22" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B127" s="7"/>
       <c r="C127" s="8"/>
       <c r="D127" s="8"/>
@@ -3374,13 +3506,14 @@
       <c r="N127" s="8"/>
       <c r="O127" s="8"/>
       <c r="P127" s="8"/>
-      <c r="Q127" s="14"/>
-      <c r="R127" s="14"/>
-      <c r="S127" s="14"/>
-      <c r="T127" s="14"/>
-      <c r="U127" s="13"/>
-    </row>
-    <row r="128" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q127" s="8"/>
+      <c r="R127" s="11"/>
+      <c r="S127" s="11"/>
+      <c r="T127" s="11"/>
+      <c r="U127" s="11"/>
+      <c r="V127" s="10"/>
+    </row>
+    <row r="128" spans="2:22" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B128" s="7"/>
       <c r="C128" s="8"/>
       <c r="D128" s="8"/>
@@ -3396,13 +3529,14 @@
       <c r="N128" s="8"/>
       <c r="O128" s="8"/>
       <c r="P128" s="8"/>
-      <c r="Q128" s="14"/>
-      <c r="R128" s="14"/>
-      <c r="S128" s="14"/>
-      <c r="T128" s="14"/>
-      <c r="U128" s="13"/>
-    </row>
-    <row r="129" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q128" s="8"/>
+      <c r="R128" s="11"/>
+      <c r="S128" s="11"/>
+      <c r="T128" s="11"/>
+      <c r="U128" s="11"/>
+      <c r="V128" s="10"/>
+    </row>
+    <row r="129" spans="2:22" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B129" s="7"/>
       <c r="C129" s="8"/>
       <c r="D129" s="8"/>
@@ -3418,13 +3552,14 @@
       <c r="N129" s="8"/>
       <c r="O129" s="8"/>
       <c r="P129" s="8"/>
-      <c r="Q129" s="14"/>
-      <c r="R129" s="14"/>
-      <c r="S129" s="14"/>
-      <c r="T129" s="14"/>
-      <c r="U129" s="13"/>
-    </row>
-    <row r="130" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q129" s="8"/>
+      <c r="R129" s="11"/>
+      <c r="S129" s="11"/>
+      <c r="T129" s="11"/>
+      <c r="U129" s="11"/>
+      <c r="V129" s="10"/>
+    </row>
+    <row r="130" spans="2:22" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B130" s="7"/>
       <c r="C130" s="8"/>
       <c r="D130" s="8"/>
@@ -3440,13 +3575,14 @@
       <c r="N130" s="8"/>
       <c r="O130" s="8"/>
       <c r="P130" s="8"/>
-      <c r="Q130" s="14"/>
-      <c r="R130" s="14"/>
-      <c r="S130" s="14"/>
-      <c r="T130" s="14"/>
-      <c r="U130" s="13"/>
-    </row>
-    <row r="131" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q130" s="8"/>
+      <c r="R130" s="11"/>
+      <c r="S130" s="11"/>
+      <c r="T130" s="11"/>
+      <c r="U130" s="11"/>
+      <c r="V130" s="10"/>
+    </row>
+    <row r="131" spans="2:22" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B131" s="7"/>
       <c r="C131" s="8"/>
       <c r="D131" s="8"/>
@@ -3462,13 +3598,14 @@
       <c r="N131" s="8"/>
       <c r="O131" s="8"/>
       <c r="P131" s="8"/>
-      <c r="Q131" s="14"/>
-      <c r="R131" s="14"/>
-      <c r="S131" s="14"/>
-      <c r="T131" s="14"/>
-      <c r="U131" s="13"/>
-    </row>
-    <row r="132" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q131" s="8"/>
+      <c r="R131" s="11"/>
+      <c r="S131" s="11"/>
+      <c r="T131" s="11"/>
+      <c r="U131" s="11"/>
+      <c r="V131" s="10"/>
+    </row>
+    <row r="132" spans="2:22" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B132" s="7"/>
       <c r="C132" s="8"/>
       <c r="D132" s="8"/>
@@ -3484,13 +3621,14 @@
       <c r="N132" s="8"/>
       <c r="O132" s="8"/>
       <c r="P132" s="8"/>
-      <c r="Q132" s="14"/>
-      <c r="R132" s="14"/>
-      <c r="S132" s="14"/>
-      <c r="T132" s="14"/>
-      <c r="U132" s="13"/>
-    </row>
-    <row r="133" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q132" s="8"/>
+      <c r="R132" s="11"/>
+      <c r="S132" s="11"/>
+      <c r="T132" s="11"/>
+      <c r="U132" s="11"/>
+      <c r="V132" s="10"/>
+    </row>
+    <row r="133" spans="2:22" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B133" s="7"/>
       <c r="C133" s="8"/>
       <c r="D133" s="8"/>
@@ -3506,13 +3644,14 @@
       <c r="N133" s="8"/>
       <c r="O133" s="8"/>
       <c r="P133" s="8"/>
-      <c r="Q133" s="14"/>
-      <c r="R133" s="14"/>
-      <c r="S133" s="14"/>
-      <c r="T133" s="14"/>
-      <c r="U133" s="13"/>
-    </row>
-    <row r="134" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q133" s="8"/>
+      <c r="R133" s="11"/>
+      <c r="S133" s="11"/>
+      <c r="T133" s="11"/>
+      <c r="U133" s="11"/>
+      <c r="V133" s="10"/>
+    </row>
+    <row r="134" spans="2:22" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B134" s="7"/>
       <c r="C134" s="8"/>
       <c r="D134" s="8"/>
@@ -3528,13 +3667,14 @@
       <c r="N134" s="8"/>
       <c r="O134" s="8"/>
       <c r="P134" s="8"/>
-      <c r="Q134" s="14"/>
-      <c r="R134" s="14"/>
-      <c r="S134" s="14"/>
-      <c r="T134" s="14"/>
-      <c r="U134" s="13"/>
-    </row>
-    <row r="135" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q134" s="8"/>
+      <c r="R134" s="11"/>
+      <c r="S134" s="11"/>
+      <c r="T134" s="11"/>
+      <c r="U134" s="11"/>
+      <c r="V134" s="10"/>
+    </row>
+    <row r="135" spans="2:22" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B135" s="7"/>
       <c r="C135" s="8"/>
       <c r="D135" s="8"/>
@@ -3550,13 +3690,14 @@
       <c r="N135" s="8"/>
       <c r="O135" s="8"/>
       <c r="P135" s="8"/>
-      <c r="Q135" s="14"/>
-      <c r="R135" s="14"/>
-      <c r="S135" s="14"/>
-      <c r="T135" s="14"/>
-      <c r="U135" s="13"/>
-    </row>
-    <row r="136" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q135" s="8"/>
+      <c r="R135" s="11"/>
+      <c r="S135" s="11"/>
+      <c r="T135" s="11"/>
+      <c r="U135" s="11"/>
+      <c r="V135" s="10"/>
+    </row>
+    <row r="136" spans="2:22" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B136" s="7"/>
       <c r="C136" s="8"/>
       <c r="D136" s="8"/>
@@ -3572,13 +3713,14 @@
       <c r="N136" s="8"/>
       <c r="O136" s="8"/>
       <c r="P136" s="8"/>
-      <c r="Q136" s="14"/>
-      <c r="R136" s="14"/>
-      <c r="S136" s="14"/>
-      <c r="T136" s="14"/>
-      <c r="U136" s="13"/>
-    </row>
-    <row r="137" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q136" s="8"/>
+      <c r="R136" s="11"/>
+      <c r="S136" s="11"/>
+      <c r="T136" s="11"/>
+      <c r="U136" s="11"/>
+      <c r="V136" s="10"/>
+    </row>
+    <row r="137" spans="2:22" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B137" s="7"/>
       <c r="C137" s="8"/>
       <c r="D137" s="8"/>
@@ -3594,13 +3736,14 @@
       <c r="N137" s="8"/>
       <c r="O137" s="8"/>
       <c r="P137" s="8"/>
-      <c r="Q137" s="14"/>
-      <c r="R137" s="14"/>
-      <c r="S137" s="14"/>
-      <c r="T137" s="14"/>
-      <c r="U137" s="13"/>
-    </row>
-    <row r="138" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q137" s="8"/>
+      <c r="R137" s="11"/>
+      <c r="S137" s="11"/>
+      <c r="T137" s="11"/>
+      <c r="U137" s="11"/>
+      <c r="V137" s="10"/>
+    </row>
+    <row r="138" spans="2:22" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B138" s="7"/>
       <c r="C138" s="8"/>
       <c r="D138" s="8"/>
@@ -3616,13 +3759,14 @@
       <c r="N138" s="8"/>
       <c r="O138" s="8"/>
       <c r="P138" s="8"/>
-      <c r="Q138" s="14"/>
-      <c r="R138" s="14"/>
-      <c r="S138" s="14"/>
-      <c r="T138" s="14"/>
-      <c r="U138" s="13"/>
-    </row>
-    <row r="139" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q138" s="8"/>
+      <c r="R138" s="11"/>
+      <c r="S138" s="11"/>
+      <c r="T138" s="11"/>
+      <c r="U138" s="11"/>
+      <c r="V138" s="10"/>
+    </row>
+    <row r="139" spans="2:22" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B139" s="7"/>
       <c r="C139" s="8"/>
       <c r="D139" s="8"/>
@@ -3638,13 +3782,14 @@
       <c r="N139" s="8"/>
       <c r="O139" s="8"/>
       <c r="P139" s="8"/>
-      <c r="Q139" s="14"/>
-      <c r="R139" s="14"/>
-      <c r="S139" s="14"/>
-      <c r="T139" s="14"/>
-      <c r="U139" s="13"/>
-    </row>
-    <row r="140" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q139" s="8"/>
+      <c r="R139" s="11"/>
+      <c r="S139" s="11"/>
+      <c r="T139" s="11"/>
+      <c r="U139" s="11"/>
+      <c r="V139" s="10"/>
+    </row>
+    <row r="140" spans="2:22" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B140" s="7"/>
       <c r="C140" s="8"/>
       <c r="D140" s="8"/>
@@ -3660,13 +3805,14 @@
       <c r="N140" s="8"/>
       <c r="O140" s="8"/>
       <c r="P140" s="8"/>
-      <c r="Q140" s="14"/>
-      <c r="R140" s="14"/>
-      <c r="S140" s="14"/>
-      <c r="T140" s="14"/>
-      <c r="U140" s="13"/>
-    </row>
-    <row r="141" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q140" s="8"/>
+      <c r="R140" s="11"/>
+      <c r="S140" s="11"/>
+      <c r="T140" s="11"/>
+      <c r="U140" s="11"/>
+      <c r="V140" s="10"/>
+    </row>
+    <row r="141" spans="2:22" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B141" s="7"/>
       <c r="C141" s="8"/>
       <c r="D141" s="8"/>
@@ -3682,13 +3828,14 @@
       <c r="N141" s="8"/>
       <c r="O141" s="8"/>
       <c r="P141" s="8"/>
-      <c r="Q141" s="14"/>
-      <c r="R141" s="14"/>
-      <c r="S141" s="14"/>
-      <c r="T141" s="14"/>
-      <c r="U141" s="13"/>
-    </row>
-    <row r="142" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q141" s="8"/>
+      <c r="R141" s="11"/>
+      <c r="S141" s="11"/>
+      <c r="T141" s="11"/>
+      <c r="U141" s="11"/>
+      <c r="V141" s="10"/>
+    </row>
+    <row r="142" spans="2:22" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B142" s="7"/>
       <c r="C142" s="8"/>
       <c r="D142" s="8"/>
@@ -3704,13 +3851,14 @@
       <c r="N142" s="8"/>
       <c r="O142" s="8"/>
       <c r="P142" s="8"/>
-      <c r="Q142" s="14"/>
-      <c r="R142" s="14"/>
-      <c r="S142" s="14"/>
-      <c r="T142" s="14"/>
-      <c r="U142" s="13"/>
-    </row>
-    <row r="143" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q142" s="8"/>
+      <c r="R142" s="11"/>
+      <c r="S142" s="11"/>
+      <c r="T142" s="11"/>
+      <c r="U142" s="11"/>
+      <c r="V142" s="10"/>
+    </row>
+    <row r="143" spans="2:22" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B143" s="7"/>
       <c r="C143" s="8"/>
       <c r="D143" s="8"/>
@@ -3726,13 +3874,14 @@
       <c r="N143" s="8"/>
       <c r="O143" s="8"/>
       <c r="P143" s="8"/>
-      <c r="Q143" s="14"/>
-      <c r="R143" s="14"/>
-      <c r="S143" s="14"/>
-      <c r="T143" s="14"/>
-      <c r="U143" s="13"/>
-    </row>
-    <row r="144" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q143" s="8"/>
+      <c r="R143" s="11"/>
+      <c r="S143" s="11"/>
+      <c r="T143" s="11"/>
+      <c r="U143" s="11"/>
+      <c r="V143" s="10"/>
+    </row>
+    <row r="144" spans="2:22" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B144" s="7"/>
       <c r="C144" s="8"/>
       <c r="D144" s="8"/>
@@ -3748,122 +3897,123 @@
       <c r="N144" s="8"/>
       <c r="O144" s="8"/>
       <c r="P144" s="8"/>
-      <c r="Q144" s="14"/>
-      <c r="R144" s="14"/>
-      <c r="S144" s="14"/>
-      <c r="T144" s="14"/>
-      <c r="U144" s="13"/>
-    </row>
-    <row r="145" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q144" s="8"/>
+      <c r="R144" s="11"/>
+      <c r="S144" s="11"/>
+      <c r="T144" s="11"/>
+      <c r="U144" s="11"/>
+      <c r="V144" s="10"/>
+    </row>
+    <row r="145" spans="2:22" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B145" s="3"/>
-      <c r="U145" s="2"/>
-    </row>
-    <row r="146" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V145" s="2"/>
+    </row>
+    <row r="146" spans="2:22" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B146" s="3"/>
-      <c r="U146" s="2"/>
-    </row>
-    <row r="147" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V146" s="2"/>
+    </row>
+    <row r="147" spans="2:22" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B147" s="3"/>
-      <c r="U147" s="2"/>
-    </row>
-    <row r="148" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V147" s="2"/>
+    </row>
+    <row r="148" spans="2:22" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B148" s="3"/>
-      <c r="U148" s="2"/>
-    </row>
-    <row r="149" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V148" s="2"/>
+    </row>
+    <row r="149" spans="2:22" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B149" s="3"/>
-      <c r="U149" s="2"/>
-    </row>
-    <row r="150" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V149" s="2"/>
+    </row>
+    <row r="150" spans="2:22" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B150" s="3"/>
-      <c r="U150" s="2"/>
-    </row>
-    <row r="151" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V150" s="2"/>
+    </row>
+    <row r="151" spans="2:22" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B151" s="3"/>
-      <c r="U151" s="2"/>
-    </row>
-    <row r="152" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V151" s="2"/>
+    </row>
+    <row r="152" spans="2:22" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B152" s="3"/>
-      <c r="U152" s="2"/>
-    </row>
-    <row r="153" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V152" s="2"/>
+    </row>
+    <row r="153" spans="2:22" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B153" s="3"/>
-      <c r="U153" s="2"/>
-    </row>
-    <row r="154" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V153" s="2"/>
+    </row>
+    <row r="154" spans="2:22" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B154" s="3"/>
-      <c r="U154" s="2"/>
-    </row>
-    <row r="155" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V154" s="2"/>
+    </row>
+    <row r="155" spans="2:22" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B155" s="3"/>
-      <c r="U155" s="2"/>
-    </row>
-    <row r="156" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V155" s="2"/>
+    </row>
+    <row r="156" spans="2:22" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B156" s="3"/>
-      <c r="U156" s="2"/>
-    </row>
-    <row r="157" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V156" s="2"/>
+    </row>
+    <row r="157" spans="2:22" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B157" s="3"/>
-      <c r="U157" s="2"/>
-    </row>
-    <row r="158" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V157" s="2"/>
+    </row>
+    <row r="158" spans="2:22" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B158" s="3"/>
-      <c r="U158" s="2"/>
-    </row>
-    <row r="159" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V158" s="2"/>
+    </row>
+    <row r="159" spans="2:22" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B159" s="3"/>
-      <c r="U159" s="2"/>
-    </row>
-    <row r="160" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V159" s="2"/>
+    </row>
+    <row r="160" spans="2:22" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B160" s="3"/>
     </row>
-    <row r="161" spans="2:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="2:2" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B161" s="3"/>
     </row>
-    <row r="162" spans="2:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="2:2" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B162" s="3"/>
     </row>
-    <row r="163" spans="2:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="2:2" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B163" s="3"/>
     </row>
-    <row r="164" spans="2:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="2:2" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B164" s="3"/>
     </row>
-    <row r="165" spans="2:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="2:2" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B165" s="3"/>
     </row>
-    <row r="166" spans="2:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="2:2" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B166" s="3"/>
     </row>
-    <row r="167" spans="2:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="2:2" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B167" s="3"/>
     </row>
-    <row r="168" spans="2:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="2:2" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B168" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="R2:R3"/>
     <mergeCell ref="S2:S3"/>
     <mergeCell ref="T2:T3"/>
     <mergeCell ref="U2:U3"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="V2:V3"/>
     <mergeCell ref="M2:M3"/>
     <mergeCell ref="N2:N3"/>
     <mergeCell ref="O2:O3"/>
     <mergeCell ref="P2:P3"/>
     <mergeCell ref="Q2:Q3"/>
-    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="R2:R3"/>
     <mergeCell ref="G2:G3"/>
     <mergeCell ref="H2:H3"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="F2:F3"/>
     <mergeCell ref="J2:J3"/>
+    <mergeCell ref="E2:E3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/ตรวจงาน/รายการตรวจสอบแผนภาพ.xlsx
+++ b/ตรวจงาน/รายการตรวจสอบแผนภาพ.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\team4\ตรวจงาน\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DBD4962-74F1-4E92-897A-8986F564E42C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{238C3060-DF08-4EDF-9575-5C81305E0AED}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C108298C-C5B1-4B19-85F2-2856099ECD84}"/>
   </bookViews>
@@ -224,10 +224,25 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -235,21 +250,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -567,8 +567,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E552DF3-66E3-4350-8BDE-D3162A98C3B8}">
   <dimension ref="B2:W168"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
@@ -582,89 +582,89 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:23" ht="50.45" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="16" t="s">
+      <c r="E2" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="F2" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="G2" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="12" t="s">
+      <c r="H2" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="12" t="s">
+      <c r="I2" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="J2" s="12" t="s">
+      <c r="J2" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="12" t="s">
+      <c r="K2" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="12" t="s">
+      <c r="L2" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="M2" s="12" t="s">
+      <c r="M2" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="N2" s="12" t="s">
+      <c r="N2" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="O2" s="12" t="s">
+      <c r="O2" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="P2" s="13" t="s">
+      <c r="P2" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="Q2" s="12" t="s">
+      <c r="Q2" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="R2" s="12" t="s">
+      <c r="R2" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="S2" s="11"/>
-      <c r="T2" s="11"/>
-      <c r="U2" s="11"/>
-      <c r="V2" s="11"/>
-      <c r="W2" s="11"/>
+      <c r="S2" s="17"/>
+      <c r="T2" s="17"/>
+      <c r="U2" s="17"/>
+      <c r="V2" s="17"/>
+      <c r="W2" s="17"/>
     </row>
     <row r="3" spans="2:23" ht="51.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B3" s="15"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12"/>
-      <c r="K3" s="12"/>
-      <c r="L3" s="12"/>
-      <c r="M3" s="12"/>
-      <c r="N3" s="12"/>
-      <c r="O3" s="12"/>
-      <c r="P3" s="14"/>
-      <c r="Q3" s="12"/>
-      <c r="R3" s="12"/>
-      <c r="S3" s="11"/>
-      <c r="T3" s="11"/>
-      <c r="U3" s="11"/>
-      <c r="V3" s="11"/>
-      <c r="W3" s="11"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14"/>
+      <c r="K3" s="14"/>
+      <c r="L3" s="14"/>
+      <c r="M3" s="14"/>
+      <c r="N3" s="14"/>
+      <c r="O3" s="14"/>
+      <c r="P3" s="19"/>
+      <c r="Q3" s="14"/>
+      <c r="R3" s="14"/>
+      <c r="S3" s="17"/>
+      <c r="T3" s="17"/>
+      <c r="U3" s="17"/>
+      <c r="V3" s="17"/>
+      <c r="W3" s="17"/>
     </row>
     <row r="4" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="11" t="s">
         <v>15</v>
       </c>
       <c r="C4" s="2" t="s">
@@ -705,7 +705,7 @@
       <c r="W4" s="4"/>
     </row>
     <row r="5" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B5" s="19"/>
+      <c r="B5" s="12"/>
       <c r="C5" s="2" t="s">
         <v>20</v>
       </c>
@@ -719,7 +719,9 @@
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
+      <c r="J5" s="2">
+        <v>1</v>
+      </c>
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
@@ -729,7 +731,7 @@
       <c r="Q5" s="2"/>
       <c r="R5" s="2">
         <f>SUM(F5:Q5)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S5" s="4"/>
       <c r="T5" s="4"/>
@@ -4162,21 +4164,6 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="L2:L3"/>
-    <mergeCell ref="T2:T3"/>
-    <mergeCell ref="U2:U3"/>
-    <mergeCell ref="V2:V3"/>
     <mergeCell ref="W2:W3"/>
     <mergeCell ref="M2:M3"/>
     <mergeCell ref="N2:N3"/>
@@ -4185,6 +4172,21 @@
     <mergeCell ref="R2:R3"/>
     <mergeCell ref="S2:S3"/>
     <mergeCell ref="P2:P3"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="T2:T3"/>
+    <mergeCell ref="U2:U3"/>
+    <mergeCell ref="V2:V3"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="F2:F3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/ตรวจงาน/รายการตรวจสอบแผนภาพ.xlsx
+++ b/ตรวจงาน/รายการตรวจสอบแผนภาพ.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nice-\Desktop\Porn\TEAM4\team4\ตรวจงาน\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pee20\OneDrive\เดสก์ท็อป\SE3.1\team4\ตรวจงาน\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81A03C39-23D8-47E3-BC12-333CF8E7F884}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49A17053-56A3-46B1-B1D8-6E88C03DC41C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2640" yWindow="1035" windowWidth="25335" windowHeight="14175" xr2:uid="{C108298C-C5B1-4B19-85F2-2856099ECD84}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{C108298C-C5B1-4B19-85F2-2856099ECD84}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,6 +23,10 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -30,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="39">
   <si>
     <t>คำผิด</t>
   </si>
@@ -124,16 +128,40 @@
   <si>
     <t>Activity Diagram มอดูล ลูกค้า</t>
   </si>
+  <si>
+    <t>UC Description มอดูลบริการ</t>
+  </si>
+  <si>
+    <t>v1.1.2</t>
+  </si>
+  <si>
+    <t>กิตติพศ</t>
+  </si>
+  <si>
+    <t>v1.2.1</t>
+  </si>
+  <si>
+    <t>UC Description มอดูลรถ</t>
+  </si>
+  <si>
+    <t>UC Description มอดูลลูกค้า</t>
+  </si>
+  <si>
+    <t>UC Description มอดูลเอเย่นต์</t>
+  </si>
+  <si>
+    <t>UC Description มอดูลพนักงานขับรถ</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Tahoma"/>
       <family val="2"/>
       <charset val="222"/>
       <scheme val="minor"/>
@@ -152,7 +180,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -168,6 +196,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -225,7 +259,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -254,6 +288,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
@@ -281,13 +325,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="ปกติ" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -303,7 +343,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="ธีมของ Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -601,104 +641,104 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E552DF3-66E3-4350-8BDE-D3162A98C3B8}">
   <dimension ref="B2:W168"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:B11"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="30" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.7"/>
   <cols>
-    <col min="1" max="1" width="8.7109375" style="1"/>
-    <col min="2" max="2" width="36.42578125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="8.7109375" style="1"/>
-    <col min="4" max="4" width="9.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.7109375" style="1"/>
+    <col min="1" max="1" width="8.69921875" style="1"/>
+    <col min="2" max="2" width="36.3984375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="8.69921875" style="1"/>
+    <col min="4" max="4" width="9.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.09765625" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.69921875" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:23" ht="50.45" customHeight="1">
-      <c r="B2" s="18" t="s">
+    <row r="2" spans="2:23" ht="50.4" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="B2" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="18" t="s">
+      <c r="D2" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="E2" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="F2" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="G2" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="11" t="s">
+      <c r="H2" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="11" t="s">
+      <c r="I2" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="J2" s="11" t="s">
+      <c r="J2" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="11" t="s">
+      <c r="K2" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="11" t="s">
+      <c r="L2" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="M2" s="11" t="s">
+      <c r="M2" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="N2" s="11" t="s">
+      <c r="N2" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="O2" s="11" t="s">
+      <c r="O2" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="P2" s="12" t="s">
+      <c r="P2" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="Q2" s="11" t="s">
+      <c r="Q2" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="R2" s="11" t="s">
+      <c r="R2" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="S2" s="10"/>
-      <c r="T2" s="10"/>
-      <c r="U2" s="10"/>
-      <c r="V2" s="10"/>
-      <c r="W2" s="10"/>
-    </row>
-    <row r="3" spans="2:23" ht="51.75" customHeight="1">
-      <c r="B3" s="18"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="11"/>
-      <c r="K3" s="11"/>
-      <c r="L3" s="11"/>
-      <c r="M3" s="11"/>
-      <c r="N3" s="11"/>
-      <c r="O3" s="11"/>
-      <c r="P3" s="13"/>
-      <c r="Q3" s="11"/>
-      <c r="R3" s="11"/>
-      <c r="S3" s="10"/>
-      <c r="T3" s="10"/>
-      <c r="U3" s="10"/>
-      <c r="V3" s="10"/>
-      <c r="W3" s="10"/>
-    </row>
-    <row r="4" spans="2:23" ht="30" customHeight="1">
-      <c r="B4" s="16" t="s">
+      <c r="S2" s="14"/>
+      <c r="T2" s="14"/>
+      <c r="U2" s="14"/>
+      <c r="V2" s="14"/>
+      <c r="W2" s="14"/>
+    </row>
+    <row r="3" spans="2:23" ht="51.75" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="B3" s="22"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="15"/>
+      <c r="K3" s="15"/>
+      <c r="L3" s="15"/>
+      <c r="M3" s="15"/>
+      <c r="N3" s="15"/>
+      <c r="O3" s="15"/>
+      <c r="P3" s="17"/>
+      <c r="Q3" s="15"/>
+      <c r="R3" s="15"/>
+      <c r="S3" s="14"/>
+      <c r="T3" s="14"/>
+      <c r="U3" s="14"/>
+      <c r="V3" s="14"/>
+      <c r="W3" s="14"/>
+    </row>
+    <row r="4" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="B4" s="20" t="s">
         <v>15</v>
       </c>
       <c r="C4" s="2" t="s">
@@ -738,8 +778,8 @@
       <c r="V4" s="4"/>
       <c r="W4" s="4"/>
     </row>
-    <row r="5" spans="2:23" ht="30" customHeight="1">
-      <c r="B5" s="17"/>
+    <row r="5" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="B5" s="21"/>
       <c r="C5" s="2" t="s">
         <v>20</v>
       </c>
@@ -773,14 +813,14 @@
       <c r="V5" s="4"/>
       <c r="W5" s="4"/>
     </row>
-    <row r="6" spans="2:23" ht="30" customHeight="1">
-      <c r="B6" s="20" t="s">
+    <row r="6" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="B6" s="11" t="s">
         <v>22</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="19">
+      <c r="D6" s="10">
         <v>242718</v>
       </c>
       <c r="E6" s="6" t="s">
@@ -811,14 +851,14 @@
       <c r="V6" s="4"/>
       <c r="W6" s="4"/>
     </row>
-    <row r="7" spans="2:23" ht="30" customHeight="1">
-      <c r="B7" s="20" t="s">
+    <row r="7" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="B7" s="11" t="s">
         <v>25</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="19">
+      <c r="D7" s="10">
         <v>242718</v>
       </c>
       <c r="E7" s="6" t="s">
@@ -849,14 +889,14 @@
       <c r="V7" s="4"/>
       <c r="W7" s="4"/>
     </row>
-    <row r="8" spans="2:23" ht="30" customHeight="1">
-      <c r="B8" s="20" t="s">
+    <row r="8" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="B8" s="11" t="s">
         <v>26</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="D8" s="19">
+      <c r="D8" s="10">
         <v>242718</v>
       </c>
       <c r="E8" s="6" t="s">
@@ -887,14 +927,14 @@
       <c r="V8" s="4"/>
       <c r="W8" s="4"/>
     </row>
-    <row r="9" spans="2:23" ht="30" customHeight="1">
-      <c r="B9" s="20" t="s">
+    <row r="9" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="B9" s="11" t="s">
         <v>28</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="D9" s="19">
+      <c r="D9" s="10">
         <v>242718</v>
       </c>
       <c r="E9" s="6" t="s">
@@ -925,14 +965,14 @@
       <c r="V9" s="4"/>
       <c r="W9" s="4"/>
     </row>
-    <row r="10" spans="2:23" ht="30" customHeight="1">
-      <c r="B10" s="20" t="s">
+    <row r="10" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="B10" s="11" t="s">
         <v>29</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="D10" s="19">
+      <c r="D10" s="10">
         <v>242718</v>
       </c>
       <c r="E10" s="6" t="s">
@@ -963,14 +1003,14 @@
       <c r="V10" s="4"/>
       <c r="W10" s="4"/>
     </row>
-    <row r="11" spans="2:23" ht="30" customHeight="1">
-      <c r="B11" s="20" t="s">
+    <row r="11" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="B11" s="11" t="s">
         <v>30</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D11" s="19">
+      <c r="D11" s="10">
         <v>242718</v>
       </c>
       <c r="E11" s="6" t="s">
@@ -1001,64 +1041,108 @@
       <c r="V11" s="4"/>
       <c r="W11" s="4"/>
     </row>
-    <row r="12" spans="2:23" ht="30" customHeight="1">
-      <c r="B12" s="5"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
+    <row r="12" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="B12" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" s="3">
+        <v>242718</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F12" s="2">
+        <v>3</v>
+      </c>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
+      <c r="J12" s="2">
+        <v>9</v>
+      </c>
       <c r="K12" s="2"/>
-      <c r="L12" s="2"/>
+      <c r="L12" s="2">
+        <v>2</v>
+      </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
       <c r="P12" s="2"/>
       <c r="Q12" s="2"/>
-      <c r="R12" s="2"/>
+      <c r="R12" s="2">
+        <f>SUM(F12:Q12)</f>
+        <v>14</v>
+      </c>
       <c r="S12" s="4"/>
       <c r="T12" s="4"/>
       <c r="U12" s="4"/>
       <c r="V12" s="4"/>
       <c r="W12" s="4"/>
     </row>
-    <row r="13" spans="2:23" ht="30" customHeight="1">
-      <c r="B13" s="5"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
+    <row r="13" spans="2:23" ht="31.8" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="B13" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" s="3">
+        <v>242718</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
+      <c r="J13" s="2">
+        <v>2</v>
+      </c>
       <c r="K13" s="2"/>
-      <c r="L13" s="2"/>
+      <c r="L13" s="2">
+        <v>1</v>
+      </c>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
-      <c r="P13" s="2"/>
+      <c r="P13" s="2">
+        <v>4</v>
+      </c>
       <c r="Q13" s="2"/>
-      <c r="R13" s="2"/>
+      <c r="R13" s="2">
+        <f>SUM(F13:Q13)</f>
+        <v>7</v>
+      </c>
       <c r="S13" s="4"/>
       <c r="T13" s="4"/>
       <c r="U13" s="4"/>
       <c r="V13" s="4"/>
       <c r="W13" s="4"/>
     </row>
-    <row r="14" spans="2:23" ht="30" customHeight="1">
-      <c r="B14" s="5"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
+    <row r="14" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="B14" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" s="3">
+        <v>242718</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
+      <c r="J14" s="2">
+        <v>3</v>
+      </c>
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
@@ -1066,62 +1150,103 @@
       <c r="O14" s="2"/>
       <c r="P14" s="2"/>
       <c r="Q14" s="2"/>
-      <c r="R14" s="2"/>
+      <c r="R14" s="2">
+        <f t="shared" ref="R14:R16" si="0">SUM(F14:Q14)</f>
+        <v>3</v>
+      </c>
       <c r="S14" s="4"/>
       <c r="T14" s="4"/>
       <c r="U14" s="4"/>
       <c r="V14" s="4"/>
       <c r="W14" s="4"/>
     </row>
-    <row r="15" spans="2:23" ht="30" customHeight="1">
-      <c r="B15" s="5"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
+    <row r="15" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="B15" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D15" s="3">
+        <v>242718</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F15" s="2">
+        <v>1</v>
+      </c>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
+      <c r="J15" s="2">
+        <v>4</v>
+      </c>
       <c r="K15" s="2"/>
-      <c r="L15" s="2"/>
+      <c r="L15" s="2">
+        <v>2</v>
+      </c>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
-      <c r="P15" s="2"/>
+      <c r="P15" s="2">
+        <v>1</v>
+      </c>
       <c r="Q15" s="2"/>
-      <c r="R15" s="2"/>
+      <c r="R15" s="2">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
       <c r="S15" s="4"/>
       <c r="T15" s="4"/>
       <c r="U15" s="4"/>
       <c r="V15" s="4"/>
       <c r="W15" s="4"/>
     </row>
-    <row r="16" spans="2:23" ht="30" customHeight="1">
-      <c r="B16" s="5"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
+    <row r="16" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="B16" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D16" s="3">
+        <v>242718</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F16" s="2">
+        <v>3</v>
+      </c>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
+      <c r="J16" s="2">
+        <v>6</v>
+      </c>
       <c r="K16" s="2"/>
-      <c r="L16" s="2"/>
+      <c r="L16" s="2">
+        <v>2</v>
+      </c>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
-      <c r="P16" s="2"/>
+      <c r="P16" s="2">
+        <v>2</v>
+      </c>
       <c r="Q16" s="2"/>
-      <c r="R16" s="2"/>
+      <c r="R16" s="2">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
       <c r="S16" s="4"/>
       <c r="T16" s="4"/>
       <c r="U16" s="4"/>
       <c r="V16" s="4"/>
       <c r="W16" s="4"/>
     </row>
-    <row r="17" spans="2:23" ht="30" customHeight="1">
+    <row r="17" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B17" s="5"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
@@ -1145,7 +1270,7 @@
       <c r="V17" s="4"/>
       <c r="W17" s="4"/>
     </row>
-    <row r="18" spans="2:23" ht="30" customHeight="1">
+    <row r="18" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B18" s="5"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
@@ -1169,7 +1294,7 @@
       <c r="V18" s="4"/>
       <c r="W18" s="4"/>
     </row>
-    <row r="19" spans="2:23" ht="30" customHeight="1">
+    <row r="19" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B19" s="5"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
@@ -1193,7 +1318,7 @@
       <c r="V19" s="4"/>
       <c r="W19" s="4"/>
     </row>
-    <row r="20" spans="2:23" ht="30" customHeight="1">
+    <row r="20" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B20" s="5"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
@@ -1217,7 +1342,7 @@
       <c r="V20" s="4"/>
       <c r="W20" s="4"/>
     </row>
-    <row r="21" spans="2:23" ht="30" customHeight="1">
+    <row r="21" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B21" s="5"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
@@ -1241,7 +1366,7 @@
       <c r="V21" s="4"/>
       <c r="W21" s="4"/>
     </row>
-    <row r="22" spans="2:23" ht="30" customHeight="1">
+    <row r="22" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B22" s="5"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
@@ -1265,7 +1390,7 @@
       <c r="V22" s="4"/>
       <c r="W22" s="4"/>
     </row>
-    <row r="23" spans="2:23" ht="30" customHeight="1">
+    <row r="23" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B23" s="5"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
@@ -1289,7 +1414,7 @@
       <c r="V23" s="4"/>
       <c r="W23" s="4"/>
     </row>
-    <row r="24" spans="2:23" ht="30" customHeight="1">
+    <row r="24" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B24" s="5"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
@@ -1313,7 +1438,7 @@
       <c r="V24" s="4"/>
       <c r="W24" s="4"/>
     </row>
-    <row r="25" spans="2:23" ht="30" customHeight="1">
+    <row r="25" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B25" s="5"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
@@ -1337,7 +1462,7 @@
       <c r="V25" s="4"/>
       <c r="W25" s="4"/>
     </row>
-    <row r="26" spans="2:23" ht="30" customHeight="1">
+    <row r="26" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B26" s="5"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
@@ -1361,7 +1486,7 @@
       <c r="V26" s="4"/>
       <c r="W26" s="4"/>
     </row>
-    <row r="27" spans="2:23" ht="30" customHeight="1">
+    <row r="27" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B27" s="5"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
@@ -1385,7 +1510,7 @@
       <c r="V27" s="4"/>
       <c r="W27" s="4"/>
     </row>
-    <row r="28" spans="2:23" ht="30" customHeight="1">
+    <row r="28" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B28" s="5"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
@@ -1409,7 +1534,7 @@
       <c r="V28" s="4"/>
       <c r="W28" s="4"/>
     </row>
-    <row r="29" spans="2:23" ht="30" customHeight="1">
+    <row r="29" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B29" s="5"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
@@ -1433,7 +1558,7 @@
       <c r="V29" s="4"/>
       <c r="W29" s="4"/>
     </row>
-    <row r="30" spans="2:23" ht="30" customHeight="1">
+    <row r="30" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B30" s="5"/>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
@@ -1457,7 +1582,7 @@
       <c r="V30" s="4"/>
       <c r="W30" s="4"/>
     </row>
-    <row r="31" spans="2:23" ht="30" customHeight="1">
+    <row r="31" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B31" s="5"/>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
@@ -1481,7 +1606,7 @@
       <c r="V31" s="4"/>
       <c r="W31" s="4"/>
     </row>
-    <row r="32" spans="2:23" ht="30" customHeight="1">
+    <row r="32" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B32" s="5"/>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
@@ -1505,7 +1630,7 @@
       <c r="V32" s="4"/>
       <c r="W32" s="4"/>
     </row>
-    <row r="33" spans="2:23" ht="30" customHeight="1">
+    <row r="33" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B33" s="5"/>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
@@ -1529,7 +1654,7 @@
       <c r="V33" s="4"/>
       <c r="W33" s="4"/>
     </row>
-    <row r="34" spans="2:23" ht="30" customHeight="1">
+    <row r="34" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B34" s="5"/>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
@@ -1553,7 +1678,7 @@
       <c r="V34" s="4"/>
       <c r="W34" s="4"/>
     </row>
-    <row r="35" spans="2:23" ht="30" customHeight="1">
+    <row r="35" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B35" s="5"/>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
@@ -1577,7 +1702,7 @@
       <c r="V35" s="4"/>
       <c r="W35" s="4"/>
     </row>
-    <row r="36" spans="2:23" ht="30" customHeight="1">
+    <row r="36" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B36" s="5"/>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
@@ -1601,7 +1726,7 @@
       <c r="V36" s="4"/>
       <c r="W36" s="4"/>
     </row>
-    <row r="37" spans="2:23" ht="30" customHeight="1">
+    <row r="37" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B37" s="5"/>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
@@ -1625,7 +1750,7 @@
       <c r="V37" s="4"/>
       <c r="W37" s="4"/>
     </row>
-    <row r="38" spans="2:23" ht="30" customHeight="1">
+    <row r="38" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B38" s="5"/>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
@@ -1649,7 +1774,7 @@
       <c r="V38" s="4"/>
       <c r="W38" s="4"/>
     </row>
-    <row r="39" spans="2:23" ht="30" customHeight="1">
+    <row r="39" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B39" s="5"/>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
@@ -1673,7 +1798,7 @@
       <c r="V39" s="4"/>
       <c r="W39" s="4"/>
     </row>
-    <row r="40" spans="2:23" ht="30" customHeight="1">
+    <row r="40" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B40" s="5"/>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
@@ -1697,7 +1822,7 @@
       <c r="V40" s="4"/>
       <c r="W40" s="4"/>
     </row>
-    <row r="41" spans="2:23" ht="30" customHeight="1">
+    <row r="41" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B41" s="5"/>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
@@ -1721,7 +1846,7 @@
       <c r="V41" s="4"/>
       <c r="W41" s="4"/>
     </row>
-    <row r="42" spans="2:23" ht="30" customHeight="1">
+    <row r="42" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B42" s="5"/>
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
@@ -1745,7 +1870,7 @@
       <c r="V42" s="4"/>
       <c r="W42" s="4"/>
     </row>
-    <row r="43" spans="2:23" ht="30" customHeight="1">
+    <row r="43" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B43" s="5"/>
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
@@ -1769,7 +1894,7 @@
       <c r="V43" s="4"/>
       <c r="W43" s="4"/>
     </row>
-    <row r="44" spans="2:23" ht="30" customHeight="1">
+    <row r="44" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B44" s="5"/>
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
@@ -1793,7 +1918,7 @@
       <c r="V44" s="4"/>
       <c r="W44" s="4"/>
     </row>
-    <row r="45" spans="2:23" ht="30" customHeight="1">
+    <row r="45" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B45" s="5"/>
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
@@ -1817,7 +1942,7 @@
       <c r="V45" s="4"/>
       <c r="W45" s="4"/>
     </row>
-    <row r="46" spans="2:23" ht="30" customHeight="1">
+    <row r="46" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B46" s="5"/>
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
@@ -1841,7 +1966,7 @@
       <c r="V46" s="4"/>
       <c r="W46" s="4"/>
     </row>
-    <row r="47" spans="2:23" ht="30" customHeight="1">
+    <row r="47" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B47" s="5"/>
       <c r="C47" s="2"/>
       <c r="D47" s="2"/>
@@ -1865,7 +1990,7 @@
       <c r="V47" s="4"/>
       <c r="W47" s="4"/>
     </row>
-    <row r="48" spans="2:23" ht="30" customHeight="1">
+    <row r="48" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B48" s="5"/>
       <c r="C48" s="2"/>
       <c r="D48" s="2"/>
@@ -1889,7 +2014,7 @@
       <c r="V48" s="4"/>
       <c r="W48" s="4"/>
     </row>
-    <row r="49" spans="2:23" ht="30" customHeight="1">
+    <row r="49" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B49" s="5"/>
       <c r="C49" s="2"/>
       <c r="D49" s="2"/>
@@ -1913,7 +2038,7 @@
       <c r="V49" s="4"/>
       <c r="W49" s="4"/>
     </row>
-    <row r="50" spans="2:23" ht="30" customHeight="1">
+    <row r="50" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B50" s="5"/>
       <c r="C50" s="2"/>
       <c r="D50" s="2"/>
@@ -1937,7 +2062,7 @@
       <c r="V50" s="4"/>
       <c r="W50" s="4"/>
     </row>
-    <row r="51" spans="2:23" ht="30" customHeight="1">
+    <row r="51" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B51" s="5"/>
       <c r="C51" s="2"/>
       <c r="D51" s="2"/>
@@ -1961,7 +2086,7 @@
       <c r="V51" s="4"/>
       <c r="W51" s="4"/>
     </row>
-    <row r="52" spans="2:23" ht="30" customHeight="1">
+    <row r="52" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B52" s="5"/>
       <c r="C52" s="2"/>
       <c r="D52" s="2"/>
@@ -1985,7 +2110,7 @@
       <c r="V52" s="4"/>
       <c r="W52" s="4"/>
     </row>
-    <row r="53" spans="2:23" ht="30" customHeight="1">
+    <row r="53" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B53" s="5"/>
       <c r="C53" s="2"/>
       <c r="D53" s="2"/>
@@ -2009,7 +2134,7 @@
       <c r="V53" s="4"/>
       <c r="W53" s="4"/>
     </row>
-    <row r="54" spans="2:23" ht="30" customHeight="1">
+    <row r="54" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B54" s="5"/>
       <c r="C54" s="2"/>
       <c r="D54" s="2"/>
@@ -2033,7 +2158,7 @@
       <c r="V54" s="4"/>
       <c r="W54" s="4"/>
     </row>
-    <row r="55" spans="2:23" ht="30" customHeight="1">
+    <row r="55" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B55" s="5"/>
       <c r="C55" s="2"/>
       <c r="D55" s="2"/>
@@ -2057,7 +2182,7 @@
       <c r="V55" s="4"/>
       <c r="W55" s="4"/>
     </row>
-    <row r="56" spans="2:23" ht="30" customHeight="1">
+    <row r="56" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B56" s="5"/>
       <c r="C56" s="2"/>
       <c r="D56" s="2"/>
@@ -2081,7 +2206,7 @@
       <c r="V56" s="4"/>
       <c r="W56" s="4"/>
     </row>
-    <row r="57" spans="2:23" ht="30" customHeight="1">
+    <row r="57" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B57" s="5"/>
       <c r="C57" s="2"/>
       <c r="D57" s="2"/>
@@ -2105,7 +2230,7 @@
       <c r="V57" s="4"/>
       <c r="W57" s="4"/>
     </row>
-    <row r="58" spans="2:23" ht="30" customHeight="1">
+    <row r="58" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B58" s="5"/>
       <c r="C58" s="2"/>
       <c r="D58" s="2"/>
@@ -2129,7 +2254,7 @@
       <c r="V58" s="4"/>
       <c r="W58" s="4"/>
     </row>
-    <row r="59" spans="2:23" ht="30" customHeight="1">
+    <row r="59" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B59" s="5"/>
       <c r="C59" s="2"/>
       <c r="D59" s="2"/>
@@ -2153,7 +2278,7 @@
       <c r="V59" s="4"/>
       <c r="W59" s="4"/>
     </row>
-    <row r="60" spans="2:23" ht="30" customHeight="1">
+    <row r="60" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B60" s="5"/>
       <c r="C60" s="2"/>
       <c r="D60" s="2"/>
@@ -2177,7 +2302,7 @@
       <c r="V60" s="4"/>
       <c r="W60" s="4"/>
     </row>
-    <row r="61" spans="2:23" ht="30" customHeight="1">
+    <row r="61" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B61" s="5"/>
       <c r="C61" s="2"/>
       <c r="D61" s="2"/>
@@ -2201,7 +2326,7 @@
       <c r="V61" s="4"/>
       <c r="W61" s="4"/>
     </row>
-    <row r="62" spans="2:23" ht="30" customHeight="1">
+    <row r="62" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B62" s="5"/>
       <c r="C62" s="2"/>
       <c r="D62" s="2"/>
@@ -2225,7 +2350,7 @@
       <c r="V62" s="4"/>
       <c r="W62" s="4"/>
     </row>
-    <row r="63" spans="2:23" ht="30" customHeight="1">
+    <row r="63" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B63" s="5"/>
       <c r="C63" s="2"/>
       <c r="D63" s="2"/>
@@ -2249,7 +2374,7 @@
       <c r="V63" s="4"/>
       <c r="W63" s="4"/>
     </row>
-    <row r="64" spans="2:23" ht="30" customHeight="1">
+    <row r="64" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B64" s="5"/>
       <c r="C64" s="2"/>
       <c r="D64" s="2"/>
@@ -2273,7 +2398,7 @@
       <c r="V64" s="4"/>
       <c r="W64" s="4"/>
     </row>
-    <row r="65" spans="2:23" ht="30" customHeight="1">
+    <row r="65" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B65" s="5"/>
       <c r="C65" s="2"/>
       <c r="D65" s="2"/>
@@ -2297,7 +2422,7 @@
       <c r="V65" s="4"/>
       <c r="W65" s="4"/>
     </row>
-    <row r="66" spans="2:23" ht="30" customHeight="1">
+    <row r="66" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B66" s="5"/>
       <c r="C66" s="2"/>
       <c r="D66" s="2"/>
@@ -2321,7 +2446,7 @@
       <c r="V66" s="4"/>
       <c r="W66" s="4"/>
     </row>
-    <row r="67" spans="2:23" ht="30" customHeight="1">
+    <row r="67" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B67" s="5"/>
       <c r="C67" s="2"/>
       <c r="D67" s="2"/>
@@ -2345,7 +2470,7 @@
       <c r="V67" s="4"/>
       <c r="W67" s="4"/>
     </row>
-    <row r="68" spans="2:23" ht="30" customHeight="1">
+    <row r="68" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B68" s="5"/>
       <c r="C68" s="2"/>
       <c r="D68" s="2"/>
@@ -2369,7 +2494,7 @@
       <c r="V68" s="4"/>
       <c r="W68" s="4"/>
     </row>
-    <row r="69" spans="2:23" ht="30" customHeight="1">
+    <row r="69" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B69" s="5"/>
       <c r="C69" s="2"/>
       <c r="D69" s="2"/>
@@ -2393,7 +2518,7 @@
       <c r="V69" s="4"/>
       <c r="W69" s="4"/>
     </row>
-    <row r="70" spans="2:23" ht="30" customHeight="1">
+    <row r="70" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B70" s="5"/>
       <c r="C70" s="6"/>
       <c r="D70" s="6"/>
@@ -2417,7 +2542,7 @@
       <c r="V70" s="7"/>
       <c r="W70" s="4"/>
     </row>
-    <row r="71" spans="2:23" ht="30" customHeight="1">
+    <row r="71" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B71" s="5"/>
       <c r="C71" s="6"/>
       <c r="D71" s="6"/>
@@ -2441,7 +2566,7 @@
       <c r="V71" s="7"/>
       <c r="W71" s="4"/>
     </row>
-    <row r="72" spans="2:23" ht="30" customHeight="1">
+    <row r="72" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B72" s="5"/>
       <c r="C72" s="6"/>
       <c r="D72" s="6"/>
@@ -2465,7 +2590,7 @@
       <c r="V72" s="7"/>
       <c r="W72" s="4"/>
     </row>
-    <row r="73" spans="2:23" ht="30" customHeight="1">
+    <row r="73" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B73" s="5"/>
       <c r="C73" s="6"/>
       <c r="D73" s="6"/>
@@ -2489,7 +2614,7 @@
       <c r="V73" s="7"/>
       <c r="W73" s="4"/>
     </row>
-    <row r="74" spans="2:23" ht="30" customHeight="1">
+    <row r="74" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B74" s="5"/>
       <c r="C74" s="6"/>
       <c r="D74" s="6"/>
@@ -2513,7 +2638,7 @@
       <c r="V74" s="7"/>
       <c r="W74" s="4"/>
     </row>
-    <row r="75" spans="2:23" ht="30" customHeight="1">
+    <row r="75" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B75" s="5"/>
       <c r="C75" s="6"/>
       <c r="D75" s="6"/>
@@ -2537,7 +2662,7 @@
       <c r="V75" s="7"/>
       <c r="W75" s="4"/>
     </row>
-    <row r="76" spans="2:23" ht="30" customHeight="1">
+    <row r="76" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B76" s="5"/>
       <c r="C76" s="6"/>
       <c r="D76" s="6"/>
@@ -2561,7 +2686,7 @@
       <c r="V76" s="7"/>
       <c r="W76" s="4"/>
     </row>
-    <row r="77" spans="2:23" ht="30" customHeight="1">
+    <row r="77" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B77" s="5"/>
       <c r="C77" s="6"/>
       <c r="D77" s="6"/>
@@ -2585,7 +2710,7 @@
       <c r="V77" s="7"/>
       <c r="W77" s="4"/>
     </row>
-    <row r="78" spans="2:23" ht="30" customHeight="1">
+    <row r="78" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B78" s="5"/>
       <c r="C78" s="6"/>
       <c r="D78" s="6"/>
@@ -2609,7 +2734,7 @@
       <c r="V78" s="7"/>
       <c r="W78" s="4"/>
     </row>
-    <row r="79" spans="2:23" ht="30" customHeight="1">
+    <row r="79" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B79" s="5"/>
       <c r="C79" s="6"/>
       <c r="D79" s="6"/>
@@ -2633,7 +2758,7 @@
       <c r="V79" s="7"/>
       <c r="W79" s="4"/>
     </row>
-    <row r="80" spans="2:23" ht="30" customHeight="1">
+    <row r="80" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B80" s="5"/>
       <c r="C80" s="6"/>
       <c r="D80" s="6"/>
@@ -2657,7 +2782,7 @@
       <c r="V80" s="7"/>
       <c r="W80" s="4"/>
     </row>
-    <row r="81" spans="2:23" ht="30" customHeight="1">
+    <row r="81" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B81" s="5"/>
       <c r="C81" s="6"/>
       <c r="D81" s="6"/>
@@ -2681,7 +2806,7 @@
       <c r="V81" s="7"/>
       <c r="W81" s="4"/>
     </row>
-    <row r="82" spans="2:23" ht="30" customHeight="1">
+    <row r="82" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B82" s="5"/>
       <c r="C82" s="6"/>
       <c r="D82" s="6"/>
@@ -2705,7 +2830,7 @@
       <c r="V82" s="7"/>
       <c r="W82" s="4"/>
     </row>
-    <row r="83" spans="2:23" ht="30" customHeight="1">
+    <row r="83" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B83" s="5"/>
       <c r="C83" s="6"/>
       <c r="D83" s="6"/>
@@ -2729,7 +2854,7 @@
       <c r="V83" s="7"/>
       <c r="W83" s="4"/>
     </row>
-    <row r="84" spans="2:23" ht="30" customHeight="1">
+    <row r="84" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B84" s="5"/>
       <c r="C84" s="6"/>
       <c r="D84" s="6"/>
@@ -2753,7 +2878,7 @@
       <c r="V84" s="7"/>
       <c r="W84" s="4"/>
     </row>
-    <row r="85" spans="2:23" ht="30" customHeight="1">
+    <row r="85" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B85" s="5"/>
       <c r="C85" s="6"/>
       <c r="D85" s="6"/>
@@ -2777,7 +2902,7 @@
       <c r="V85" s="7"/>
       <c r="W85" s="4"/>
     </row>
-    <row r="86" spans="2:23" ht="30" customHeight="1">
+    <row r="86" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B86" s="5"/>
       <c r="C86" s="6"/>
       <c r="D86" s="6"/>
@@ -2801,7 +2926,7 @@
       <c r="V86" s="7"/>
       <c r="W86" s="4"/>
     </row>
-    <row r="87" spans="2:23" ht="30" customHeight="1">
+    <row r="87" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B87" s="5"/>
       <c r="C87" s="6"/>
       <c r="D87" s="6"/>
@@ -2825,7 +2950,7 @@
       <c r="V87" s="7"/>
       <c r="W87" s="4"/>
     </row>
-    <row r="88" spans="2:23" ht="30" customHeight="1">
+    <row r="88" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B88" s="5"/>
       <c r="C88" s="6"/>
       <c r="D88" s="6"/>
@@ -2849,7 +2974,7 @@
       <c r="V88" s="7"/>
       <c r="W88" s="4"/>
     </row>
-    <row r="89" spans="2:23" ht="30" customHeight="1">
+    <row r="89" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B89" s="5"/>
       <c r="C89" s="6"/>
       <c r="D89" s="6"/>
@@ -2873,7 +2998,7 @@
       <c r="V89" s="7"/>
       <c r="W89" s="4"/>
     </row>
-    <row r="90" spans="2:23" ht="30" customHeight="1">
+    <row r="90" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B90" s="5"/>
       <c r="C90" s="6"/>
       <c r="D90" s="6"/>
@@ -2897,7 +3022,7 @@
       <c r="V90" s="7"/>
       <c r="W90" s="4"/>
     </row>
-    <row r="91" spans="2:23" ht="30" customHeight="1">
+    <row r="91" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B91" s="5"/>
       <c r="C91" s="6"/>
       <c r="D91" s="6"/>
@@ -2921,7 +3046,7 @@
       <c r="V91" s="7"/>
       <c r="W91" s="4"/>
     </row>
-    <row r="92" spans="2:23" ht="30" customHeight="1">
+    <row r="92" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B92" s="5"/>
       <c r="C92" s="6"/>
       <c r="D92" s="6"/>
@@ -2945,7 +3070,7 @@
       <c r="V92" s="7"/>
       <c r="W92" s="4"/>
     </row>
-    <row r="93" spans="2:23" ht="30" customHeight="1">
+    <row r="93" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B93" s="5"/>
       <c r="C93" s="6"/>
       <c r="D93" s="6"/>
@@ -2969,7 +3094,7 @@
       <c r="V93" s="7"/>
       <c r="W93" s="4"/>
     </row>
-    <row r="94" spans="2:23" ht="30" customHeight="1">
+    <row r="94" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B94" s="5"/>
       <c r="C94" s="6"/>
       <c r="D94" s="6"/>
@@ -2993,7 +3118,7 @@
       <c r="V94" s="7"/>
       <c r="W94" s="4"/>
     </row>
-    <row r="95" spans="2:23" ht="30" customHeight="1">
+    <row r="95" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B95" s="5"/>
       <c r="C95" s="6"/>
       <c r="D95" s="6"/>
@@ -3017,7 +3142,7 @@
       <c r="V95" s="7"/>
       <c r="W95" s="4"/>
     </row>
-    <row r="96" spans="2:23" ht="30" customHeight="1">
+    <row r="96" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B96" s="5"/>
       <c r="C96" s="6"/>
       <c r="D96" s="6"/>
@@ -3041,7 +3166,7 @@
       <c r="V96" s="7"/>
       <c r="W96" s="4"/>
     </row>
-    <row r="97" spans="2:23" ht="30" customHeight="1">
+    <row r="97" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B97" s="5"/>
       <c r="C97" s="6"/>
       <c r="D97" s="6"/>
@@ -3065,7 +3190,7 @@
       <c r="V97" s="7"/>
       <c r="W97" s="4"/>
     </row>
-    <row r="98" spans="2:23" ht="30" customHeight="1">
+    <row r="98" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B98" s="5"/>
       <c r="C98" s="6"/>
       <c r="D98" s="6"/>
@@ -3089,7 +3214,7 @@
       <c r="V98" s="7"/>
       <c r="W98" s="4"/>
     </row>
-    <row r="99" spans="2:23" ht="30" customHeight="1">
+    <row r="99" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B99" s="5"/>
       <c r="C99" s="6"/>
       <c r="D99" s="6"/>
@@ -3113,7 +3238,7 @@
       <c r="V99" s="7"/>
       <c r="W99" s="4"/>
     </row>
-    <row r="100" spans="2:23" ht="30" customHeight="1">
+    <row r="100" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B100" s="5"/>
       <c r="C100" s="6"/>
       <c r="D100" s="6"/>
@@ -3137,7 +3262,7 @@
       <c r="V100" s="7"/>
       <c r="W100" s="4"/>
     </row>
-    <row r="101" spans="2:23" ht="30" customHeight="1">
+    <row r="101" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B101" s="5"/>
       <c r="C101" s="6"/>
       <c r="D101" s="6"/>
@@ -3161,7 +3286,7 @@
       <c r="V101" s="7"/>
       <c r="W101" s="4"/>
     </row>
-    <row r="102" spans="2:23" ht="30" customHeight="1">
+    <row r="102" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B102" s="5"/>
       <c r="C102" s="6"/>
       <c r="D102" s="6"/>
@@ -3185,7 +3310,7 @@
       <c r="V102" s="7"/>
       <c r="W102" s="4"/>
     </row>
-    <row r="103" spans="2:23" ht="30" customHeight="1">
+    <row r="103" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B103" s="5"/>
       <c r="C103" s="6"/>
       <c r="D103" s="6"/>
@@ -3209,7 +3334,7 @@
       <c r="V103" s="7"/>
       <c r="W103" s="4"/>
     </row>
-    <row r="104" spans="2:23" ht="30" customHeight="1">
+    <row r="104" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B104" s="5"/>
       <c r="C104" s="6"/>
       <c r="D104" s="6"/>
@@ -3233,7 +3358,7 @@
       <c r="V104" s="7"/>
       <c r="W104" s="4"/>
     </row>
-    <row r="105" spans="2:23" ht="30" customHeight="1">
+    <row r="105" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B105" s="5"/>
       <c r="C105" s="6"/>
       <c r="D105" s="6"/>
@@ -3257,7 +3382,7 @@
       <c r="V105" s="7"/>
       <c r="W105" s="4"/>
     </row>
-    <row r="106" spans="2:23" ht="30" customHeight="1">
+    <row r="106" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B106" s="5"/>
       <c r="C106" s="6"/>
       <c r="D106" s="6"/>
@@ -3281,7 +3406,7 @@
       <c r="V106" s="7"/>
       <c r="W106" s="4"/>
     </row>
-    <row r="107" spans="2:23" ht="30" customHeight="1">
+    <row r="107" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B107" s="5"/>
       <c r="C107" s="6"/>
       <c r="D107" s="6"/>
@@ -3305,7 +3430,7 @@
       <c r="V107" s="7"/>
       <c r="W107" s="4"/>
     </row>
-    <row r="108" spans="2:23" ht="30" customHeight="1">
+    <row r="108" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B108" s="5"/>
       <c r="C108" s="6"/>
       <c r="D108" s="6"/>
@@ -3329,7 +3454,7 @@
       <c r="V108" s="7"/>
       <c r="W108" s="4"/>
     </row>
-    <row r="109" spans="2:23" ht="30" customHeight="1">
+    <row r="109" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B109" s="5"/>
       <c r="C109" s="6"/>
       <c r="D109" s="6"/>
@@ -3353,7 +3478,7 @@
       <c r="V109" s="7"/>
       <c r="W109" s="4"/>
     </row>
-    <row r="110" spans="2:23" ht="30" customHeight="1">
+    <row r="110" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B110" s="5"/>
       <c r="C110" s="6"/>
       <c r="D110" s="6"/>
@@ -3377,7 +3502,7 @@
       <c r="V110" s="7"/>
       <c r="W110" s="4"/>
     </row>
-    <row r="111" spans="2:23" ht="30" customHeight="1">
+    <row r="111" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B111" s="5"/>
       <c r="C111" s="6"/>
       <c r="D111" s="6"/>
@@ -3401,7 +3526,7 @@
       <c r="V111" s="7"/>
       <c r="W111" s="4"/>
     </row>
-    <row r="112" spans="2:23" ht="30" customHeight="1">
+    <row r="112" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B112" s="5"/>
       <c r="C112" s="6"/>
       <c r="D112" s="6"/>
@@ -3425,7 +3550,7 @@
       <c r="V112" s="7"/>
       <c r="W112" s="4"/>
     </row>
-    <row r="113" spans="2:23" ht="30" customHeight="1">
+    <row r="113" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B113" s="5"/>
       <c r="C113" s="6"/>
       <c r="D113" s="6"/>
@@ -3449,7 +3574,7 @@
       <c r="V113" s="7"/>
       <c r="W113" s="4"/>
     </row>
-    <row r="114" spans="2:23" ht="30" customHeight="1">
+    <row r="114" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B114" s="5"/>
       <c r="C114" s="6"/>
       <c r="D114" s="6"/>
@@ -3473,7 +3598,7 @@
       <c r="V114" s="7"/>
       <c r="W114" s="4"/>
     </row>
-    <row r="115" spans="2:23" ht="30" customHeight="1">
+    <row r="115" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B115" s="5"/>
       <c r="C115" s="6"/>
       <c r="D115" s="6"/>
@@ -3497,7 +3622,7 @@
       <c r="V115" s="7"/>
       <c r="W115" s="4"/>
     </row>
-    <row r="116" spans="2:23" ht="30" customHeight="1">
+    <row r="116" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B116" s="5"/>
       <c r="C116" s="6"/>
       <c r="D116" s="6"/>
@@ -3521,7 +3646,7 @@
       <c r="V116" s="7"/>
       <c r="W116" s="4"/>
     </row>
-    <row r="117" spans="2:23" ht="30" customHeight="1">
+    <row r="117" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B117" s="5"/>
       <c r="C117" s="6"/>
       <c r="D117" s="6"/>
@@ -3545,7 +3670,7 @@
       <c r="V117" s="7"/>
       <c r="W117" s="4"/>
     </row>
-    <row r="118" spans="2:23" ht="30" customHeight="1">
+    <row r="118" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B118" s="5"/>
       <c r="C118" s="6"/>
       <c r="D118" s="6"/>
@@ -3569,7 +3694,7 @@
       <c r="V118" s="7"/>
       <c r="W118" s="4"/>
     </row>
-    <row r="119" spans="2:23" ht="30" customHeight="1">
+    <row r="119" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B119" s="5"/>
       <c r="C119" s="6"/>
       <c r="D119" s="6"/>
@@ -3593,7 +3718,7 @@
       <c r="V119" s="7"/>
       <c r="W119" s="4"/>
     </row>
-    <row r="120" spans="2:23" ht="30" customHeight="1">
+    <row r="120" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B120" s="5"/>
       <c r="C120" s="6"/>
       <c r="D120" s="6"/>
@@ -3617,7 +3742,7 @@
       <c r="V120" s="7"/>
       <c r="W120" s="4"/>
     </row>
-    <row r="121" spans="2:23" ht="30" customHeight="1">
+    <row r="121" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B121" s="5"/>
       <c r="C121" s="6"/>
       <c r="D121" s="6"/>
@@ -3641,7 +3766,7 @@
       <c r="V121" s="7"/>
       <c r="W121" s="4"/>
     </row>
-    <row r="122" spans="2:23" ht="30" customHeight="1">
+    <row r="122" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B122" s="5"/>
       <c r="C122" s="6"/>
       <c r="D122" s="6"/>
@@ -3665,7 +3790,7 @@
       <c r="V122" s="7"/>
       <c r="W122" s="4"/>
     </row>
-    <row r="123" spans="2:23" ht="30" customHeight="1">
+    <row r="123" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B123" s="5"/>
       <c r="C123" s="6"/>
       <c r="D123" s="6"/>
@@ -3689,7 +3814,7 @@
       <c r="V123" s="7"/>
       <c r="W123" s="4"/>
     </row>
-    <row r="124" spans="2:23" ht="30" customHeight="1">
+    <row r="124" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B124" s="5"/>
       <c r="C124" s="6"/>
       <c r="D124" s="6"/>
@@ -3713,7 +3838,7 @@
       <c r="V124" s="7"/>
       <c r="W124" s="4"/>
     </row>
-    <row r="125" spans="2:23" ht="30" customHeight="1">
+    <row r="125" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B125" s="5"/>
       <c r="C125" s="6"/>
       <c r="D125" s="6"/>
@@ -3737,7 +3862,7 @@
       <c r="V125" s="7"/>
       <c r="W125" s="4"/>
     </row>
-    <row r="126" spans="2:23" ht="30" customHeight="1">
+    <row r="126" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B126" s="5"/>
       <c r="C126" s="6"/>
       <c r="D126" s="6"/>
@@ -3761,7 +3886,7 @@
       <c r="V126" s="7"/>
       <c r="W126" s="4"/>
     </row>
-    <row r="127" spans="2:23" ht="30" customHeight="1">
+    <row r="127" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B127" s="5"/>
       <c r="C127" s="6"/>
       <c r="D127" s="6"/>
@@ -3785,7 +3910,7 @@
       <c r="V127" s="7"/>
       <c r="W127" s="4"/>
     </row>
-    <row r="128" spans="2:23" ht="30" customHeight="1">
+    <row r="128" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B128" s="5"/>
       <c r="C128" s="6"/>
       <c r="D128" s="6"/>
@@ -3809,7 +3934,7 @@
       <c r="V128" s="7"/>
       <c r="W128" s="4"/>
     </row>
-    <row r="129" spans="2:23" ht="30" customHeight="1">
+    <row r="129" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B129" s="5"/>
       <c r="C129" s="6"/>
       <c r="D129" s="6"/>
@@ -3833,7 +3958,7 @@
       <c r="V129" s="7"/>
       <c r="W129" s="4"/>
     </row>
-    <row r="130" spans="2:23" ht="30" customHeight="1">
+    <row r="130" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B130" s="5"/>
       <c r="C130" s="6"/>
       <c r="D130" s="6"/>
@@ -3857,7 +3982,7 @@
       <c r="V130" s="7"/>
       <c r="W130" s="4"/>
     </row>
-    <row r="131" spans="2:23" ht="30" customHeight="1">
+    <row r="131" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B131" s="5"/>
       <c r="C131" s="6"/>
       <c r="D131" s="6"/>
@@ -3881,7 +4006,7 @@
       <c r="V131" s="7"/>
       <c r="W131" s="4"/>
     </row>
-    <row r="132" spans="2:23" ht="30" customHeight="1">
+    <row r="132" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B132" s="5"/>
       <c r="C132" s="6"/>
       <c r="D132" s="6"/>
@@ -3905,7 +4030,7 @@
       <c r="V132" s="7"/>
       <c r="W132" s="4"/>
     </row>
-    <row r="133" spans="2:23" ht="30" customHeight="1">
+    <row r="133" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B133" s="5"/>
       <c r="C133" s="6"/>
       <c r="D133" s="6"/>
@@ -3929,7 +4054,7 @@
       <c r="V133" s="7"/>
       <c r="W133" s="4"/>
     </row>
-    <row r="134" spans="2:23" ht="30" customHeight="1">
+    <row r="134" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B134" s="5"/>
       <c r="C134" s="6"/>
       <c r="D134" s="6"/>
@@ -3953,7 +4078,7 @@
       <c r="V134" s="7"/>
       <c r="W134" s="4"/>
     </row>
-    <row r="135" spans="2:23" ht="30" customHeight="1">
+    <row r="135" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B135" s="5"/>
       <c r="C135" s="6"/>
       <c r="D135" s="6"/>
@@ -3977,7 +4102,7 @@
       <c r="V135" s="7"/>
       <c r="W135" s="4"/>
     </row>
-    <row r="136" spans="2:23" ht="30" customHeight="1">
+    <row r="136" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B136" s="5"/>
       <c r="C136" s="6"/>
       <c r="D136" s="6"/>
@@ -4001,7 +4126,7 @@
       <c r="V136" s="7"/>
       <c r="W136" s="4"/>
     </row>
-    <row r="137" spans="2:23" ht="30" customHeight="1">
+    <row r="137" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B137" s="5"/>
       <c r="C137" s="6"/>
       <c r="D137" s="6"/>
@@ -4025,7 +4150,7 @@
       <c r="V137" s="7"/>
       <c r="W137" s="4"/>
     </row>
-    <row r="138" spans="2:23" ht="30" customHeight="1">
+    <row r="138" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B138" s="5"/>
       <c r="C138" s="6"/>
       <c r="D138" s="6"/>
@@ -4049,7 +4174,7 @@
       <c r="V138" s="7"/>
       <c r="W138" s="4"/>
     </row>
-    <row r="139" spans="2:23" ht="30" customHeight="1">
+    <row r="139" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B139" s="5"/>
       <c r="C139" s="6"/>
       <c r="D139" s="6"/>
@@ -4073,7 +4198,7 @@
       <c r="V139" s="7"/>
       <c r="W139" s="4"/>
     </row>
-    <row r="140" spans="2:23" ht="30" customHeight="1">
+    <row r="140" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B140" s="5"/>
       <c r="C140" s="6"/>
       <c r="D140" s="6"/>
@@ -4097,7 +4222,7 @@
       <c r="V140" s="7"/>
       <c r="W140" s="4"/>
     </row>
-    <row r="141" spans="2:23" ht="30" customHeight="1">
+    <row r="141" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B141" s="5"/>
       <c r="C141" s="6"/>
       <c r="D141" s="6"/>
@@ -4121,7 +4246,7 @@
       <c r="V141" s="7"/>
       <c r="W141" s="4"/>
     </row>
-    <row r="142" spans="2:23" ht="30" customHeight="1">
+    <row r="142" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B142" s="5"/>
       <c r="C142" s="6"/>
       <c r="D142" s="6"/>
@@ -4145,7 +4270,7 @@
       <c r="V142" s="7"/>
       <c r="W142" s="4"/>
     </row>
-    <row r="143" spans="2:23" ht="30" customHeight="1">
+    <row r="143" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B143" s="5"/>
       <c r="C143" s="6"/>
       <c r="D143" s="6"/>
@@ -4169,7 +4294,7 @@
       <c r="V143" s="7"/>
       <c r="W143" s="4"/>
     </row>
-    <row r="144" spans="2:23" ht="30" customHeight="1">
+    <row r="144" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B144" s="5"/>
       <c r="C144" s="6"/>
       <c r="D144" s="6"/>
@@ -4193,91 +4318,91 @@
       <c r="V144" s="7"/>
       <c r="W144" s="4"/>
     </row>
-    <row r="145" spans="2:23" ht="30" customHeight="1">
+    <row r="145" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B145" s="8"/>
       <c r="W145" s="9"/>
     </row>
-    <row r="146" spans="2:23" ht="30" customHeight="1">
+    <row r="146" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B146" s="8"/>
       <c r="W146" s="9"/>
     </row>
-    <row r="147" spans="2:23" ht="30" customHeight="1">
+    <row r="147" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B147" s="8"/>
       <c r="W147" s="9"/>
     </row>
-    <row r="148" spans="2:23" ht="30" customHeight="1">
+    <row r="148" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B148" s="8"/>
       <c r="W148" s="9"/>
     </row>
-    <row r="149" spans="2:23" ht="30" customHeight="1">
+    <row r="149" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B149" s="8"/>
       <c r="W149" s="9"/>
     </row>
-    <row r="150" spans="2:23" ht="30" customHeight="1">
+    <row r="150" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B150" s="8"/>
       <c r="W150" s="9"/>
     </row>
-    <row r="151" spans="2:23" ht="30" customHeight="1">
+    <row r="151" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B151" s="8"/>
       <c r="W151" s="9"/>
     </row>
-    <row r="152" spans="2:23" ht="30" customHeight="1">
+    <row r="152" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B152" s="8"/>
       <c r="W152" s="9"/>
     </row>
-    <row r="153" spans="2:23" ht="30" customHeight="1">
+    <row r="153" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B153" s="8"/>
       <c r="W153" s="9"/>
     </row>
-    <row r="154" spans="2:23" ht="30" customHeight="1">
+    <row r="154" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B154" s="8"/>
       <c r="W154" s="9"/>
     </row>
-    <row r="155" spans="2:23" ht="30" customHeight="1">
+    <row r="155" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B155" s="8"/>
       <c r="W155" s="9"/>
     </row>
-    <row r="156" spans="2:23" ht="30" customHeight="1">
+    <row r="156" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B156" s="8"/>
       <c r="W156" s="9"/>
     </row>
-    <row r="157" spans="2:23" ht="30" customHeight="1">
+    <row r="157" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B157" s="8"/>
       <c r="W157" s="9"/>
     </row>
-    <row r="158" spans="2:23" ht="30" customHeight="1">
+    <row r="158" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B158" s="8"/>
       <c r="W158" s="9"/>
     </row>
-    <row r="159" spans="2:23" ht="30" customHeight="1">
+    <row r="159" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B159" s="8"/>
       <c r="W159" s="9"/>
     </row>
-    <row r="160" spans="2:23" ht="30" customHeight="1">
+    <row r="160" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B160" s="8"/>
     </row>
-    <row r="161" spans="2:2" ht="30" customHeight="1">
+    <row r="161" spans="2:2" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B161" s="8"/>
     </row>
-    <row r="162" spans="2:2" ht="30" customHeight="1">
+    <row r="162" spans="2:2" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B162" s="8"/>
     </row>
-    <row r="163" spans="2:2" ht="30" customHeight="1">
+    <row r="163" spans="2:2" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B163" s="8"/>
     </row>
-    <row r="164" spans="2:2" ht="30" customHeight="1">
+    <row r="164" spans="2:2" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B164" s="8"/>
     </row>
-    <row r="165" spans="2:2" ht="30" customHeight="1">
+    <row r="165" spans="2:2" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B165" s="8"/>
     </row>
-    <row r="166" spans="2:2" ht="30" customHeight="1">
+    <row r="166" spans="2:2" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B166" s="8"/>
     </row>
-    <row r="167" spans="2:2" ht="30" customHeight="1">
+    <row r="167" spans="2:2" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B167" s="8"/>
     </row>
-    <row r="168" spans="2:2" ht="30" customHeight="1">
+    <row r="168" spans="2:2" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B168" s="8"/>
     </row>
   </sheetData>

--- a/ตรวจงาน/รายการตรวจสอบแผนภาพ.xlsx
+++ b/ตรวจงาน/รายการตรวจสอบแผนภาพ.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pee20\OneDrive\เดสก์ท็อป\SE3.1\team4\ตรวจงาน\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\team4\ตรวจงาน\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49A17053-56A3-46B1-B1D8-6E88C03DC41C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79249615-4571-456F-B180-BB4E9200C005}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{C108298C-C5B1-4B19-85F2-2856099ECD84}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C108298C-C5B1-4B19-85F2-2856099ECD84}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,10 +23,6 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -298,16 +294,16 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -316,14 +312,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -641,104 +637,104 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E552DF3-66E3-4350-8BDE-D3162A98C3B8}">
   <dimension ref="B2:W168"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.7"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="8.69921875" style="1"/>
-    <col min="2" max="2" width="36.3984375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="8.69921875" style="1"/>
-    <col min="4" max="4" width="9.09765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.09765625" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.69921875" style="1"/>
+    <col min="1" max="1" width="8.75" style="1"/>
+    <col min="2" max="2" width="36.375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="8.75" style="1"/>
+    <col min="4" max="4" width="10.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.125" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.75" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:23" ht="50.4" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B2" s="22" t="s">
+    <row r="2" spans="2:23" ht="50.45" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B2" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="22" t="s">
+      <c r="C2" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="22" t="s">
+      <c r="D2" s="16" t="s">
         <v>8</v>
       </c>
       <c r="E2" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="15" t="s">
+      <c r="F2" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="15" t="s">
+      <c r="G2" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="15" t="s">
+      <c r="H2" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="15" t="s">
+      <c r="I2" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="J2" s="15" t="s">
+      <c r="J2" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="15" t="s">
+      <c r="K2" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="15" t="s">
+      <c r="L2" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="M2" s="15" t="s">
+      <c r="M2" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="N2" s="15" t="s">
+      <c r="N2" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="O2" s="15" t="s">
+      <c r="O2" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="P2" s="16" t="s">
+      <c r="P2" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="Q2" s="15" t="s">
+      <c r="Q2" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="R2" s="15" t="s">
+      <c r="R2" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="S2" s="14"/>
-      <c r="T2" s="14"/>
-      <c r="U2" s="14"/>
-      <c r="V2" s="14"/>
-      <c r="W2" s="14"/>
-    </row>
-    <row r="3" spans="2:23" ht="51.75" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B3" s="22"/>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
+      <c r="S2" s="20"/>
+      <c r="T2" s="20"/>
+      <c r="U2" s="20"/>
+      <c r="V2" s="20"/>
+      <c r="W2" s="20"/>
+    </row>
+    <row r="3" spans="2:23" ht="51.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
       <c r="E3" s="19"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="15"/>
-      <c r="J3" s="15"/>
-      <c r="K3" s="15"/>
-      <c r="L3" s="15"/>
-      <c r="M3" s="15"/>
-      <c r="N3" s="15"/>
-      <c r="O3" s="15"/>
-      <c r="P3" s="17"/>
-      <c r="Q3" s="15"/>
-      <c r="R3" s="15"/>
-      <c r="S3" s="14"/>
-      <c r="T3" s="14"/>
-      <c r="U3" s="14"/>
-      <c r="V3" s="14"/>
-      <c r="W3" s="14"/>
-    </row>
-    <row r="4" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B4" s="20" t="s">
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="17"/>
+      <c r="K3" s="17"/>
+      <c r="L3" s="17"/>
+      <c r="M3" s="17"/>
+      <c r="N3" s="17"/>
+      <c r="O3" s="17"/>
+      <c r="P3" s="22"/>
+      <c r="Q3" s="17"/>
+      <c r="R3" s="17"/>
+      <c r="S3" s="20"/>
+      <c r="T3" s="20"/>
+      <c r="U3" s="20"/>
+      <c r="V3" s="20"/>
+      <c r="W3" s="20"/>
+    </row>
+    <row r="4" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B4" s="14" t="s">
         <v>15</v>
       </c>
       <c r="C4" s="2" t="s">
@@ -778,8 +774,8 @@
       <c r="V4" s="4"/>
       <c r="W4" s="4"/>
     </row>
-    <row r="5" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B5" s="21"/>
+    <row r="5" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B5" s="15"/>
       <c r="C5" s="2" t="s">
         <v>20</v>
       </c>
@@ -813,7 +809,7 @@
       <c r="V5" s="4"/>
       <c r="W5" s="4"/>
     </row>
-    <row r="6" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="6" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B6" s="11" t="s">
         <v>22</v>
       </c>
@@ -851,7 +847,7 @@
       <c r="V6" s="4"/>
       <c r="W6" s="4"/>
     </row>
-    <row r="7" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="7" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B7" s="11" t="s">
         <v>25</v>
       </c>
@@ -889,7 +885,7 @@
       <c r="V7" s="4"/>
       <c r="W7" s="4"/>
     </row>
-    <row r="8" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="8" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B8" s="11" t="s">
         <v>26</v>
       </c>
@@ -927,7 +923,7 @@
       <c r="V8" s="4"/>
       <c r="W8" s="4"/>
     </row>
-    <row r="9" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="9" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B9" s="11" t="s">
         <v>28</v>
       </c>
@@ -965,7 +961,7 @@
       <c r="V9" s="4"/>
       <c r="W9" s="4"/>
     </row>
-    <row r="10" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="10" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B10" s="11" t="s">
         <v>29</v>
       </c>
@@ -1003,7 +999,7 @@
       <c r="V10" s="4"/>
       <c r="W10" s="4"/>
     </row>
-    <row r="11" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="11" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B11" s="11" t="s">
         <v>30</v>
       </c>
@@ -1041,7 +1037,7 @@
       <c r="V11" s="4"/>
       <c r="W11" s="4"/>
     </row>
-    <row r="12" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="12" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B12" s="12" t="s">
         <v>31</v>
       </c>
@@ -1082,7 +1078,7 @@
       <c r="V12" s="4"/>
       <c r="W12" s="4"/>
     </row>
-    <row r="13" spans="2:23" ht="31.8" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="13" spans="2:23" ht="31.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B13" s="13" t="s">
         <v>38</v>
       </c>
@@ -1123,7 +1119,7 @@
       <c r="V13" s="4"/>
       <c r="W13" s="4"/>
     </row>
-    <row r="14" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="14" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B14" s="13" t="s">
         <v>35</v>
       </c>
@@ -1160,7 +1156,7 @@
       <c r="V14" s="4"/>
       <c r="W14" s="4"/>
     </row>
-    <row r="15" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="15" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B15" s="13" t="s">
         <v>36</v>
       </c>
@@ -1203,7 +1199,7 @@
       <c r="V15" s="4"/>
       <c r="W15" s="4"/>
     </row>
-    <row r="16" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="16" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B16" s="13" t="s">
         <v>37</v>
       </c>
@@ -1246,7 +1242,7 @@
       <c r="V16" s="4"/>
       <c r="W16" s="4"/>
     </row>
-    <row r="17" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="17" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B17" s="5"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
@@ -1270,7 +1266,7 @@
       <c r="V17" s="4"/>
       <c r="W17" s="4"/>
     </row>
-    <row r="18" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="18" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B18" s="5"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
@@ -1294,7 +1290,7 @@
       <c r="V18" s="4"/>
       <c r="W18" s="4"/>
     </row>
-    <row r="19" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="19" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B19" s="5"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
@@ -1318,7 +1314,7 @@
       <c r="V19" s="4"/>
       <c r="W19" s="4"/>
     </row>
-    <row r="20" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="20" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B20" s="5"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
@@ -1342,7 +1338,7 @@
       <c r="V20" s="4"/>
       <c r="W20" s="4"/>
     </row>
-    <row r="21" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="21" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B21" s="5"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
@@ -1366,7 +1362,7 @@
       <c r="V21" s="4"/>
       <c r="W21" s="4"/>
     </row>
-    <row r="22" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="22" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B22" s="5"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
@@ -1390,7 +1386,7 @@
       <c r="V22" s="4"/>
       <c r="W22" s="4"/>
     </row>
-    <row r="23" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="23" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B23" s="5"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
@@ -1414,7 +1410,7 @@
       <c r="V23" s="4"/>
       <c r="W23" s="4"/>
     </row>
-    <row r="24" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="24" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B24" s="5"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
@@ -1438,7 +1434,7 @@
       <c r="V24" s="4"/>
       <c r="W24" s="4"/>
     </row>
-    <row r="25" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="25" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B25" s="5"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
@@ -1462,7 +1458,7 @@
       <c r="V25" s="4"/>
       <c r="W25" s="4"/>
     </row>
-    <row r="26" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="26" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B26" s="5"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
@@ -1486,7 +1482,7 @@
       <c r="V26" s="4"/>
       <c r="W26" s="4"/>
     </row>
-    <row r="27" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="27" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B27" s="5"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
@@ -1510,7 +1506,7 @@
       <c r="V27" s="4"/>
       <c r="W27" s="4"/>
     </row>
-    <row r="28" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="28" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B28" s="5"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
@@ -1534,7 +1530,7 @@
       <c r="V28" s="4"/>
       <c r="W28" s="4"/>
     </row>
-    <row r="29" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="29" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B29" s="5"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
@@ -1558,7 +1554,7 @@
       <c r="V29" s="4"/>
       <c r="W29" s="4"/>
     </row>
-    <row r="30" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="30" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B30" s="5"/>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
@@ -1582,7 +1578,7 @@
       <c r="V30" s="4"/>
       <c r="W30" s="4"/>
     </row>
-    <row r="31" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="31" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B31" s="5"/>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
@@ -1606,7 +1602,7 @@
       <c r="V31" s="4"/>
       <c r="W31" s="4"/>
     </row>
-    <row r="32" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="32" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B32" s="5"/>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
@@ -1630,7 +1626,7 @@
       <c r="V32" s="4"/>
       <c r="W32" s="4"/>
     </row>
-    <row r="33" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="33" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B33" s="5"/>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
@@ -1654,7 +1650,7 @@
       <c r="V33" s="4"/>
       <c r="W33" s="4"/>
     </row>
-    <row r="34" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="34" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B34" s="5"/>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
@@ -1678,7 +1674,7 @@
       <c r="V34" s="4"/>
       <c r="W34" s="4"/>
     </row>
-    <row r="35" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="35" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B35" s="5"/>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
@@ -1702,7 +1698,7 @@
       <c r="V35" s="4"/>
       <c r="W35" s="4"/>
     </row>
-    <row r="36" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="36" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B36" s="5"/>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
@@ -1726,7 +1722,7 @@
       <c r="V36" s="4"/>
       <c r="W36" s="4"/>
     </row>
-    <row r="37" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="37" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B37" s="5"/>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
@@ -1750,7 +1746,7 @@
       <c r="V37" s="4"/>
       <c r="W37" s="4"/>
     </row>
-    <row r="38" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="38" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B38" s="5"/>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
@@ -1774,7 +1770,7 @@
       <c r="V38" s="4"/>
       <c r="W38" s="4"/>
     </row>
-    <row r="39" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="39" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B39" s="5"/>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
@@ -1798,7 +1794,7 @@
       <c r="V39" s="4"/>
       <c r="W39" s="4"/>
     </row>
-    <row r="40" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="40" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B40" s="5"/>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
@@ -1822,7 +1818,7 @@
       <c r="V40" s="4"/>
       <c r="W40" s="4"/>
     </row>
-    <row r="41" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="41" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B41" s="5"/>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
@@ -1846,7 +1842,7 @@
       <c r="V41" s="4"/>
       <c r="W41" s="4"/>
     </row>
-    <row r="42" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="42" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B42" s="5"/>
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
@@ -1870,7 +1866,7 @@
       <c r="V42" s="4"/>
       <c r="W42" s="4"/>
     </row>
-    <row r="43" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="43" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B43" s="5"/>
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
@@ -1894,7 +1890,7 @@
       <c r="V43" s="4"/>
       <c r="W43" s="4"/>
     </row>
-    <row r="44" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="44" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B44" s="5"/>
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
@@ -1918,7 +1914,7 @@
       <c r="V44" s="4"/>
       <c r="W44" s="4"/>
     </row>
-    <row r="45" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="45" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B45" s="5"/>
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
@@ -1942,7 +1938,7 @@
       <c r="V45" s="4"/>
       <c r="W45" s="4"/>
     </row>
-    <row r="46" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="46" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B46" s="5"/>
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
@@ -1966,7 +1962,7 @@
       <c r="V46" s="4"/>
       <c r="W46" s="4"/>
     </row>
-    <row r="47" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="47" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B47" s="5"/>
       <c r="C47" s="2"/>
       <c r="D47" s="2"/>
@@ -1990,7 +1986,7 @@
       <c r="V47" s="4"/>
       <c r="W47" s="4"/>
     </row>
-    <row r="48" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="48" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B48" s="5"/>
       <c r="C48" s="2"/>
       <c r="D48" s="2"/>
@@ -2014,7 +2010,7 @@
       <c r="V48" s="4"/>
       <c r="W48" s="4"/>
     </row>
-    <row r="49" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="49" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B49" s="5"/>
       <c r="C49" s="2"/>
       <c r="D49" s="2"/>
@@ -2038,7 +2034,7 @@
       <c r="V49" s="4"/>
       <c r="W49" s="4"/>
     </row>
-    <row r="50" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="50" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B50" s="5"/>
       <c r="C50" s="2"/>
       <c r="D50" s="2"/>
@@ -2062,7 +2058,7 @@
       <c r="V50" s="4"/>
       <c r="W50" s="4"/>
     </row>
-    <row r="51" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="51" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B51" s="5"/>
       <c r="C51" s="2"/>
       <c r="D51" s="2"/>
@@ -2086,7 +2082,7 @@
       <c r="V51" s="4"/>
       <c r="W51" s="4"/>
     </row>
-    <row r="52" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="52" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B52" s="5"/>
       <c r="C52" s="2"/>
       <c r="D52" s="2"/>
@@ -2110,7 +2106,7 @@
       <c r="V52" s="4"/>
       <c r="W52" s="4"/>
     </row>
-    <row r="53" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="53" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B53" s="5"/>
       <c r="C53" s="2"/>
       <c r="D53" s="2"/>
@@ -2134,7 +2130,7 @@
       <c r="V53" s="4"/>
       <c r="W53" s="4"/>
     </row>
-    <row r="54" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="54" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B54" s="5"/>
       <c r="C54" s="2"/>
       <c r="D54" s="2"/>
@@ -2158,7 +2154,7 @@
       <c r="V54" s="4"/>
       <c r="W54" s="4"/>
     </row>
-    <row r="55" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="55" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B55" s="5"/>
       <c r="C55" s="2"/>
       <c r="D55" s="2"/>
@@ -2182,7 +2178,7 @@
       <c r="V55" s="4"/>
       <c r="W55" s="4"/>
     </row>
-    <row r="56" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="56" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B56" s="5"/>
       <c r="C56" s="2"/>
       <c r="D56" s="2"/>
@@ -2206,7 +2202,7 @@
       <c r="V56" s="4"/>
       <c r="W56" s="4"/>
     </row>
-    <row r="57" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="57" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B57" s="5"/>
       <c r="C57" s="2"/>
       <c r="D57" s="2"/>
@@ -2230,7 +2226,7 @@
       <c r="V57" s="4"/>
       <c r="W57" s="4"/>
     </row>
-    <row r="58" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="58" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B58" s="5"/>
       <c r="C58" s="2"/>
       <c r="D58" s="2"/>
@@ -2254,7 +2250,7 @@
       <c r="V58" s="4"/>
       <c r="W58" s="4"/>
     </row>
-    <row r="59" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="59" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B59" s="5"/>
       <c r="C59" s="2"/>
       <c r="D59" s="2"/>
@@ -2278,7 +2274,7 @@
       <c r="V59" s="4"/>
       <c r="W59" s="4"/>
     </row>
-    <row r="60" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="60" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B60" s="5"/>
       <c r="C60" s="2"/>
       <c r="D60" s="2"/>
@@ -2302,7 +2298,7 @@
       <c r="V60" s="4"/>
       <c r="W60" s="4"/>
     </row>
-    <row r="61" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="61" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B61" s="5"/>
       <c r="C61" s="2"/>
       <c r="D61" s="2"/>
@@ -2326,7 +2322,7 @@
       <c r="V61" s="4"/>
       <c r="W61" s="4"/>
     </row>
-    <row r="62" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="62" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B62" s="5"/>
       <c r="C62" s="2"/>
       <c r="D62" s="2"/>
@@ -2350,7 +2346,7 @@
       <c r="V62" s="4"/>
       <c r="W62" s="4"/>
     </row>
-    <row r="63" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="63" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B63" s="5"/>
       <c r="C63" s="2"/>
       <c r="D63" s="2"/>
@@ -2374,7 +2370,7 @@
       <c r="V63" s="4"/>
       <c r="W63" s="4"/>
     </row>
-    <row r="64" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="64" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B64" s="5"/>
       <c r="C64" s="2"/>
       <c r="D64" s="2"/>
@@ -2398,7 +2394,7 @@
       <c r="V64" s="4"/>
       <c r="W64" s="4"/>
     </row>
-    <row r="65" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="65" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B65" s="5"/>
       <c r="C65" s="2"/>
       <c r="D65" s="2"/>
@@ -2422,7 +2418,7 @@
       <c r="V65" s="4"/>
       <c r="W65" s="4"/>
     </row>
-    <row r="66" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="66" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B66" s="5"/>
       <c r="C66" s="2"/>
       <c r="D66" s="2"/>
@@ -2446,7 +2442,7 @@
       <c r="V66" s="4"/>
       <c r="W66" s="4"/>
     </row>
-    <row r="67" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="67" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B67" s="5"/>
       <c r="C67" s="2"/>
       <c r="D67" s="2"/>
@@ -2470,7 +2466,7 @@
       <c r="V67" s="4"/>
       <c r="W67" s="4"/>
     </row>
-    <row r="68" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="68" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B68" s="5"/>
       <c r="C68" s="2"/>
       <c r="D68" s="2"/>
@@ -2494,7 +2490,7 @@
       <c r="V68" s="4"/>
       <c r="W68" s="4"/>
     </row>
-    <row r="69" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="69" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B69" s="5"/>
       <c r="C69" s="2"/>
       <c r="D69" s="2"/>
@@ -2518,7 +2514,7 @@
       <c r="V69" s="4"/>
       <c r="W69" s="4"/>
     </row>
-    <row r="70" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="70" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B70" s="5"/>
       <c r="C70" s="6"/>
       <c r="D70" s="6"/>
@@ -2542,7 +2538,7 @@
       <c r="V70" s="7"/>
       <c r="W70" s="4"/>
     </row>
-    <row r="71" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="71" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B71" s="5"/>
       <c r="C71" s="6"/>
       <c r="D71" s="6"/>
@@ -2566,7 +2562,7 @@
       <c r="V71" s="7"/>
       <c r="W71" s="4"/>
     </row>
-    <row r="72" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="72" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B72" s="5"/>
       <c r="C72" s="6"/>
       <c r="D72" s="6"/>
@@ -2590,7 +2586,7 @@
       <c r="V72" s="7"/>
       <c r="W72" s="4"/>
     </row>
-    <row r="73" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="73" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B73" s="5"/>
       <c r="C73" s="6"/>
       <c r="D73" s="6"/>
@@ -2614,7 +2610,7 @@
       <c r="V73" s="7"/>
       <c r="W73" s="4"/>
     </row>
-    <row r="74" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="74" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B74" s="5"/>
       <c r="C74" s="6"/>
       <c r="D74" s="6"/>
@@ -2638,7 +2634,7 @@
       <c r="V74" s="7"/>
       <c r="W74" s="4"/>
     </row>
-    <row r="75" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="75" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B75" s="5"/>
       <c r="C75" s="6"/>
       <c r="D75" s="6"/>
@@ -2662,7 +2658,7 @@
       <c r="V75" s="7"/>
       <c r="W75" s="4"/>
     </row>
-    <row r="76" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="76" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B76" s="5"/>
       <c r="C76" s="6"/>
       <c r="D76" s="6"/>
@@ -2686,7 +2682,7 @@
       <c r="V76" s="7"/>
       <c r="W76" s="4"/>
     </row>
-    <row r="77" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="77" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B77" s="5"/>
       <c r="C77" s="6"/>
       <c r="D77" s="6"/>
@@ -2710,7 +2706,7 @@
       <c r="V77" s="7"/>
       <c r="W77" s="4"/>
     </row>
-    <row r="78" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="78" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B78" s="5"/>
       <c r="C78" s="6"/>
       <c r="D78" s="6"/>
@@ -2734,7 +2730,7 @@
       <c r="V78" s="7"/>
       <c r="W78" s="4"/>
     </row>
-    <row r="79" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="79" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B79" s="5"/>
       <c r="C79" s="6"/>
       <c r="D79" s="6"/>
@@ -2758,7 +2754,7 @@
       <c r="V79" s="7"/>
       <c r="W79" s="4"/>
     </row>
-    <row r="80" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="80" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B80" s="5"/>
       <c r="C80" s="6"/>
       <c r="D80" s="6"/>
@@ -2782,7 +2778,7 @@
       <c r="V80" s="7"/>
       <c r="W80" s="4"/>
     </row>
-    <row r="81" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="81" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B81" s="5"/>
       <c r="C81" s="6"/>
       <c r="D81" s="6"/>
@@ -2806,7 +2802,7 @@
       <c r="V81" s="7"/>
       <c r="W81" s="4"/>
     </row>
-    <row r="82" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="82" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B82" s="5"/>
       <c r="C82" s="6"/>
       <c r="D82" s="6"/>
@@ -2830,7 +2826,7 @@
       <c r="V82" s="7"/>
       <c r="W82" s="4"/>
     </row>
-    <row r="83" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="83" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B83" s="5"/>
       <c r="C83" s="6"/>
       <c r="D83" s="6"/>
@@ -2854,7 +2850,7 @@
       <c r="V83" s="7"/>
       <c r="W83" s="4"/>
     </row>
-    <row r="84" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="84" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B84" s="5"/>
       <c r="C84" s="6"/>
       <c r="D84" s="6"/>
@@ -2878,7 +2874,7 @@
       <c r="V84" s="7"/>
       <c r="W84" s="4"/>
     </row>
-    <row r="85" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="85" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B85" s="5"/>
       <c r="C85" s="6"/>
       <c r="D85" s="6"/>
@@ -2902,7 +2898,7 @@
       <c r="V85" s="7"/>
       <c r="W85" s="4"/>
     </row>
-    <row r="86" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="86" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B86" s="5"/>
       <c r="C86" s="6"/>
       <c r="D86" s="6"/>
@@ -2926,7 +2922,7 @@
       <c r="V86" s="7"/>
       <c r="W86" s="4"/>
     </row>
-    <row r="87" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="87" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B87" s="5"/>
       <c r="C87" s="6"/>
       <c r="D87" s="6"/>
@@ -2950,7 +2946,7 @@
       <c r="V87" s="7"/>
       <c r="W87" s="4"/>
     </row>
-    <row r="88" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="88" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B88" s="5"/>
       <c r="C88" s="6"/>
       <c r="D88" s="6"/>
@@ -2974,7 +2970,7 @@
       <c r="V88" s="7"/>
       <c r="W88" s="4"/>
     </row>
-    <row r="89" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="89" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B89" s="5"/>
       <c r="C89" s="6"/>
       <c r="D89" s="6"/>
@@ -2998,7 +2994,7 @@
       <c r="V89" s="7"/>
       <c r="W89" s="4"/>
     </row>
-    <row r="90" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="90" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B90" s="5"/>
       <c r="C90" s="6"/>
       <c r="D90" s="6"/>
@@ -3022,7 +3018,7 @@
       <c r="V90" s="7"/>
       <c r="W90" s="4"/>
     </row>
-    <row r="91" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="91" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B91" s="5"/>
       <c r="C91" s="6"/>
       <c r="D91" s="6"/>
@@ -3046,7 +3042,7 @@
       <c r="V91" s="7"/>
       <c r="W91" s="4"/>
     </row>
-    <row r="92" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="92" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B92" s="5"/>
       <c r="C92" s="6"/>
       <c r="D92" s="6"/>
@@ -3070,7 +3066,7 @@
       <c r="V92" s="7"/>
       <c r="W92" s="4"/>
     </row>
-    <row r="93" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="93" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B93" s="5"/>
       <c r="C93" s="6"/>
       <c r="D93" s="6"/>
@@ -3094,7 +3090,7 @@
       <c r="V93" s="7"/>
       <c r="W93" s="4"/>
     </row>
-    <row r="94" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="94" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B94" s="5"/>
       <c r="C94" s="6"/>
       <c r="D94" s="6"/>
@@ -3118,7 +3114,7 @@
       <c r="V94" s="7"/>
       <c r="W94" s="4"/>
     </row>
-    <row r="95" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="95" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B95" s="5"/>
       <c r="C95" s="6"/>
       <c r="D95" s="6"/>
@@ -3142,7 +3138,7 @@
       <c r="V95" s="7"/>
       <c r="W95" s="4"/>
     </row>
-    <row r="96" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="96" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B96" s="5"/>
       <c r="C96" s="6"/>
       <c r="D96" s="6"/>
@@ -3166,7 +3162,7 @@
       <c r="V96" s="7"/>
       <c r="W96" s="4"/>
     </row>
-    <row r="97" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="97" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B97" s="5"/>
       <c r="C97" s="6"/>
       <c r="D97" s="6"/>
@@ -3190,7 +3186,7 @@
       <c r="V97" s="7"/>
       <c r="W97" s="4"/>
     </row>
-    <row r="98" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="98" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B98" s="5"/>
       <c r="C98" s="6"/>
       <c r="D98" s="6"/>
@@ -3214,7 +3210,7 @@
       <c r="V98" s="7"/>
       <c r="W98" s="4"/>
     </row>
-    <row r="99" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="99" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B99" s="5"/>
       <c r="C99" s="6"/>
       <c r="D99" s="6"/>
@@ -3238,7 +3234,7 @@
       <c r="V99" s="7"/>
       <c r="W99" s="4"/>
     </row>
-    <row r="100" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="100" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B100" s="5"/>
       <c r="C100" s="6"/>
       <c r="D100" s="6"/>
@@ -3262,7 +3258,7 @@
       <c r="V100" s="7"/>
       <c r="W100" s="4"/>
     </row>
-    <row r="101" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="101" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B101" s="5"/>
       <c r="C101" s="6"/>
       <c r="D101" s="6"/>
@@ -3286,7 +3282,7 @@
       <c r="V101" s="7"/>
       <c r="W101" s="4"/>
     </row>
-    <row r="102" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="102" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B102" s="5"/>
       <c r="C102" s="6"/>
       <c r="D102" s="6"/>
@@ -3310,7 +3306,7 @@
       <c r="V102" s="7"/>
       <c r="W102" s="4"/>
     </row>
-    <row r="103" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="103" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B103" s="5"/>
       <c r="C103" s="6"/>
       <c r="D103" s="6"/>
@@ -3334,7 +3330,7 @@
       <c r="V103" s="7"/>
       <c r="W103" s="4"/>
     </row>
-    <row r="104" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="104" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B104" s="5"/>
       <c r="C104" s="6"/>
       <c r="D104" s="6"/>
@@ -3358,7 +3354,7 @@
       <c r="V104" s="7"/>
       <c r="W104" s="4"/>
     </row>
-    <row r="105" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="105" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B105" s="5"/>
       <c r="C105" s="6"/>
       <c r="D105" s="6"/>
@@ -3382,7 +3378,7 @@
       <c r="V105" s="7"/>
       <c r="W105" s="4"/>
     </row>
-    <row r="106" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="106" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B106" s="5"/>
       <c r="C106" s="6"/>
       <c r="D106" s="6"/>
@@ -3406,7 +3402,7 @@
       <c r="V106" s="7"/>
       <c r="W106" s="4"/>
     </row>
-    <row r="107" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="107" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B107" s="5"/>
       <c r="C107" s="6"/>
       <c r="D107" s="6"/>
@@ -3430,7 +3426,7 @@
       <c r="V107" s="7"/>
       <c r="W107" s="4"/>
     </row>
-    <row r="108" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="108" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B108" s="5"/>
       <c r="C108" s="6"/>
       <c r="D108" s="6"/>
@@ -3454,7 +3450,7 @@
       <c r="V108" s="7"/>
       <c r="W108" s="4"/>
     </row>
-    <row r="109" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="109" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B109" s="5"/>
       <c r="C109" s="6"/>
       <c r="D109" s="6"/>
@@ -3478,7 +3474,7 @@
       <c r="V109" s="7"/>
       <c r="W109" s="4"/>
     </row>
-    <row r="110" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="110" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B110" s="5"/>
       <c r="C110" s="6"/>
       <c r="D110" s="6"/>
@@ -3502,7 +3498,7 @@
       <c r="V110" s="7"/>
       <c r="W110" s="4"/>
     </row>
-    <row r="111" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="111" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B111" s="5"/>
       <c r="C111" s="6"/>
       <c r="D111" s="6"/>
@@ -3526,7 +3522,7 @@
       <c r="V111" s="7"/>
       <c r="W111" s="4"/>
     </row>
-    <row r="112" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="112" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B112" s="5"/>
       <c r="C112" s="6"/>
       <c r="D112" s="6"/>
@@ -3550,7 +3546,7 @@
       <c r="V112" s="7"/>
       <c r="W112" s="4"/>
     </row>
-    <row r="113" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="113" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B113" s="5"/>
       <c r="C113" s="6"/>
       <c r="D113" s="6"/>
@@ -3574,7 +3570,7 @@
       <c r="V113" s="7"/>
       <c r="W113" s="4"/>
     </row>
-    <row r="114" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="114" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B114" s="5"/>
       <c r="C114" s="6"/>
       <c r="D114" s="6"/>
@@ -3598,7 +3594,7 @@
       <c r="V114" s="7"/>
       <c r="W114" s="4"/>
     </row>
-    <row r="115" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="115" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B115" s="5"/>
       <c r="C115" s="6"/>
       <c r="D115" s="6"/>
@@ -3622,7 +3618,7 @@
       <c r="V115" s="7"/>
       <c r="W115" s="4"/>
     </row>
-    <row r="116" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="116" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B116" s="5"/>
       <c r="C116" s="6"/>
       <c r="D116" s="6"/>
@@ -3646,7 +3642,7 @@
       <c r="V116" s="7"/>
       <c r="W116" s="4"/>
     </row>
-    <row r="117" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="117" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B117" s="5"/>
       <c r="C117" s="6"/>
       <c r="D117" s="6"/>
@@ -3670,7 +3666,7 @@
       <c r="V117" s="7"/>
       <c r="W117" s="4"/>
     </row>
-    <row r="118" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="118" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B118" s="5"/>
       <c r="C118" s="6"/>
       <c r="D118" s="6"/>
@@ -3694,7 +3690,7 @@
       <c r="V118" s="7"/>
       <c r="W118" s="4"/>
     </row>
-    <row r="119" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="119" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B119" s="5"/>
       <c r="C119" s="6"/>
       <c r="D119" s="6"/>
@@ -3718,7 +3714,7 @@
       <c r="V119" s="7"/>
       <c r="W119" s="4"/>
     </row>
-    <row r="120" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="120" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B120" s="5"/>
       <c r="C120" s="6"/>
       <c r="D120" s="6"/>
@@ -3742,7 +3738,7 @@
       <c r="V120" s="7"/>
       <c r="W120" s="4"/>
     </row>
-    <row r="121" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="121" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B121" s="5"/>
       <c r="C121" s="6"/>
       <c r="D121" s="6"/>
@@ -3766,7 +3762,7 @@
       <c r="V121" s="7"/>
       <c r="W121" s="4"/>
     </row>
-    <row r="122" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="122" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B122" s="5"/>
       <c r="C122" s="6"/>
       <c r="D122" s="6"/>
@@ -3790,7 +3786,7 @@
       <c r="V122" s="7"/>
       <c r="W122" s="4"/>
     </row>
-    <row r="123" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="123" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B123" s="5"/>
       <c r="C123" s="6"/>
       <c r="D123" s="6"/>
@@ -3814,7 +3810,7 @@
       <c r="V123" s="7"/>
       <c r="W123" s="4"/>
     </row>
-    <row r="124" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="124" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B124" s="5"/>
       <c r="C124" s="6"/>
       <c r="D124" s="6"/>
@@ -3838,7 +3834,7 @@
       <c r="V124" s="7"/>
       <c r="W124" s="4"/>
     </row>
-    <row r="125" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="125" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B125" s="5"/>
       <c r="C125" s="6"/>
       <c r="D125" s="6"/>
@@ -3862,7 +3858,7 @@
       <c r="V125" s="7"/>
       <c r="W125" s="4"/>
     </row>
-    <row r="126" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="126" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B126" s="5"/>
       <c r="C126" s="6"/>
       <c r="D126" s="6"/>
@@ -3886,7 +3882,7 @@
       <c r="V126" s="7"/>
       <c r="W126" s="4"/>
     </row>
-    <row r="127" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="127" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B127" s="5"/>
       <c r="C127" s="6"/>
       <c r="D127" s="6"/>
@@ -3910,7 +3906,7 @@
       <c r="V127" s="7"/>
       <c r="W127" s="4"/>
     </row>
-    <row r="128" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="128" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B128" s="5"/>
       <c r="C128" s="6"/>
       <c r="D128" s="6"/>
@@ -3934,7 +3930,7 @@
       <c r="V128" s="7"/>
       <c r="W128" s="4"/>
     </row>
-    <row r="129" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="129" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B129" s="5"/>
       <c r="C129" s="6"/>
       <c r="D129" s="6"/>
@@ -3958,7 +3954,7 @@
       <c r="V129" s="7"/>
       <c r="W129" s="4"/>
     </row>
-    <row r="130" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="130" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B130" s="5"/>
       <c r="C130" s="6"/>
       <c r="D130" s="6"/>
@@ -3982,7 +3978,7 @@
       <c r="V130" s="7"/>
       <c r="W130" s="4"/>
     </row>
-    <row r="131" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="131" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B131" s="5"/>
       <c r="C131" s="6"/>
       <c r="D131" s="6"/>
@@ -4006,7 +4002,7 @@
       <c r="V131" s="7"/>
       <c r="W131" s="4"/>
     </row>
-    <row r="132" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="132" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B132" s="5"/>
       <c r="C132" s="6"/>
       <c r="D132" s="6"/>
@@ -4030,7 +4026,7 @@
       <c r="V132" s="7"/>
       <c r="W132" s="4"/>
     </row>
-    <row r="133" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="133" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B133" s="5"/>
       <c r="C133" s="6"/>
       <c r="D133" s="6"/>
@@ -4054,7 +4050,7 @@
       <c r="V133" s="7"/>
       <c r="W133" s="4"/>
     </row>
-    <row r="134" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="134" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B134" s="5"/>
       <c r="C134" s="6"/>
       <c r="D134" s="6"/>
@@ -4078,7 +4074,7 @@
       <c r="V134" s="7"/>
       <c r="W134" s="4"/>
     </row>
-    <row r="135" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="135" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B135" s="5"/>
       <c r="C135" s="6"/>
       <c r="D135" s="6"/>
@@ -4102,7 +4098,7 @@
       <c r="V135" s="7"/>
       <c r="W135" s="4"/>
     </row>
-    <row r="136" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="136" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B136" s="5"/>
       <c r="C136" s="6"/>
       <c r="D136" s="6"/>
@@ -4126,7 +4122,7 @@
       <c r="V136" s="7"/>
       <c r="W136" s="4"/>
     </row>
-    <row r="137" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="137" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B137" s="5"/>
       <c r="C137" s="6"/>
       <c r="D137" s="6"/>
@@ -4150,7 +4146,7 @@
       <c r="V137" s="7"/>
       <c r="W137" s="4"/>
     </row>
-    <row r="138" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="138" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B138" s="5"/>
       <c r="C138" s="6"/>
       <c r="D138" s="6"/>
@@ -4174,7 +4170,7 @@
       <c r="V138" s="7"/>
       <c r="W138" s="4"/>
     </row>
-    <row r="139" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="139" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B139" s="5"/>
       <c r="C139" s="6"/>
       <c r="D139" s="6"/>
@@ -4198,7 +4194,7 @@
       <c r="V139" s="7"/>
       <c r="W139" s="4"/>
     </row>
-    <row r="140" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="140" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B140" s="5"/>
       <c r="C140" s="6"/>
       <c r="D140" s="6"/>
@@ -4222,7 +4218,7 @@
       <c r="V140" s="7"/>
       <c r="W140" s="4"/>
     </row>
-    <row r="141" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="141" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B141" s="5"/>
       <c r="C141" s="6"/>
       <c r="D141" s="6"/>
@@ -4246,7 +4242,7 @@
       <c r="V141" s="7"/>
       <c r="W141" s="4"/>
     </row>
-    <row r="142" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="142" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B142" s="5"/>
       <c r="C142" s="6"/>
       <c r="D142" s="6"/>
@@ -4270,7 +4266,7 @@
       <c r="V142" s="7"/>
       <c r="W142" s="4"/>
     </row>
-    <row r="143" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="143" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B143" s="5"/>
       <c r="C143" s="6"/>
       <c r="D143" s="6"/>
@@ -4294,7 +4290,7 @@
       <c r="V143" s="7"/>
       <c r="W143" s="4"/>
     </row>
-    <row r="144" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="144" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B144" s="5"/>
       <c r="C144" s="6"/>
       <c r="D144" s="6"/>
@@ -4318,110 +4314,95 @@
       <c r="V144" s="7"/>
       <c r="W144" s="4"/>
     </row>
-    <row r="145" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="145" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B145" s="8"/>
       <c r="W145" s="9"/>
     </row>
-    <row r="146" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="146" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B146" s="8"/>
       <c r="W146" s="9"/>
     </row>
-    <row r="147" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="147" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B147" s="8"/>
       <c r="W147" s="9"/>
     </row>
-    <row r="148" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="148" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B148" s="8"/>
       <c r="W148" s="9"/>
     </row>
-    <row r="149" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="149" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B149" s="8"/>
       <c r="W149" s="9"/>
     </row>
-    <row r="150" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="150" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B150" s="8"/>
       <c r="W150" s="9"/>
     </row>
-    <row r="151" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="151" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B151" s="8"/>
       <c r="W151" s="9"/>
     </row>
-    <row r="152" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="152" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B152" s="8"/>
       <c r="W152" s="9"/>
     </row>
-    <row r="153" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="153" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B153" s="8"/>
       <c r="W153" s="9"/>
     </row>
-    <row r="154" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="154" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B154" s="8"/>
       <c r="W154" s="9"/>
     </row>
-    <row r="155" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="155" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B155" s="8"/>
       <c r="W155" s="9"/>
     </row>
-    <row r="156" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="156" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B156" s="8"/>
       <c r="W156" s="9"/>
     </row>
-    <row r="157" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="157" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B157" s="8"/>
       <c r="W157" s="9"/>
     </row>
-    <row r="158" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="158" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B158" s="8"/>
       <c r="W158" s="9"/>
     </row>
-    <row r="159" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="159" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B159" s="8"/>
       <c r="W159" s="9"/>
     </row>
-    <row r="160" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="160" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B160" s="8"/>
     </row>
-    <row r="161" spans="2:2" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="161" spans="2:2" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B161" s="8"/>
     </row>
-    <row r="162" spans="2:2" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="162" spans="2:2" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B162" s="8"/>
     </row>
-    <row r="163" spans="2:2" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="163" spans="2:2" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B163" s="8"/>
     </row>
-    <row r="164" spans="2:2" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="164" spans="2:2" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B164" s="8"/>
     </row>
-    <row r="165" spans="2:2" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="165" spans="2:2" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B165" s="8"/>
     </row>
-    <row r="166" spans="2:2" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="166" spans="2:2" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B166" s="8"/>
     </row>
-    <row r="167" spans="2:2" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="167" spans="2:2" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B167" s="8"/>
     </row>
-    <row r="168" spans="2:2" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="168" spans="2:2" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B168" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="L2:L3"/>
-    <mergeCell ref="T2:T3"/>
-    <mergeCell ref="U2:U3"/>
-    <mergeCell ref="V2:V3"/>
     <mergeCell ref="W2:W3"/>
     <mergeCell ref="M2:M3"/>
     <mergeCell ref="N2:N3"/>
@@ -4430,6 +4411,21 @@
     <mergeCell ref="R2:R3"/>
     <mergeCell ref="S2:S3"/>
     <mergeCell ref="P2:P3"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="T2:T3"/>
+    <mergeCell ref="U2:U3"/>
+    <mergeCell ref="V2:V3"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="F2:F3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/ตรวจงาน/รายการตรวจสอบแผนภาพ.xlsx
+++ b/ตรวจงาน/รายการตรวจสอบแผนภาพ.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\team4\ตรวจงาน\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pee20\OneDrive\เดสก์ท็อป\SE3.1\team4\ตรวจงาน\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79249615-4571-456F-B180-BB4E9200C005}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CA44E8F-6132-499B-BA4F-F571BA1A92DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C108298C-C5B1-4B19-85F2-2856099ECD84}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{C108298C-C5B1-4B19-85F2-2856099ECD84}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,6 +23,10 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -30,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="41">
   <si>
     <t>คำผิด</t>
   </si>
@@ -148,12 +152,18 @@
   <si>
     <t>UC Description มอดูลพนักงานขับรถ</t>
   </si>
+  <si>
+    <t>UC Description มอดูลขนาดตู้</t>
+  </si>
+  <si>
+    <t>v1.3.1</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -174,6 +184,13 @@
       <color theme="1"/>
       <name val="TH Sarabun New"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <charset val="222"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -294,6 +311,24 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -302,24 +337,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -637,104 +654,104 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E552DF3-66E3-4350-8BDE-D3162A98C3B8}">
   <dimension ref="B2:W168"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.7"/>
   <cols>
-    <col min="1" max="1" width="8.75" style="1"/>
-    <col min="2" max="2" width="36.375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="8.75" style="1"/>
-    <col min="4" max="4" width="10.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.125" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.75" style="1"/>
+    <col min="1" max="1" width="8.69921875" style="1"/>
+    <col min="2" max="2" width="36.3984375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="8.69921875" style="1"/>
+    <col min="4" max="4" width="10.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.09765625" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.69921875" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:23" ht="50.45" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B2" s="16" t="s">
+    <row r="2" spans="2:23" ht="50.4" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="B2" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="16" t="s">
+      <c r="D2" s="22" t="s">
         <v>8</v>
       </c>
       <c r="E2" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="17" t="s">
+      <c r="F2" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="17" t="s">
+      <c r="G2" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="17" t="s">
+      <c r="H2" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="17" t="s">
+      <c r="I2" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="J2" s="17" t="s">
+      <c r="J2" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="17" t="s">
+      <c r="K2" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="17" t="s">
+      <c r="L2" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="M2" s="17" t="s">
+      <c r="M2" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="N2" s="17" t="s">
+      <c r="N2" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="O2" s="17" t="s">
+      <c r="O2" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="P2" s="21" t="s">
+      <c r="P2" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="Q2" s="17" t="s">
+      <c r="Q2" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="R2" s="17" t="s">
+      <c r="R2" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="S2" s="20"/>
-      <c r="T2" s="20"/>
-      <c r="U2" s="20"/>
-      <c r="V2" s="20"/>
-      <c r="W2" s="20"/>
-    </row>
-    <row r="3" spans="2:23" ht="51.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
+      <c r="S2" s="14"/>
+      <c r="T2" s="14"/>
+      <c r="U2" s="14"/>
+      <c r="V2" s="14"/>
+      <c r="W2" s="14"/>
+    </row>
+    <row r="3" spans="2:23" ht="51.75" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="B3" s="22"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
       <c r="E3" s="19"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="17"/>
-      <c r="J3" s="17"/>
-      <c r="K3" s="17"/>
-      <c r="L3" s="17"/>
-      <c r="M3" s="17"/>
-      <c r="N3" s="17"/>
-      <c r="O3" s="17"/>
-      <c r="P3" s="22"/>
-      <c r="Q3" s="17"/>
-      <c r="R3" s="17"/>
-      <c r="S3" s="20"/>
-      <c r="T3" s="20"/>
-      <c r="U3" s="20"/>
-      <c r="V3" s="20"/>
-      <c r="W3" s="20"/>
-    </row>
-    <row r="4" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B4" s="14" t="s">
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="15"/>
+      <c r="K3" s="15"/>
+      <c r="L3" s="15"/>
+      <c r="M3" s="15"/>
+      <c r="N3" s="15"/>
+      <c r="O3" s="15"/>
+      <c r="P3" s="17"/>
+      <c r="Q3" s="15"/>
+      <c r="R3" s="15"/>
+      <c r="S3" s="14"/>
+      <c r="T3" s="14"/>
+      <c r="U3" s="14"/>
+      <c r="V3" s="14"/>
+      <c r="W3" s="14"/>
+    </row>
+    <row r="4" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="B4" s="20" t="s">
         <v>15</v>
       </c>
       <c r="C4" s="2" t="s">
@@ -774,8 +791,8 @@
       <c r="V4" s="4"/>
       <c r="W4" s="4"/>
     </row>
-    <row r="5" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B5" s="15"/>
+    <row r="5" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="B5" s="21"/>
       <c r="C5" s="2" t="s">
         <v>20</v>
       </c>
@@ -809,7 +826,7 @@
       <c r="V5" s="4"/>
       <c r="W5" s="4"/>
     </row>
-    <row r="6" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B6" s="11" t="s">
         <v>22</v>
       </c>
@@ -847,7 +864,7 @@
       <c r="V6" s="4"/>
       <c r="W6" s="4"/>
     </row>
-    <row r="7" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B7" s="11" t="s">
         <v>25</v>
       </c>
@@ -885,7 +902,7 @@
       <c r="V7" s="4"/>
       <c r="W7" s="4"/>
     </row>
-    <row r="8" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B8" s="11" t="s">
         <v>26</v>
       </c>
@@ -923,7 +940,7 @@
       <c r="V8" s="4"/>
       <c r="W8" s="4"/>
     </row>
-    <row r="9" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B9" s="11" t="s">
         <v>28</v>
       </c>
@@ -961,7 +978,7 @@
       <c r="V9" s="4"/>
       <c r="W9" s="4"/>
     </row>
-    <row r="10" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B10" s="11" t="s">
         <v>29</v>
       </c>
@@ -999,7 +1016,7 @@
       <c r="V10" s="4"/>
       <c r="W10" s="4"/>
     </row>
-    <row r="11" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B11" s="11" t="s">
         <v>30</v>
       </c>
@@ -1037,7 +1054,7 @@
       <c r="V11" s="4"/>
       <c r="W11" s="4"/>
     </row>
-    <row r="12" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B12" s="12" t="s">
         <v>31</v>
       </c>
@@ -1078,7 +1095,7 @@
       <c r="V12" s="4"/>
       <c r="W12" s="4"/>
     </row>
-    <row r="13" spans="2:23" ht="31.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="2:23" ht="31.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B13" s="13" t="s">
         <v>38</v>
       </c>
@@ -1119,7 +1136,7 @@
       <c r="V13" s="4"/>
       <c r="W13" s="4"/>
     </row>
-    <row r="14" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B14" s="13" t="s">
         <v>35</v>
       </c>
@@ -1147,7 +1164,7 @@
       <c r="P14" s="2"/>
       <c r="Q14" s="2"/>
       <c r="R14" s="2">
-        <f t="shared" ref="R14:R16" si="0">SUM(F14:Q14)</f>
+        <f t="shared" ref="R14:R17" si="0">SUM(F14:Q14)</f>
         <v>3</v>
       </c>
       <c r="S14" s="4"/>
@@ -1156,7 +1173,7 @@
       <c r="V14" s="4"/>
       <c r="W14" s="4"/>
     </row>
-    <row r="15" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B15" s="13" t="s">
         <v>36</v>
       </c>
@@ -1199,7 +1216,7 @@
       <c r="V15" s="4"/>
       <c r="W15" s="4"/>
     </row>
-    <row r="16" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B16" s="13" t="s">
         <v>37</v>
       </c>
@@ -1242,12 +1259,22 @@
       <c r="V16" s="4"/>
       <c r="W16" s="4"/>
     </row>
-    <row r="17" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B17" s="5"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
+    <row r="17" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="B17" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D17" s="3">
+        <v>242719</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F17" s="2">
+        <v>3</v>
+      </c>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
@@ -1257,16 +1284,21 @@
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
-      <c r="P17" s="2"/>
+      <c r="P17" s="2">
+        <v>1</v>
+      </c>
       <c r="Q17" s="2"/>
-      <c r="R17" s="2"/>
+      <c r="R17" s="2">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
       <c r="S17" s="4"/>
       <c r="T17" s="4"/>
       <c r="U17" s="4"/>
       <c r="V17" s="4"/>
       <c r="W17" s="4"/>
     </row>
-    <row r="18" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B18" s="5"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
@@ -1290,7 +1322,7 @@
       <c r="V18" s="4"/>
       <c r="W18" s="4"/>
     </row>
-    <row r="19" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B19" s="5"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
@@ -1314,7 +1346,7 @@
       <c r="V19" s="4"/>
       <c r="W19" s="4"/>
     </row>
-    <row r="20" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B20" s="5"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
@@ -1338,7 +1370,7 @@
       <c r="V20" s="4"/>
       <c r="W20" s="4"/>
     </row>
-    <row r="21" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B21" s="5"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
@@ -1362,7 +1394,7 @@
       <c r="V21" s="4"/>
       <c r="W21" s="4"/>
     </row>
-    <row r="22" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B22" s="5"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
@@ -1386,7 +1418,7 @@
       <c r="V22" s="4"/>
       <c r="W22" s="4"/>
     </row>
-    <row r="23" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B23" s="5"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
@@ -1410,7 +1442,7 @@
       <c r="V23" s="4"/>
       <c r="W23" s="4"/>
     </row>
-    <row r="24" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B24" s="5"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
@@ -1434,7 +1466,7 @@
       <c r="V24" s="4"/>
       <c r="W24" s="4"/>
     </row>
-    <row r="25" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B25" s="5"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
@@ -1458,7 +1490,7 @@
       <c r="V25" s="4"/>
       <c r="W25" s="4"/>
     </row>
-    <row r="26" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B26" s="5"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
@@ -1482,7 +1514,7 @@
       <c r="V26" s="4"/>
       <c r="W26" s="4"/>
     </row>
-    <row r="27" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B27" s="5"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
@@ -1506,7 +1538,7 @@
       <c r="V27" s="4"/>
       <c r="W27" s="4"/>
     </row>
-    <row r="28" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B28" s="5"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
@@ -1530,7 +1562,7 @@
       <c r="V28" s="4"/>
       <c r="W28" s="4"/>
     </row>
-    <row r="29" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B29" s="5"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
@@ -1554,7 +1586,7 @@
       <c r="V29" s="4"/>
       <c r="W29" s="4"/>
     </row>
-    <row r="30" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B30" s="5"/>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
@@ -1578,7 +1610,7 @@
       <c r="V30" s="4"/>
       <c r="W30" s="4"/>
     </row>
-    <row r="31" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B31" s="5"/>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
@@ -1602,7 +1634,7 @@
       <c r="V31" s="4"/>
       <c r="W31" s="4"/>
     </row>
-    <row r="32" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B32" s="5"/>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
@@ -1626,7 +1658,7 @@
       <c r="V32" s="4"/>
       <c r="W32" s="4"/>
     </row>
-    <row r="33" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B33" s="5"/>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
@@ -1650,7 +1682,7 @@
       <c r="V33" s="4"/>
       <c r="W33" s="4"/>
     </row>
-    <row r="34" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B34" s="5"/>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
@@ -1674,7 +1706,7 @@
       <c r="V34" s="4"/>
       <c r="W34" s="4"/>
     </row>
-    <row r="35" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B35" s="5"/>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
@@ -1698,7 +1730,7 @@
       <c r="V35" s="4"/>
       <c r="W35" s="4"/>
     </row>
-    <row r="36" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B36" s="5"/>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
@@ -1722,7 +1754,7 @@
       <c r="V36" s="4"/>
       <c r="W36" s="4"/>
     </row>
-    <row r="37" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B37" s="5"/>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
@@ -1746,7 +1778,7 @@
       <c r="V37" s="4"/>
       <c r="W37" s="4"/>
     </row>
-    <row r="38" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B38" s="5"/>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
@@ -1770,7 +1802,7 @@
       <c r="V38" s="4"/>
       <c r="W38" s="4"/>
     </row>
-    <row r="39" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B39" s="5"/>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
@@ -1794,7 +1826,7 @@
       <c r="V39" s="4"/>
       <c r="W39" s="4"/>
     </row>
-    <row r="40" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B40" s="5"/>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
@@ -1818,7 +1850,7 @@
       <c r="V40" s="4"/>
       <c r="W40" s="4"/>
     </row>
-    <row r="41" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B41" s="5"/>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
@@ -1842,7 +1874,7 @@
       <c r="V41" s="4"/>
       <c r="W41" s="4"/>
     </row>
-    <row r="42" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B42" s="5"/>
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
@@ -1866,7 +1898,7 @@
       <c r="V42" s="4"/>
       <c r="W42" s="4"/>
     </row>
-    <row r="43" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B43" s="5"/>
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
@@ -1890,7 +1922,7 @@
       <c r="V43" s="4"/>
       <c r="W43" s="4"/>
     </row>
-    <row r="44" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B44" s="5"/>
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
@@ -1914,7 +1946,7 @@
       <c r="V44" s="4"/>
       <c r="W44" s="4"/>
     </row>
-    <row r="45" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B45" s="5"/>
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
@@ -1938,7 +1970,7 @@
       <c r="V45" s="4"/>
       <c r="W45" s="4"/>
     </row>
-    <row r="46" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B46" s="5"/>
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
@@ -1962,7 +1994,7 @@
       <c r="V46" s="4"/>
       <c r="W46" s="4"/>
     </row>
-    <row r="47" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B47" s="5"/>
       <c r="C47" s="2"/>
       <c r="D47" s="2"/>
@@ -1986,7 +2018,7 @@
       <c r="V47" s="4"/>
       <c r="W47" s="4"/>
     </row>
-    <row r="48" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B48" s="5"/>
       <c r="C48" s="2"/>
       <c r="D48" s="2"/>
@@ -2010,7 +2042,7 @@
       <c r="V48" s="4"/>
       <c r="W48" s="4"/>
     </row>
-    <row r="49" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B49" s="5"/>
       <c r="C49" s="2"/>
       <c r="D49" s="2"/>
@@ -2034,7 +2066,7 @@
       <c r="V49" s="4"/>
       <c r="W49" s="4"/>
     </row>
-    <row r="50" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B50" s="5"/>
       <c r="C50" s="2"/>
       <c r="D50" s="2"/>
@@ -2058,7 +2090,7 @@
       <c r="V50" s="4"/>
       <c r="W50" s="4"/>
     </row>
-    <row r="51" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B51" s="5"/>
       <c r="C51" s="2"/>
       <c r="D51" s="2"/>
@@ -2082,7 +2114,7 @@
       <c r="V51" s="4"/>
       <c r="W51" s="4"/>
     </row>
-    <row r="52" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B52" s="5"/>
       <c r="C52" s="2"/>
       <c r="D52" s="2"/>
@@ -2106,7 +2138,7 @@
       <c r="V52" s="4"/>
       <c r="W52" s="4"/>
     </row>
-    <row r="53" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B53" s="5"/>
       <c r="C53" s="2"/>
       <c r="D53" s="2"/>
@@ -2130,7 +2162,7 @@
       <c r="V53" s="4"/>
       <c r="W53" s="4"/>
     </row>
-    <row r="54" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B54" s="5"/>
       <c r="C54" s="2"/>
       <c r="D54" s="2"/>
@@ -2154,7 +2186,7 @@
       <c r="V54" s="4"/>
       <c r="W54" s="4"/>
     </row>
-    <row r="55" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B55" s="5"/>
       <c r="C55" s="2"/>
       <c r="D55" s="2"/>
@@ -2178,7 +2210,7 @@
       <c r="V55" s="4"/>
       <c r="W55" s="4"/>
     </row>
-    <row r="56" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B56" s="5"/>
       <c r="C56" s="2"/>
       <c r="D56" s="2"/>
@@ -2202,7 +2234,7 @@
       <c r="V56" s="4"/>
       <c r="W56" s="4"/>
     </row>
-    <row r="57" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B57" s="5"/>
       <c r="C57" s="2"/>
       <c r="D57" s="2"/>
@@ -2226,7 +2258,7 @@
       <c r="V57" s="4"/>
       <c r="W57" s="4"/>
     </row>
-    <row r="58" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B58" s="5"/>
       <c r="C58" s="2"/>
       <c r="D58" s="2"/>
@@ -2250,7 +2282,7 @@
       <c r="V58" s="4"/>
       <c r="W58" s="4"/>
     </row>
-    <row r="59" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B59" s="5"/>
       <c r="C59" s="2"/>
       <c r="D59" s="2"/>
@@ -2274,7 +2306,7 @@
       <c r="V59" s="4"/>
       <c r="W59" s="4"/>
     </row>
-    <row r="60" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B60" s="5"/>
       <c r="C60" s="2"/>
       <c r="D60" s="2"/>
@@ -2298,7 +2330,7 @@
       <c r="V60" s="4"/>
       <c r="W60" s="4"/>
     </row>
-    <row r="61" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B61" s="5"/>
       <c r="C61" s="2"/>
       <c r="D61" s="2"/>
@@ -2322,7 +2354,7 @@
       <c r="V61" s="4"/>
       <c r="W61" s="4"/>
     </row>
-    <row r="62" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B62" s="5"/>
       <c r="C62" s="2"/>
       <c r="D62" s="2"/>
@@ -2346,7 +2378,7 @@
       <c r="V62" s="4"/>
       <c r="W62" s="4"/>
     </row>
-    <row r="63" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B63" s="5"/>
       <c r="C63" s="2"/>
       <c r="D63" s="2"/>
@@ -2370,7 +2402,7 @@
       <c r="V63" s="4"/>
       <c r="W63" s="4"/>
     </row>
-    <row r="64" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B64" s="5"/>
       <c r="C64" s="2"/>
       <c r="D64" s="2"/>
@@ -2394,7 +2426,7 @@
       <c r="V64" s="4"/>
       <c r="W64" s="4"/>
     </row>
-    <row r="65" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B65" s="5"/>
       <c r="C65" s="2"/>
       <c r="D65" s="2"/>
@@ -2418,7 +2450,7 @@
       <c r="V65" s="4"/>
       <c r="W65" s="4"/>
     </row>
-    <row r="66" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B66" s="5"/>
       <c r="C66" s="2"/>
       <c r="D66" s="2"/>
@@ -2442,7 +2474,7 @@
       <c r="V66" s="4"/>
       <c r="W66" s="4"/>
     </row>
-    <row r="67" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B67" s="5"/>
       <c r="C67" s="2"/>
       <c r="D67" s="2"/>
@@ -2466,7 +2498,7 @@
       <c r="V67" s="4"/>
       <c r="W67" s="4"/>
     </row>
-    <row r="68" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B68" s="5"/>
       <c r="C68" s="2"/>
       <c r="D68" s="2"/>
@@ -2490,7 +2522,7 @@
       <c r="V68" s="4"/>
       <c r="W68" s="4"/>
     </row>
-    <row r="69" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B69" s="5"/>
       <c r="C69" s="2"/>
       <c r="D69" s="2"/>
@@ -2514,7 +2546,7 @@
       <c r="V69" s="4"/>
       <c r="W69" s="4"/>
     </row>
-    <row r="70" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B70" s="5"/>
       <c r="C70" s="6"/>
       <c r="D70" s="6"/>
@@ -2538,7 +2570,7 @@
       <c r="V70" s="7"/>
       <c r="W70" s="4"/>
     </row>
-    <row r="71" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B71" s="5"/>
       <c r="C71" s="6"/>
       <c r="D71" s="6"/>
@@ -2562,7 +2594,7 @@
       <c r="V71" s="7"/>
       <c r="W71" s="4"/>
     </row>
-    <row r="72" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B72" s="5"/>
       <c r="C72" s="6"/>
       <c r="D72" s="6"/>
@@ -2586,7 +2618,7 @@
       <c r="V72" s="7"/>
       <c r="W72" s="4"/>
     </row>
-    <row r="73" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B73" s="5"/>
       <c r="C73" s="6"/>
       <c r="D73" s="6"/>
@@ -2610,7 +2642,7 @@
       <c r="V73" s="7"/>
       <c r="W73" s="4"/>
     </row>
-    <row r="74" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B74" s="5"/>
       <c r="C74" s="6"/>
       <c r="D74" s="6"/>
@@ -2634,7 +2666,7 @@
       <c r="V74" s="7"/>
       <c r="W74" s="4"/>
     </row>
-    <row r="75" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B75" s="5"/>
       <c r="C75" s="6"/>
       <c r="D75" s="6"/>
@@ -2658,7 +2690,7 @@
       <c r="V75" s="7"/>
       <c r="W75" s="4"/>
     </row>
-    <row r="76" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="76" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B76" s="5"/>
       <c r="C76" s="6"/>
       <c r="D76" s="6"/>
@@ -2682,7 +2714,7 @@
       <c r="V76" s="7"/>
       <c r="W76" s="4"/>
     </row>
-    <row r="77" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="77" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B77" s="5"/>
       <c r="C77" s="6"/>
       <c r="D77" s="6"/>
@@ -2706,7 +2738,7 @@
       <c r="V77" s="7"/>
       <c r="W77" s="4"/>
     </row>
-    <row r="78" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="78" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B78" s="5"/>
       <c r="C78" s="6"/>
       <c r="D78" s="6"/>
@@ -2730,7 +2762,7 @@
       <c r="V78" s="7"/>
       <c r="W78" s="4"/>
     </row>
-    <row r="79" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="79" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B79" s="5"/>
       <c r="C79" s="6"/>
       <c r="D79" s="6"/>
@@ -2754,7 +2786,7 @@
       <c r="V79" s="7"/>
       <c r="W79" s="4"/>
     </row>
-    <row r="80" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="80" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B80" s="5"/>
       <c r="C80" s="6"/>
       <c r="D80" s="6"/>
@@ -2778,7 +2810,7 @@
       <c r="V80" s="7"/>
       <c r="W80" s="4"/>
     </row>
-    <row r="81" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="81" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B81" s="5"/>
       <c r="C81" s="6"/>
       <c r="D81" s="6"/>
@@ -2802,7 +2834,7 @@
       <c r="V81" s="7"/>
       <c r="W81" s="4"/>
     </row>
-    <row r="82" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="82" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B82" s="5"/>
       <c r="C82" s="6"/>
       <c r="D82" s="6"/>
@@ -2826,7 +2858,7 @@
       <c r="V82" s="7"/>
       <c r="W82" s="4"/>
     </row>
-    <row r="83" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="83" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B83" s="5"/>
       <c r="C83" s="6"/>
       <c r="D83" s="6"/>
@@ -2850,7 +2882,7 @@
       <c r="V83" s="7"/>
       <c r="W83" s="4"/>
     </row>
-    <row r="84" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="84" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B84" s="5"/>
       <c r="C84" s="6"/>
       <c r="D84" s="6"/>
@@ -2874,7 +2906,7 @@
       <c r="V84" s="7"/>
       <c r="W84" s="4"/>
     </row>
-    <row r="85" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="85" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B85" s="5"/>
       <c r="C85" s="6"/>
       <c r="D85" s="6"/>
@@ -2898,7 +2930,7 @@
       <c r="V85" s="7"/>
       <c r="W85" s="4"/>
     </row>
-    <row r="86" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="86" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B86" s="5"/>
       <c r="C86" s="6"/>
       <c r="D86" s="6"/>
@@ -2922,7 +2954,7 @@
       <c r="V86" s="7"/>
       <c r="W86" s="4"/>
     </row>
-    <row r="87" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="87" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B87" s="5"/>
       <c r="C87" s="6"/>
       <c r="D87" s="6"/>
@@ -2946,7 +2978,7 @@
       <c r="V87" s="7"/>
       <c r="W87" s="4"/>
     </row>
-    <row r="88" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="88" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B88" s="5"/>
       <c r="C88" s="6"/>
       <c r="D88" s="6"/>
@@ -2970,7 +3002,7 @@
       <c r="V88" s="7"/>
       <c r="W88" s="4"/>
     </row>
-    <row r="89" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="89" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B89" s="5"/>
       <c r="C89" s="6"/>
       <c r="D89" s="6"/>
@@ -2994,7 +3026,7 @@
       <c r="V89" s="7"/>
       <c r="W89" s="4"/>
     </row>
-    <row r="90" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="90" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B90" s="5"/>
       <c r="C90" s="6"/>
       <c r="D90" s="6"/>
@@ -3018,7 +3050,7 @@
       <c r="V90" s="7"/>
       <c r="W90" s="4"/>
     </row>
-    <row r="91" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="91" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B91" s="5"/>
       <c r="C91" s="6"/>
       <c r="D91" s="6"/>
@@ -3042,7 +3074,7 @@
       <c r="V91" s="7"/>
       <c r="W91" s="4"/>
     </row>
-    <row r="92" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="92" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B92" s="5"/>
       <c r="C92" s="6"/>
       <c r="D92" s="6"/>
@@ -3066,7 +3098,7 @@
       <c r="V92" s="7"/>
       <c r="W92" s="4"/>
     </row>
-    <row r="93" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="93" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B93" s="5"/>
       <c r="C93" s="6"/>
       <c r="D93" s="6"/>
@@ -3090,7 +3122,7 @@
       <c r="V93" s="7"/>
       <c r="W93" s="4"/>
     </row>
-    <row r="94" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="94" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B94" s="5"/>
       <c r="C94" s="6"/>
       <c r="D94" s="6"/>
@@ -3114,7 +3146,7 @@
       <c r="V94" s="7"/>
       <c r="W94" s="4"/>
     </row>
-    <row r="95" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="95" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B95" s="5"/>
       <c r="C95" s="6"/>
       <c r="D95" s="6"/>
@@ -3138,7 +3170,7 @@
       <c r="V95" s="7"/>
       <c r="W95" s="4"/>
     </row>
-    <row r="96" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="96" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B96" s="5"/>
       <c r="C96" s="6"/>
       <c r="D96" s="6"/>
@@ -3162,7 +3194,7 @@
       <c r="V96" s="7"/>
       <c r="W96" s="4"/>
     </row>
-    <row r="97" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="97" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B97" s="5"/>
       <c r="C97" s="6"/>
       <c r="D97" s="6"/>
@@ -3186,7 +3218,7 @@
       <c r="V97" s="7"/>
       <c r="W97" s="4"/>
     </row>
-    <row r="98" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="98" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B98" s="5"/>
       <c r="C98" s="6"/>
       <c r="D98" s="6"/>
@@ -3210,7 +3242,7 @@
       <c r="V98" s="7"/>
       <c r="W98" s="4"/>
     </row>
-    <row r="99" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="99" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B99" s="5"/>
       <c r="C99" s="6"/>
       <c r="D99" s="6"/>
@@ -3234,7 +3266,7 @@
       <c r="V99" s="7"/>
       <c r="W99" s="4"/>
     </row>
-    <row r="100" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="100" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B100" s="5"/>
       <c r="C100" s="6"/>
       <c r="D100" s="6"/>
@@ -3258,7 +3290,7 @@
       <c r="V100" s="7"/>
       <c r="W100" s="4"/>
     </row>
-    <row r="101" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="101" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B101" s="5"/>
       <c r="C101" s="6"/>
       <c r="D101" s="6"/>
@@ -3282,7 +3314,7 @@
       <c r="V101" s="7"/>
       <c r="W101" s="4"/>
     </row>
-    <row r="102" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="102" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B102" s="5"/>
       <c r="C102" s="6"/>
       <c r="D102" s="6"/>
@@ -3306,7 +3338,7 @@
       <c r="V102" s="7"/>
       <c r="W102" s="4"/>
     </row>
-    <row r="103" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="103" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B103" s="5"/>
       <c r="C103" s="6"/>
       <c r="D103" s="6"/>
@@ -3330,7 +3362,7 @@
       <c r="V103" s="7"/>
       <c r="W103" s="4"/>
     </row>
-    <row r="104" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="104" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B104" s="5"/>
       <c r="C104" s="6"/>
       <c r="D104" s="6"/>
@@ -3354,7 +3386,7 @@
       <c r="V104" s="7"/>
       <c r="W104" s="4"/>
     </row>
-    <row r="105" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="105" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B105" s="5"/>
       <c r="C105" s="6"/>
       <c r="D105" s="6"/>
@@ -3378,7 +3410,7 @@
       <c r="V105" s="7"/>
       <c r="W105" s="4"/>
     </row>
-    <row r="106" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="106" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B106" s="5"/>
       <c r="C106" s="6"/>
       <c r="D106" s="6"/>
@@ -3402,7 +3434,7 @@
       <c r="V106" s="7"/>
       <c r="W106" s="4"/>
     </row>
-    <row r="107" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="107" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B107" s="5"/>
       <c r="C107" s="6"/>
       <c r="D107" s="6"/>
@@ -3426,7 +3458,7 @@
       <c r="V107" s="7"/>
       <c r="W107" s="4"/>
     </row>
-    <row r="108" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="108" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B108" s="5"/>
       <c r="C108" s="6"/>
       <c r="D108" s="6"/>
@@ -3450,7 +3482,7 @@
       <c r="V108" s="7"/>
       <c r="W108" s="4"/>
     </row>
-    <row r="109" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="109" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B109" s="5"/>
       <c r="C109" s="6"/>
       <c r="D109" s="6"/>
@@ -3474,7 +3506,7 @@
       <c r="V109" s="7"/>
       <c r="W109" s="4"/>
     </row>
-    <row r="110" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="110" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B110" s="5"/>
       <c r="C110" s="6"/>
       <c r="D110" s="6"/>
@@ -3498,7 +3530,7 @@
       <c r="V110" s="7"/>
       <c r="W110" s="4"/>
     </row>
-    <row r="111" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="111" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B111" s="5"/>
       <c r="C111" s="6"/>
       <c r="D111" s="6"/>
@@ -3522,7 +3554,7 @@
       <c r="V111" s="7"/>
       <c r="W111" s="4"/>
     </row>
-    <row r="112" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="112" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B112" s="5"/>
       <c r="C112" s="6"/>
       <c r="D112" s="6"/>
@@ -3546,7 +3578,7 @@
       <c r="V112" s="7"/>
       <c r="W112" s="4"/>
     </row>
-    <row r="113" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="113" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B113" s="5"/>
       <c r="C113" s="6"/>
       <c r="D113" s="6"/>
@@ -3570,7 +3602,7 @@
       <c r="V113" s="7"/>
       <c r="W113" s="4"/>
     </row>
-    <row r="114" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="114" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B114" s="5"/>
       <c r="C114" s="6"/>
       <c r="D114" s="6"/>
@@ -3594,7 +3626,7 @@
       <c r="V114" s="7"/>
       <c r="W114" s="4"/>
     </row>
-    <row r="115" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="115" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B115" s="5"/>
       <c r="C115" s="6"/>
       <c r="D115" s="6"/>
@@ -3618,7 +3650,7 @@
       <c r="V115" s="7"/>
       <c r="W115" s="4"/>
     </row>
-    <row r="116" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="116" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B116" s="5"/>
       <c r="C116" s="6"/>
       <c r="D116" s="6"/>
@@ -3642,7 +3674,7 @@
       <c r="V116" s="7"/>
       <c r="W116" s="4"/>
     </row>
-    <row r="117" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="117" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B117" s="5"/>
       <c r="C117" s="6"/>
       <c r="D117" s="6"/>
@@ -3666,7 +3698,7 @@
       <c r="V117" s="7"/>
       <c r="W117" s="4"/>
     </row>
-    <row r="118" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="118" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B118" s="5"/>
       <c r="C118" s="6"/>
       <c r="D118" s="6"/>
@@ -3690,7 +3722,7 @@
       <c r="V118" s="7"/>
       <c r="W118" s="4"/>
     </row>
-    <row r="119" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="119" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B119" s="5"/>
       <c r="C119" s="6"/>
       <c r="D119" s="6"/>
@@ -3714,7 +3746,7 @@
       <c r="V119" s="7"/>
       <c r="W119" s="4"/>
     </row>
-    <row r="120" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="120" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B120" s="5"/>
       <c r="C120" s="6"/>
       <c r="D120" s="6"/>
@@ -3738,7 +3770,7 @@
       <c r="V120" s="7"/>
       <c r="W120" s="4"/>
     </row>
-    <row r="121" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="121" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B121" s="5"/>
       <c r="C121" s="6"/>
       <c r="D121" s="6"/>
@@ -3762,7 +3794,7 @@
       <c r="V121" s="7"/>
       <c r="W121" s="4"/>
     </row>
-    <row r="122" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="122" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B122" s="5"/>
       <c r="C122" s="6"/>
       <c r="D122" s="6"/>
@@ -3786,7 +3818,7 @@
       <c r="V122" s="7"/>
       <c r="W122" s="4"/>
     </row>
-    <row r="123" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="123" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B123" s="5"/>
       <c r="C123" s="6"/>
       <c r="D123" s="6"/>
@@ -3810,7 +3842,7 @@
       <c r="V123" s="7"/>
       <c r="W123" s="4"/>
     </row>
-    <row r="124" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="124" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B124" s="5"/>
       <c r="C124" s="6"/>
       <c r="D124" s="6"/>
@@ -3834,7 +3866,7 @@
       <c r="V124" s="7"/>
       <c r="W124" s="4"/>
     </row>
-    <row r="125" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="125" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B125" s="5"/>
       <c r="C125" s="6"/>
       <c r="D125" s="6"/>
@@ -3858,7 +3890,7 @@
       <c r="V125" s="7"/>
       <c r="W125" s="4"/>
     </row>
-    <row r="126" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="126" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B126" s="5"/>
       <c r="C126" s="6"/>
       <c r="D126" s="6"/>
@@ -3882,7 +3914,7 @@
       <c r="V126" s="7"/>
       <c r="W126" s="4"/>
     </row>
-    <row r="127" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="127" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B127" s="5"/>
       <c r="C127" s="6"/>
       <c r="D127" s="6"/>
@@ -3906,7 +3938,7 @@
       <c r="V127" s="7"/>
       <c r="W127" s="4"/>
     </row>
-    <row r="128" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="128" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B128" s="5"/>
       <c r="C128" s="6"/>
       <c r="D128" s="6"/>
@@ -3930,7 +3962,7 @@
       <c r="V128" s="7"/>
       <c r="W128" s="4"/>
     </row>
-    <row r="129" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="129" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B129" s="5"/>
       <c r="C129" s="6"/>
       <c r="D129" s="6"/>
@@ -3954,7 +3986,7 @@
       <c r="V129" s="7"/>
       <c r="W129" s="4"/>
     </row>
-    <row r="130" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="130" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B130" s="5"/>
       <c r="C130" s="6"/>
       <c r="D130" s="6"/>
@@ -3978,7 +4010,7 @@
       <c r="V130" s="7"/>
       <c r="W130" s="4"/>
     </row>
-    <row r="131" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="131" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B131" s="5"/>
       <c r="C131" s="6"/>
       <c r="D131" s="6"/>
@@ -4002,7 +4034,7 @@
       <c r="V131" s="7"/>
       <c r="W131" s="4"/>
     </row>
-    <row r="132" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="132" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B132" s="5"/>
       <c r="C132" s="6"/>
       <c r="D132" s="6"/>
@@ -4026,7 +4058,7 @@
       <c r="V132" s="7"/>
       <c r="W132" s="4"/>
     </row>
-    <row r="133" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="133" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B133" s="5"/>
       <c r="C133" s="6"/>
       <c r="D133" s="6"/>
@@ -4050,7 +4082,7 @@
       <c r="V133" s="7"/>
       <c r="W133" s="4"/>
     </row>
-    <row r="134" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="134" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B134" s="5"/>
       <c r="C134" s="6"/>
       <c r="D134" s="6"/>
@@ -4074,7 +4106,7 @@
       <c r="V134" s="7"/>
       <c r="W134" s="4"/>
     </row>
-    <row r="135" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="135" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B135" s="5"/>
       <c r="C135" s="6"/>
       <c r="D135" s="6"/>
@@ -4098,7 +4130,7 @@
       <c r="V135" s="7"/>
       <c r="W135" s="4"/>
     </row>
-    <row r="136" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="136" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B136" s="5"/>
       <c r="C136" s="6"/>
       <c r="D136" s="6"/>
@@ -4122,7 +4154,7 @@
       <c r="V136" s="7"/>
       <c r="W136" s="4"/>
     </row>
-    <row r="137" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="137" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B137" s="5"/>
       <c r="C137" s="6"/>
       <c r="D137" s="6"/>
@@ -4146,7 +4178,7 @@
       <c r="V137" s="7"/>
       <c r="W137" s="4"/>
     </row>
-    <row r="138" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="138" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B138" s="5"/>
       <c r="C138" s="6"/>
       <c r="D138" s="6"/>
@@ -4170,7 +4202,7 @@
       <c r="V138" s="7"/>
       <c r="W138" s="4"/>
     </row>
-    <row r="139" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="139" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B139" s="5"/>
       <c r="C139" s="6"/>
       <c r="D139" s="6"/>
@@ -4194,7 +4226,7 @@
       <c r="V139" s="7"/>
       <c r="W139" s="4"/>
     </row>
-    <row r="140" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="140" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B140" s="5"/>
       <c r="C140" s="6"/>
       <c r="D140" s="6"/>
@@ -4218,7 +4250,7 @@
       <c r="V140" s="7"/>
       <c r="W140" s="4"/>
     </row>
-    <row r="141" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="141" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B141" s="5"/>
       <c r="C141" s="6"/>
       <c r="D141" s="6"/>
@@ -4242,7 +4274,7 @@
       <c r="V141" s="7"/>
       <c r="W141" s="4"/>
     </row>
-    <row r="142" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="142" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B142" s="5"/>
       <c r="C142" s="6"/>
       <c r="D142" s="6"/>
@@ -4266,7 +4298,7 @@
       <c r="V142" s="7"/>
       <c r="W142" s="4"/>
     </row>
-    <row r="143" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="143" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B143" s="5"/>
       <c r="C143" s="6"/>
       <c r="D143" s="6"/>
@@ -4290,7 +4322,7 @@
       <c r="V143" s="7"/>
       <c r="W143" s="4"/>
     </row>
-    <row r="144" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="144" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B144" s="5"/>
       <c r="C144" s="6"/>
       <c r="D144" s="6"/>
@@ -4314,95 +4346,110 @@
       <c r="V144" s="7"/>
       <c r="W144" s="4"/>
     </row>
-    <row r="145" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="145" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B145" s="8"/>
       <c r="W145" s="9"/>
     </row>
-    <row r="146" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="146" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B146" s="8"/>
       <c r="W146" s="9"/>
     </row>
-    <row r="147" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="147" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B147" s="8"/>
       <c r="W147" s="9"/>
     </row>
-    <row r="148" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="148" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B148" s="8"/>
       <c r="W148" s="9"/>
     </row>
-    <row r="149" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="149" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B149" s="8"/>
       <c r="W149" s="9"/>
     </row>
-    <row r="150" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="150" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B150" s="8"/>
       <c r="W150" s="9"/>
     </row>
-    <row r="151" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="151" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B151" s="8"/>
       <c r="W151" s="9"/>
     </row>
-    <row r="152" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="152" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B152" s="8"/>
       <c r="W152" s="9"/>
     </row>
-    <row r="153" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="153" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B153" s="8"/>
       <c r="W153" s="9"/>
     </row>
-    <row r="154" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="154" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B154" s="8"/>
       <c r="W154" s="9"/>
     </row>
-    <row r="155" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="155" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B155" s="8"/>
       <c r="W155" s="9"/>
     </row>
-    <row r="156" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="156" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B156" s="8"/>
       <c r="W156" s="9"/>
     </row>
-    <row r="157" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="157" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B157" s="8"/>
       <c r="W157" s="9"/>
     </row>
-    <row r="158" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="158" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B158" s="8"/>
       <c r="W158" s="9"/>
     </row>
-    <row r="159" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="159" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B159" s="8"/>
       <c r="W159" s="9"/>
     </row>
-    <row r="160" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="160" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B160" s="8"/>
     </row>
-    <row r="161" spans="2:2" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="161" spans="2:2" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B161" s="8"/>
     </row>
-    <row r="162" spans="2:2" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="162" spans="2:2" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B162" s="8"/>
     </row>
-    <row r="163" spans="2:2" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="163" spans="2:2" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B163" s="8"/>
     </row>
-    <row r="164" spans="2:2" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="164" spans="2:2" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B164" s="8"/>
     </row>
-    <row r="165" spans="2:2" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="165" spans="2:2" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B165" s="8"/>
     </row>
-    <row r="166" spans="2:2" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="166" spans="2:2" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B166" s="8"/>
     </row>
-    <row r="167" spans="2:2" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="167" spans="2:2" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B167" s="8"/>
     </row>
-    <row r="168" spans="2:2" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="168" spans="2:2" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B168" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="T2:T3"/>
+    <mergeCell ref="U2:U3"/>
+    <mergeCell ref="V2:V3"/>
     <mergeCell ref="W2:W3"/>
     <mergeCell ref="M2:M3"/>
     <mergeCell ref="N2:N3"/>
@@ -4411,22 +4458,8 @@
     <mergeCell ref="R2:R3"/>
     <mergeCell ref="S2:S3"/>
     <mergeCell ref="P2:P3"/>
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="L2:L3"/>
-    <mergeCell ref="T2:T3"/>
-    <mergeCell ref="U2:U3"/>
-    <mergeCell ref="V2:V3"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="F2:F3"/>
   </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/ตรวจงาน/รายการตรวจสอบแผนภาพ.xlsx
+++ b/ตรวจงาน/รายการตรวจสอบแผนภาพ.xlsx
@@ -5,36 +5,27 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pee20\OneDrive\เดสก์ท็อป\SE3.1\team4\ตรวจงาน\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nice-\Desktop\Porn\TEAM4\team4\ตรวจงาน\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CA44E8F-6132-499B-BA4F-F571BA1A92DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{852934E5-DE33-4A29-AB80-4E659C78761E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{C108298C-C5B1-4B19-85F2-2856099ECD84}"/>
+    <workbookView xWindow="5940" yWindow="1080" windowWidth="21060" windowHeight="14175" xr2:uid="{C108298C-C5B1-4B19-85F2-2856099ECD84}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="45">
   <si>
     <t>คำผิด</t>
   </si>
@@ -158,16 +149,28 @@
   <si>
     <t>v1.3.1</t>
   </si>
+  <si>
+    <t>V1.2.2</t>
+  </si>
+  <si>
+    <t>V1.3.1</t>
+  </si>
+  <si>
+    <t>Activity Diagram มอดูล ประเภทตู้</t>
+  </si>
+  <si>
+    <t>V1.1.2</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Tahoma"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="222"/>
       <scheme val="minor"/>
@@ -187,7 +190,7 @@
     </font>
     <font>
       <sz val="8"/>
-      <name val="Tahoma"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="222"/>
       <scheme val="minor"/>
@@ -311,24 +314,6 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -338,9 +323,27 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="ปกติ" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -356,7 +359,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="ธีมของ Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -654,104 +657,104 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E552DF3-66E3-4350-8BDE-D3162A98C3B8}">
   <dimension ref="B2:W168"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R20" sqref="R20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.7"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="30" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="8.69921875" style="1"/>
-    <col min="2" max="2" width="36.3984375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="8.69921875" style="1"/>
-    <col min="4" max="4" width="10.09765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.09765625" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.69921875" style="1"/>
+    <col min="1" max="1" width="8.7109375" style="1"/>
+    <col min="2" max="2" width="36.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="8.7109375" style="1"/>
+    <col min="4" max="4" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:23" ht="50.4" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B2" s="22" t="s">
+    <row r="2" spans="2:23" ht="50.45" customHeight="1">
+      <c r="B2" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="22" t="s">
+      <c r="C2" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="22" t="s">
+      <c r="D2" s="16" t="s">
         <v>8</v>
       </c>
       <c r="E2" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="15" t="s">
+      <c r="F2" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="15" t="s">
+      <c r="G2" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="15" t="s">
+      <c r="H2" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="15" t="s">
+      <c r="I2" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="J2" s="15" t="s">
+      <c r="J2" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="15" t="s">
+      <c r="K2" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="15" t="s">
+      <c r="L2" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="M2" s="15" t="s">
+      <c r="M2" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="N2" s="15" t="s">
+      <c r="N2" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="O2" s="15" t="s">
+      <c r="O2" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="P2" s="16" t="s">
+      <c r="P2" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="Q2" s="15" t="s">
+      <c r="Q2" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="R2" s="15" t="s">
+      <c r="R2" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="S2" s="14"/>
-      <c r="T2" s="14"/>
-      <c r="U2" s="14"/>
-      <c r="V2" s="14"/>
-      <c r="W2" s="14"/>
-    </row>
-    <row r="3" spans="2:23" ht="51.75" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B3" s="22"/>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
+      <c r="S2" s="20"/>
+      <c r="T2" s="20"/>
+      <c r="U2" s="20"/>
+      <c r="V2" s="20"/>
+      <c r="W2" s="20"/>
+    </row>
+    <row r="3" spans="2:23" ht="51.75" customHeight="1">
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
       <c r="E3" s="19"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="15"/>
-      <c r="J3" s="15"/>
-      <c r="K3" s="15"/>
-      <c r="L3" s="15"/>
-      <c r="M3" s="15"/>
-      <c r="N3" s="15"/>
-      <c r="O3" s="15"/>
-      <c r="P3" s="17"/>
-      <c r="Q3" s="15"/>
-      <c r="R3" s="15"/>
-      <c r="S3" s="14"/>
-      <c r="T3" s="14"/>
-      <c r="U3" s="14"/>
-      <c r="V3" s="14"/>
-      <c r="W3" s="14"/>
-    </row>
-    <row r="4" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B4" s="20" t="s">
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="17"/>
+      <c r="K3" s="17"/>
+      <c r="L3" s="17"/>
+      <c r="M3" s="17"/>
+      <c r="N3" s="17"/>
+      <c r="O3" s="17"/>
+      <c r="P3" s="22"/>
+      <c r="Q3" s="17"/>
+      <c r="R3" s="17"/>
+      <c r="S3" s="20"/>
+      <c r="T3" s="20"/>
+      <c r="U3" s="20"/>
+      <c r="V3" s="20"/>
+      <c r="W3" s="20"/>
+    </row>
+    <row r="4" spans="2:23" ht="30" customHeight="1">
+      <c r="B4" s="14" t="s">
         <v>15</v>
       </c>
       <c r="C4" s="2" t="s">
@@ -791,8 +794,8 @@
       <c r="V4" s="4"/>
       <c r="W4" s="4"/>
     </row>
-    <row r="5" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B5" s="21"/>
+    <row r="5" spans="2:23" ht="30" customHeight="1">
+      <c r="B5" s="15"/>
       <c r="C5" s="2" t="s">
         <v>20</v>
       </c>
@@ -826,7 +829,7 @@
       <c r="V5" s="4"/>
       <c r="W5" s="4"/>
     </row>
-    <row r="6" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="6" spans="2:23" ht="30" customHeight="1">
       <c r="B6" s="11" t="s">
         <v>22</v>
       </c>
@@ -864,7 +867,7 @@
       <c r="V6" s="4"/>
       <c r="W6" s="4"/>
     </row>
-    <row r="7" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="7" spans="2:23" ht="30" customHeight="1">
       <c r="B7" s="11" t="s">
         <v>25</v>
       </c>
@@ -902,7 +905,7 @@
       <c r="V7" s="4"/>
       <c r="W7" s="4"/>
     </row>
-    <row r="8" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="8" spans="2:23" ht="30" customHeight="1">
       <c r="B8" s="11" t="s">
         <v>26</v>
       </c>
@@ -940,7 +943,7 @@
       <c r="V8" s="4"/>
       <c r="W8" s="4"/>
     </row>
-    <row r="9" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="9" spans="2:23" ht="30" customHeight="1">
       <c r="B9" s="11" t="s">
         <v>28</v>
       </c>
@@ -978,7 +981,7 @@
       <c r="V9" s="4"/>
       <c r="W9" s="4"/>
     </row>
-    <row r="10" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="10" spans="2:23" ht="30" customHeight="1">
       <c r="B10" s="11" t="s">
         <v>29</v>
       </c>
@@ -1016,7 +1019,7 @@
       <c r="V10" s="4"/>
       <c r="W10" s="4"/>
     </row>
-    <row r="11" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="11" spans="2:23" ht="30" customHeight="1">
       <c r="B11" s="11" t="s">
         <v>30</v>
       </c>
@@ -1054,7 +1057,7 @@
       <c r="V11" s="4"/>
       <c r="W11" s="4"/>
     </row>
-    <row r="12" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="12" spans="2:23" ht="30" customHeight="1">
       <c r="B12" s="12" t="s">
         <v>31</v>
       </c>
@@ -1095,7 +1098,7 @@
       <c r="V12" s="4"/>
       <c r="W12" s="4"/>
     </row>
-    <row r="13" spans="2:23" ht="31.95" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="13" spans="2:23" ht="31.9" customHeight="1">
       <c r="B13" s="13" t="s">
         <v>38</v>
       </c>
@@ -1136,7 +1139,7 @@
       <c r="V13" s="4"/>
       <c r="W13" s="4"/>
     </row>
-    <row r="14" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="14" spans="2:23" ht="30" customHeight="1">
       <c r="B14" s="13" t="s">
         <v>35</v>
       </c>
@@ -1173,7 +1176,7 @@
       <c r="V14" s="4"/>
       <c r="W14" s="4"/>
     </row>
-    <row r="15" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="15" spans="2:23" ht="30" customHeight="1">
       <c r="B15" s="13" t="s">
         <v>36</v>
       </c>
@@ -1216,7 +1219,7 @@
       <c r="V15" s="4"/>
       <c r="W15" s="4"/>
     </row>
-    <row r="16" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="16" spans="2:23" ht="30" customHeight="1">
       <c r="B16" s="13" t="s">
         <v>37</v>
       </c>
@@ -1259,7 +1262,7 @@
       <c r="V16" s="4"/>
       <c r="W16" s="4"/>
     </row>
-    <row r="17" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="17" spans="2:23" ht="30" customHeight="1">
       <c r="B17" s="13" t="s">
         <v>39</v>
       </c>
@@ -1298,16 +1301,26 @@
       <c r="V17" s="4"/>
       <c r="W17" s="4"/>
     </row>
-    <row r="18" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B18" s="5"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
+    <row r="18" spans="2:23" ht="30" customHeight="1">
+      <c r="B18" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D18" s="10">
+        <v>242720</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>24</v>
+      </c>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
-      <c r="J18" s="2"/>
+      <c r="J18" s="2">
+        <v>1</v>
+      </c>
       <c r="K18" s="2"/>
       <c r="L18" s="2"/>
       <c r="M18" s="2"/>
@@ -1315,19 +1328,31 @@
       <c r="O18" s="2"/>
       <c r="P18" s="2"/>
       <c r="Q18" s="2"/>
-      <c r="R18" s="2"/>
+      <c r="R18" s="2">
+        <v>1</v>
+      </c>
       <c r="S18" s="4"/>
       <c r="T18" s="4"/>
       <c r="U18" s="4"/>
       <c r="V18" s="4"/>
       <c r="W18" s="4"/>
     </row>
-    <row r="19" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B19" s="5"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
+    <row r="19" spans="2:23" ht="30" customHeight="1">
+      <c r="B19" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D19" s="10">
+        <v>242720</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F19" s="2">
+        <v>1</v>
+      </c>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
@@ -1339,23 +1364,35 @@
       <c r="O19" s="2"/>
       <c r="P19" s="2"/>
       <c r="Q19" s="2"/>
-      <c r="R19" s="2"/>
+      <c r="R19" s="2">
+        <v>1</v>
+      </c>
       <c r="S19" s="4"/>
       <c r="T19" s="4"/>
       <c r="U19" s="4"/>
       <c r="V19" s="4"/>
       <c r="W19" s="4"/>
     </row>
-    <row r="20" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B20" s="5"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
+    <row r="20" spans="2:23" ht="30" customHeight="1">
+      <c r="B20" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D20" s="10">
+        <v>242720</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>24</v>
+      </c>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
-      <c r="J20" s="2"/>
+      <c r="J20" s="2">
+        <v>1</v>
+      </c>
       <c r="K20" s="2"/>
       <c r="L20" s="2"/>
       <c r="M20" s="2"/>
@@ -1363,14 +1400,16 @@
       <c r="O20" s="2"/>
       <c r="P20" s="2"/>
       <c r="Q20" s="2"/>
-      <c r="R20" s="2"/>
+      <c r="R20" s="2">
+        <v>1</v>
+      </c>
       <c r="S20" s="4"/>
       <c r="T20" s="4"/>
       <c r="U20" s="4"/>
       <c r="V20" s="4"/>
       <c r="W20" s="4"/>
     </row>
-    <row r="21" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="21" spans="2:23" ht="30" customHeight="1">
       <c r="B21" s="5"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
@@ -1394,7 +1433,7 @@
       <c r="V21" s="4"/>
       <c r="W21" s="4"/>
     </row>
-    <row r="22" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="22" spans="2:23" ht="30" customHeight="1">
       <c r="B22" s="5"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
@@ -1418,7 +1457,7 @@
       <c r="V22" s="4"/>
       <c r="W22" s="4"/>
     </row>
-    <row r="23" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="23" spans="2:23" ht="30" customHeight="1">
       <c r="B23" s="5"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
@@ -1442,7 +1481,7 @@
       <c r="V23" s="4"/>
       <c r="W23" s="4"/>
     </row>
-    <row r="24" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="24" spans="2:23" ht="30" customHeight="1">
       <c r="B24" s="5"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
@@ -1466,7 +1505,7 @@
       <c r="V24" s="4"/>
       <c r="W24" s="4"/>
     </row>
-    <row r="25" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="25" spans="2:23" ht="30" customHeight="1">
       <c r="B25" s="5"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
@@ -1490,7 +1529,7 @@
       <c r="V25" s="4"/>
       <c r="W25" s="4"/>
     </row>
-    <row r="26" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="26" spans="2:23" ht="30" customHeight="1">
       <c r="B26" s="5"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
@@ -1514,7 +1553,7 @@
       <c r="V26" s="4"/>
       <c r="W26" s="4"/>
     </row>
-    <row r="27" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="27" spans="2:23" ht="30" customHeight="1">
       <c r="B27" s="5"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
@@ -1538,7 +1577,7 @@
       <c r="V27" s="4"/>
       <c r="W27" s="4"/>
     </row>
-    <row r="28" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="28" spans="2:23" ht="30" customHeight="1">
       <c r="B28" s="5"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
@@ -1562,7 +1601,7 @@
       <c r="V28" s="4"/>
       <c r="W28" s="4"/>
     </row>
-    <row r="29" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="29" spans="2:23" ht="30" customHeight="1">
       <c r="B29" s="5"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
@@ -1586,7 +1625,7 @@
       <c r="V29" s="4"/>
       <c r="W29" s="4"/>
     </row>
-    <row r="30" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="30" spans="2:23" ht="30" customHeight="1">
       <c r="B30" s="5"/>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
@@ -1610,7 +1649,7 @@
       <c r="V30" s="4"/>
       <c r="W30" s="4"/>
     </row>
-    <row r="31" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="31" spans="2:23" ht="30" customHeight="1">
       <c r="B31" s="5"/>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
@@ -1634,7 +1673,7 @@
       <c r="V31" s="4"/>
       <c r="W31" s="4"/>
     </row>
-    <row r="32" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="32" spans="2:23" ht="30" customHeight="1">
       <c r="B32" s="5"/>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
@@ -1658,7 +1697,7 @@
       <c r="V32" s="4"/>
       <c r="W32" s="4"/>
     </row>
-    <row r="33" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="33" spans="2:23" ht="30" customHeight="1">
       <c r="B33" s="5"/>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
@@ -1682,7 +1721,7 @@
       <c r="V33" s="4"/>
       <c r="W33" s="4"/>
     </row>
-    <row r="34" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="34" spans="2:23" ht="30" customHeight="1">
       <c r="B34" s="5"/>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
@@ -1706,7 +1745,7 @@
       <c r="V34" s="4"/>
       <c r="W34" s="4"/>
     </row>
-    <row r="35" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="35" spans="2:23" ht="30" customHeight="1">
       <c r="B35" s="5"/>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
@@ -1730,7 +1769,7 @@
       <c r="V35" s="4"/>
       <c r="W35" s="4"/>
     </row>
-    <row r="36" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="36" spans="2:23" ht="30" customHeight="1">
       <c r="B36" s="5"/>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
@@ -1754,7 +1793,7 @@
       <c r="V36" s="4"/>
       <c r="W36" s="4"/>
     </row>
-    <row r="37" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="37" spans="2:23" ht="30" customHeight="1">
       <c r="B37" s="5"/>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
@@ -1778,7 +1817,7 @@
       <c r="V37" s="4"/>
       <c r="W37" s="4"/>
     </row>
-    <row r="38" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="38" spans="2:23" ht="30" customHeight="1">
       <c r="B38" s="5"/>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
@@ -1802,7 +1841,7 @@
       <c r="V38" s="4"/>
       <c r="W38" s="4"/>
     </row>
-    <row r="39" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="39" spans="2:23" ht="30" customHeight="1">
       <c r="B39" s="5"/>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
@@ -1826,7 +1865,7 @@
       <c r="V39" s="4"/>
       <c r="W39" s="4"/>
     </row>
-    <row r="40" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="40" spans="2:23" ht="30" customHeight="1">
       <c r="B40" s="5"/>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
@@ -1850,7 +1889,7 @@
       <c r="V40" s="4"/>
       <c r="W40" s="4"/>
     </row>
-    <row r="41" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="41" spans="2:23" ht="30" customHeight="1">
       <c r="B41" s="5"/>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
@@ -1874,7 +1913,7 @@
       <c r="V41" s="4"/>
       <c r="W41" s="4"/>
     </row>
-    <row r="42" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="42" spans="2:23" ht="30" customHeight="1">
       <c r="B42" s="5"/>
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
@@ -1898,7 +1937,7 @@
       <c r="V42" s="4"/>
       <c r="W42" s="4"/>
     </row>
-    <row r="43" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="43" spans="2:23" ht="30" customHeight="1">
       <c r="B43" s="5"/>
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
@@ -1922,7 +1961,7 @@
       <c r="V43" s="4"/>
       <c r="W43" s="4"/>
     </row>
-    <row r="44" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="44" spans="2:23" ht="30" customHeight="1">
       <c r="B44" s="5"/>
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
@@ -1946,7 +1985,7 @@
       <c r="V44" s="4"/>
       <c r="W44" s="4"/>
     </row>
-    <row r="45" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="45" spans="2:23" ht="30" customHeight="1">
       <c r="B45" s="5"/>
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
@@ -1970,7 +2009,7 @@
       <c r="V45" s="4"/>
       <c r="W45" s="4"/>
     </row>
-    <row r="46" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="46" spans="2:23" ht="30" customHeight="1">
       <c r="B46" s="5"/>
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
@@ -1994,7 +2033,7 @@
       <c r="V46" s="4"/>
       <c r="W46" s="4"/>
     </row>
-    <row r="47" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="47" spans="2:23" ht="30" customHeight="1">
       <c r="B47" s="5"/>
       <c r="C47" s="2"/>
       <c r="D47" s="2"/>
@@ -2018,7 +2057,7 @@
       <c r="V47" s="4"/>
       <c r="W47" s="4"/>
     </row>
-    <row r="48" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="48" spans="2:23" ht="30" customHeight="1">
       <c r="B48" s="5"/>
       <c r="C48" s="2"/>
       <c r="D48" s="2"/>
@@ -2042,7 +2081,7 @@
       <c r="V48" s="4"/>
       <c r="W48" s="4"/>
     </row>
-    <row r="49" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="49" spans="2:23" ht="30" customHeight="1">
       <c r="B49" s="5"/>
       <c r="C49" s="2"/>
       <c r="D49" s="2"/>
@@ -2066,7 +2105,7 @@
       <c r="V49" s="4"/>
       <c r="W49" s="4"/>
     </row>
-    <row r="50" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="50" spans="2:23" ht="30" customHeight="1">
       <c r="B50" s="5"/>
       <c r="C50" s="2"/>
       <c r="D50" s="2"/>
@@ -2090,7 +2129,7 @@
       <c r="V50" s="4"/>
       <c r="W50" s="4"/>
     </row>
-    <row r="51" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="51" spans="2:23" ht="30" customHeight="1">
       <c r="B51" s="5"/>
       <c r="C51" s="2"/>
       <c r="D51" s="2"/>
@@ -2114,7 +2153,7 @@
       <c r="V51" s="4"/>
       <c r="W51" s="4"/>
     </row>
-    <row r="52" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="52" spans="2:23" ht="30" customHeight="1">
       <c r="B52" s="5"/>
       <c r="C52" s="2"/>
       <c r="D52" s="2"/>
@@ -2138,7 +2177,7 @@
       <c r="V52" s="4"/>
       <c r="W52" s="4"/>
     </row>
-    <row r="53" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="53" spans="2:23" ht="30" customHeight="1">
       <c r="B53" s="5"/>
       <c r="C53" s="2"/>
       <c r="D53" s="2"/>
@@ -2162,7 +2201,7 @@
       <c r="V53" s="4"/>
       <c r="W53" s="4"/>
     </row>
-    <row r="54" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="54" spans="2:23" ht="30" customHeight="1">
       <c r="B54" s="5"/>
       <c r="C54" s="2"/>
       <c r="D54" s="2"/>
@@ -2186,7 +2225,7 @@
       <c r="V54" s="4"/>
       <c r="W54" s="4"/>
     </row>
-    <row r="55" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="55" spans="2:23" ht="30" customHeight="1">
       <c r="B55" s="5"/>
       <c r="C55" s="2"/>
       <c r="D55" s="2"/>
@@ -2210,7 +2249,7 @@
       <c r="V55" s="4"/>
       <c r="W55" s="4"/>
     </row>
-    <row r="56" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="56" spans="2:23" ht="30" customHeight="1">
       <c r="B56" s="5"/>
       <c r="C56" s="2"/>
       <c r="D56" s="2"/>
@@ -2234,7 +2273,7 @@
       <c r="V56" s="4"/>
       <c r="W56" s="4"/>
     </row>
-    <row r="57" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="57" spans="2:23" ht="30" customHeight="1">
       <c r="B57" s="5"/>
       <c r="C57" s="2"/>
       <c r="D57" s="2"/>
@@ -2258,7 +2297,7 @@
       <c r="V57" s="4"/>
       <c r="W57" s="4"/>
     </row>
-    <row r="58" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="58" spans="2:23" ht="30" customHeight="1">
       <c r="B58" s="5"/>
       <c r="C58" s="2"/>
       <c r="D58" s="2"/>
@@ -2282,7 +2321,7 @@
       <c r="V58" s="4"/>
       <c r="W58" s="4"/>
     </row>
-    <row r="59" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="59" spans="2:23" ht="30" customHeight="1">
       <c r="B59" s="5"/>
       <c r="C59" s="2"/>
       <c r="D59" s="2"/>
@@ -2306,7 +2345,7 @@
       <c r="V59" s="4"/>
       <c r="W59" s="4"/>
     </row>
-    <row r="60" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="60" spans="2:23" ht="30" customHeight="1">
       <c r="B60" s="5"/>
       <c r="C60" s="2"/>
       <c r="D60" s="2"/>
@@ -2330,7 +2369,7 @@
       <c r="V60" s="4"/>
       <c r="W60" s="4"/>
     </row>
-    <row r="61" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="61" spans="2:23" ht="30" customHeight="1">
       <c r="B61" s="5"/>
       <c r="C61" s="2"/>
       <c r="D61" s="2"/>
@@ -2354,7 +2393,7 @@
       <c r="V61" s="4"/>
       <c r="W61" s="4"/>
     </row>
-    <row r="62" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="62" spans="2:23" ht="30" customHeight="1">
       <c r="B62" s="5"/>
       <c r="C62" s="2"/>
       <c r="D62" s="2"/>
@@ -2378,7 +2417,7 @@
       <c r="V62" s="4"/>
       <c r="W62" s="4"/>
     </row>
-    <row r="63" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="63" spans="2:23" ht="30" customHeight="1">
       <c r="B63" s="5"/>
       <c r="C63" s="2"/>
       <c r="D63" s="2"/>
@@ -2402,7 +2441,7 @@
       <c r="V63" s="4"/>
       <c r="W63" s="4"/>
     </row>
-    <row r="64" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="64" spans="2:23" ht="30" customHeight="1">
       <c r="B64" s="5"/>
       <c r="C64" s="2"/>
       <c r="D64" s="2"/>
@@ -2426,7 +2465,7 @@
       <c r="V64" s="4"/>
       <c r="W64" s="4"/>
     </row>
-    <row r="65" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="65" spans="2:23" ht="30" customHeight="1">
       <c r="B65" s="5"/>
       <c r="C65" s="2"/>
       <c r="D65" s="2"/>
@@ -2450,7 +2489,7 @@
       <c r="V65" s="4"/>
       <c r="W65" s="4"/>
     </row>
-    <row r="66" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="66" spans="2:23" ht="30" customHeight="1">
       <c r="B66" s="5"/>
       <c r="C66" s="2"/>
       <c r="D66" s="2"/>
@@ -2474,7 +2513,7 @@
       <c r="V66" s="4"/>
       <c r="W66" s="4"/>
     </row>
-    <row r="67" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="67" spans="2:23" ht="30" customHeight="1">
       <c r="B67" s="5"/>
       <c r="C67" s="2"/>
       <c r="D67" s="2"/>
@@ -2498,7 +2537,7 @@
       <c r="V67" s="4"/>
       <c r="W67" s="4"/>
     </row>
-    <row r="68" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="68" spans="2:23" ht="30" customHeight="1">
       <c r="B68" s="5"/>
       <c r="C68" s="2"/>
       <c r="D68" s="2"/>
@@ -2522,7 +2561,7 @@
       <c r="V68" s="4"/>
       <c r="W68" s="4"/>
     </row>
-    <row r="69" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="69" spans="2:23" ht="30" customHeight="1">
       <c r="B69" s="5"/>
       <c r="C69" s="2"/>
       <c r="D69" s="2"/>
@@ -2546,7 +2585,7 @@
       <c r="V69" s="4"/>
       <c r="W69" s="4"/>
     </row>
-    <row r="70" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="70" spans="2:23" ht="30" customHeight="1">
       <c r="B70" s="5"/>
       <c r="C70" s="6"/>
       <c r="D70" s="6"/>
@@ -2570,7 +2609,7 @@
       <c r="V70" s="7"/>
       <c r="W70" s="4"/>
     </row>
-    <row r="71" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="71" spans="2:23" ht="30" customHeight="1">
       <c r="B71" s="5"/>
       <c r="C71" s="6"/>
       <c r="D71" s="6"/>
@@ -2594,7 +2633,7 @@
       <c r="V71" s="7"/>
       <c r="W71" s="4"/>
     </row>
-    <row r="72" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="72" spans="2:23" ht="30" customHeight="1">
       <c r="B72" s="5"/>
       <c r="C72" s="6"/>
       <c r="D72" s="6"/>
@@ -2618,7 +2657,7 @@
       <c r="V72" s="7"/>
       <c r="W72" s="4"/>
     </row>
-    <row r="73" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="73" spans="2:23" ht="30" customHeight="1">
       <c r="B73" s="5"/>
       <c r="C73" s="6"/>
       <c r="D73" s="6"/>
@@ -2642,7 +2681,7 @@
       <c r="V73" s="7"/>
       <c r="W73" s="4"/>
     </row>
-    <row r="74" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="74" spans="2:23" ht="30" customHeight="1">
       <c r="B74" s="5"/>
       <c r="C74" s="6"/>
       <c r="D74" s="6"/>
@@ -2666,7 +2705,7 @@
       <c r="V74" s="7"/>
       <c r="W74" s="4"/>
     </row>
-    <row r="75" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="75" spans="2:23" ht="30" customHeight="1">
       <c r="B75" s="5"/>
       <c r="C75" s="6"/>
       <c r="D75" s="6"/>
@@ -2690,7 +2729,7 @@
       <c r="V75" s="7"/>
       <c r="W75" s="4"/>
     </row>
-    <row r="76" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="76" spans="2:23" ht="30" customHeight="1">
       <c r="B76" s="5"/>
       <c r="C76" s="6"/>
       <c r="D76" s="6"/>
@@ -2714,7 +2753,7 @@
       <c r="V76" s="7"/>
       <c r="W76" s="4"/>
     </row>
-    <row r="77" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="77" spans="2:23" ht="30" customHeight="1">
       <c r="B77" s="5"/>
       <c r="C77" s="6"/>
       <c r="D77" s="6"/>
@@ -2738,7 +2777,7 @@
       <c r="V77" s="7"/>
       <c r="W77" s="4"/>
     </row>
-    <row r="78" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="78" spans="2:23" ht="30" customHeight="1">
       <c r="B78" s="5"/>
       <c r="C78" s="6"/>
       <c r="D78" s="6"/>
@@ -2762,7 +2801,7 @@
       <c r="V78" s="7"/>
       <c r="W78" s="4"/>
     </row>
-    <row r="79" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="79" spans="2:23" ht="30" customHeight="1">
       <c r="B79" s="5"/>
       <c r="C79" s="6"/>
       <c r="D79" s="6"/>
@@ -2786,7 +2825,7 @@
       <c r="V79" s="7"/>
       <c r="W79" s="4"/>
     </row>
-    <row r="80" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="80" spans="2:23" ht="30" customHeight="1">
       <c r="B80" s="5"/>
       <c r="C80" s="6"/>
       <c r="D80" s="6"/>
@@ -2810,7 +2849,7 @@
       <c r="V80" s="7"/>
       <c r="W80" s="4"/>
     </row>
-    <row r="81" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="81" spans="2:23" ht="30" customHeight="1">
       <c r="B81" s="5"/>
       <c r="C81" s="6"/>
       <c r="D81" s="6"/>
@@ -2834,7 +2873,7 @@
       <c r="V81" s="7"/>
       <c r="W81" s="4"/>
     </row>
-    <row r="82" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="82" spans="2:23" ht="30" customHeight="1">
       <c r="B82" s="5"/>
       <c r="C82" s="6"/>
       <c r="D82" s="6"/>
@@ -2858,7 +2897,7 @@
       <c r="V82" s="7"/>
       <c r="W82" s="4"/>
     </row>
-    <row r="83" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="83" spans="2:23" ht="30" customHeight="1">
       <c r="B83" s="5"/>
       <c r="C83" s="6"/>
       <c r="D83" s="6"/>
@@ -2882,7 +2921,7 @@
       <c r="V83" s="7"/>
       <c r="W83" s="4"/>
     </row>
-    <row r="84" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="84" spans="2:23" ht="30" customHeight="1">
       <c r="B84" s="5"/>
       <c r="C84" s="6"/>
       <c r="D84" s="6"/>
@@ -2906,7 +2945,7 @@
       <c r="V84" s="7"/>
       <c r="W84" s="4"/>
     </row>
-    <row r="85" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="85" spans="2:23" ht="30" customHeight="1">
       <c r="B85" s="5"/>
       <c r="C85" s="6"/>
       <c r="D85" s="6"/>
@@ -2930,7 +2969,7 @@
       <c r="V85" s="7"/>
       <c r="W85" s="4"/>
     </row>
-    <row r="86" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="86" spans="2:23" ht="30" customHeight="1">
       <c r="B86" s="5"/>
       <c r="C86" s="6"/>
       <c r="D86" s="6"/>
@@ -2954,7 +2993,7 @@
       <c r="V86" s="7"/>
       <c r="W86" s="4"/>
     </row>
-    <row r="87" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="87" spans="2:23" ht="30" customHeight="1">
       <c r="B87" s="5"/>
       <c r="C87" s="6"/>
       <c r="D87" s="6"/>
@@ -2978,7 +3017,7 @@
       <c r="V87" s="7"/>
       <c r="W87" s="4"/>
     </row>
-    <row r="88" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="88" spans="2:23" ht="30" customHeight="1">
       <c r="B88" s="5"/>
       <c r="C88" s="6"/>
       <c r="D88" s="6"/>
@@ -3002,7 +3041,7 @@
       <c r="V88" s="7"/>
       <c r="W88" s="4"/>
     </row>
-    <row r="89" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="89" spans="2:23" ht="30" customHeight="1">
       <c r="B89" s="5"/>
       <c r="C89" s="6"/>
       <c r="D89" s="6"/>
@@ -3026,7 +3065,7 @@
       <c r="V89" s="7"/>
       <c r="W89" s="4"/>
     </row>
-    <row r="90" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="90" spans="2:23" ht="30" customHeight="1">
       <c r="B90" s="5"/>
       <c r="C90" s="6"/>
       <c r="D90" s="6"/>
@@ -3050,7 +3089,7 @@
       <c r="V90" s="7"/>
       <c r="W90" s="4"/>
     </row>
-    <row r="91" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="91" spans="2:23" ht="30" customHeight="1">
       <c r="B91" s="5"/>
       <c r="C91" s="6"/>
       <c r="D91" s="6"/>
@@ -3074,7 +3113,7 @@
       <c r="V91" s="7"/>
       <c r="W91" s="4"/>
     </row>
-    <row r="92" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="92" spans="2:23" ht="30" customHeight="1">
       <c r="B92" s="5"/>
       <c r="C92" s="6"/>
       <c r="D92" s="6"/>
@@ -3098,7 +3137,7 @@
       <c r="V92" s="7"/>
       <c r="W92" s="4"/>
     </row>
-    <row r="93" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="93" spans="2:23" ht="30" customHeight="1">
       <c r="B93" s="5"/>
       <c r="C93" s="6"/>
       <c r="D93" s="6"/>
@@ -3122,7 +3161,7 @@
       <c r="V93" s="7"/>
       <c r="W93" s="4"/>
     </row>
-    <row r="94" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="94" spans="2:23" ht="30" customHeight="1">
       <c r="B94" s="5"/>
       <c r="C94" s="6"/>
       <c r="D94" s="6"/>
@@ -3146,7 +3185,7 @@
       <c r="V94" s="7"/>
       <c r="W94" s="4"/>
     </row>
-    <row r="95" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="95" spans="2:23" ht="30" customHeight="1">
       <c r="B95" s="5"/>
       <c r="C95" s="6"/>
       <c r="D95" s="6"/>
@@ -3170,7 +3209,7 @@
       <c r="V95" s="7"/>
       <c r="W95" s="4"/>
     </row>
-    <row r="96" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="96" spans="2:23" ht="30" customHeight="1">
       <c r="B96" s="5"/>
       <c r="C96" s="6"/>
       <c r="D96" s="6"/>
@@ -3194,7 +3233,7 @@
       <c r="V96" s="7"/>
       <c r="W96" s="4"/>
     </row>
-    <row r="97" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="97" spans="2:23" ht="30" customHeight="1">
       <c r="B97" s="5"/>
       <c r="C97" s="6"/>
       <c r="D97" s="6"/>
@@ -3218,7 +3257,7 @@
       <c r="V97" s="7"/>
       <c r="W97" s="4"/>
     </row>
-    <row r="98" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="98" spans="2:23" ht="30" customHeight="1">
       <c r="B98" s="5"/>
       <c r="C98" s="6"/>
       <c r="D98" s="6"/>
@@ -3242,7 +3281,7 @@
       <c r="V98" s="7"/>
       <c r="W98" s="4"/>
     </row>
-    <row r="99" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="99" spans="2:23" ht="30" customHeight="1">
       <c r="B99" s="5"/>
       <c r="C99" s="6"/>
       <c r="D99" s="6"/>
@@ -3266,7 +3305,7 @@
       <c r="V99" s="7"/>
       <c r="W99" s="4"/>
     </row>
-    <row r="100" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="100" spans="2:23" ht="30" customHeight="1">
       <c r="B100" s="5"/>
       <c r="C100" s="6"/>
       <c r="D100" s="6"/>
@@ -3290,7 +3329,7 @@
       <c r="V100" s="7"/>
       <c r="W100" s="4"/>
     </row>
-    <row r="101" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="101" spans="2:23" ht="30" customHeight="1">
       <c r="B101" s="5"/>
       <c r="C101" s="6"/>
       <c r="D101" s="6"/>
@@ -3314,7 +3353,7 @@
       <c r="V101" s="7"/>
       <c r="W101" s="4"/>
     </row>
-    <row r="102" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="102" spans="2:23" ht="30" customHeight="1">
       <c r="B102" s="5"/>
       <c r="C102" s="6"/>
       <c r="D102" s="6"/>
@@ -3338,7 +3377,7 @@
       <c r="V102" s="7"/>
       <c r="W102" s="4"/>
     </row>
-    <row r="103" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="103" spans="2:23" ht="30" customHeight="1">
       <c r="B103" s="5"/>
       <c r="C103" s="6"/>
       <c r="D103" s="6"/>
@@ -3362,7 +3401,7 @@
       <c r="V103" s="7"/>
       <c r="W103" s="4"/>
     </row>
-    <row r="104" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="104" spans="2:23" ht="30" customHeight="1">
       <c r="B104" s="5"/>
       <c r="C104" s="6"/>
       <c r="D104" s="6"/>
@@ -3386,7 +3425,7 @@
       <c r="V104" s="7"/>
       <c r="W104" s="4"/>
     </row>
-    <row r="105" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="105" spans="2:23" ht="30" customHeight="1">
       <c r="B105" s="5"/>
       <c r="C105" s="6"/>
       <c r="D105" s="6"/>
@@ -3410,7 +3449,7 @@
       <c r="V105" s="7"/>
       <c r="W105" s="4"/>
     </row>
-    <row r="106" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="106" spans="2:23" ht="30" customHeight="1">
       <c r="B106" s="5"/>
       <c r="C106" s="6"/>
       <c r="D106" s="6"/>
@@ -3434,7 +3473,7 @@
       <c r="V106" s="7"/>
       <c r="W106" s="4"/>
     </row>
-    <row r="107" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="107" spans="2:23" ht="30" customHeight="1">
       <c r="B107" s="5"/>
       <c r="C107" s="6"/>
       <c r="D107" s="6"/>
@@ -3458,7 +3497,7 @@
       <c r="V107" s="7"/>
       <c r="W107" s="4"/>
     </row>
-    <row r="108" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="108" spans="2:23" ht="30" customHeight="1">
       <c r="B108" s="5"/>
       <c r="C108" s="6"/>
       <c r="D108" s="6"/>
@@ -3482,7 +3521,7 @@
       <c r="V108" s="7"/>
       <c r="W108" s="4"/>
     </row>
-    <row r="109" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="109" spans="2:23" ht="30" customHeight="1">
       <c r="B109" s="5"/>
       <c r="C109" s="6"/>
       <c r="D109" s="6"/>
@@ -3506,7 +3545,7 @@
       <c r="V109" s="7"/>
       <c r="W109" s="4"/>
     </row>
-    <row r="110" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="110" spans="2:23" ht="30" customHeight="1">
       <c r="B110" s="5"/>
       <c r="C110" s="6"/>
       <c r="D110" s="6"/>
@@ -3530,7 +3569,7 @@
       <c r="V110" s="7"/>
       <c r="W110" s="4"/>
     </row>
-    <row r="111" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="111" spans="2:23" ht="30" customHeight="1">
       <c r="B111" s="5"/>
       <c r="C111" s="6"/>
       <c r="D111" s="6"/>
@@ -3554,7 +3593,7 @@
       <c r="V111" s="7"/>
       <c r="W111" s="4"/>
     </row>
-    <row r="112" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="112" spans="2:23" ht="30" customHeight="1">
       <c r="B112" s="5"/>
       <c r="C112" s="6"/>
       <c r="D112" s="6"/>
@@ -3578,7 +3617,7 @@
       <c r="V112" s="7"/>
       <c r="W112" s="4"/>
     </row>
-    <row r="113" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="113" spans="2:23" ht="30" customHeight="1">
       <c r="B113" s="5"/>
       <c r="C113" s="6"/>
       <c r="D113" s="6"/>
@@ -3602,7 +3641,7 @@
       <c r="V113" s="7"/>
       <c r="W113" s="4"/>
     </row>
-    <row r="114" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="114" spans="2:23" ht="30" customHeight="1">
       <c r="B114" s="5"/>
       <c r="C114" s="6"/>
       <c r="D114" s="6"/>
@@ -3626,7 +3665,7 @@
       <c r="V114" s="7"/>
       <c r="W114" s="4"/>
     </row>
-    <row r="115" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="115" spans="2:23" ht="30" customHeight="1">
       <c r="B115" s="5"/>
       <c r="C115" s="6"/>
       <c r="D115" s="6"/>
@@ -3650,7 +3689,7 @@
       <c r="V115" s="7"/>
       <c r="W115" s="4"/>
     </row>
-    <row r="116" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="116" spans="2:23" ht="30" customHeight="1">
       <c r="B116" s="5"/>
       <c r="C116" s="6"/>
       <c r="D116" s="6"/>
@@ -3674,7 +3713,7 @@
       <c r="V116" s="7"/>
       <c r="W116" s="4"/>
     </row>
-    <row r="117" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="117" spans="2:23" ht="30" customHeight="1">
       <c r="B117" s="5"/>
       <c r="C117" s="6"/>
       <c r="D117" s="6"/>
@@ -3698,7 +3737,7 @@
       <c r="V117" s="7"/>
       <c r="W117" s="4"/>
     </row>
-    <row r="118" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="118" spans="2:23" ht="30" customHeight="1">
       <c r="B118" s="5"/>
       <c r="C118" s="6"/>
       <c r="D118" s="6"/>
@@ -3722,7 +3761,7 @@
       <c r="V118" s="7"/>
       <c r="W118" s="4"/>
     </row>
-    <row r="119" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="119" spans="2:23" ht="30" customHeight="1">
       <c r="B119" s="5"/>
       <c r="C119" s="6"/>
       <c r="D119" s="6"/>
@@ -3746,7 +3785,7 @@
       <c r="V119" s="7"/>
       <c r="W119" s="4"/>
     </row>
-    <row r="120" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="120" spans="2:23" ht="30" customHeight="1">
       <c r="B120" s="5"/>
       <c r="C120" s="6"/>
       <c r="D120" s="6"/>
@@ -3770,7 +3809,7 @@
       <c r="V120" s="7"/>
       <c r="W120" s="4"/>
     </row>
-    <row r="121" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="121" spans="2:23" ht="30" customHeight="1">
       <c r="B121" s="5"/>
       <c r="C121" s="6"/>
       <c r="D121" s="6"/>
@@ -3794,7 +3833,7 @@
       <c r="V121" s="7"/>
       <c r="W121" s="4"/>
     </row>
-    <row r="122" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="122" spans="2:23" ht="30" customHeight="1">
       <c r="B122" s="5"/>
       <c r="C122" s="6"/>
       <c r="D122" s="6"/>
@@ -3818,7 +3857,7 @@
       <c r="V122" s="7"/>
       <c r="W122" s="4"/>
     </row>
-    <row r="123" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="123" spans="2:23" ht="30" customHeight="1">
       <c r="B123" s="5"/>
       <c r="C123" s="6"/>
       <c r="D123" s="6"/>
@@ -3842,7 +3881,7 @@
       <c r="V123" s="7"/>
       <c r="W123" s="4"/>
     </row>
-    <row r="124" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="124" spans="2:23" ht="30" customHeight="1">
       <c r="B124" s="5"/>
       <c r="C124" s="6"/>
       <c r="D124" s="6"/>
@@ -3866,7 +3905,7 @@
       <c r="V124" s="7"/>
       <c r="W124" s="4"/>
     </row>
-    <row r="125" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="125" spans="2:23" ht="30" customHeight="1">
       <c r="B125" s="5"/>
       <c r="C125" s="6"/>
       <c r="D125" s="6"/>
@@ -3890,7 +3929,7 @@
       <c r="V125" s="7"/>
       <c r="W125" s="4"/>
     </row>
-    <row r="126" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="126" spans="2:23" ht="30" customHeight="1">
       <c r="B126" s="5"/>
       <c r="C126" s="6"/>
       <c r="D126" s="6"/>
@@ -3914,7 +3953,7 @@
       <c r="V126" s="7"/>
       <c r="W126" s="4"/>
     </row>
-    <row r="127" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="127" spans="2:23" ht="30" customHeight="1">
       <c r="B127" s="5"/>
       <c r="C127" s="6"/>
       <c r="D127" s="6"/>
@@ -3938,7 +3977,7 @@
       <c r="V127" s="7"/>
       <c r="W127" s="4"/>
     </row>
-    <row r="128" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="128" spans="2:23" ht="30" customHeight="1">
       <c r="B128" s="5"/>
       <c r="C128" s="6"/>
       <c r="D128" s="6"/>
@@ -3962,7 +4001,7 @@
       <c r="V128" s="7"/>
       <c r="W128" s="4"/>
     </row>
-    <row r="129" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="129" spans="2:23" ht="30" customHeight="1">
       <c r="B129" s="5"/>
       <c r="C129" s="6"/>
       <c r="D129" s="6"/>
@@ -3986,7 +4025,7 @@
       <c r="V129" s="7"/>
       <c r="W129" s="4"/>
     </row>
-    <row r="130" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="130" spans="2:23" ht="30" customHeight="1">
       <c r="B130" s="5"/>
       <c r="C130" s="6"/>
       <c r="D130" s="6"/>
@@ -4010,7 +4049,7 @@
       <c r="V130" s="7"/>
       <c r="W130" s="4"/>
     </row>
-    <row r="131" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="131" spans="2:23" ht="30" customHeight="1">
       <c r="B131" s="5"/>
       <c r="C131" s="6"/>
       <c r="D131" s="6"/>
@@ -4034,7 +4073,7 @@
       <c r="V131" s="7"/>
       <c r="W131" s="4"/>
     </row>
-    <row r="132" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="132" spans="2:23" ht="30" customHeight="1">
       <c r="B132" s="5"/>
       <c r="C132" s="6"/>
       <c r="D132" s="6"/>
@@ -4058,7 +4097,7 @@
       <c r="V132" s="7"/>
       <c r="W132" s="4"/>
     </row>
-    <row r="133" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="133" spans="2:23" ht="30" customHeight="1">
       <c r="B133" s="5"/>
       <c r="C133" s="6"/>
       <c r="D133" s="6"/>
@@ -4082,7 +4121,7 @@
       <c r="V133" s="7"/>
       <c r="W133" s="4"/>
     </row>
-    <row r="134" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="134" spans="2:23" ht="30" customHeight="1">
       <c r="B134" s="5"/>
       <c r="C134" s="6"/>
       <c r="D134" s="6"/>
@@ -4106,7 +4145,7 @@
       <c r="V134" s="7"/>
       <c r="W134" s="4"/>
     </row>
-    <row r="135" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="135" spans="2:23" ht="30" customHeight="1">
       <c r="B135" s="5"/>
       <c r="C135" s="6"/>
       <c r="D135" s="6"/>
@@ -4130,7 +4169,7 @@
       <c r="V135" s="7"/>
       <c r="W135" s="4"/>
     </row>
-    <row r="136" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="136" spans="2:23" ht="30" customHeight="1">
       <c r="B136" s="5"/>
       <c r="C136" s="6"/>
       <c r="D136" s="6"/>
@@ -4154,7 +4193,7 @@
       <c r="V136" s="7"/>
       <c r="W136" s="4"/>
     </row>
-    <row r="137" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="137" spans="2:23" ht="30" customHeight="1">
       <c r="B137" s="5"/>
       <c r="C137" s="6"/>
       <c r="D137" s="6"/>
@@ -4178,7 +4217,7 @@
       <c r="V137" s="7"/>
       <c r="W137" s="4"/>
     </row>
-    <row r="138" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="138" spans="2:23" ht="30" customHeight="1">
       <c r="B138" s="5"/>
       <c r="C138" s="6"/>
       <c r="D138" s="6"/>
@@ -4202,7 +4241,7 @@
       <c r="V138" s="7"/>
       <c r="W138" s="4"/>
     </row>
-    <row r="139" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="139" spans="2:23" ht="30" customHeight="1">
       <c r="B139" s="5"/>
       <c r="C139" s="6"/>
       <c r="D139" s="6"/>
@@ -4226,7 +4265,7 @@
       <c r="V139" s="7"/>
       <c r="W139" s="4"/>
     </row>
-    <row r="140" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="140" spans="2:23" ht="30" customHeight="1">
       <c r="B140" s="5"/>
       <c r="C140" s="6"/>
       <c r="D140" s="6"/>
@@ -4250,7 +4289,7 @@
       <c r="V140" s="7"/>
       <c r="W140" s="4"/>
     </row>
-    <row r="141" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="141" spans="2:23" ht="30" customHeight="1">
       <c r="B141" s="5"/>
       <c r="C141" s="6"/>
       <c r="D141" s="6"/>
@@ -4274,7 +4313,7 @@
       <c r="V141" s="7"/>
       <c r="W141" s="4"/>
     </row>
-    <row r="142" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="142" spans="2:23" ht="30" customHeight="1">
       <c r="B142" s="5"/>
       <c r="C142" s="6"/>
       <c r="D142" s="6"/>
@@ -4298,7 +4337,7 @@
       <c r="V142" s="7"/>
       <c r="W142" s="4"/>
     </row>
-    <row r="143" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="143" spans="2:23" ht="30" customHeight="1">
       <c r="B143" s="5"/>
       <c r="C143" s="6"/>
       <c r="D143" s="6"/>
@@ -4322,7 +4361,7 @@
       <c r="V143" s="7"/>
       <c r="W143" s="4"/>
     </row>
-    <row r="144" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="144" spans="2:23" ht="30" customHeight="1">
       <c r="B144" s="5"/>
       <c r="C144" s="6"/>
       <c r="D144" s="6"/>
@@ -4346,110 +4385,95 @@
       <c r="V144" s="7"/>
       <c r="W144" s="4"/>
     </row>
-    <row r="145" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="145" spans="2:23" ht="30" customHeight="1">
       <c r="B145" s="8"/>
       <c r="W145" s="9"/>
     </row>
-    <row r="146" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="146" spans="2:23" ht="30" customHeight="1">
       <c r="B146" s="8"/>
       <c r="W146" s="9"/>
     </row>
-    <row r="147" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="147" spans="2:23" ht="30" customHeight="1">
       <c r="B147" s="8"/>
       <c r="W147" s="9"/>
     </row>
-    <row r="148" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="148" spans="2:23" ht="30" customHeight="1">
       <c r="B148" s="8"/>
       <c r="W148" s="9"/>
     </row>
-    <row r="149" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="149" spans="2:23" ht="30" customHeight="1">
       <c r="B149" s="8"/>
       <c r="W149" s="9"/>
     </row>
-    <row r="150" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="150" spans="2:23" ht="30" customHeight="1">
       <c r="B150" s="8"/>
       <c r="W150" s="9"/>
     </row>
-    <row r="151" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="151" spans="2:23" ht="30" customHeight="1">
       <c r="B151" s="8"/>
       <c r="W151" s="9"/>
     </row>
-    <row r="152" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="152" spans="2:23" ht="30" customHeight="1">
       <c r="B152" s="8"/>
       <c r="W152" s="9"/>
     </row>
-    <row r="153" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="153" spans="2:23" ht="30" customHeight="1">
       <c r="B153" s="8"/>
       <c r="W153" s="9"/>
     </row>
-    <row r="154" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="154" spans="2:23" ht="30" customHeight="1">
       <c r="B154" s="8"/>
       <c r="W154" s="9"/>
     </row>
-    <row r="155" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="155" spans="2:23" ht="30" customHeight="1">
       <c r="B155" s="8"/>
       <c r="W155" s="9"/>
     </row>
-    <row r="156" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="156" spans="2:23" ht="30" customHeight="1">
       <c r="B156" s="8"/>
       <c r="W156" s="9"/>
     </row>
-    <row r="157" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="157" spans="2:23" ht="30" customHeight="1">
       <c r="B157" s="8"/>
       <c r="W157" s="9"/>
     </row>
-    <row r="158" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="158" spans="2:23" ht="30" customHeight="1">
       <c r="B158" s="8"/>
       <c r="W158" s="9"/>
     </row>
-    <row r="159" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="159" spans="2:23" ht="30" customHeight="1">
       <c r="B159" s="8"/>
       <c r="W159" s="9"/>
     </row>
-    <row r="160" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="160" spans="2:23" ht="30" customHeight="1">
       <c r="B160" s="8"/>
     </row>
-    <row r="161" spans="2:2" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="161" spans="2:2" ht="30" customHeight="1">
       <c r="B161" s="8"/>
     </row>
-    <row r="162" spans="2:2" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="162" spans="2:2" ht="30" customHeight="1">
       <c r="B162" s="8"/>
     </row>
-    <row r="163" spans="2:2" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="163" spans="2:2" ht="30" customHeight="1">
       <c r="B163" s="8"/>
     </row>
-    <row r="164" spans="2:2" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="164" spans="2:2" ht="30" customHeight="1">
       <c r="B164" s="8"/>
     </row>
-    <row r="165" spans="2:2" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="165" spans="2:2" ht="30" customHeight="1">
       <c r="B165" s="8"/>
     </row>
-    <row r="166" spans="2:2" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="166" spans="2:2" ht="30" customHeight="1">
       <c r="B166" s="8"/>
     </row>
-    <row r="167" spans="2:2" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="167" spans="2:2" ht="30" customHeight="1">
       <c r="B167" s="8"/>
     </row>
-    <row r="168" spans="2:2" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="168" spans="2:2" ht="30" customHeight="1">
       <c r="B168" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="L2:L3"/>
-    <mergeCell ref="T2:T3"/>
-    <mergeCell ref="U2:U3"/>
-    <mergeCell ref="V2:V3"/>
     <mergeCell ref="W2:W3"/>
     <mergeCell ref="M2:M3"/>
     <mergeCell ref="N2:N3"/>
@@ -4458,6 +4482,21 @@
     <mergeCell ref="R2:R3"/>
     <mergeCell ref="S2:S3"/>
     <mergeCell ref="P2:P3"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="T2:T3"/>
+    <mergeCell ref="U2:U3"/>
+    <mergeCell ref="V2:V3"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="F2:F3"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ตรวจงาน/รายการตรวจสอบแผนภาพ.xlsx
+++ b/ตรวจงาน/รายการตรวจสอบแผนภาพ.xlsx
@@ -1,31 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nice-\Desktop\Porn\TEAM4\team4\ตรวจงาน\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\team4\ตรวจงาน\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{852934E5-DE33-4A29-AB80-4E659C78761E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52149E89-A034-4E4D-92ED-AFDF6884F31B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5940" yWindow="1080" windowWidth="21060" windowHeight="14175" xr2:uid="{C108298C-C5B1-4B19-85F2-2856099ECD84}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C108298C-C5B1-4B19-85F2-2856099ECD84}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="47">
   <si>
     <t>คำผิด</t>
   </si>
@@ -160,17 +165,23 @@
   </si>
   <si>
     <t>V1.1.2</t>
+  </si>
+  <si>
+    <t>Class Diagram Controller</t>
+  </si>
+  <si>
+    <t>Class Diagram Model</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Tahoma"/>
       <family val="2"/>
       <charset val="222"/>
       <scheme val="minor"/>
@@ -190,13 +201,13 @@
     </font>
     <font>
       <sz val="8"/>
-      <name val="Calibri"/>
+      <name val="Tahoma"/>
       <family val="2"/>
       <charset val="222"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -218,6 +229,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -275,7 +292,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -314,6 +331,24 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -323,27 +358,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="ปกติ" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -359,7 +379,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="ธีมของ Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -658,103 +678,103 @@
   <dimension ref="B2:W168"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R20" sqref="R20"/>
+      <selection activeCell="S22" sqref="S22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="30" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="8.7109375" style="1"/>
-    <col min="2" max="2" width="36.42578125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="8.7109375" style="1"/>
-    <col min="4" max="4" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.7109375" style="1"/>
+    <col min="1" max="1" width="8.75" style="1"/>
+    <col min="2" max="2" width="36.375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="8.75" style="1"/>
+    <col min="4" max="4" width="10.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.125" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.75" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:23" ht="50.45" customHeight="1">
-      <c r="B2" s="16" t="s">
+    <row r="2" spans="2:23" ht="50.45" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B2" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="16" t="s">
+      <c r="D2" s="22" t="s">
         <v>8</v>
       </c>
       <c r="E2" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="17" t="s">
+      <c r="F2" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="17" t="s">
+      <c r="G2" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="17" t="s">
+      <c r="H2" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="17" t="s">
+      <c r="I2" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="J2" s="17" t="s">
+      <c r="J2" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="17" t="s">
+      <c r="K2" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="17" t="s">
+      <c r="L2" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="M2" s="17" t="s">
+      <c r="M2" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="N2" s="17" t="s">
+      <c r="N2" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="O2" s="17" t="s">
+      <c r="O2" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="P2" s="21" t="s">
+      <c r="P2" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="Q2" s="17" t="s">
+      <c r="Q2" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="R2" s="17" t="s">
+      <c r="R2" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="S2" s="20"/>
-      <c r="T2" s="20"/>
-      <c r="U2" s="20"/>
-      <c r="V2" s="20"/>
-      <c r="W2" s="20"/>
-    </row>
-    <row r="3" spans="2:23" ht="51.75" customHeight="1">
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
+      <c r="S2" s="14"/>
+      <c r="T2" s="14"/>
+      <c r="U2" s="14"/>
+      <c r="V2" s="14"/>
+      <c r="W2" s="14"/>
+    </row>
+    <row r="3" spans="2:23" ht="51.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B3" s="22"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
       <c r="E3" s="19"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="17"/>
-      <c r="J3" s="17"/>
-      <c r="K3" s="17"/>
-      <c r="L3" s="17"/>
-      <c r="M3" s="17"/>
-      <c r="N3" s="17"/>
-      <c r="O3" s="17"/>
-      <c r="P3" s="22"/>
-      <c r="Q3" s="17"/>
-      <c r="R3" s="17"/>
-      <c r="S3" s="20"/>
-      <c r="T3" s="20"/>
-      <c r="U3" s="20"/>
-      <c r="V3" s="20"/>
-      <c r="W3" s="20"/>
-    </row>
-    <row r="4" spans="2:23" ht="30" customHeight="1">
-      <c r="B4" s="14" t="s">
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="15"/>
+      <c r="K3" s="15"/>
+      <c r="L3" s="15"/>
+      <c r="M3" s="15"/>
+      <c r="N3" s="15"/>
+      <c r="O3" s="15"/>
+      <c r="P3" s="17"/>
+      <c r="Q3" s="15"/>
+      <c r="R3" s="15"/>
+      <c r="S3" s="14"/>
+      <c r="T3" s="14"/>
+      <c r="U3" s="14"/>
+      <c r="V3" s="14"/>
+      <c r="W3" s="14"/>
+    </row>
+    <row r="4" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B4" s="20" t="s">
         <v>15</v>
       </c>
       <c r="C4" s="2" t="s">
@@ -794,8 +814,8 @@
       <c r="V4" s="4"/>
       <c r="W4" s="4"/>
     </row>
-    <row r="5" spans="2:23" ht="30" customHeight="1">
-      <c r="B5" s="15"/>
+    <row r="5" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B5" s="21"/>
       <c r="C5" s="2" t="s">
         <v>20</v>
       </c>
@@ -829,7 +849,7 @@
       <c r="V5" s="4"/>
       <c r="W5" s="4"/>
     </row>
-    <row r="6" spans="2:23" ht="30" customHeight="1">
+    <row r="6" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B6" s="11" t="s">
         <v>22</v>
       </c>
@@ -867,7 +887,7 @@
       <c r="V6" s="4"/>
       <c r="W6" s="4"/>
     </row>
-    <row r="7" spans="2:23" ht="30" customHeight="1">
+    <row r="7" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B7" s="11" t="s">
         <v>25</v>
       </c>
@@ -905,7 +925,7 @@
       <c r="V7" s="4"/>
       <c r="W7" s="4"/>
     </row>
-    <row r="8" spans="2:23" ht="30" customHeight="1">
+    <row r="8" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B8" s="11" t="s">
         <v>26</v>
       </c>
@@ -943,7 +963,7 @@
       <c r="V8" s="4"/>
       <c r="W8" s="4"/>
     </row>
-    <row r="9" spans="2:23" ht="30" customHeight="1">
+    <row r="9" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B9" s="11" t="s">
         <v>28</v>
       </c>
@@ -981,7 +1001,7 @@
       <c r="V9" s="4"/>
       <c r="W9" s="4"/>
     </row>
-    <row r="10" spans="2:23" ht="30" customHeight="1">
+    <row r="10" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B10" s="11" t="s">
         <v>29</v>
       </c>
@@ -1019,7 +1039,7 @@
       <c r="V10" s="4"/>
       <c r="W10" s="4"/>
     </row>
-    <row r="11" spans="2:23" ht="30" customHeight="1">
+    <row r="11" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B11" s="11" t="s">
         <v>30</v>
       </c>
@@ -1057,7 +1077,7 @@
       <c r="V11" s="4"/>
       <c r="W11" s="4"/>
     </row>
-    <row r="12" spans="2:23" ht="30" customHeight="1">
+    <row r="12" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B12" s="12" t="s">
         <v>31</v>
       </c>
@@ -1098,7 +1118,7 @@
       <c r="V12" s="4"/>
       <c r="W12" s="4"/>
     </row>
-    <row r="13" spans="2:23" ht="31.9" customHeight="1">
+    <row r="13" spans="2:23" ht="31.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B13" s="13" t="s">
         <v>38</v>
       </c>
@@ -1139,7 +1159,7 @@
       <c r="V13" s="4"/>
       <c r="W13" s="4"/>
     </row>
-    <row r="14" spans="2:23" ht="30" customHeight="1">
+    <row r="14" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B14" s="13" t="s">
         <v>35</v>
       </c>
@@ -1176,7 +1196,7 @@
       <c r="V14" s="4"/>
       <c r="W14" s="4"/>
     </row>
-    <row r="15" spans="2:23" ht="30" customHeight="1">
+    <row r="15" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B15" s="13" t="s">
         <v>36</v>
       </c>
@@ -1219,7 +1239,7 @@
       <c r="V15" s="4"/>
       <c r="W15" s="4"/>
     </row>
-    <row r="16" spans="2:23" ht="30" customHeight="1">
+    <row r="16" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B16" s="13" t="s">
         <v>37</v>
       </c>
@@ -1262,7 +1282,7 @@
       <c r="V16" s="4"/>
       <c r="W16" s="4"/>
     </row>
-    <row r="17" spans="2:23" ht="30" customHeight="1">
+    <row r="17" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B17" s="13" t="s">
         <v>39</v>
       </c>
@@ -1301,7 +1321,7 @@
       <c r="V17" s="4"/>
       <c r="W17" s="4"/>
     </row>
-    <row r="18" spans="2:23" ht="30" customHeight="1">
+    <row r="18" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B18" s="11" t="s">
         <v>25</v>
       </c>
@@ -1337,7 +1357,7 @@
       <c r="V18" s="4"/>
       <c r="W18" s="4"/>
     </row>
-    <row r="19" spans="2:23" ht="30" customHeight="1">
+    <row r="19" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B19" s="11" t="s">
         <v>43</v>
       </c>
@@ -1373,7 +1393,7 @@
       <c r="V19" s="4"/>
       <c r="W19" s="4"/>
     </row>
-    <row r="20" spans="2:23" ht="30" customHeight="1">
+    <row r="20" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B20" s="11" t="s">
         <v>30</v>
       </c>
@@ -1409,55 +1429,93 @@
       <c r="V20" s="4"/>
       <c r="W20" s="4"/>
     </row>
-    <row r="21" spans="2:23" ht="30" customHeight="1">
-      <c r="B21" s="5"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
+    <row r="21" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B21" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" s="3">
+        <v>242724</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F21" s="2">
+        <v>1</v>
+      </c>
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
-      <c r="J21" s="2"/>
+      <c r="J21" s="2">
+        <v>50</v>
+      </c>
       <c r="K21" s="2"/>
-      <c r="L21" s="2"/>
+      <c r="L21" s="2">
+        <v>31</v>
+      </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
       <c r="P21" s="2"/>
-      <c r="Q21" s="2"/>
-      <c r="R21" s="2"/>
+      <c r="Q21" s="2">
+        <v>3</v>
+      </c>
+      <c r="R21" s="2">
+        <f>SUM(F21:Q21)</f>
+        <v>85</v>
+      </c>
       <c r="S21" s="4"/>
       <c r="T21" s="4"/>
       <c r="U21" s="4"/>
       <c r="V21" s="4"/>
       <c r="W21" s="4"/>
     </row>
-    <row r="22" spans="2:23" ht="30" customHeight="1">
-      <c r="B22" s="5"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
+    <row r="22" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B22" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" s="3">
+        <v>242724</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>18</v>
+      </c>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
       <c r="I22" s="2"/>
-      <c r="J22" s="2"/>
-      <c r="K22" s="2"/>
-      <c r="L22" s="2"/>
+      <c r="J22" s="2">
+        <v>15</v>
+      </c>
+      <c r="K22" s="2">
+        <v>6</v>
+      </c>
+      <c r="L22" s="2">
+        <v>2</v>
+      </c>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
       <c r="P22" s="2"/>
-      <c r="Q22" s="2"/>
-      <c r="R22" s="2"/>
+      <c r="Q22" s="2">
+        <v>2</v>
+      </c>
+      <c r="R22" s="2">
+        <f>SUM(F22:Q22)</f>
+        <v>25</v>
+      </c>
       <c r="S22" s="4"/>
       <c r="T22" s="4"/>
       <c r="U22" s="4"/>
       <c r="V22" s="4"/>
       <c r="W22" s="4"/>
     </row>
-    <row r="23" spans="2:23" ht="30" customHeight="1">
+    <row r="23" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B23" s="5"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
@@ -1481,7 +1539,7 @@
       <c r="V23" s="4"/>
       <c r="W23" s="4"/>
     </row>
-    <row r="24" spans="2:23" ht="30" customHeight="1">
+    <row r="24" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B24" s="5"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
@@ -1505,7 +1563,7 @@
       <c r="V24" s="4"/>
       <c r="W24" s="4"/>
     </row>
-    <row r="25" spans="2:23" ht="30" customHeight="1">
+    <row r="25" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B25" s="5"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
@@ -1529,7 +1587,7 @@
       <c r="V25" s="4"/>
       <c r="W25" s="4"/>
     </row>
-    <row r="26" spans="2:23" ht="30" customHeight="1">
+    <row r="26" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B26" s="5"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
@@ -1553,7 +1611,7 @@
       <c r="V26" s="4"/>
       <c r="W26" s="4"/>
     </row>
-    <row r="27" spans="2:23" ht="30" customHeight="1">
+    <row r="27" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B27" s="5"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
@@ -1577,7 +1635,7 @@
       <c r="V27" s="4"/>
       <c r="W27" s="4"/>
     </row>
-    <row r="28" spans="2:23" ht="30" customHeight="1">
+    <row r="28" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B28" s="5"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
@@ -1601,7 +1659,7 @@
       <c r="V28" s="4"/>
       <c r="W28" s="4"/>
     </row>
-    <row r="29" spans="2:23" ht="30" customHeight="1">
+    <row r="29" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B29" s="5"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
@@ -1625,7 +1683,7 @@
       <c r="V29" s="4"/>
       <c r="W29" s="4"/>
     </row>
-    <row r="30" spans="2:23" ht="30" customHeight="1">
+    <row r="30" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B30" s="5"/>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
@@ -1649,7 +1707,7 @@
       <c r="V30" s="4"/>
       <c r="W30" s="4"/>
     </row>
-    <row r="31" spans="2:23" ht="30" customHeight="1">
+    <row r="31" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B31" s="5"/>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
@@ -1673,7 +1731,7 @@
       <c r="V31" s="4"/>
       <c r="W31" s="4"/>
     </row>
-    <row r="32" spans="2:23" ht="30" customHeight="1">
+    <row r="32" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B32" s="5"/>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
@@ -1697,7 +1755,7 @@
       <c r="V32" s="4"/>
       <c r="W32" s="4"/>
     </row>
-    <row r="33" spans="2:23" ht="30" customHeight="1">
+    <row r="33" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B33" s="5"/>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
@@ -1721,7 +1779,7 @@
       <c r="V33" s="4"/>
       <c r="W33" s="4"/>
     </row>
-    <row r="34" spans="2:23" ht="30" customHeight="1">
+    <row r="34" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B34" s="5"/>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
@@ -1745,7 +1803,7 @@
       <c r="V34" s="4"/>
       <c r="W34" s="4"/>
     </row>
-    <row r="35" spans="2:23" ht="30" customHeight="1">
+    <row r="35" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B35" s="5"/>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
@@ -1769,7 +1827,7 @@
       <c r="V35" s="4"/>
       <c r="W35" s="4"/>
     </row>
-    <row r="36" spans="2:23" ht="30" customHeight="1">
+    <row r="36" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B36" s="5"/>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
@@ -1793,7 +1851,7 @@
       <c r="V36" s="4"/>
       <c r="W36" s="4"/>
     </row>
-    <row r="37" spans="2:23" ht="30" customHeight="1">
+    <row r="37" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B37" s="5"/>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
@@ -1817,7 +1875,7 @@
       <c r="V37" s="4"/>
       <c r="W37" s="4"/>
     </row>
-    <row r="38" spans="2:23" ht="30" customHeight="1">
+    <row r="38" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B38" s="5"/>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
@@ -1841,7 +1899,7 @@
       <c r="V38" s="4"/>
       <c r="W38" s="4"/>
     </row>
-    <row r="39" spans="2:23" ht="30" customHeight="1">
+    <row r="39" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B39" s="5"/>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
@@ -1865,7 +1923,7 @@
       <c r="V39" s="4"/>
       <c r="W39" s="4"/>
     </row>
-    <row r="40" spans="2:23" ht="30" customHeight="1">
+    <row r="40" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B40" s="5"/>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
@@ -1889,7 +1947,7 @@
       <c r="V40" s="4"/>
       <c r="W40" s="4"/>
     </row>
-    <row r="41" spans="2:23" ht="30" customHeight="1">
+    <row r="41" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B41" s="5"/>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
@@ -1913,7 +1971,7 @@
       <c r="V41" s="4"/>
       <c r="W41" s="4"/>
     </row>
-    <row r="42" spans="2:23" ht="30" customHeight="1">
+    <row r="42" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B42" s="5"/>
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
@@ -1937,7 +1995,7 @@
       <c r="V42" s="4"/>
       <c r="W42" s="4"/>
     </row>
-    <row r="43" spans="2:23" ht="30" customHeight="1">
+    <row r="43" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B43" s="5"/>
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
@@ -1961,7 +2019,7 @@
       <c r="V43" s="4"/>
       <c r="W43" s="4"/>
     </row>
-    <row r="44" spans="2:23" ht="30" customHeight="1">
+    <row r="44" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B44" s="5"/>
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
@@ -1985,7 +2043,7 @@
       <c r="V44" s="4"/>
       <c r="W44" s="4"/>
     </row>
-    <row r="45" spans="2:23" ht="30" customHeight="1">
+    <row r="45" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B45" s="5"/>
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
@@ -2009,7 +2067,7 @@
       <c r="V45" s="4"/>
       <c r="W45" s="4"/>
     </row>
-    <row r="46" spans="2:23" ht="30" customHeight="1">
+    <row r="46" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B46" s="5"/>
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
@@ -2033,7 +2091,7 @@
       <c r="V46" s="4"/>
       <c r="W46" s="4"/>
     </row>
-    <row r="47" spans="2:23" ht="30" customHeight="1">
+    <row r="47" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B47" s="5"/>
       <c r="C47" s="2"/>
       <c r="D47" s="2"/>
@@ -2057,7 +2115,7 @@
       <c r="V47" s="4"/>
       <c r="W47" s="4"/>
     </row>
-    <row r="48" spans="2:23" ht="30" customHeight="1">
+    <row r="48" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B48" s="5"/>
       <c r="C48" s="2"/>
       <c r="D48" s="2"/>
@@ -2081,7 +2139,7 @@
       <c r="V48" s="4"/>
       <c r="W48" s="4"/>
     </row>
-    <row r="49" spans="2:23" ht="30" customHeight="1">
+    <row r="49" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B49" s="5"/>
       <c r="C49" s="2"/>
       <c r="D49" s="2"/>
@@ -2105,7 +2163,7 @@
       <c r="V49" s="4"/>
       <c r="W49" s="4"/>
     </row>
-    <row r="50" spans="2:23" ht="30" customHeight="1">
+    <row r="50" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B50" s="5"/>
       <c r="C50" s="2"/>
       <c r="D50" s="2"/>
@@ -2129,7 +2187,7 @@
       <c r="V50" s="4"/>
       <c r="W50" s="4"/>
     </row>
-    <row r="51" spans="2:23" ht="30" customHeight="1">
+    <row r="51" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B51" s="5"/>
       <c r="C51" s="2"/>
       <c r="D51" s="2"/>
@@ -2153,7 +2211,7 @@
       <c r="V51" s="4"/>
       <c r="W51" s="4"/>
     </row>
-    <row r="52" spans="2:23" ht="30" customHeight="1">
+    <row r="52" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B52" s="5"/>
       <c r="C52" s="2"/>
       <c r="D52" s="2"/>
@@ -2177,7 +2235,7 @@
       <c r="V52" s="4"/>
       <c r="W52" s="4"/>
     </row>
-    <row r="53" spans="2:23" ht="30" customHeight="1">
+    <row r="53" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B53" s="5"/>
       <c r="C53" s="2"/>
       <c r="D53" s="2"/>
@@ -2201,7 +2259,7 @@
       <c r="V53" s="4"/>
       <c r="W53" s="4"/>
     </row>
-    <row r="54" spans="2:23" ht="30" customHeight="1">
+    <row r="54" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B54" s="5"/>
       <c r="C54" s="2"/>
       <c r="D54" s="2"/>
@@ -2225,7 +2283,7 @@
       <c r="V54" s="4"/>
       <c r="W54" s="4"/>
     </row>
-    <row r="55" spans="2:23" ht="30" customHeight="1">
+    <row r="55" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B55" s="5"/>
       <c r="C55" s="2"/>
       <c r="D55" s="2"/>
@@ -2249,7 +2307,7 @@
       <c r="V55" s="4"/>
       <c r="W55" s="4"/>
     </row>
-    <row r="56" spans="2:23" ht="30" customHeight="1">
+    <row r="56" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B56" s="5"/>
       <c r="C56" s="2"/>
       <c r="D56" s="2"/>
@@ -2273,7 +2331,7 @@
       <c r="V56" s="4"/>
       <c r="W56" s="4"/>
     </row>
-    <row r="57" spans="2:23" ht="30" customHeight="1">
+    <row r="57" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B57" s="5"/>
       <c r="C57" s="2"/>
       <c r="D57" s="2"/>
@@ -2297,7 +2355,7 @@
       <c r="V57" s="4"/>
       <c r="W57" s="4"/>
     </row>
-    <row r="58" spans="2:23" ht="30" customHeight="1">
+    <row r="58" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B58" s="5"/>
       <c r="C58" s="2"/>
       <c r="D58" s="2"/>
@@ -2321,7 +2379,7 @@
       <c r="V58" s="4"/>
       <c r="W58" s="4"/>
     </row>
-    <row r="59" spans="2:23" ht="30" customHeight="1">
+    <row r="59" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B59" s="5"/>
       <c r="C59" s="2"/>
       <c r="D59" s="2"/>
@@ -2345,7 +2403,7 @@
       <c r="V59" s="4"/>
       <c r="W59" s="4"/>
     </row>
-    <row r="60" spans="2:23" ht="30" customHeight="1">
+    <row r="60" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B60" s="5"/>
       <c r="C60" s="2"/>
       <c r="D60" s="2"/>
@@ -2369,7 +2427,7 @@
       <c r="V60" s="4"/>
       <c r="W60" s="4"/>
     </row>
-    <row r="61" spans="2:23" ht="30" customHeight="1">
+    <row r="61" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B61" s="5"/>
       <c r="C61" s="2"/>
       <c r="D61" s="2"/>
@@ -2393,7 +2451,7 @@
       <c r="V61" s="4"/>
       <c r="W61" s="4"/>
     </row>
-    <row r="62" spans="2:23" ht="30" customHeight="1">
+    <row r="62" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B62" s="5"/>
       <c r="C62" s="2"/>
       <c r="D62" s="2"/>
@@ -2417,7 +2475,7 @@
       <c r="V62" s="4"/>
       <c r="W62" s="4"/>
     </row>
-    <row r="63" spans="2:23" ht="30" customHeight="1">
+    <row r="63" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B63" s="5"/>
       <c r="C63" s="2"/>
       <c r="D63" s="2"/>
@@ -2441,7 +2499,7 @@
       <c r="V63" s="4"/>
       <c r="W63" s="4"/>
     </row>
-    <row r="64" spans="2:23" ht="30" customHeight="1">
+    <row r="64" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B64" s="5"/>
       <c r="C64" s="2"/>
       <c r="D64" s="2"/>
@@ -2465,7 +2523,7 @@
       <c r="V64" s="4"/>
       <c r="W64" s="4"/>
     </row>
-    <row r="65" spans="2:23" ht="30" customHeight="1">
+    <row r="65" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B65" s="5"/>
       <c r="C65" s="2"/>
       <c r="D65" s="2"/>
@@ -2489,7 +2547,7 @@
       <c r="V65" s="4"/>
       <c r="W65" s="4"/>
     </row>
-    <row r="66" spans="2:23" ht="30" customHeight="1">
+    <row r="66" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B66" s="5"/>
       <c r="C66" s="2"/>
       <c r="D66" s="2"/>
@@ -2513,7 +2571,7 @@
       <c r="V66" s="4"/>
       <c r="W66" s="4"/>
     </row>
-    <row r="67" spans="2:23" ht="30" customHeight="1">
+    <row r="67" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B67" s="5"/>
       <c r="C67" s="2"/>
       <c r="D67" s="2"/>
@@ -2537,7 +2595,7 @@
       <c r="V67" s="4"/>
       <c r="W67" s="4"/>
     </row>
-    <row r="68" spans="2:23" ht="30" customHeight="1">
+    <row r="68" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B68" s="5"/>
       <c r="C68" s="2"/>
       <c r="D68" s="2"/>
@@ -2561,7 +2619,7 @@
       <c r="V68" s="4"/>
       <c r="W68" s="4"/>
     </row>
-    <row r="69" spans="2:23" ht="30" customHeight="1">
+    <row r="69" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B69" s="5"/>
       <c r="C69" s="2"/>
       <c r="D69" s="2"/>
@@ -2585,7 +2643,7 @@
       <c r="V69" s="4"/>
       <c r="W69" s="4"/>
     </row>
-    <row r="70" spans="2:23" ht="30" customHeight="1">
+    <row r="70" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B70" s="5"/>
       <c r="C70" s="6"/>
       <c r="D70" s="6"/>
@@ -2609,7 +2667,7 @@
       <c r="V70" s="7"/>
       <c r="W70" s="4"/>
     </row>
-    <row r="71" spans="2:23" ht="30" customHeight="1">
+    <row r="71" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B71" s="5"/>
       <c r="C71" s="6"/>
       <c r="D71" s="6"/>
@@ -2633,7 +2691,7 @@
       <c r="V71" s="7"/>
       <c r="W71" s="4"/>
     </row>
-    <row r="72" spans="2:23" ht="30" customHeight="1">
+    <row r="72" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B72" s="5"/>
       <c r="C72" s="6"/>
       <c r="D72" s="6"/>
@@ -2657,7 +2715,7 @@
       <c r="V72" s="7"/>
       <c r="W72" s="4"/>
     </row>
-    <row r="73" spans="2:23" ht="30" customHeight="1">
+    <row r="73" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B73" s="5"/>
       <c r="C73" s="6"/>
       <c r="D73" s="6"/>
@@ -2681,7 +2739,7 @@
       <c r="V73" s="7"/>
       <c r="W73" s="4"/>
     </row>
-    <row r="74" spans="2:23" ht="30" customHeight="1">
+    <row r="74" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B74" s="5"/>
       <c r="C74" s="6"/>
       <c r="D74" s="6"/>
@@ -2705,7 +2763,7 @@
       <c r="V74" s="7"/>
       <c r="W74" s="4"/>
     </row>
-    <row r="75" spans="2:23" ht="30" customHeight="1">
+    <row r="75" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B75" s="5"/>
       <c r="C75" s="6"/>
       <c r="D75" s="6"/>
@@ -2729,7 +2787,7 @@
       <c r="V75" s="7"/>
       <c r="W75" s="4"/>
     </row>
-    <row r="76" spans="2:23" ht="30" customHeight="1">
+    <row r="76" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B76" s="5"/>
       <c r="C76" s="6"/>
       <c r="D76" s="6"/>
@@ -2753,7 +2811,7 @@
       <c r="V76" s="7"/>
       <c r="W76" s="4"/>
     </row>
-    <row r="77" spans="2:23" ht="30" customHeight="1">
+    <row r="77" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B77" s="5"/>
       <c r="C77" s="6"/>
       <c r="D77" s="6"/>
@@ -2777,7 +2835,7 @@
       <c r="V77" s="7"/>
       <c r="W77" s="4"/>
     </row>
-    <row r="78" spans="2:23" ht="30" customHeight="1">
+    <row r="78" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B78" s="5"/>
       <c r="C78" s="6"/>
       <c r="D78" s="6"/>
@@ -2801,7 +2859,7 @@
       <c r="V78" s="7"/>
       <c r="W78" s="4"/>
     </row>
-    <row r="79" spans="2:23" ht="30" customHeight="1">
+    <row r="79" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B79" s="5"/>
       <c r="C79" s="6"/>
       <c r="D79" s="6"/>
@@ -2825,7 +2883,7 @@
       <c r="V79" s="7"/>
       <c r="W79" s="4"/>
     </row>
-    <row r="80" spans="2:23" ht="30" customHeight="1">
+    <row r="80" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B80" s="5"/>
       <c r="C80" s="6"/>
       <c r="D80" s="6"/>
@@ -2849,7 +2907,7 @@
       <c r="V80" s="7"/>
       <c r="W80" s="4"/>
     </row>
-    <row r="81" spans="2:23" ht="30" customHeight="1">
+    <row r="81" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B81" s="5"/>
       <c r="C81" s="6"/>
       <c r="D81" s="6"/>
@@ -2873,7 +2931,7 @@
       <c r="V81" s="7"/>
       <c r="W81" s="4"/>
     </row>
-    <row r="82" spans="2:23" ht="30" customHeight="1">
+    <row r="82" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B82" s="5"/>
       <c r="C82" s="6"/>
       <c r="D82" s="6"/>
@@ -2897,7 +2955,7 @@
       <c r="V82" s="7"/>
       <c r="W82" s="4"/>
     </row>
-    <row r="83" spans="2:23" ht="30" customHeight="1">
+    <row r="83" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B83" s="5"/>
       <c r="C83" s="6"/>
       <c r="D83" s="6"/>
@@ -2921,7 +2979,7 @@
       <c r="V83" s="7"/>
       <c r="W83" s="4"/>
     </row>
-    <row r="84" spans="2:23" ht="30" customHeight="1">
+    <row r="84" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B84" s="5"/>
       <c r="C84" s="6"/>
       <c r="D84" s="6"/>
@@ -2945,7 +3003,7 @@
       <c r="V84" s="7"/>
       <c r="W84" s="4"/>
     </row>
-    <row r="85" spans="2:23" ht="30" customHeight="1">
+    <row r="85" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B85" s="5"/>
       <c r="C85" s="6"/>
       <c r="D85" s="6"/>
@@ -2969,7 +3027,7 @@
       <c r="V85" s="7"/>
       <c r="W85" s="4"/>
     </row>
-    <row r="86" spans="2:23" ht="30" customHeight="1">
+    <row r="86" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B86" s="5"/>
       <c r="C86" s="6"/>
       <c r="D86" s="6"/>
@@ -2993,7 +3051,7 @@
       <c r="V86" s="7"/>
       <c r="W86" s="4"/>
     </row>
-    <row r="87" spans="2:23" ht="30" customHeight="1">
+    <row r="87" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B87" s="5"/>
       <c r="C87" s="6"/>
       <c r="D87" s="6"/>
@@ -3017,7 +3075,7 @@
       <c r="V87" s="7"/>
       <c r="W87" s="4"/>
     </row>
-    <row r="88" spans="2:23" ht="30" customHeight="1">
+    <row r="88" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B88" s="5"/>
       <c r="C88" s="6"/>
       <c r="D88" s="6"/>
@@ -3041,7 +3099,7 @@
       <c r="V88" s="7"/>
       <c r="W88" s="4"/>
     </row>
-    <row r="89" spans="2:23" ht="30" customHeight="1">
+    <row r="89" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B89" s="5"/>
       <c r="C89" s="6"/>
       <c r="D89" s="6"/>
@@ -3065,7 +3123,7 @@
       <c r="V89" s="7"/>
       <c r="W89" s="4"/>
     </row>
-    <row r="90" spans="2:23" ht="30" customHeight="1">
+    <row r="90" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B90" s="5"/>
       <c r="C90" s="6"/>
       <c r="D90" s="6"/>
@@ -3089,7 +3147,7 @@
       <c r="V90" s="7"/>
       <c r="W90" s="4"/>
     </row>
-    <row r="91" spans="2:23" ht="30" customHeight="1">
+    <row r="91" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B91" s="5"/>
       <c r="C91" s="6"/>
       <c r="D91" s="6"/>
@@ -3113,7 +3171,7 @@
       <c r="V91" s="7"/>
       <c r="W91" s="4"/>
     </row>
-    <row r="92" spans="2:23" ht="30" customHeight="1">
+    <row r="92" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B92" s="5"/>
       <c r="C92" s="6"/>
       <c r="D92" s="6"/>
@@ -3137,7 +3195,7 @@
       <c r="V92" s="7"/>
       <c r="W92" s="4"/>
     </row>
-    <row r="93" spans="2:23" ht="30" customHeight="1">
+    <row r="93" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B93" s="5"/>
       <c r="C93" s="6"/>
       <c r="D93" s="6"/>
@@ -3161,7 +3219,7 @@
       <c r="V93" s="7"/>
       <c r="W93" s="4"/>
     </row>
-    <row r="94" spans="2:23" ht="30" customHeight="1">
+    <row r="94" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B94" s="5"/>
       <c r="C94" s="6"/>
       <c r="D94" s="6"/>
@@ -3185,7 +3243,7 @@
       <c r="V94" s="7"/>
       <c r="W94" s="4"/>
     </row>
-    <row r="95" spans="2:23" ht="30" customHeight="1">
+    <row r="95" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B95" s="5"/>
       <c r="C95" s="6"/>
       <c r="D95" s="6"/>
@@ -3209,7 +3267,7 @@
       <c r="V95" s="7"/>
       <c r="W95" s="4"/>
     </row>
-    <row r="96" spans="2:23" ht="30" customHeight="1">
+    <row r="96" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B96" s="5"/>
       <c r="C96" s="6"/>
       <c r="D96" s="6"/>
@@ -3233,7 +3291,7 @@
       <c r="V96" s="7"/>
       <c r="W96" s="4"/>
     </row>
-    <row r="97" spans="2:23" ht="30" customHeight="1">
+    <row r="97" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B97" s="5"/>
       <c r="C97" s="6"/>
       <c r="D97" s="6"/>
@@ -3257,7 +3315,7 @@
       <c r="V97" s="7"/>
       <c r="W97" s="4"/>
     </row>
-    <row r="98" spans="2:23" ht="30" customHeight="1">
+    <row r="98" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B98" s="5"/>
       <c r="C98" s="6"/>
       <c r="D98" s="6"/>
@@ -3281,7 +3339,7 @@
       <c r="V98" s="7"/>
       <c r="W98" s="4"/>
     </row>
-    <row r="99" spans="2:23" ht="30" customHeight="1">
+    <row r="99" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B99" s="5"/>
       <c r="C99" s="6"/>
       <c r="D99" s="6"/>
@@ -3305,7 +3363,7 @@
       <c r="V99" s="7"/>
       <c r="W99" s="4"/>
     </row>
-    <row r="100" spans="2:23" ht="30" customHeight="1">
+    <row r="100" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B100" s="5"/>
       <c r="C100" s="6"/>
       <c r="D100" s="6"/>
@@ -3329,7 +3387,7 @@
       <c r="V100" s="7"/>
       <c r="W100" s="4"/>
     </row>
-    <row r="101" spans="2:23" ht="30" customHeight="1">
+    <row r="101" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B101" s="5"/>
       <c r="C101" s="6"/>
       <c r="D101" s="6"/>
@@ -3353,7 +3411,7 @@
       <c r="V101" s="7"/>
       <c r="W101" s="4"/>
     </row>
-    <row r="102" spans="2:23" ht="30" customHeight="1">
+    <row r="102" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B102" s="5"/>
       <c r="C102" s="6"/>
       <c r="D102" s="6"/>
@@ -3377,7 +3435,7 @@
       <c r="V102" s="7"/>
       <c r="W102" s="4"/>
     </row>
-    <row r="103" spans="2:23" ht="30" customHeight="1">
+    <row r="103" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B103" s="5"/>
       <c r="C103" s="6"/>
       <c r="D103" s="6"/>
@@ -3401,7 +3459,7 @@
       <c r="V103" s="7"/>
       <c r="W103" s="4"/>
     </row>
-    <row r="104" spans="2:23" ht="30" customHeight="1">
+    <row r="104" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B104" s="5"/>
       <c r="C104" s="6"/>
       <c r="D104" s="6"/>
@@ -3425,7 +3483,7 @@
       <c r="V104" s="7"/>
       <c r="W104" s="4"/>
     </row>
-    <row r="105" spans="2:23" ht="30" customHeight="1">
+    <row r="105" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B105" s="5"/>
       <c r="C105" s="6"/>
       <c r="D105" s="6"/>
@@ -3449,7 +3507,7 @@
       <c r="V105" s="7"/>
       <c r="W105" s="4"/>
     </row>
-    <row r="106" spans="2:23" ht="30" customHeight="1">
+    <row r="106" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B106" s="5"/>
       <c r="C106" s="6"/>
       <c r="D106" s="6"/>
@@ -3473,7 +3531,7 @@
       <c r="V106" s="7"/>
       <c r="W106" s="4"/>
     </row>
-    <row r="107" spans="2:23" ht="30" customHeight="1">
+    <row r="107" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B107" s="5"/>
       <c r="C107" s="6"/>
       <c r="D107" s="6"/>
@@ -3497,7 +3555,7 @@
       <c r="V107" s="7"/>
       <c r="W107" s="4"/>
     </row>
-    <row r="108" spans="2:23" ht="30" customHeight="1">
+    <row r="108" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B108" s="5"/>
       <c r="C108" s="6"/>
       <c r="D108" s="6"/>
@@ -3521,7 +3579,7 @@
       <c r="V108" s="7"/>
       <c r="W108" s="4"/>
     </row>
-    <row r="109" spans="2:23" ht="30" customHeight="1">
+    <row r="109" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B109" s="5"/>
       <c r="C109" s="6"/>
       <c r="D109" s="6"/>
@@ -3545,7 +3603,7 @@
       <c r="V109" s="7"/>
       <c r="W109" s="4"/>
     </row>
-    <row r="110" spans="2:23" ht="30" customHeight="1">
+    <row r="110" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B110" s="5"/>
       <c r="C110" s="6"/>
       <c r="D110" s="6"/>
@@ -3569,7 +3627,7 @@
       <c r="V110" s="7"/>
       <c r="W110" s="4"/>
     </row>
-    <row r="111" spans="2:23" ht="30" customHeight="1">
+    <row r="111" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B111" s="5"/>
       <c r="C111" s="6"/>
       <c r="D111" s="6"/>
@@ -3593,7 +3651,7 @@
       <c r="V111" s="7"/>
       <c r="W111" s="4"/>
     </row>
-    <row r="112" spans="2:23" ht="30" customHeight="1">
+    <row r="112" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B112" s="5"/>
       <c r="C112" s="6"/>
       <c r="D112" s="6"/>
@@ -3617,7 +3675,7 @@
       <c r="V112" s="7"/>
       <c r="W112" s="4"/>
     </row>
-    <row r="113" spans="2:23" ht="30" customHeight="1">
+    <row r="113" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B113" s="5"/>
       <c r="C113" s="6"/>
       <c r="D113" s="6"/>
@@ -3641,7 +3699,7 @@
       <c r="V113" s="7"/>
       <c r="W113" s="4"/>
     </row>
-    <row r="114" spans="2:23" ht="30" customHeight="1">
+    <row r="114" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B114" s="5"/>
       <c r="C114" s="6"/>
       <c r="D114" s="6"/>
@@ -3665,7 +3723,7 @@
       <c r="V114" s="7"/>
       <c r="W114" s="4"/>
     </row>
-    <row r="115" spans="2:23" ht="30" customHeight="1">
+    <row r="115" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B115" s="5"/>
       <c r="C115" s="6"/>
       <c r="D115" s="6"/>
@@ -3689,7 +3747,7 @@
       <c r="V115" s="7"/>
       <c r="W115" s="4"/>
     </row>
-    <row r="116" spans="2:23" ht="30" customHeight="1">
+    <row r="116" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B116" s="5"/>
       <c r="C116" s="6"/>
       <c r="D116" s="6"/>
@@ -3713,7 +3771,7 @@
       <c r="V116" s="7"/>
       <c r="W116" s="4"/>
     </row>
-    <row r="117" spans="2:23" ht="30" customHeight="1">
+    <row r="117" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B117" s="5"/>
       <c r="C117" s="6"/>
       <c r="D117" s="6"/>
@@ -3737,7 +3795,7 @@
       <c r="V117" s="7"/>
       <c r="W117" s="4"/>
     </row>
-    <row r="118" spans="2:23" ht="30" customHeight="1">
+    <row r="118" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B118" s="5"/>
       <c r="C118" s="6"/>
       <c r="D118" s="6"/>
@@ -3761,7 +3819,7 @@
       <c r="V118" s="7"/>
       <c r="W118" s="4"/>
     </row>
-    <row r="119" spans="2:23" ht="30" customHeight="1">
+    <row r="119" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B119" s="5"/>
       <c r="C119" s="6"/>
       <c r="D119" s="6"/>
@@ -3785,7 +3843,7 @@
       <c r="V119" s="7"/>
       <c r="W119" s="4"/>
     </row>
-    <row r="120" spans="2:23" ht="30" customHeight="1">
+    <row r="120" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B120" s="5"/>
       <c r="C120" s="6"/>
       <c r="D120" s="6"/>
@@ -3809,7 +3867,7 @@
       <c r="V120" s="7"/>
       <c r="W120" s="4"/>
     </row>
-    <row r="121" spans="2:23" ht="30" customHeight="1">
+    <row r="121" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B121" s="5"/>
       <c r="C121" s="6"/>
       <c r="D121" s="6"/>
@@ -3833,7 +3891,7 @@
       <c r="V121" s="7"/>
       <c r="W121" s="4"/>
     </row>
-    <row r="122" spans="2:23" ht="30" customHeight="1">
+    <row r="122" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B122" s="5"/>
       <c r="C122" s="6"/>
       <c r="D122" s="6"/>
@@ -3857,7 +3915,7 @@
       <c r="V122" s="7"/>
       <c r="W122" s="4"/>
     </row>
-    <row r="123" spans="2:23" ht="30" customHeight="1">
+    <row r="123" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B123" s="5"/>
       <c r="C123" s="6"/>
       <c r="D123" s="6"/>
@@ -3881,7 +3939,7 @@
       <c r="V123" s="7"/>
       <c r="W123" s="4"/>
     </row>
-    <row r="124" spans="2:23" ht="30" customHeight="1">
+    <row r="124" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B124" s="5"/>
       <c r="C124" s="6"/>
       <c r="D124" s="6"/>
@@ -3905,7 +3963,7 @@
       <c r="V124" s="7"/>
       <c r="W124" s="4"/>
     </row>
-    <row r="125" spans="2:23" ht="30" customHeight="1">
+    <row r="125" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B125" s="5"/>
       <c r="C125" s="6"/>
       <c r="D125" s="6"/>
@@ -3929,7 +3987,7 @@
       <c r="V125" s="7"/>
       <c r="W125" s="4"/>
     </row>
-    <row r="126" spans="2:23" ht="30" customHeight="1">
+    <row r="126" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B126" s="5"/>
       <c r="C126" s="6"/>
       <c r="D126" s="6"/>
@@ -3953,7 +4011,7 @@
       <c r="V126" s="7"/>
       <c r="W126" s="4"/>
     </row>
-    <row r="127" spans="2:23" ht="30" customHeight="1">
+    <row r="127" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B127" s="5"/>
       <c r="C127" s="6"/>
       <c r="D127" s="6"/>
@@ -3977,7 +4035,7 @@
       <c r="V127" s="7"/>
       <c r="W127" s="4"/>
     </row>
-    <row r="128" spans="2:23" ht="30" customHeight="1">
+    <row r="128" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B128" s="5"/>
       <c r="C128" s="6"/>
       <c r="D128" s="6"/>
@@ -4001,7 +4059,7 @@
       <c r="V128" s="7"/>
       <c r="W128" s="4"/>
     </row>
-    <row r="129" spans="2:23" ht="30" customHeight="1">
+    <row r="129" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B129" s="5"/>
       <c r="C129" s="6"/>
       <c r="D129" s="6"/>
@@ -4025,7 +4083,7 @@
       <c r="V129" s="7"/>
       <c r="W129" s="4"/>
     </row>
-    <row r="130" spans="2:23" ht="30" customHeight="1">
+    <row r="130" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B130" s="5"/>
       <c r="C130" s="6"/>
       <c r="D130" s="6"/>
@@ -4049,7 +4107,7 @@
       <c r="V130" s="7"/>
       <c r="W130" s="4"/>
     </row>
-    <row r="131" spans="2:23" ht="30" customHeight="1">
+    <row r="131" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B131" s="5"/>
       <c r="C131" s="6"/>
       <c r="D131" s="6"/>
@@ -4073,7 +4131,7 @@
       <c r="V131" s="7"/>
       <c r="W131" s="4"/>
     </row>
-    <row r="132" spans="2:23" ht="30" customHeight="1">
+    <row r="132" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B132" s="5"/>
       <c r="C132" s="6"/>
       <c r="D132" s="6"/>
@@ -4097,7 +4155,7 @@
       <c r="V132" s="7"/>
       <c r="W132" s="4"/>
     </row>
-    <row r="133" spans="2:23" ht="30" customHeight="1">
+    <row r="133" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B133" s="5"/>
       <c r="C133" s="6"/>
       <c r="D133" s="6"/>
@@ -4121,7 +4179,7 @@
       <c r="V133" s="7"/>
       <c r="W133" s="4"/>
     </row>
-    <row r="134" spans="2:23" ht="30" customHeight="1">
+    <row r="134" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B134" s="5"/>
       <c r="C134" s="6"/>
       <c r="D134" s="6"/>
@@ -4145,7 +4203,7 @@
       <c r="V134" s="7"/>
       <c r="W134" s="4"/>
     </row>
-    <row r="135" spans="2:23" ht="30" customHeight="1">
+    <row r="135" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B135" s="5"/>
       <c r="C135" s="6"/>
       <c r="D135" s="6"/>
@@ -4169,7 +4227,7 @@
       <c r="V135" s="7"/>
       <c r="W135" s="4"/>
     </row>
-    <row r="136" spans="2:23" ht="30" customHeight="1">
+    <row r="136" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B136" s="5"/>
       <c r="C136" s="6"/>
       <c r="D136" s="6"/>
@@ -4193,7 +4251,7 @@
       <c r="V136" s="7"/>
       <c r="W136" s="4"/>
     </row>
-    <row r="137" spans="2:23" ht="30" customHeight="1">
+    <row r="137" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B137" s="5"/>
       <c r="C137" s="6"/>
       <c r="D137" s="6"/>
@@ -4217,7 +4275,7 @@
       <c r="V137" s="7"/>
       <c r="W137" s="4"/>
     </row>
-    <row r="138" spans="2:23" ht="30" customHeight="1">
+    <row r="138" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B138" s="5"/>
       <c r="C138" s="6"/>
       <c r="D138" s="6"/>
@@ -4241,7 +4299,7 @@
       <c r="V138" s="7"/>
       <c r="W138" s="4"/>
     </row>
-    <row r="139" spans="2:23" ht="30" customHeight="1">
+    <row r="139" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B139" s="5"/>
       <c r="C139" s="6"/>
       <c r="D139" s="6"/>
@@ -4265,7 +4323,7 @@
       <c r="V139" s="7"/>
       <c r="W139" s="4"/>
     </row>
-    <row r="140" spans="2:23" ht="30" customHeight="1">
+    <row r="140" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B140" s="5"/>
       <c r="C140" s="6"/>
       <c r="D140" s="6"/>
@@ -4289,7 +4347,7 @@
       <c r="V140" s="7"/>
       <c r="W140" s="4"/>
     </row>
-    <row r="141" spans="2:23" ht="30" customHeight="1">
+    <row r="141" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B141" s="5"/>
       <c r="C141" s="6"/>
       <c r="D141" s="6"/>
@@ -4313,7 +4371,7 @@
       <c r="V141" s="7"/>
       <c r="W141" s="4"/>
     </row>
-    <row r="142" spans="2:23" ht="30" customHeight="1">
+    <row r="142" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B142" s="5"/>
       <c r="C142" s="6"/>
       <c r="D142" s="6"/>
@@ -4337,7 +4395,7 @@
       <c r="V142" s="7"/>
       <c r="W142" s="4"/>
     </row>
-    <row r="143" spans="2:23" ht="30" customHeight="1">
+    <row r="143" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B143" s="5"/>
       <c r="C143" s="6"/>
       <c r="D143" s="6"/>
@@ -4361,7 +4419,7 @@
       <c r="V143" s="7"/>
       <c r="W143" s="4"/>
     </row>
-    <row r="144" spans="2:23" ht="30" customHeight="1">
+    <row r="144" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B144" s="5"/>
       <c r="C144" s="6"/>
       <c r="D144" s="6"/>
@@ -4385,95 +4443,110 @@
       <c r="V144" s="7"/>
       <c r="W144" s="4"/>
     </row>
-    <row r="145" spans="2:23" ht="30" customHeight="1">
+    <row r="145" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B145" s="8"/>
       <c r="W145" s="9"/>
     </row>
-    <row r="146" spans="2:23" ht="30" customHeight="1">
+    <row r="146" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B146" s="8"/>
       <c r="W146" s="9"/>
     </row>
-    <row r="147" spans="2:23" ht="30" customHeight="1">
+    <row r="147" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B147" s="8"/>
       <c r="W147" s="9"/>
     </row>
-    <row r="148" spans="2:23" ht="30" customHeight="1">
+    <row r="148" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B148" s="8"/>
       <c r="W148" s="9"/>
     </row>
-    <row r="149" spans="2:23" ht="30" customHeight="1">
+    <row r="149" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B149" s="8"/>
       <c r="W149" s="9"/>
     </row>
-    <row r="150" spans="2:23" ht="30" customHeight="1">
+    <row r="150" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B150" s="8"/>
       <c r="W150" s="9"/>
     </row>
-    <row r="151" spans="2:23" ht="30" customHeight="1">
+    <row r="151" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B151" s="8"/>
       <c r="W151" s="9"/>
     </row>
-    <row r="152" spans="2:23" ht="30" customHeight="1">
+    <row r="152" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B152" s="8"/>
       <c r="W152" s="9"/>
     </row>
-    <row r="153" spans="2:23" ht="30" customHeight="1">
+    <row r="153" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B153" s="8"/>
       <c r="W153" s="9"/>
     </row>
-    <row r="154" spans="2:23" ht="30" customHeight="1">
+    <row r="154" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B154" s="8"/>
       <c r="W154" s="9"/>
     </row>
-    <row r="155" spans="2:23" ht="30" customHeight="1">
+    <row r="155" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B155" s="8"/>
       <c r="W155" s="9"/>
     </row>
-    <row r="156" spans="2:23" ht="30" customHeight="1">
+    <row r="156" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B156" s="8"/>
       <c r="W156" s="9"/>
     </row>
-    <row r="157" spans="2:23" ht="30" customHeight="1">
+    <row r="157" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B157" s="8"/>
       <c r="W157" s="9"/>
     </row>
-    <row r="158" spans="2:23" ht="30" customHeight="1">
+    <row r="158" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B158" s="8"/>
       <c r="W158" s="9"/>
     </row>
-    <row r="159" spans="2:23" ht="30" customHeight="1">
+    <row r="159" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B159" s="8"/>
       <c r="W159" s="9"/>
     </row>
-    <row r="160" spans="2:23" ht="30" customHeight="1">
+    <row r="160" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B160" s="8"/>
     </row>
-    <row r="161" spans="2:2" ht="30" customHeight="1">
+    <row r="161" spans="2:2" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B161" s="8"/>
     </row>
-    <row r="162" spans="2:2" ht="30" customHeight="1">
+    <row r="162" spans="2:2" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B162" s="8"/>
     </row>
-    <row r="163" spans="2:2" ht="30" customHeight="1">
+    <row r="163" spans="2:2" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B163" s="8"/>
     </row>
-    <row r="164" spans="2:2" ht="30" customHeight="1">
+    <row r="164" spans="2:2" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B164" s="8"/>
     </row>
-    <row r="165" spans="2:2" ht="30" customHeight="1">
+    <row r="165" spans="2:2" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B165" s="8"/>
     </row>
-    <row r="166" spans="2:2" ht="30" customHeight="1">
+    <row r="166" spans="2:2" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B166" s="8"/>
     </row>
-    <row r="167" spans="2:2" ht="30" customHeight="1">
+    <row r="167" spans="2:2" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B167" s="8"/>
     </row>
-    <row r="168" spans="2:2" ht="30" customHeight="1">
+    <row r="168" spans="2:2" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B168" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="T2:T3"/>
+    <mergeCell ref="U2:U3"/>
+    <mergeCell ref="V2:V3"/>
     <mergeCell ref="W2:W3"/>
     <mergeCell ref="M2:M3"/>
     <mergeCell ref="N2:N3"/>
@@ -4482,21 +4555,6 @@
     <mergeCell ref="R2:R3"/>
     <mergeCell ref="S2:S3"/>
     <mergeCell ref="P2:P3"/>
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="L2:L3"/>
-    <mergeCell ref="T2:T3"/>
-    <mergeCell ref="U2:U3"/>
-    <mergeCell ref="V2:V3"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="F2:F3"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ตรวจงาน/รายการตรวจสอบแผนภาพ.xlsx
+++ b/ตรวจงาน/รายการตรวจสอบแผนภาพ.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\team4\ตรวจงาน\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pee20\OneDrive\เดสก์ท็อป\SE3.1\team4\ตรวจงาน\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52149E89-A034-4E4D-92ED-AFDF6884F31B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A96AB29-CB75-401D-A2B4-8FFA50165B5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C108298C-C5B1-4B19-85F2-2856099ECD84}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{C108298C-C5B1-4B19-85F2-2856099ECD84}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,6 +23,10 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -30,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="48">
   <si>
     <t>คำผิด</t>
   </si>
@@ -171,6 +175,9 @@
   </si>
   <si>
     <t>Class Diagram Model</t>
+  </si>
+  <si>
+    <t>Sequence Diagram มอดูล ลูกค้า</t>
   </si>
 </sst>
 </file>
@@ -331,23 +338,8 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -358,8 +350,23 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -677,104 +684,104 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E552DF3-66E3-4350-8BDE-D3162A98C3B8}">
   <dimension ref="B2:W168"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S22" sqref="S22"/>
+    <sheetView tabSelected="1" topLeftCell="B11" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23:R23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.7"/>
   <cols>
-    <col min="1" max="1" width="8.75" style="1"/>
-    <col min="2" max="2" width="36.375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="8.75" style="1"/>
-    <col min="4" max="4" width="10.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.125" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.75" style="1"/>
+    <col min="1" max="1" width="8.69921875" style="1"/>
+    <col min="2" max="2" width="36.3984375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="8.69921875" style="1"/>
+    <col min="4" max="4" width="10.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.09765625" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.69921875" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:23" ht="50.45" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B2" s="22" t="s">
+    <row r="2" spans="2:23" ht="50.4" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="B2" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="22" t="s">
+      <c r="C2" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="22" t="s">
+      <c r="D2" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="18" t="s">
+      <c r="E2" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="15" t="s">
+      <c r="F2" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="15" t="s">
+      <c r="G2" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="15" t="s">
+      <c r="H2" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="15" t="s">
+      <c r="I2" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="J2" s="15" t="s">
+      <c r="J2" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="15" t="s">
+      <c r="K2" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="15" t="s">
+      <c r="L2" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="M2" s="15" t="s">
+      <c r="M2" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="N2" s="15" t="s">
+      <c r="N2" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="O2" s="15" t="s">
+      <c r="O2" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="P2" s="16" t="s">
+      <c r="P2" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="Q2" s="15" t="s">
+      <c r="Q2" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="R2" s="15" t="s">
+      <c r="R2" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="S2" s="14"/>
-      <c r="T2" s="14"/>
-      <c r="U2" s="14"/>
-      <c r="V2" s="14"/>
-      <c r="W2" s="14"/>
-    </row>
-    <row r="3" spans="2:23" ht="51.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B3" s="22"/>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="15"/>
-      <c r="J3" s="15"/>
-      <c r="K3" s="15"/>
-      <c r="L3" s="15"/>
-      <c r="M3" s="15"/>
-      <c r="N3" s="15"/>
-      <c r="O3" s="15"/>
-      <c r="P3" s="17"/>
-      <c r="Q3" s="15"/>
-      <c r="R3" s="15"/>
-      <c r="S3" s="14"/>
-      <c r="T3" s="14"/>
-      <c r="U3" s="14"/>
-      <c r="V3" s="14"/>
-      <c r="W3" s="14"/>
-    </row>
-    <row r="4" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B4" s="20" t="s">
+      <c r="S2" s="21"/>
+      <c r="T2" s="21"/>
+      <c r="U2" s="21"/>
+      <c r="V2" s="21"/>
+      <c r="W2" s="21"/>
+    </row>
+    <row r="3" spans="2:23" ht="51.75" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18"/>
+      <c r="K3" s="18"/>
+      <c r="L3" s="18"/>
+      <c r="M3" s="18"/>
+      <c r="N3" s="18"/>
+      <c r="O3" s="18"/>
+      <c r="P3" s="23"/>
+      <c r="Q3" s="18"/>
+      <c r="R3" s="18"/>
+      <c r="S3" s="21"/>
+      <c r="T3" s="21"/>
+      <c r="U3" s="21"/>
+      <c r="V3" s="21"/>
+      <c r="W3" s="21"/>
+    </row>
+    <row r="4" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="B4" s="15" t="s">
         <v>15</v>
       </c>
       <c r="C4" s="2" t="s">
@@ -814,8 +821,8 @@
       <c r="V4" s="4"/>
       <c r="W4" s="4"/>
     </row>
-    <row r="5" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B5" s="21"/>
+    <row r="5" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="B5" s="16"/>
       <c r="C5" s="2" t="s">
         <v>20</v>
       </c>
@@ -849,7 +856,7 @@
       <c r="V5" s="4"/>
       <c r="W5" s="4"/>
     </row>
-    <row r="6" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B6" s="11" t="s">
         <v>22</v>
       </c>
@@ -887,7 +894,7 @@
       <c r="V6" s="4"/>
       <c r="W6" s="4"/>
     </row>
-    <row r="7" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B7" s="11" t="s">
         <v>25</v>
       </c>
@@ -925,7 +932,7 @@
       <c r="V7" s="4"/>
       <c r="W7" s="4"/>
     </row>
-    <row r="8" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B8" s="11" t="s">
         <v>26</v>
       </c>
@@ -963,7 +970,7 @@
       <c r="V8" s="4"/>
       <c r="W8" s="4"/>
     </row>
-    <row r="9" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B9" s="11" t="s">
         <v>28</v>
       </c>
@@ -1001,7 +1008,7 @@
       <c r="V9" s="4"/>
       <c r="W9" s="4"/>
     </row>
-    <row r="10" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B10" s="11" t="s">
         <v>29</v>
       </c>
@@ -1039,7 +1046,7 @@
       <c r="V10" s="4"/>
       <c r="W10" s="4"/>
     </row>
-    <row r="11" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B11" s="11" t="s">
         <v>30</v>
       </c>
@@ -1077,7 +1084,7 @@
       <c r="V11" s="4"/>
       <c r="W11" s="4"/>
     </row>
-    <row r="12" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B12" s="12" t="s">
         <v>31</v>
       </c>
@@ -1118,7 +1125,7 @@
       <c r="V12" s="4"/>
       <c r="W12" s="4"/>
     </row>
-    <row r="13" spans="2:23" ht="31.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="2:23" ht="31.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B13" s="13" t="s">
         <v>38</v>
       </c>
@@ -1159,7 +1166,7 @@
       <c r="V13" s="4"/>
       <c r="W13" s="4"/>
     </row>
-    <row r="14" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B14" s="13" t="s">
         <v>35</v>
       </c>
@@ -1196,7 +1203,7 @@
       <c r="V14" s="4"/>
       <c r="W14" s="4"/>
     </row>
-    <row r="15" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B15" s="13" t="s">
         <v>36</v>
       </c>
@@ -1239,7 +1246,7 @@
       <c r="V15" s="4"/>
       <c r="W15" s="4"/>
     </row>
-    <row r="16" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B16" s="13" t="s">
         <v>37</v>
       </c>
@@ -1282,7 +1289,7 @@
       <c r="V16" s="4"/>
       <c r="W16" s="4"/>
     </row>
-    <row r="17" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B17" s="13" t="s">
         <v>39</v>
       </c>
@@ -1321,7 +1328,7 @@
       <c r="V17" s="4"/>
       <c r="W17" s="4"/>
     </row>
-    <row r="18" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B18" s="11" t="s">
         <v>25</v>
       </c>
@@ -1357,7 +1364,7 @@
       <c r="V18" s="4"/>
       <c r="W18" s="4"/>
     </row>
-    <row r="19" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B19" s="11" t="s">
         <v>43</v>
       </c>
@@ -1393,7 +1400,7 @@
       <c r="V19" s="4"/>
       <c r="W19" s="4"/>
     </row>
-    <row r="20" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B20" s="11" t="s">
         <v>30</v>
       </c>
@@ -1429,8 +1436,8 @@
       <c r="V20" s="4"/>
       <c r="W20" s="4"/>
     </row>
-    <row r="21" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B21" s="23" t="s">
+    <row r="21" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="B21" s="14" t="s">
         <v>45</v>
       </c>
       <c r="C21" s="2" t="s">
@@ -1472,7 +1479,7 @@
       <c r="V21" s="4"/>
       <c r="W21" s="4"/>
     </row>
-    <row r="22" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B22" s="5" t="s">
         <v>46</v>
       </c>
@@ -1515,12 +1522,22 @@
       <c r="V22" s="4"/>
       <c r="W22" s="4"/>
     </row>
-    <row r="23" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B23" s="5"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
+    <row r="23" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="B23" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D23" s="3">
+        <v>242724</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F23" s="2">
+        <v>4</v>
+      </c>
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
       <c r="I23" s="2"/>
@@ -1532,14 +1549,16 @@
       <c r="O23" s="2"/>
       <c r="P23" s="2"/>
       <c r="Q23" s="2"/>
-      <c r="R23" s="2"/>
+      <c r="R23" s="2">
+        <v>4</v>
+      </c>
       <c r="S23" s="4"/>
       <c r="T23" s="4"/>
       <c r="U23" s="4"/>
       <c r="V23" s="4"/>
       <c r="W23" s="4"/>
     </row>
-    <row r="24" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B24" s="5"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
@@ -1563,7 +1582,7 @@
       <c r="V24" s="4"/>
       <c r="W24" s="4"/>
     </row>
-    <row r="25" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B25" s="5"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
@@ -1587,7 +1606,7 @@
       <c r="V25" s="4"/>
       <c r="W25" s="4"/>
     </row>
-    <row r="26" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B26" s="5"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
@@ -1611,7 +1630,7 @@
       <c r="V26" s="4"/>
       <c r="W26" s="4"/>
     </row>
-    <row r="27" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B27" s="5"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
@@ -1635,7 +1654,7 @@
       <c r="V27" s="4"/>
       <c r="W27" s="4"/>
     </row>
-    <row r="28" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B28" s="5"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
@@ -1659,7 +1678,7 @@
       <c r="V28" s="4"/>
       <c r="W28" s="4"/>
     </row>
-    <row r="29" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B29" s="5"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
@@ -1683,7 +1702,7 @@
       <c r="V29" s="4"/>
       <c r="W29" s="4"/>
     </row>
-    <row r="30" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B30" s="5"/>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
@@ -1707,7 +1726,7 @@
       <c r="V30" s="4"/>
       <c r="W30" s="4"/>
     </row>
-    <row r="31" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B31" s="5"/>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
@@ -1731,7 +1750,7 @@
       <c r="V31" s="4"/>
       <c r="W31" s="4"/>
     </row>
-    <row r="32" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B32" s="5"/>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
@@ -1755,7 +1774,7 @@
       <c r="V32" s="4"/>
       <c r="W32" s="4"/>
     </row>
-    <row r="33" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B33" s="5"/>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
@@ -1779,7 +1798,7 @@
       <c r="V33" s="4"/>
       <c r="W33" s="4"/>
     </row>
-    <row r="34" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B34" s="5"/>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
@@ -1803,7 +1822,7 @@
       <c r="V34" s="4"/>
       <c r="W34" s="4"/>
     </row>
-    <row r="35" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B35" s="5"/>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
@@ -1827,7 +1846,7 @@
       <c r="V35" s="4"/>
       <c r="W35" s="4"/>
     </row>
-    <row r="36" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B36" s="5"/>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
@@ -1851,7 +1870,7 @@
       <c r="V36" s="4"/>
       <c r="W36" s="4"/>
     </row>
-    <row r="37" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B37" s="5"/>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
@@ -1875,7 +1894,7 @@
       <c r="V37" s="4"/>
       <c r="W37" s="4"/>
     </row>
-    <row r="38" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B38" s="5"/>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
@@ -1899,7 +1918,7 @@
       <c r="V38" s="4"/>
       <c r="W38" s="4"/>
     </row>
-    <row r="39" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B39" s="5"/>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
@@ -1923,7 +1942,7 @@
       <c r="V39" s="4"/>
       <c r="W39" s="4"/>
     </row>
-    <row r="40" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B40" s="5"/>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
@@ -1947,7 +1966,7 @@
       <c r="V40" s="4"/>
       <c r="W40" s="4"/>
     </row>
-    <row r="41" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B41" s="5"/>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
@@ -1971,7 +1990,7 @@
       <c r="V41" s="4"/>
       <c r="W41" s="4"/>
     </row>
-    <row r="42" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B42" s="5"/>
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
@@ -1995,7 +2014,7 @@
       <c r="V42" s="4"/>
       <c r="W42" s="4"/>
     </row>
-    <row r="43" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B43" s="5"/>
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
@@ -2019,7 +2038,7 @@
       <c r="V43" s="4"/>
       <c r="W43" s="4"/>
     </row>
-    <row r="44" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B44" s="5"/>
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
@@ -2043,7 +2062,7 @@
       <c r="V44" s="4"/>
       <c r="W44" s="4"/>
     </row>
-    <row r="45" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B45" s="5"/>
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
@@ -2067,7 +2086,7 @@
       <c r="V45" s="4"/>
       <c r="W45" s="4"/>
     </row>
-    <row r="46" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B46" s="5"/>
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
@@ -2091,7 +2110,7 @@
       <c r="V46" s="4"/>
       <c r="W46" s="4"/>
     </row>
-    <row r="47" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B47" s="5"/>
       <c r="C47" s="2"/>
       <c r="D47" s="2"/>
@@ -2115,7 +2134,7 @@
       <c r="V47" s="4"/>
       <c r="W47" s="4"/>
     </row>
-    <row r="48" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B48" s="5"/>
       <c r="C48" s="2"/>
       <c r="D48" s="2"/>
@@ -2139,7 +2158,7 @@
       <c r="V48" s="4"/>
       <c r="W48" s="4"/>
     </row>
-    <row r="49" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B49" s="5"/>
       <c r="C49" s="2"/>
       <c r="D49" s="2"/>
@@ -2163,7 +2182,7 @@
       <c r="V49" s="4"/>
       <c r="W49" s="4"/>
     </row>
-    <row r="50" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B50" s="5"/>
       <c r="C50" s="2"/>
       <c r="D50" s="2"/>
@@ -2187,7 +2206,7 @@
       <c r="V50" s="4"/>
       <c r="W50" s="4"/>
     </row>
-    <row r="51" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B51" s="5"/>
       <c r="C51" s="2"/>
       <c r="D51" s="2"/>
@@ -2211,7 +2230,7 @@
       <c r="V51" s="4"/>
       <c r="W51" s="4"/>
     </row>
-    <row r="52" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B52" s="5"/>
       <c r="C52" s="2"/>
       <c r="D52" s="2"/>
@@ -2235,7 +2254,7 @@
       <c r="V52" s="4"/>
       <c r="W52" s="4"/>
     </row>
-    <row r="53" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B53" s="5"/>
       <c r="C53" s="2"/>
       <c r="D53" s="2"/>
@@ -2259,7 +2278,7 @@
       <c r="V53" s="4"/>
       <c r="W53" s="4"/>
     </row>
-    <row r="54" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B54" s="5"/>
       <c r="C54" s="2"/>
       <c r="D54" s="2"/>
@@ -2283,7 +2302,7 @@
       <c r="V54" s="4"/>
       <c r="W54" s="4"/>
     </row>
-    <row r="55" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B55" s="5"/>
       <c r="C55" s="2"/>
       <c r="D55" s="2"/>
@@ -2307,7 +2326,7 @@
       <c r="V55" s="4"/>
       <c r="W55" s="4"/>
     </row>
-    <row r="56" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B56" s="5"/>
       <c r="C56" s="2"/>
       <c r="D56" s="2"/>
@@ -2331,7 +2350,7 @@
       <c r="V56" s="4"/>
       <c r="W56" s="4"/>
     </row>
-    <row r="57" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B57" s="5"/>
       <c r="C57" s="2"/>
       <c r="D57" s="2"/>
@@ -2355,7 +2374,7 @@
       <c r="V57" s="4"/>
       <c r="W57" s="4"/>
     </row>
-    <row r="58" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B58" s="5"/>
       <c r="C58" s="2"/>
       <c r="D58" s="2"/>
@@ -2379,7 +2398,7 @@
       <c r="V58" s="4"/>
       <c r="W58" s="4"/>
     </row>
-    <row r="59" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B59" s="5"/>
       <c r="C59" s="2"/>
       <c r="D59" s="2"/>
@@ -2403,7 +2422,7 @@
       <c r="V59" s="4"/>
       <c r="W59" s="4"/>
     </row>
-    <row r="60" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B60" s="5"/>
       <c r="C60" s="2"/>
       <c r="D60" s="2"/>
@@ -2427,7 +2446,7 @@
       <c r="V60" s="4"/>
       <c r="W60" s="4"/>
     </row>
-    <row r="61" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B61" s="5"/>
       <c r="C61" s="2"/>
       <c r="D61" s="2"/>
@@ -2451,7 +2470,7 @@
       <c r="V61" s="4"/>
       <c r="W61" s="4"/>
     </row>
-    <row r="62" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B62" s="5"/>
       <c r="C62" s="2"/>
       <c r="D62" s="2"/>
@@ -2475,7 +2494,7 @@
       <c r="V62" s="4"/>
       <c r="W62" s="4"/>
     </row>
-    <row r="63" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B63" s="5"/>
       <c r="C63" s="2"/>
       <c r="D63" s="2"/>
@@ -2499,7 +2518,7 @@
       <c r="V63" s="4"/>
       <c r="W63" s="4"/>
     </row>
-    <row r="64" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B64" s="5"/>
       <c r="C64" s="2"/>
       <c r="D64" s="2"/>
@@ -2523,7 +2542,7 @@
       <c r="V64" s="4"/>
       <c r="W64" s="4"/>
     </row>
-    <row r="65" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B65" s="5"/>
       <c r="C65" s="2"/>
       <c r="D65" s="2"/>
@@ -2547,7 +2566,7 @@
       <c r="V65" s="4"/>
       <c r="W65" s="4"/>
     </row>
-    <row r="66" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B66" s="5"/>
       <c r="C66" s="2"/>
       <c r="D66" s="2"/>
@@ -2571,7 +2590,7 @@
       <c r="V66" s="4"/>
       <c r="W66" s="4"/>
     </row>
-    <row r="67" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B67" s="5"/>
       <c r="C67" s="2"/>
       <c r="D67" s="2"/>
@@ -2595,7 +2614,7 @@
       <c r="V67" s="4"/>
       <c r="W67" s="4"/>
     </row>
-    <row r="68" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B68" s="5"/>
       <c r="C68" s="2"/>
       <c r="D68" s="2"/>
@@ -2619,7 +2638,7 @@
       <c r="V68" s="4"/>
       <c r="W68" s="4"/>
     </row>
-    <row r="69" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B69" s="5"/>
       <c r="C69" s="2"/>
       <c r="D69" s="2"/>
@@ -2643,7 +2662,7 @@
       <c r="V69" s="4"/>
       <c r="W69" s="4"/>
     </row>
-    <row r="70" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B70" s="5"/>
       <c r="C70" s="6"/>
       <c r="D70" s="6"/>
@@ -2667,7 +2686,7 @@
       <c r="V70" s="7"/>
       <c r="W70" s="4"/>
     </row>
-    <row r="71" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B71" s="5"/>
       <c r="C71" s="6"/>
       <c r="D71" s="6"/>
@@ -2691,7 +2710,7 @@
       <c r="V71" s="7"/>
       <c r="W71" s="4"/>
     </row>
-    <row r="72" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B72" s="5"/>
       <c r="C72" s="6"/>
       <c r="D72" s="6"/>
@@ -2715,7 +2734,7 @@
       <c r="V72" s="7"/>
       <c r="W72" s="4"/>
     </row>
-    <row r="73" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B73" s="5"/>
       <c r="C73" s="6"/>
       <c r="D73" s="6"/>
@@ -2739,7 +2758,7 @@
       <c r="V73" s="7"/>
       <c r="W73" s="4"/>
     </row>
-    <row r="74" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B74" s="5"/>
       <c r="C74" s="6"/>
       <c r="D74" s="6"/>
@@ -2763,7 +2782,7 @@
       <c r="V74" s="7"/>
       <c r="W74" s="4"/>
     </row>
-    <row r="75" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B75" s="5"/>
       <c r="C75" s="6"/>
       <c r="D75" s="6"/>
@@ -2787,7 +2806,7 @@
       <c r="V75" s="7"/>
       <c r="W75" s="4"/>
     </row>
-    <row r="76" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="76" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B76" s="5"/>
       <c r="C76" s="6"/>
       <c r="D76" s="6"/>
@@ -2811,7 +2830,7 @@
       <c r="V76" s="7"/>
       <c r="W76" s="4"/>
     </row>
-    <row r="77" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="77" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B77" s="5"/>
       <c r="C77" s="6"/>
       <c r="D77" s="6"/>
@@ -2835,7 +2854,7 @@
       <c r="V77" s="7"/>
       <c r="W77" s="4"/>
     </row>
-    <row r="78" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="78" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B78" s="5"/>
       <c r="C78" s="6"/>
       <c r="D78" s="6"/>
@@ -2859,7 +2878,7 @@
       <c r="V78" s="7"/>
       <c r="W78" s="4"/>
     </row>
-    <row r="79" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="79" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B79" s="5"/>
       <c r="C79" s="6"/>
       <c r="D79" s="6"/>
@@ -2883,7 +2902,7 @@
       <c r="V79" s="7"/>
       <c r="W79" s="4"/>
     </row>
-    <row r="80" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="80" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B80" s="5"/>
       <c r="C80" s="6"/>
       <c r="D80" s="6"/>
@@ -2907,7 +2926,7 @@
       <c r="V80" s="7"/>
       <c r="W80" s="4"/>
     </row>
-    <row r="81" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="81" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B81" s="5"/>
       <c r="C81" s="6"/>
       <c r="D81" s="6"/>
@@ -2931,7 +2950,7 @@
       <c r="V81" s="7"/>
       <c r="W81" s="4"/>
     </row>
-    <row r="82" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="82" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B82" s="5"/>
       <c r="C82" s="6"/>
       <c r="D82" s="6"/>
@@ -2955,7 +2974,7 @@
       <c r="V82" s="7"/>
       <c r="W82" s="4"/>
     </row>
-    <row r="83" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="83" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B83" s="5"/>
       <c r="C83" s="6"/>
       <c r="D83" s="6"/>
@@ -2979,7 +2998,7 @@
       <c r="V83" s="7"/>
       <c r="W83" s="4"/>
     </row>
-    <row r="84" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="84" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B84" s="5"/>
       <c r="C84" s="6"/>
       <c r="D84" s="6"/>
@@ -3003,7 +3022,7 @@
       <c r="V84" s="7"/>
       <c r="W84" s="4"/>
     </row>
-    <row r="85" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="85" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B85" s="5"/>
       <c r="C85" s="6"/>
       <c r="D85" s="6"/>
@@ -3027,7 +3046,7 @@
       <c r="V85" s="7"/>
       <c r="W85" s="4"/>
     </row>
-    <row r="86" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="86" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B86" s="5"/>
       <c r="C86" s="6"/>
       <c r="D86" s="6"/>
@@ -3051,7 +3070,7 @@
       <c r="V86" s="7"/>
       <c r="W86" s="4"/>
     </row>
-    <row r="87" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="87" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B87" s="5"/>
       <c r="C87" s="6"/>
       <c r="D87" s="6"/>
@@ -3075,7 +3094,7 @@
       <c r="V87" s="7"/>
       <c r="W87" s="4"/>
     </row>
-    <row r="88" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="88" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B88" s="5"/>
       <c r="C88" s="6"/>
       <c r="D88" s="6"/>
@@ -3099,7 +3118,7 @@
       <c r="V88" s="7"/>
       <c r="W88" s="4"/>
     </row>
-    <row r="89" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="89" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B89" s="5"/>
       <c r="C89" s="6"/>
       <c r="D89" s="6"/>
@@ -3123,7 +3142,7 @@
       <c r="V89" s="7"/>
       <c r="W89" s="4"/>
     </row>
-    <row r="90" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="90" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B90" s="5"/>
       <c r="C90" s="6"/>
       <c r="D90" s="6"/>
@@ -3147,7 +3166,7 @@
       <c r="V90" s="7"/>
       <c r="W90" s="4"/>
     </row>
-    <row r="91" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="91" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B91" s="5"/>
       <c r="C91" s="6"/>
       <c r="D91" s="6"/>
@@ -3171,7 +3190,7 @@
       <c r="V91" s="7"/>
       <c r="W91" s="4"/>
     </row>
-    <row r="92" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="92" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B92" s="5"/>
       <c r="C92" s="6"/>
       <c r="D92" s="6"/>
@@ -3195,7 +3214,7 @@
       <c r="V92" s="7"/>
       <c r="W92" s="4"/>
     </row>
-    <row r="93" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="93" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B93" s="5"/>
       <c r="C93" s="6"/>
       <c r="D93" s="6"/>
@@ -3219,7 +3238,7 @@
       <c r="V93" s="7"/>
       <c r="W93" s="4"/>
     </row>
-    <row r="94" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="94" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B94" s="5"/>
       <c r="C94" s="6"/>
       <c r="D94" s="6"/>
@@ -3243,7 +3262,7 @@
       <c r="V94" s="7"/>
       <c r="W94" s="4"/>
     </row>
-    <row r="95" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="95" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B95" s="5"/>
       <c r="C95" s="6"/>
       <c r="D95" s="6"/>
@@ -3267,7 +3286,7 @@
       <c r="V95" s="7"/>
       <c r="W95" s="4"/>
     </row>
-    <row r="96" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="96" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B96" s="5"/>
       <c r="C96" s="6"/>
       <c r="D96" s="6"/>
@@ -3291,7 +3310,7 @@
       <c r="V96" s="7"/>
       <c r="W96" s="4"/>
     </row>
-    <row r="97" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="97" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B97" s="5"/>
       <c r="C97" s="6"/>
       <c r="D97" s="6"/>
@@ -3315,7 +3334,7 @@
       <c r="V97" s="7"/>
       <c r="W97" s="4"/>
     </row>
-    <row r="98" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="98" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B98" s="5"/>
       <c r="C98" s="6"/>
       <c r="D98" s="6"/>
@@ -3339,7 +3358,7 @@
       <c r="V98" s="7"/>
       <c r="W98" s="4"/>
     </row>
-    <row r="99" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="99" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B99" s="5"/>
       <c r="C99" s="6"/>
       <c r="D99" s="6"/>
@@ -3363,7 +3382,7 @@
       <c r="V99" s="7"/>
       <c r="W99" s="4"/>
     </row>
-    <row r="100" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="100" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B100" s="5"/>
       <c r="C100" s="6"/>
       <c r="D100" s="6"/>
@@ -3387,7 +3406,7 @@
       <c r="V100" s="7"/>
       <c r="W100" s="4"/>
     </row>
-    <row r="101" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="101" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B101" s="5"/>
       <c r="C101" s="6"/>
       <c r="D101" s="6"/>
@@ -3411,7 +3430,7 @@
       <c r="V101" s="7"/>
       <c r="W101" s="4"/>
     </row>
-    <row r="102" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="102" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B102" s="5"/>
       <c r="C102" s="6"/>
       <c r="D102" s="6"/>
@@ -3435,7 +3454,7 @@
       <c r="V102" s="7"/>
       <c r="W102" s="4"/>
     </row>
-    <row r="103" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="103" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B103" s="5"/>
       <c r="C103" s="6"/>
       <c r="D103" s="6"/>
@@ -3459,7 +3478,7 @@
       <c r="V103" s="7"/>
       <c r="W103" s="4"/>
     </row>
-    <row r="104" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="104" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B104" s="5"/>
       <c r="C104" s="6"/>
       <c r="D104" s="6"/>
@@ -3483,7 +3502,7 @@
       <c r="V104" s="7"/>
       <c r="W104" s="4"/>
     </row>
-    <row r="105" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="105" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B105" s="5"/>
       <c r="C105" s="6"/>
       <c r="D105" s="6"/>
@@ -3507,7 +3526,7 @@
       <c r="V105" s="7"/>
       <c r="W105" s="4"/>
     </row>
-    <row r="106" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="106" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B106" s="5"/>
       <c r="C106" s="6"/>
       <c r="D106" s="6"/>
@@ -3531,7 +3550,7 @@
       <c r="V106" s="7"/>
       <c r="W106" s="4"/>
     </row>
-    <row r="107" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="107" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B107" s="5"/>
       <c r="C107" s="6"/>
       <c r="D107" s="6"/>
@@ -3555,7 +3574,7 @@
       <c r="V107" s="7"/>
       <c r="W107" s="4"/>
     </row>
-    <row r="108" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="108" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B108" s="5"/>
       <c r="C108" s="6"/>
       <c r="D108" s="6"/>
@@ -3579,7 +3598,7 @@
       <c r="V108" s="7"/>
       <c r="W108" s="4"/>
     </row>
-    <row r="109" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="109" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B109" s="5"/>
       <c r="C109" s="6"/>
       <c r="D109" s="6"/>
@@ -3603,7 +3622,7 @@
       <c r="V109" s="7"/>
       <c r="W109" s="4"/>
     </row>
-    <row r="110" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="110" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B110" s="5"/>
       <c r="C110" s="6"/>
       <c r="D110" s="6"/>
@@ -3627,7 +3646,7 @@
       <c r="V110" s="7"/>
       <c r="W110" s="4"/>
     </row>
-    <row r="111" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="111" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B111" s="5"/>
       <c r="C111" s="6"/>
       <c r="D111" s="6"/>
@@ -3651,7 +3670,7 @@
       <c r="V111" s="7"/>
       <c r="W111" s="4"/>
     </row>
-    <row r="112" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="112" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B112" s="5"/>
       <c r="C112" s="6"/>
       <c r="D112" s="6"/>
@@ -3675,7 +3694,7 @@
       <c r="V112" s="7"/>
       <c r="W112" s="4"/>
     </row>
-    <row r="113" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="113" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B113" s="5"/>
       <c r="C113" s="6"/>
       <c r="D113" s="6"/>
@@ -3699,7 +3718,7 @@
       <c r="V113" s="7"/>
       <c r="W113" s="4"/>
     </row>
-    <row r="114" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="114" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B114" s="5"/>
       <c r="C114" s="6"/>
       <c r="D114" s="6"/>
@@ -3723,7 +3742,7 @@
       <c r="V114" s="7"/>
       <c r="W114" s="4"/>
     </row>
-    <row r="115" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="115" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B115" s="5"/>
       <c r="C115" s="6"/>
       <c r="D115" s="6"/>
@@ -3747,7 +3766,7 @@
       <c r="V115" s="7"/>
       <c r="W115" s="4"/>
     </row>
-    <row r="116" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="116" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B116" s="5"/>
       <c r="C116" s="6"/>
       <c r="D116" s="6"/>
@@ -3771,7 +3790,7 @@
       <c r="V116" s="7"/>
       <c r="W116" s="4"/>
     </row>
-    <row r="117" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="117" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B117" s="5"/>
       <c r="C117" s="6"/>
       <c r="D117" s="6"/>
@@ -3795,7 +3814,7 @@
       <c r="V117" s="7"/>
       <c r="W117" s="4"/>
     </row>
-    <row r="118" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="118" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B118" s="5"/>
       <c r="C118" s="6"/>
       <c r="D118" s="6"/>
@@ -3819,7 +3838,7 @@
       <c r="V118" s="7"/>
       <c r="W118" s="4"/>
     </row>
-    <row r="119" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="119" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B119" s="5"/>
       <c r="C119" s="6"/>
       <c r="D119" s="6"/>
@@ -3843,7 +3862,7 @@
       <c r="V119" s="7"/>
       <c r="W119" s="4"/>
     </row>
-    <row r="120" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="120" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B120" s="5"/>
       <c r="C120" s="6"/>
       <c r="D120" s="6"/>
@@ -3867,7 +3886,7 @@
       <c r="V120" s="7"/>
       <c r="W120" s="4"/>
     </row>
-    <row r="121" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="121" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B121" s="5"/>
       <c r="C121" s="6"/>
       <c r="D121" s="6"/>
@@ -3891,7 +3910,7 @@
       <c r="V121" s="7"/>
       <c r="W121" s="4"/>
     </row>
-    <row r="122" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="122" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B122" s="5"/>
       <c r="C122" s="6"/>
       <c r="D122" s="6"/>
@@ -3915,7 +3934,7 @@
       <c r="V122" s="7"/>
       <c r="W122" s="4"/>
     </row>
-    <row r="123" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="123" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B123" s="5"/>
       <c r="C123" s="6"/>
       <c r="D123" s="6"/>
@@ -3939,7 +3958,7 @@
       <c r="V123" s="7"/>
       <c r="W123" s="4"/>
     </row>
-    <row r="124" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="124" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B124" s="5"/>
       <c r="C124" s="6"/>
       <c r="D124" s="6"/>
@@ -3963,7 +3982,7 @@
       <c r="V124" s="7"/>
       <c r="W124" s="4"/>
     </row>
-    <row r="125" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="125" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B125" s="5"/>
       <c r="C125" s="6"/>
       <c r="D125" s="6"/>
@@ -3987,7 +4006,7 @@
       <c r="V125" s="7"/>
       <c r="W125" s="4"/>
     </row>
-    <row r="126" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="126" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B126" s="5"/>
       <c r="C126" s="6"/>
       <c r="D126" s="6"/>
@@ -4011,7 +4030,7 @@
       <c r="V126" s="7"/>
       <c r="W126" s="4"/>
     </row>
-    <row r="127" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="127" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B127" s="5"/>
       <c r="C127" s="6"/>
       <c r="D127" s="6"/>
@@ -4035,7 +4054,7 @@
       <c r="V127" s="7"/>
       <c r="W127" s="4"/>
     </row>
-    <row r="128" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="128" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B128" s="5"/>
       <c r="C128" s="6"/>
       <c r="D128" s="6"/>
@@ -4059,7 +4078,7 @@
       <c r="V128" s="7"/>
       <c r="W128" s="4"/>
     </row>
-    <row r="129" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="129" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B129" s="5"/>
       <c r="C129" s="6"/>
       <c r="D129" s="6"/>
@@ -4083,7 +4102,7 @@
       <c r="V129" s="7"/>
       <c r="W129" s="4"/>
     </row>
-    <row r="130" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="130" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B130" s="5"/>
       <c r="C130" s="6"/>
       <c r="D130" s="6"/>
@@ -4107,7 +4126,7 @@
       <c r="V130" s="7"/>
       <c r="W130" s="4"/>
     </row>
-    <row r="131" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="131" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B131" s="5"/>
       <c r="C131" s="6"/>
       <c r="D131" s="6"/>
@@ -4131,7 +4150,7 @@
       <c r="V131" s="7"/>
       <c r="W131" s="4"/>
     </row>
-    <row r="132" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="132" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B132" s="5"/>
       <c r="C132" s="6"/>
       <c r="D132" s="6"/>
@@ -4155,7 +4174,7 @@
       <c r="V132" s="7"/>
       <c r="W132" s="4"/>
     </row>
-    <row r="133" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="133" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B133" s="5"/>
       <c r="C133" s="6"/>
       <c r="D133" s="6"/>
@@ -4179,7 +4198,7 @@
       <c r="V133" s="7"/>
       <c r="W133" s="4"/>
     </row>
-    <row r="134" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="134" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B134" s="5"/>
       <c r="C134" s="6"/>
       <c r="D134" s="6"/>
@@ -4203,7 +4222,7 @@
       <c r="V134" s="7"/>
       <c r="W134" s="4"/>
     </row>
-    <row r="135" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="135" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B135" s="5"/>
       <c r="C135" s="6"/>
       <c r="D135" s="6"/>
@@ -4227,7 +4246,7 @@
       <c r="V135" s="7"/>
       <c r="W135" s="4"/>
     </row>
-    <row r="136" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="136" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B136" s="5"/>
       <c r="C136" s="6"/>
       <c r="D136" s="6"/>
@@ -4251,7 +4270,7 @@
       <c r="V136" s="7"/>
       <c r="W136" s="4"/>
     </row>
-    <row r="137" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="137" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B137" s="5"/>
       <c r="C137" s="6"/>
       <c r="D137" s="6"/>
@@ -4275,7 +4294,7 @@
       <c r="V137" s="7"/>
       <c r="W137" s="4"/>
     </row>
-    <row r="138" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="138" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B138" s="5"/>
       <c r="C138" s="6"/>
       <c r="D138" s="6"/>
@@ -4299,7 +4318,7 @@
       <c r="V138" s="7"/>
       <c r="W138" s="4"/>
     </row>
-    <row r="139" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="139" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B139" s="5"/>
       <c r="C139" s="6"/>
       <c r="D139" s="6"/>
@@ -4323,7 +4342,7 @@
       <c r="V139" s="7"/>
       <c r="W139" s="4"/>
     </row>
-    <row r="140" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="140" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B140" s="5"/>
       <c r="C140" s="6"/>
       <c r="D140" s="6"/>
@@ -4347,7 +4366,7 @@
       <c r="V140" s="7"/>
       <c r="W140" s="4"/>
     </row>
-    <row r="141" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="141" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B141" s="5"/>
       <c r="C141" s="6"/>
       <c r="D141" s="6"/>
@@ -4371,7 +4390,7 @@
       <c r="V141" s="7"/>
       <c r="W141" s="4"/>
     </row>
-    <row r="142" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="142" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B142" s="5"/>
       <c r="C142" s="6"/>
       <c r="D142" s="6"/>
@@ -4395,7 +4414,7 @@
       <c r="V142" s="7"/>
       <c r="W142" s="4"/>
     </row>
-    <row r="143" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="143" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B143" s="5"/>
       <c r="C143" s="6"/>
       <c r="D143" s="6"/>
@@ -4419,7 +4438,7 @@
       <c r="V143" s="7"/>
       <c r="W143" s="4"/>
     </row>
-    <row r="144" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="144" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B144" s="5"/>
       <c r="C144" s="6"/>
       <c r="D144" s="6"/>
@@ -4443,110 +4462,95 @@
       <c r="V144" s="7"/>
       <c r="W144" s="4"/>
     </row>
-    <row r="145" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="145" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B145" s="8"/>
       <c r="W145" s="9"/>
     </row>
-    <row r="146" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="146" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B146" s="8"/>
       <c r="W146" s="9"/>
     </row>
-    <row r="147" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="147" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B147" s="8"/>
       <c r="W147" s="9"/>
     </row>
-    <row r="148" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="148" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B148" s="8"/>
       <c r="W148" s="9"/>
     </row>
-    <row r="149" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="149" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B149" s="8"/>
       <c r="W149" s="9"/>
     </row>
-    <row r="150" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="150" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B150" s="8"/>
       <c r="W150" s="9"/>
     </row>
-    <row r="151" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="151" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B151" s="8"/>
       <c r="W151" s="9"/>
     </row>
-    <row r="152" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="152" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B152" s="8"/>
       <c r="W152" s="9"/>
     </row>
-    <row r="153" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="153" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B153" s="8"/>
       <c r="W153" s="9"/>
     </row>
-    <row r="154" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="154" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B154" s="8"/>
       <c r="W154" s="9"/>
     </row>
-    <row r="155" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="155" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B155" s="8"/>
       <c r="W155" s="9"/>
     </row>
-    <row r="156" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="156" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B156" s="8"/>
       <c r="W156" s="9"/>
     </row>
-    <row r="157" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="157" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B157" s="8"/>
       <c r="W157" s="9"/>
     </row>
-    <row r="158" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="158" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B158" s="8"/>
       <c r="W158" s="9"/>
     </row>
-    <row r="159" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="159" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B159" s="8"/>
       <c r="W159" s="9"/>
     </row>
-    <row r="160" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="160" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B160" s="8"/>
     </row>
-    <row r="161" spans="2:2" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="161" spans="2:2" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B161" s="8"/>
     </row>
-    <row r="162" spans="2:2" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="162" spans="2:2" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B162" s="8"/>
     </row>
-    <row r="163" spans="2:2" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="163" spans="2:2" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B163" s="8"/>
     </row>
-    <row r="164" spans="2:2" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="164" spans="2:2" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B164" s="8"/>
     </row>
-    <row r="165" spans="2:2" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="165" spans="2:2" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B165" s="8"/>
     </row>
-    <row r="166" spans="2:2" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="166" spans="2:2" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B166" s="8"/>
     </row>
-    <row r="167" spans="2:2" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="167" spans="2:2" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B167" s="8"/>
     </row>
-    <row r="168" spans="2:2" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="168" spans="2:2" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B168" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="L2:L3"/>
-    <mergeCell ref="T2:T3"/>
-    <mergeCell ref="U2:U3"/>
-    <mergeCell ref="V2:V3"/>
     <mergeCell ref="W2:W3"/>
     <mergeCell ref="M2:M3"/>
     <mergeCell ref="N2:N3"/>
@@ -4555,6 +4559,21 @@
     <mergeCell ref="R2:R3"/>
     <mergeCell ref="S2:S3"/>
     <mergeCell ref="P2:P3"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="T2:T3"/>
+    <mergeCell ref="U2:U3"/>
+    <mergeCell ref="V2:V3"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="F2:F3"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ตรวจงาน/รายการตรวจสอบแผนภาพ.xlsx
+++ b/ตรวจงาน/รายการตรวจสอบแผนภาพ.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pee20\OneDrive\เดสก์ท็อป\SE3.1\team4\ตรวจงาน\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\peerasak\team4\ตรวจงาน\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A96AB29-CB75-401D-A2B4-8FFA50165B5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A30977EE-2D57-45A2-8915-A0A0084721E9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{C108298C-C5B1-4B19-85F2-2856099ECD84}"/>
   </bookViews>
@@ -26,7 +26,6 @@
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="50">
   <si>
     <t>คำผิด</t>
   </si>
@@ -178,6 +177,12 @@
   </si>
   <si>
     <t>Sequence Diagram มอดูล ลูกค้า</t>
+  </si>
+  <si>
+    <t>Sequence Diagram มอดูล เอเย่นต์</t>
+  </si>
+  <si>
+    <t>ธนาธิป</t>
   </si>
 </sst>
 </file>
@@ -341,6 +346,24 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -349,24 +372,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -684,8 +689,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E552DF3-66E3-4350-8BDE-D3162A98C3B8}">
   <dimension ref="B2:W168"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B11" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23:R23"/>
+    <sheetView tabSelected="1" topLeftCell="B16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O25" sqref="O25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.7"/>
@@ -699,89 +704,89 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:23" ht="50.4" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="17" t="s">
+      <c r="D2" s="23" t="s">
         <v>8</v>
       </c>
       <c r="E2" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="18" t="s">
+      <c r="F2" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="18" t="s">
+      <c r="G2" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="18" t="s">
+      <c r="H2" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="18" t="s">
+      <c r="I2" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="J2" s="18" t="s">
+      <c r="J2" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="18" t="s">
+      <c r="K2" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="18" t="s">
+      <c r="L2" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="M2" s="18" t="s">
+      <c r="M2" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="N2" s="18" t="s">
+      <c r="N2" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="O2" s="18" t="s">
+      <c r="O2" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="P2" s="22" t="s">
+      <c r="P2" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="Q2" s="18" t="s">
+      <c r="Q2" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="R2" s="18" t="s">
+      <c r="R2" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="S2" s="21"/>
-      <c r="T2" s="21"/>
-      <c r="U2" s="21"/>
-      <c r="V2" s="21"/>
-      <c r="W2" s="21"/>
+      <c r="S2" s="15"/>
+      <c r="T2" s="15"/>
+      <c r="U2" s="15"/>
+      <c r="V2" s="15"/>
+      <c r="W2" s="15"/>
     </row>
     <row r="3" spans="2:23" ht="51.75" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
+      <c r="B3" s="23"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
       <c r="E3" s="20"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18"/>
-      <c r="K3" s="18"/>
-      <c r="L3" s="18"/>
-      <c r="M3" s="18"/>
-      <c r="N3" s="18"/>
-      <c r="O3" s="18"/>
-      <c r="P3" s="23"/>
-      <c r="Q3" s="18"/>
-      <c r="R3" s="18"/>
-      <c r="S3" s="21"/>
-      <c r="T3" s="21"/>
-      <c r="U3" s="21"/>
-      <c r="V3" s="21"/>
-      <c r="W3" s="21"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="16"/>
+      <c r="K3" s="16"/>
+      <c r="L3" s="16"/>
+      <c r="M3" s="16"/>
+      <c r="N3" s="16"/>
+      <c r="O3" s="16"/>
+      <c r="P3" s="18"/>
+      <c r="Q3" s="16"/>
+      <c r="R3" s="16"/>
+      <c r="S3" s="15"/>
+      <c r="T3" s="15"/>
+      <c r="U3" s="15"/>
+      <c r="V3" s="15"/>
+      <c r="W3" s="15"/>
     </row>
     <row r="4" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="21" t="s">
         <v>15</v>
       </c>
       <c r="C4" s="2" t="s">
@@ -822,7 +827,7 @@
       <c r="W4" s="4"/>
     </row>
     <row r="5" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B5" s="16"/>
+      <c r="B5" s="22"/>
       <c r="C5" s="2" t="s">
         <v>20</v>
       </c>
@@ -1527,7 +1532,7 @@
         <v>47</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D23" s="3">
         <v>242724</v>
@@ -1559,13 +1564,25 @@
       <c r="W23" s="4"/>
     </row>
     <row r="24" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B24" s="5"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
+      <c r="B24" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D24" s="3">
+        <v>242724</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F24" s="2">
+        <v>2</v>
+      </c>
       <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
+      <c r="H24" s="2">
+        <v>1</v>
+      </c>
       <c r="I24" s="2"/>
       <c r="J24" s="2"/>
       <c r="K24" s="2"/>
@@ -1573,9 +1590,13 @@
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
-      <c r="P24" s="2"/>
+      <c r="P24" s="2">
+        <v>3</v>
+      </c>
       <c r="Q24" s="2"/>
-      <c r="R24" s="2"/>
+      <c r="R24" s="2">
+        <v>6</v>
+      </c>
       <c r="S24" s="4"/>
       <c r="T24" s="4"/>
       <c r="U24" s="4"/>
@@ -4551,6 +4572,21 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="T2:T3"/>
+    <mergeCell ref="U2:U3"/>
+    <mergeCell ref="V2:V3"/>
     <mergeCell ref="W2:W3"/>
     <mergeCell ref="M2:M3"/>
     <mergeCell ref="N2:N3"/>
@@ -4559,21 +4595,6 @@
     <mergeCell ref="R2:R3"/>
     <mergeCell ref="S2:S3"/>
     <mergeCell ref="P2:P3"/>
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="L2:L3"/>
-    <mergeCell ref="T2:T3"/>
-    <mergeCell ref="U2:U3"/>
-    <mergeCell ref="V2:V3"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="F2:F3"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ตรวจงาน/รายการตรวจสอบแผนภาพ.xlsx
+++ b/ตรวจงาน/รายการตรวจสอบแผนภาพ.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pee20\OneDrive\เดสก์ท็อป\SE3.1\team4\ตรวจงาน\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A96AB29-CB75-401D-A2B4-8FFA50165B5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58F77CDB-3B4D-4D53-91B4-4B7E6C3E7725}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{C108298C-C5B1-4B19-85F2-2856099ECD84}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="49">
   <si>
     <t>คำผิด</t>
   </si>
@@ -178,6 +178,9 @@
   </si>
   <si>
     <t>Sequence Diagram มอดูล ลูกค้า</t>
+  </si>
+  <si>
+    <t>UC Description มอดูล ตู้คอนเทนเนอร์</t>
   </si>
 </sst>
 </file>
@@ -214,7 +217,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -242,6 +245,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -299,7 +308,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -341,6 +350,24 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -350,23 +377,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -684,8 +699,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E552DF3-66E3-4350-8BDE-D3162A98C3B8}">
   <dimension ref="B2:W168"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B11" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23:R23"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.7"/>
@@ -699,89 +714,89 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:23" ht="50.4" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="17" t="s">
+      <c r="D2" s="23" t="s">
         <v>8</v>
       </c>
       <c r="E2" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="18" t="s">
+      <c r="F2" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="18" t="s">
+      <c r="G2" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="18" t="s">
+      <c r="H2" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="18" t="s">
+      <c r="I2" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="J2" s="18" t="s">
+      <c r="J2" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="18" t="s">
+      <c r="K2" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="18" t="s">
+      <c r="L2" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="M2" s="18" t="s">
+      <c r="M2" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="N2" s="18" t="s">
+      <c r="N2" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="O2" s="18" t="s">
+      <c r="O2" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="P2" s="22" t="s">
+      <c r="P2" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="Q2" s="18" t="s">
+      <c r="Q2" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="R2" s="18" t="s">
+      <c r="R2" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="S2" s="21"/>
-      <c r="T2" s="21"/>
-      <c r="U2" s="21"/>
-      <c r="V2" s="21"/>
-      <c r="W2" s="21"/>
+      <c r="S2" s="15"/>
+      <c r="T2" s="15"/>
+      <c r="U2" s="15"/>
+      <c r="V2" s="15"/>
+      <c r="W2" s="15"/>
     </row>
     <row r="3" spans="2:23" ht="51.75" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
+      <c r="B3" s="23"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
       <c r="E3" s="20"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18"/>
-      <c r="K3" s="18"/>
-      <c r="L3" s="18"/>
-      <c r="M3" s="18"/>
-      <c r="N3" s="18"/>
-      <c r="O3" s="18"/>
-      <c r="P3" s="23"/>
-      <c r="Q3" s="18"/>
-      <c r="R3" s="18"/>
-      <c r="S3" s="21"/>
-      <c r="T3" s="21"/>
-      <c r="U3" s="21"/>
-      <c r="V3" s="21"/>
-      <c r="W3" s="21"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="16"/>
+      <c r="K3" s="16"/>
+      <c r="L3" s="16"/>
+      <c r="M3" s="16"/>
+      <c r="N3" s="16"/>
+      <c r="O3" s="16"/>
+      <c r="P3" s="18"/>
+      <c r="Q3" s="16"/>
+      <c r="R3" s="16"/>
+      <c r="S3" s="15"/>
+      <c r="T3" s="15"/>
+      <c r="U3" s="15"/>
+      <c r="V3" s="15"/>
+      <c r="W3" s="15"/>
     </row>
     <row r="4" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="21" t="s">
         <v>15</v>
       </c>
       <c r="C4" s="2" t="s">
@@ -822,7 +837,7 @@
       <c r="W4" s="4"/>
     </row>
     <row r="5" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B5" s="16"/>
+      <c r="B5" s="22"/>
       <c r="C5" s="2" t="s">
         <v>20</v>
       </c>
@@ -1523,7 +1538,7 @@
       <c r="W22" s="4"/>
     </row>
     <row r="23" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B23" s="5" t="s">
+      <c r="B23" s="25" t="s">
         <v>47</v>
       </c>
       <c r="C23" s="2" t="s">
@@ -1550,6 +1565,7 @@
       <c r="P23" s="2"/>
       <c r="Q23" s="2"/>
       <c r="R23" s="2">
+        <f t="shared" ref="R23:R24" si="1">SUM(F23:Q23)</f>
         <v>4</v>
       </c>
       <c r="S23" s="4"/>
@@ -1559,23 +1575,40 @@
       <c r="W23" s="4"/>
     </row>
     <row r="24" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B24" s="5"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
+      <c r="B24" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D24" s="3">
+        <v>242724</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F24" s="2">
+        <v>10</v>
+      </c>
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
       <c r="I24" s="2"/>
-      <c r="J24" s="2"/>
+      <c r="J24" s="2">
+        <v>3</v>
+      </c>
       <c r="K24" s="2"/>
       <c r="L24" s="2"/>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
-      <c r="P24" s="2"/>
+      <c r="P24" s="2">
+        <v>1</v>
+      </c>
       <c r="Q24" s="2"/>
-      <c r="R24" s="2"/>
+      <c r="R24" s="2">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
       <c r="S24" s="4"/>
       <c r="T24" s="4"/>
       <c r="U24" s="4"/>
@@ -4551,6 +4584,21 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="T2:T3"/>
+    <mergeCell ref="U2:U3"/>
+    <mergeCell ref="V2:V3"/>
     <mergeCell ref="W2:W3"/>
     <mergeCell ref="M2:M3"/>
     <mergeCell ref="N2:N3"/>
@@ -4559,21 +4607,6 @@
     <mergeCell ref="R2:R3"/>
     <mergeCell ref="S2:S3"/>
     <mergeCell ref="P2:P3"/>
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="L2:L3"/>
-    <mergeCell ref="T2:T3"/>
-    <mergeCell ref="U2:U3"/>
-    <mergeCell ref="V2:V3"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="F2:F3"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ตรวจงาน/รายการตรวจสอบแผนภาพ.xlsx
+++ b/ตรวจงาน/รายการตรวจสอบแผนภาพ.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pee20\OneDrive\เดสก์ท็อป\SE3.1\team4\ตรวจงาน\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58F77CDB-3B4D-4D53-91B4-4B7E6C3E7725}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62149B36-4CD1-45AB-A17E-7151E5A2E23A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{C108298C-C5B1-4B19-85F2-2856099ECD84}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="52">
   <si>
     <t>คำผิด</t>
   </si>
@@ -181,6 +181,15 @@
   </si>
   <si>
     <t>UC Description มอดูล ตู้คอนเทนเนอร์</t>
+  </si>
+  <si>
+    <t>UC Description มอดูล ประเภทตู้</t>
+  </si>
+  <si>
+    <t>UC Description มอดูล ประเภทรถ</t>
+  </si>
+  <si>
+    <t>UC Description มอดูล สถานะตู้</t>
   </si>
 </sst>
 </file>
@@ -350,23 +359,11 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -377,11 +374,23 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -700,7 +709,7 @@
   <dimension ref="B2:W168"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.7"/>
@@ -714,89 +723,89 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:23" ht="50.4" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="23" t="s">
+      <c r="C2" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="23" t="s">
+      <c r="D2" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="19" t="s">
+      <c r="E2" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="16" t="s">
+      <c r="F2" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="16" t="s">
+      <c r="G2" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="16" t="s">
+      <c r="H2" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="16" t="s">
+      <c r="I2" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="J2" s="16" t="s">
+      <c r="J2" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="16" t="s">
+      <c r="K2" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="16" t="s">
+      <c r="L2" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="M2" s="16" t="s">
+      <c r="M2" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="N2" s="16" t="s">
+      <c r="N2" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="O2" s="16" t="s">
+      <c r="O2" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="P2" s="17" t="s">
+      <c r="P2" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="Q2" s="16" t="s">
+      <c r="Q2" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="R2" s="16" t="s">
+      <c r="R2" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="S2" s="15"/>
-      <c r="T2" s="15"/>
-      <c r="U2" s="15"/>
-      <c r="V2" s="15"/>
-      <c r="W2" s="15"/>
+      <c r="S2" s="23"/>
+      <c r="T2" s="23"/>
+      <c r="U2" s="23"/>
+      <c r="V2" s="23"/>
+      <c r="W2" s="23"/>
     </row>
     <row r="3" spans="2:23" ht="51.75" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B3" s="23"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16"/>
-      <c r="K3" s="16"/>
-      <c r="L3" s="16"/>
-      <c r="M3" s="16"/>
-      <c r="N3" s="16"/>
-      <c r="O3" s="16"/>
-      <c r="P3" s="18"/>
-      <c r="Q3" s="16"/>
-      <c r="R3" s="16"/>
-      <c r="S3" s="15"/>
-      <c r="T3" s="15"/>
-      <c r="U3" s="15"/>
-      <c r="V3" s="15"/>
-      <c r="W3" s="15"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="20"/>
+      <c r="J3" s="20"/>
+      <c r="K3" s="20"/>
+      <c r="L3" s="20"/>
+      <c r="M3" s="20"/>
+      <c r="N3" s="20"/>
+      <c r="O3" s="20"/>
+      <c r="P3" s="25"/>
+      <c r="Q3" s="20"/>
+      <c r="R3" s="20"/>
+      <c r="S3" s="23"/>
+      <c r="T3" s="23"/>
+      <c r="U3" s="23"/>
+      <c r="V3" s="23"/>
+      <c r="W3" s="23"/>
     </row>
     <row r="4" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="17" t="s">
         <v>15</v>
       </c>
       <c r="C4" s="2" t="s">
@@ -837,7 +846,7 @@
       <c r="W4" s="4"/>
     </row>
     <row r="5" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B5" s="22"/>
+      <c r="B5" s="18"/>
       <c r="C5" s="2" t="s">
         <v>20</v>
       </c>
@@ -1538,7 +1547,7 @@
       <c r="W22" s="4"/>
     </row>
     <row r="23" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B23" s="25" t="s">
+      <c r="B23" s="16" t="s">
         <v>47</v>
       </c>
       <c r="C23" s="2" t="s">
@@ -1565,7 +1574,7 @@
       <c r="P23" s="2"/>
       <c r="Q23" s="2"/>
       <c r="R23" s="2">
-        <f t="shared" ref="R23:R24" si="1">SUM(F23:Q23)</f>
+        <f t="shared" ref="R23:R27" si="1">SUM(F23:Q23)</f>
         <v>4</v>
       </c>
       <c r="S23" s="4"/>
@@ -1575,7 +1584,7 @@
       <c r="W23" s="4"/>
     </row>
     <row r="24" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B24" s="24" t="s">
+      <c r="B24" s="15" t="s">
         <v>48</v>
       </c>
       <c r="C24" s="2" t="s">
@@ -1616,23 +1625,38 @@
       <c r="W24" s="4"/>
     </row>
     <row r="25" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B25" s="5"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
+      <c r="B25" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D25" s="3">
+        <v>242724</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F25" s="2">
+        <v>2</v>
+      </c>
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
       <c r="I25" s="2"/>
       <c r="J25" s="2"/>
       <c r="K25" s="2"/>
-      <c r="L25" s="2"/>
+      <c r="L25" s="2">
+        <v>1</v>
+      </c>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
       <c r="P25" s="2"/>
       <c r="Q25" s="2"/>
-      <c r="R25" s="2"/>
+      <c r="R25" s="2">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
       <c r="S25" s="4"/>
       <c r="T25" s="4"/>
       <c r="U25" s="4"/>
@@ -1640,15 +1664,27 @@
       <c r="W25" s="4"/>
     </row>
     <row r="26" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B26" s="5"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
+      <c r="B26" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D26" s="3">
+        <v>242724</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F26" s="2">
+        <v>1</v>
+      </c>
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
       <c r="I26" s="2"/>
-      <c r="J26" s="2"/>
+      <c r="J26" s="2">
+        <v>4</v>
+      </c>
       <c r="K26" s="2"/>
       <c r="L26" s="2"/>
       <c r="M26" s="2"/>
@@ -1656,7 +1692,10 @@
       <c r="O26" s="2"/>
       <c r="P26" s="2"/>
       <c r="Q26" s="2"/>
-      <c r="R26" s="2"/>
+      <c r="R26" s="2">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
       <c r="S26" s="4"/>
       <c r="T26" s="4"/>
       <c r="U26" s="4"/>
@@ -1664,15 +1703,25 @@
       <c r="W26" s="4"/>
     </row>
     <row r="27" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B27" s="5"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
+      <c r="B27" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D27" s="3">
+        <v>242724</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
       <c r="H27" s="2"/>
       <c r="I27" s="2"/>
-      <c r="J27" s="2"/>
+      <c r="J27" s="2">
+        <v>1</v>
+      </c>
       <c r="K27" s="2"/>
       <c r="L27" s="2"/>
       <c r="M27" s="2"/>
@@ -1680,7 +1729,10 @@
       <c r="O27" s="2"/>
       <c r="P27" s="2"/>
       <c r="Q27" s="2"/>
-      <c r="R27" s="2"/>
+      <c r="R27" s="2">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
       <c r="S27" s="4"/>
       <c r="T27" s="4"/>
       <c r="U27" s="4"/>
@@ -4584,21 +4636,6 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="L2:L3"/>
-    <mergeCell ref="T2:T3"/>
-    <mergeCell ref="U2:U3"/>
-    <mergeCell ref="V2:V3"/>
     <mergeCell ref="W2:W3"/>
     <mergeCell ref="M2:M3"/>
     <mergeCell ref="N2:N3"/>
@@ -4607,6 +4644,21 @@
     <mergeCell ref="R2:R3"/>
     <mergeCell ref="S2:S3"/>
     <mergeCell ref="P2:P3"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="T2:T3"/>
+    <mergeCell ref="U2:U3"/>
+    <mergeCell ref="V2:V3"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="F2:F3"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ตรวจงาน/รายการตรวจสอบแผนภาพ.xlsx
+++ b/ตรวจงาน/รายการตรวจสอบแผนภาพ.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\peerasak\team4\ตรวจงาน\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A30977EE-2D57-45A2-8915-A0A0084721E9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDD78436-EF51-4BEE-9F32-C4132CD4F335}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{C108298C-C5B1-4B19-85F2-2856099ECD84}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="59">
   <si>
     <t>คำผิด</t>
   </si>
@@ -183,6 +183,33 @@
   </si>
   <si>
     <t>ธนาธิป</t>
+  </si>
+  <si>
+    <t>Sequence Diagram มอดูล ขนาดตู้</t>
+  </si>
+  <si>
+    <t>Sequence Diagram มอดูล ประเภทตู้</t>
+  </si>
+  <si>
+    <t>Sequence Diagram มอดูล ประเภทรถ</t>
+  </si>
+  <si>
+    <t>Sequence Diagram มอดูล พนักงานขับรถ</t>
+  </si>
+  <si>
+    <t>Sequence Diagram มอดูล รถ</t>
+  </si>
+  <si>
+    <t>Sequence Diagram มอดูล สถานะตู้</t>
+  </si>
+  <si>
+    <t>Sequence Diagram มอดูล คอนเทนเนอร์</t>
+  </si>
+  <si>
+    <t>V1.4.1</t>
+  </si>
+  <si>
+    <t>ธนาธิป กล้ายุทธ</t>
   </si>
 </sst>
 </file>
@@ -346,16 +373,16 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -364,14 +391,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -689,8 +716,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E552DF3-66E3-4350-8BDE-D3162A98C3B8}">
   <dimension ref="B2:W168"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O25" sqref="O25"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R31" sqref="R31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.7"/>
@@ -699,94 +726,94 @@
     <col min="2" max="2" width="36.3984375" style="1" customWidth="1"/>
     <col min="3" max="3" width="8.69921875" style="1"/>
     <col min="4" max="4" width="10.69921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.09765625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="13.3984375" style="1" customWidth="1"/>
     <col min="6" max="16384" width="8.69921875" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:23" ht="50.4" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="23" t="s">
+      <c r="C2" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="23" t="s">
+      <c r="D2" s="17" t="s">
         <v>8</v>
       </c>
       <c r="E2" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="16" t="s">
+      <c r="F2" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="16" t="s">
+      <c r="G2" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="16" t="s">
+      <c r="H2" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="16" t="s">
+      <c r="I2" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="J2" s="16" t="s">
+      <c r="J2" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="16" t="s">
+      <c r="K2" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="16" t="s">
+      <c r="L2" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="M2" s="16" t="s">
+      <c r="M2" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="N2" s="16" t="s">
+      <c r="N2" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="O2" s="16" t="s">
+      <c r="O2" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="P2" s="17" t="s">
+      <c r="P2" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="Q2" s="16" t="s">
+      <c r="Q2" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="R2" s="16" t="s">
+      <c r="R2" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="S2" s="15"/>
-      <c r="T2" s="15"/>
-      <c r="U2" s="15"/>
-      <c r="V2" s="15"/>
-      <c r="W2" s="15"/>
+      <c r="S2" s="21"/>
+      <c r="T2" s="21"/>
+      <c r="U2" s="21"/>
+      <c r="V2" s="21"/>
+      <c r="W2" s="21"/>
     </row>
     <row r="3" spans="2:23" ht="51.75" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B3" s="23"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
       <c r="E3" s="20"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16"/>
-      <c r="K3" s="16"/>
-      <c r="L3" s="16"/>
-      <c r="M3" s="16"/>
-      <c r="N3" s="16"/>
-      <c r="O3" s="16"/>
-      <c r="P3" s="18"/>
-      <c r="Q3" s="16"/>
-      <c r="R3" s="16"/>
-      <c r="S3" s="15"/>
-      <c r="T3" s="15"/>
-      <c r="U3" s="15"/>
-      <c r="V3" s="15"/>
-      <c r="W3" s="15"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18"/>
+      <c r="K3" s="18"/>
+      <c r="L3" s="18"/>
+      <c r="M3" s="18"/>
+      <c r="N3" s="18"/>
+      <c r="O3" s="18"/>
+      <c r="P3" s="23"/>
+      <c r="Q3" s="18"/>
+      <c r="R3" s="18"/>
+      <c r="S3" s="21"/>
+      <c r="T3" s="21"/>
+      <c r="U3" s="21"/>
+      <c r="V3" s="21"/>
+      <c r="W3" s="21"/>
     </row>
     <row r="4" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="15" t="s">
         <v>15</v>
       </c>
       <c r="C4" s="2" t="s">
@@ -827,7 +854,7 @@
       <c r="W4" s="4"/>
     </row>
     <row r="5" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B5" s="22"/>
+      <c r="B5" s="16"/>
       <c r="C5" s="2" t="s">
         <v>20</v>
       </c>
@@ -1604,15 +1631,25 @@
       <c r="W24" s="4"/>
     </row>
     <row r="25" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B25" s="5"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
+      <c r="B25" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D25" s="3">
+        <v>242726</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>58</v>
+      </c>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
       <c r="I25" s="2"/>
-      <c r="J25" s="2"/>
+      <c r="J25" s="2">
+        <v>20</v>
+      </c>
       <c r="K25" s="2"/>
       <c r="L25" s="2"/>
       <c r="M25" s="2"/>
@@ -1620,7 +1657,9 @@
       <c r="O25" s="2"/>
       <c r="P25" s="2"/>
       <c r="Q25" s="2"/>
-      <c r="R25" s="2"/>
+      <c r="R25" s="2">
+        <v>20</v>
+      </c>
       <c r="S25" s="4"/>
       <c r="T25" s="4"/>
       <c r="U25" s="4"/>
@@ -1628,15 +1667,27 @@
       <c r="W25" s="4"/>
     </row>
     <row r="26" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B26" s="5"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
+      <c r="B26" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D26" s="3">
+        <v>242726</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F26" s="2">
+        <v>2</v>
+      </c>
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
       <c r="I26" s="2"/>
-      <c r="J26" s="2"/>
+      <c r="J26" s="2">
+        <v>21</v>
+      </c>
       <c r="K26" s="2"/>
       <c r="L26" s="2"/>
       <c r="M26" s="2"/>
@@ -1644,7 +1695,9 @@
       <c r="O26" s="2"/>
       <c r="P26" s="2"/>
       <c r="Q26" s="2"/>
-      <c r="R26" s="2"/>
+      <c r="R26" s="2">
+        <v>21</v>
+      </c>
       <c r="S26" s="4"/>
       <c r="T26" s="4"/>
       <c r="U26" s="4"/>
@@ -1652,15 +1705,27 @@
       <c r="W26" s="4"/>
     </row>
     <row r="27" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B27" s="5"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
+      <c r="B27" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D27" s="3">
+        <v>242726</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>58</v>
+      </c>
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
+      <c r="H27" s="2">
+        <v>4</v>
+      </c>
       <c r="I27" s="2"/>
-      <c r="J27" s="2"/>
+      <c r="J27" s="2">
+        <v>3</v>
+      </c>
       <c r="K27" s="2"/>
       <c r="L27" s="2"/>
       <c r="M27" s="2"/>
@@ -1668,7 +1733,9 @@
       <c r="O27" s="2"/>
       <c r="P27" s="2"/>
       <c r="Q27" s="2"/>
-      <c r="R27" s="2"/>
+      <c r="R27" s="2">
+        <v>7</v>
+      </c>
       <c r="S27" s="4"/>
       <c r="T27" s="4"/>
       <c r="U27" s="4"/>
@@ -1676,15 +1743,27 @@
       <c r="W27" s="4"/>
     </row>
     <row r="28" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B28" s="5"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
+      <c r="B28" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D28" s="3">
+        <v>242726</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F28" s="2">
+        <v>1</v>
+      </c>
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
       <c r="I28" s="2"/>
-      <c r="J28" s="2"/>
+      <c r="J28" s="2">
+        <v>1</v>
+      </c>
       <c r="K28" s="2"/>
       <c r="L28" s="2"/>
       <c r="M28" s="2"/>
@@ -1692,7 +1771,9 @@
       <c r="O28" s="2"/>
       <c r="P28" s="2"/>
       <c r="Q28" s="2"/>
-      <c r="R28" s="2"/>
+      <c r="R28" s="2">
+        <v>2</v>
+      </c>
       <c r="S28" s="4"/>
       <c r="T28" s="4"/>
       <c r="U28" s="4"/>
@@ -1700,15 +1781,27 @@
       <c r="W28" s="4"/>
     </row>
     <row r="29" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B29" s="5"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
+      <c r="B29" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D29" s="3">
+        <v>242726</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>58</v>
+      </c>
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
-      <c r="H29" s="2"/>
+      <c r="H29" s="2">
+        <v>5</v>
+      </c>
       <c r="I29" s="2"/>
-      <c r="J29" s="2"/>
+      <c r="J29" s="2">
+        <v>15</v>
+      </c>
       <c r="K29" s="2"/>
       <c r="L29" s="2"/>
       <c r="M29" s="2"/>
@@ -1716,7 +1809,9 @@
       <c r="O29" s="2"/>
       <c r="P29" s="2"/>
       <c r="Q29" s="2"/>
-      <c r="R29" s="2"/>
+      <c r="R29" s="2">
+        <v>20</v>
+      </c>
       <c r="S29" s="4"/>
       <c r="T29" s="4"/>
       <c r="U29" s="4"/>
@@ -1724,10 +1819,18 @@
       <c r="W29" s="4"/>
     </row>
     <row r="30" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B30" s="5"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
+      <c r="B30" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D30" s="3">
+        <v>242726</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>58</v>
+      </c>
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
@@ -1740,7 +1843,9 @@
       <c r="O30" s="2"/>
       <c r="P30" s="2"/>
       <c r="Q30" s="2"/>
-      <c r="R30" s="2"/>
+      <c r="R30" s="2">
+        <v>0</v>
+      </c>
       <c r="S30" s="4"/>
       <c r="T30" s="4"/>
       <c r="U30" s="4"/>
@@ -1748,15 +1853,27 @@
       <c r="W30" s="4"/>
     </row>
     <row r="31" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B31" s="5"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
+      <c r="B31" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D31" s="3">
+        <v>242726</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F31" s="2">
+        <v>1</v>
+      </c>
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
       <c r="I31" s="2"/>
-      <c r="J31" s="2"/>
+      <c r="J31" s="2">
+        <v>10</v>
+      </c>
       <c r="K31" s="2"/>
       <c r="L31" s="2"/>
       <c r="M31" s="2"/>
@@ -1764,7 +1881,9 @@
       <c r="O31" s="2"/>
       <c r="P31" s="2"/>
       <c r="Q31" s="2"/>
-      <c r="R31" s="2"/>
+      <c r="R31" s="2">
+        <v>11</v>
+      </c>
       <c r="S31" s="4"/>
       <c r="T31" s="4"/>
       <c r="U31" s="4"/>
@@ -4572,21 +4691,6 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="L2:L3"/>
-    <mergeCell ref="T2:T3"/>
-    <mergeCell ref="U2:U3"/>
-    <mergeCell ref="V2:V3"/>
     <mergeCell ref="W2:W3"/>
     <mergeCell ref="M2:M3"/>
     <mergeCell ref="N2:N3"/>
@@ -4595,6 +4699,21 @@
     <mergeCell ref="R2:R3"/>
     <mergeCell ref="S2:S3"/>
     <mergeCell ref="P2:P3"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="T2:T3"/>
+    <mergeCell ref="U2:U3"/>
+    <mergeCell ref="V2:V3"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="F2:F3"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ตรวจงาน/รายการตรวจสอบแผนภาพ.xlsx
+++ b/ตรวจงาน/รายการตรวจสอบแผนภาพ.xlsx
@@ -1,32 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\peerasak\team4\ตรวจงาน\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\team4\ตรวจงาน\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDD78436-EF51-4BEE-9F32-C4132CD4F335}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43AF0BCF-DF7A-4C35-8386-D8C00047C4AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{C108298C-C5B1-4B19-85F2-2856099ECD84}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{C108298C-C5B1-4B19-85F2-2856099ECD84}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -216,11 +208,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Tahoma"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="222"/>
       <scheme val="minor"/>
@@ -240,7 +232,7 @@
     </font>
     <font>
       <sz val="8"/>
-      <name val="Tahoma"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="222"/>
       <scheme val="minor"/>
@@ -278,7 +270,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -327,11 +319,39 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -373,6 +393,24 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -382,23 +420,17 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -716,104 +748,104 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E552DF3-66E3-4350-8BDE-D3162A98C3B8}">
   <dimension ref="B2:W168"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R31" sqref="R31"/>
+    <sheetView tabSelected="1" topLeftCell="C28" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="S32" sqref="S32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.7"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="30" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="8.69921875" style="1"/>
-    <col min="2" max="2" width="36.3984375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="8.69921875" style="1"/>
-    <col min="4" max="4" width="10.69921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.3984375" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.69921875" style="1"/>
+    <col min="1" max="1" width="8.7265625" style="1"/>
+    <col min="2" max="2" width="36.36328125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="8.7265625" style="1"/>
+    <col min="4" max="4" width="10.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.36328125" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:23" ht="50.4" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B2" s="17" t="s">
+    <row r="2" spans="2:23" ht="50.4" customHeight="1">
+      <c r="B2" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="17" t="s">
+      <c r="D2" s="23" t="s">
         <v>8</v>
       </c>
       <c r="E2" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="18" t="s">
+      <c r="F2" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="18" t="s">
+      <c r="G2" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="18" t="s">
+      <c r="H2" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="18" t="s">
+      <c r="I2" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="J2" s="18" t="s">
+      <c r="J2" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="18" t="s">
+      <c r="K2" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="18" t="s">
+      <c r="L2" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="M2" s="18" t="s">
+      <c r="M2" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="N2" s="18" t="s">
+      <c r="N2" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="O2" s="18" t="s">
+      <c r="O2" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="P2" s="22" t="s">
+      <c r="P2" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="Q2" s="18" t="s">
+      <c r="Q2" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="R2" s="18" t="s">
+      <c r="R2" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="S2" s="21"/>
-      <c r="T2" s="21"/>
-      <c r="U2" s="21"/>
-      <c r="V2" s="21"/>
-      <c r="W2" s="21"/>
-    </row>
-    <row r="3" spans="2:23" ht="51.75" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
+      <c r="S2" s="15"/>
+      <c r="T2" s="15"/>
+      <c r="U2" s="15"/>
+      <c r="V2" s="15"/>
+      <c r="W2" s="15"/>
+    </row>
+    <row r="3" spans="2:23" ht="51.75" customHeight="1">
+      <c r="B3" s="23"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
       <c r="E3" s="20"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18"/>
-      <c r="K3" s="18"/>
-      <c r="L3" s="18"/>
-      <c r="M3" s="18"/>
-      <c r="N3" s="18"/>
-      <c r="O3" s="18"/>
-      <c r="P3" s="23"/>
-      <c r="Q3" s="18"/>
-      <c r="R3" s="18"/>
-      <c r="S3" s="21"/>
-      <c r="T3" s="21"/>
-      <c r="U3" s="21"/>
-      <c r="V3" s="21"/>
-      <c r="W3" s="21"/>
-    </row>
-    <row r="4" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B4" s="15" t="s">
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="16"/>
+      <c r="K3" s="16"/>
+      <c r="L3" s="16"/>
+      <c r="M3" s="16"/>
+      <c r="N3" s="16"/>
+      <c r="O3" s="16"/>
+      <c r="P3" s="18"/>
+      <c r="Q3" s="16"/>
+      <c r="R3" s="16"/>
+      <c r="S3" s="15"/>
+      <c r="T3" s="15"/>
+      <c r="U3" s="15"/>
+      <c r="V3" s="15"/>
+      <c r="W3" s="15"/>
+    </row>
+    <row r="4" spans="2:23" ht="30" customHeight="1">
+      <c r="B4" s="21" t="s">
         <v>15</v>
       </c>
       <c r="C4" s="2" t="s">
@@ -853,8 +885,8 @@
       <c r="V4" s="4"/>
       <c r="W4" s="4"/>
     </row>
-    <row r="5" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B5" s="16"/>
+    <row r="5" spans="2:23" ht="30" customHeight="1">
+      <c r="B5" s="22"/>
       <c r="C5" s="2" t="s">
         <v>20</v>
       </c>
@@ -888,7 +920,7 @@
       <c r="V5" s="4"/>
       <c r="W5" s="4"/>
     </row>
-    <row r="6" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="6" spans="2:23" ht="30" customHeight="1">
       <c r="B6" s="11" t="s">
         <v>22</v>
       </c>
@@ -926,7 +958,7 @@
       <c r="V6" s="4"/>
       <c r="W6" s="4"/>
     </row>
-    <row r="7" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="7" spans="2:23" ht="30" customHeight="1">
       <c r="B7" s="11" t="s">
         <v>25</v>
       </c>
@@ -964,7 +996,7 @@
       <c r="V7" s="4"/>
       <c r="W7" s="4"/>
     </row>
-    <row r="8" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="8" spans="2:23" ht="30" customHeight="1">
       <c r="B8" s="11" t="s">
         <v>26</v>
       </c>
@@ -1002,7 +1034,7 @@
       <c r="V8" s="4"/>
       <c r="W8" s="4"/>
     </row>
-    <row r="9" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="9" spans="2:23" ht="30" customHeight="1">
       <c r="B9" s="11" t="s">
         <v>28</v>
       </c>
@@ -1040,7 +1072,7 @@
       <c r="V9" s="4"/>
       <c r="W9" s="4"/>
     </row>
-    <row r="10" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="10" spans="2:23" ht="30" customHeight="1">
       <c r="B10" s="11" t="s">
         <v>29</v>
       </c>
@@ -1078,7 +1110,7 @@
       <c r="V10" s="4"/>
       <c r="W10" s="4"/>
     </row>
-    <row r="11" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="11" spans="2:23" ht="30" customHeight="1">
       <c r="B11" s="11" t="s">
         <v>30</v>
       </c>
@@ -1116,7 +1148,7 @@
       <c r="V11" s="4"/>
       <c r="W11" s="4"/>
     </row>
-    <row r="12" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="12" spans="2:23" ht="30" customHeight="1">
       <c r="B12" s="12" t="s">
         <v>31</v>
       </c>
@@ -1157,7 +1189,7 @@
       <c r="V12" s="4"/>
       <c r="W12" s="4"/>
     </row>
-    <row r="13" spans="2:23" ht="31.95" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="13" spans="2:23" ht="32" customHeight="1">
       <c r="B13" s="13" t="s">
         <v>38</v>
       </c>
@@ -1198,7 +1230,7 @@
       <c r="V13" s="4"/>
       <c r="W13" s="4"/>
     </row>
-    <row r="14" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="14" spans="2:23" ht="30" customHeight="1">
       <c r="B14" s="13" t="s">
         <v>35</v>
       </c>
@@ -1235,7 +1267,7 @@
       <c r="V14" s="4"/>
       <c r="W14" s="4"/>
     </row>
-    <row r="15" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="15" spans="2:23" ht="30" customHeight="1">
       <c r="B15" s="13" t="s">
         <v>36</v>
       </c>
@@ -1278,7 +1310,7 @@
       <c r="V15" s="4"/>
       <c r="W15" s="4"/>
     </row>
-    <row r="16" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="16" spans="2:23" ht="30" customHeight="1">
       <c r="B16" s="13" t="s">
         <v>37</v>
       </c>
@@ -1321,7 +1353,7 @@
       <c r="V16" s="4"/>
       <c r="W16" s="4"/>
     </row>
-    <row r="17" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="17" spans="2:23" ht="30" customHeight="1">
       <c r="B17" s="13" t="s">
         <v>39</v>
       </c>
@@ -1360,7 +1392,7 @@
       <c r="V17" s="4"/>
       <c r="W17" s="4"/>
     </row>
-    <row r="18" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="18" spans="2:23" ht="30" customHeight="1">
       <c r="B18" s="11" t="s">
         <v>25</v>
       </c>
@@ -1396,7 +1428,7 @@
       <c r="V18" s="4"/>
       <c r="W18" s="4"/>
     </row>
-    <row r="19" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="19" spans="2:23" ht="30" customHeight="1">
       <c r="B19" s="11" t="s">
         <v>43</v>
       </c>
@@ -1432,7 +1464,7 @@
       <c r="V19" s="4"/>
       <c r="W19" s="4"/>
     </row>
-    <row r="20" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="20" spans="2:23" ht="30" customHeight="1">
       <c r="B20" s="11" t="s">
         <v>30</v>
       </c>
@@ -1468,7 +1500,7 @@
       <c r="V20" s="4"/>
       <c r="W20" s="4"/>
     </row>
-    <row r="21" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="21" spans="2:23" ht="30" customHeight="1">
       <c r="B21" s="14" t="s">
         <v>45</v>
       </c>
@@ -1511,7 +1543,7 @@
       <c r="V21" s="4"/>
       <c r="W21" s="4"/>
     </row>
-    <row r="22" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="22" spans="2:23" ht="30" customHeight="1">
       <c r="B22" s="5" t="s">
         <v>46</v>
       </c>
@@ -1554,7 +1586,7 @@
       <c r="V22" s="4"/>
       <c r="W22" s="4"/>
     </row>
-    <row r="23" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="23" spans="2:23" ht="30" customHeight="1">
       <c r="B23" s="5" t="s">
         <v>47</v>
       </c>
@@ -1590,7 +1622,7 @@
       <c r="V23" s="4"/>
       <c r="W23" s="4"/>
     </row>
-    <row r="24" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="24" spans="2:23" ht="30" customHeight="1">
       <c r="B24" s="5" t="s">
         <v>48</v>
       </c>
@@ -1630,7 +1662,7 @@
       <c r="V24" s="4"/>
       <c r="W24" s="4"/>
     </row>
-    <row r="25" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="25" spans="2:23" ht="30" customHeight="1">
       <c r="B25" s="5" t="s">
         <v>50</v>
       </c>
@@ -1666,7 +1698,7 @@
       <c r="V25" s="4"/>
       <c r="W25" s="4"/>
     </row>
-    <row r="26" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="26" spans="2:23" ht="30" customHeight="1">
       <c r="B26" s="5" t="s">
         <v>51</v>
       </c>
@@ -1704,7 +1736,7 @@
       <c r="V26" s="4"/>
       <c r="W26" s="4"/>
     </row>
-    <row r="27" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="27" spans="2:23" ht="30" customHeight="1">
       <c r="B27" s="5" t="s">
         <v>52</v>
       </c>
@@ -1742,7 +1774,7 @@
       <c r="V27" s="4"/>
       <c r="W27" s="4"/>
     </row>
-    <row r="28" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="28" spans="2:23" ht="30" customHeight="1">
       <c r="B28" s="5" t="s">
         <v>53</v>
       </c>
@@ -1780,7 +1812,7 @@
       <c r="V28" s="4"/>
       <c r="W28" s="4"/>
     </row>
-    <row r="29" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="29" spans="2:23" ht="30" customHeight="1">
       <c r="B29" s="5" t="s">
         <v>54</v>
       </c>
@@ -1818,7 +1850,7 @@
       <c r="V29" s="4"/>
       <c r="W29" s="4"/>
     </row>
-    <row r="30" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="30" spans="2:23" ht="30" customHeight="1">
       <c r="B30" s="5" t="s">
         <v>55</v>
       </c>
@@ -1852,7 +1884,7 @@
       <c r="V30" s="4"/>
       <c r="W30" s="4"/>
     </row>
-    <row r="31" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="31" spans="2:23" ht="30" customHeight="1" thickBot="1">
       <c r="B31" s="5" t="s">
         <v>56</v>
       </c>
@@ -1881,7 +1913,7 @@
       <c r="O31" s="2"/>
       <c r="P31" s="2"/>
       <c r="Q31" s="2"/>
-      <c r="R31" s="2">
+      <c r="R31" s="25">
         <v>11</v>
       </c>
       <c r="S31" s="4"/>
@@ -1890,7 +1922,7 @@
       <c r="V31" s="4"/>
       <c r="W31" s="4"/>
     </row>
-    <row r="32" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="32" spans="2:23" ht="30" customHeight="1" thickBot="1">
       <c r="B32" s="5"/>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
@@ -1906,15 +1938,18 @@
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
       <c r="P32" s="2"/>
-      <c r="Q32" s="2"/>
-      <c r="R32" s="2"/>
+      <c r="Q32" s="24"/>
+      <c r="R32" s="27">
+        <f>SUM(R4:R31)</f>
+        <v>327</v>
+      </c>
       <c r="S32" s="4"/>
       <c r="T32" s="4"/>
       <c r="U32" s="4"/>
       <c r="V32" s="4"/>
       <c r="W32" s="4"/>
     </row>
-    <row r="33" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="33" spans="2:23" ht="30" customHeight="1">
       <c r="B33" s="5"/>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
@@ -1931,14 +1966,14 @@
       <c r="O33" s="2"/>
       <c r="P33" s="2"/>
       <c r="Q33" s="2"/>
-      <c r="R33" s="2"/>
+      <c r="R33" s="26"/>
       <c r="S33" s="4"/>
       <c r="T33" s="4"/>
       <c r="U33" s="4"/>
       <c r="V33" s="4"/>
       <c r="W33" s="4"/>
     </row>
-    <row r="34" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="34" spans="2:23" ht="30" customHeight="1">
       <c r="B34" s="5"/>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
@@ -1962,7 +1997,7 @@
       <c r="V34" s="4"/>
       <c r="W34" s="4"/>
     </row>
-    <row r="35" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="35" spans="2:23" ht="30" customHeight="1">
       <c r="B35" s="5"/>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
@@ -1986,7 +2021,7 @@
       <c r="V35" s="4"/>
       <c r="W35" s="4"/>
     </row>
-    <row r="36" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="36" spans="2:23" ht="30" customHeight="1">
       <c r="B36" s="5"/>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
@@ -2010,7 +2045,7 @@
       <c r="V36" s="4"/>
       <c r="W36" s="4"/>
     </row>
-    <row r="37" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="37" spans="2:23" ht="30" customHeight="1">
       <c r="B37" s="5"/>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
@@ -2034,7 +2069,7 @@
       <c r="V37" s="4"/>
       <c r="W37" s="4"/>
     </row>
-    <row r="38" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="38" spans="2:23" ht="30" customHeight="1">
       <c r="B38" s="5"/>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
@@ -2058,7 +2093,7 @@
       <c r="V38" s="4"/>
       <c r="W38" s="4"/>
     </row>
-    <row r="39" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="39" spans="2:23" ht="30" customHeight="1">
       <c r="B39" s="5"/>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
@@ -2082,7 +2117,7 @@
       <c r="V39" s="4"/>
       <c r="W39" s="4"/>
     </row>
-    <row r="40" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="40" spans="2:23" ht="30" customHeight="1">
       <c r="B40" s="5"/>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
@@ -2106,7 +2141,7 @@
       <c r="V40" s="4"/>
       <c r="W40" s="4"/>
     </row>
-    <row r="41" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="41" spans="2:23" ht="30" customHeight="1">
       <c r="B41" s="5"/>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
@@ -2130,7 +2165,7 @@
       <c r="V41" s="4"/>
       <c r="W41" s="4"/>
     </row>
-    <row r="42" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="42" spans="2:23" ht="30" customHeight="1">
       <c r="B42" s="5"/>
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
@@ -2154,7 +2189,7 @@
       <c r="V42" s="4"/>
       <c r="W42" s="4"/>
     </row>
-    <row r="43" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="43" spans="2:23" ht="30" customHeight="1">
       <c r="B43" s="5"/>
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
@@ -2178,7 +2213,7 @@
       <c r="V43" s="4"/>
       <c r="W43" s="4"/>
     </row>
-    <row r="44" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="44" spans="2:23" ht="30" customHeight="1">
       <c r="B44" s="5"/>
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
@@ -2202,7 +2237,7 @@
       <c r="V44" s="4"/>
       <c r="W44" s="4"/>
     </row>
-    <row r="45" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="45" spans="2:23" ht="30" customHeight="1">
       <c r="B45" s="5"/>
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
@@ -2226,7 +2261,7 @@
       <c r="V45" s="4"/>
       <c r="W45" s="4"/>
     </row>
-    <row r="46" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="46" spans="2:23" ht="30" customHeight="1">
       <c r="B46" s="5"/>
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
@@ -2250,7 +2285,7 @@
       <c r="V46" s="4"/>
       <c r="W46" s="4"/>
     </row>
-    <row r="47" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="47" spans="2:23" ht="30" customHeight="1">
       <c r="B47" s="5"/>
       <c r="C47" s="2"/>
       <c r="D47" s="2"/>
@@ -2274,7 +2309,7 @@
       <c r="V47" s="4"/>
       <c r="W47" s="4"/>
     </row>
-    <row r="48" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="48" spans="2:23" ht="30" customHeight="1">
       <c r="B48" s="5"/>
       <c r="C48" s="2"/>
       <c r="D48" s="2"/>
@@ -2298,7 +2333,7 @@
       <c r="V48" s="4"/>
       <c r="W48" s="4"/>
     </row>
-    <row r="49" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="49" spans="2:23" ht="30" customHeight="1">
       <c r="B49" s="5"/>
       <c r="C49" s="2"/>
       <c r="D49" s="2"/>
@@ -2322,7 +2357,7 @@
       <c r="V49" s="4"/>
       <c r="W49" s="4"/>
     </row>
-    <row r="50" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="50" spans="2:23" ht="30" customHeight="1">
       <c r="B50" s="5"/>
       <c r="C50" s="2"/>
       <c r="D50" s="2"/>
@@ -2346,7 +2381,7 @@
       <c r="V50" s="4"/>
       <c r="W50" s="4"/>
     </row>
-    <row r="51" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="51" spans="2:23" ht="30" customHeight="1">
       <c r="B51" s="5"/>
       <c r="C51" s="2"/>
       <c r="D51" s="2"/>
@@ -2370,7 +2405,7 @@
       <c r="V51" s="4"/>
       <c r="W51" s="4"/>
     </row>
-    <row r="52" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="52" spans="2:23" ht="30" customHeight="1">
       <c r="B52" s="5"/>
       <c r="C52" s="2"/>
       <c r="D52" s="2"/>
@@ -2394,7 +2429,7 @@
       <c r="V52" s="4"/>
       <c r="W52" s="4"/>
     </row>
-    <row r="53" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="53" spans="2:23" ht="30" customHeight="1">
       <c r="B53" s="5"/>
       <c r="C53" s="2"/>
       <c r="D53" s="2"/>
@@ -2418,7 +2453,7 @@
       <c r="V53" s="4"/>
       <c r="W53" s="4"/>
     </row>
-    <row r="54" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="54" spans="2:23" ht="30" customHeight="1">
       <c r="B54" s="5"/>
       <c r="C54" s="2"/>
       <c r="D54" s="2"/>
@@ -2442,7 +2477,7 @@
       <c r="V54" s="4"/>
       <c r="W54" s="4"/>
     </row>
-    <row r="55" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="55" spans="2:23" ht="30" customHeight="1">
       <c r="B55" s="5"/>
       <c r="C55" s="2"/>
       <c r="D55" s="2"/>
@@ -2466,7 +2501,7 @@
       <c r="V55" s="4"/>
       <c r="W55" s="4"/>
     </row>
-    <row r="56" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="56" spans="2:23" ht="30" customHeight="1">
       <c r="B56" s="5"/>
       <c r="C56" s="2"/>
       <c r="D56" s="2"/>
@@ -2490,7 +2525,7 @@
       <c r="V56" s="4"/>
       <c r="W56" s="4"/>
     </row>
-    <row r="57" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="57" spans="2:23" ht="30" customHeight="1">
       <c r="B57" s="5"/>
       <c r="C57" s="2"/>
       <c r="D57" s="2"/>
@@ -2514,7 +2549,7 @@
       <c r="V57" s="4"/>
       <c r="W57" s="4"/>
     </row>
-    <row r="58" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="58" spans="2:23" ht="30" customHeight="1">
       <c r="B58" s="5"/>
       <c r="C58" s="2"/>
       <c r="D58" s="2"/>
@@ -2538,7 +2573,7 @@
       <c r="V58" s="4"/>
       <c r="W58" s="4"/>
     </row>
-    <row r="59" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="59" spans="2:23" ht="30" customHeight="1">
       <c r="B59" s="5"/>
       <c r="C59" s="2"/>
       <c r="D59" s="2"/>
@@ -2562,7 +2597,7 @@
       <c r="V59" s="4"/>
       <c r="W59" s="4"/>
     </row>
-    <row r="60" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="60" spans="2:23" ht="30" customHeight="1">
       <c r="B60" s="5"/>
       <c r="C60" s="2"/>
       <c r="D60" s="2"/>
@@ -2586,7 +2621,7 @@
       <c r="V60" s="4"/>
       <c r="W60" s="4"/>
     </row>
-    <row r="61" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="61" spans="2:23" ht="30" customHeight="1">
       <c r="B61" s="5"/>
       <c r="C61" s="2"/>
       <c r="D61" s="2"/>
@@ -2610,7 +2645,7 @@
       <c r="V61" s="4"/>
       <c r="W61" s="4"/>
     </row>
-    <row r="62" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="62" spans="2:23" ht="30" customHeight="1">
       <c r="B62" s="5"/>
       <c r="C62" s="2"/>
       <c r="D62" s="2"/>
@@ -2634,7 +2669,7 @@
       <c r="V62" s="4"/>
       <c r="W62" s="4"/>
     </row>
-    <row r="63" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="63" spans="2:23" ht="30" customHeight="1">
       <c r="B63" s="5"/>
       <c r="C63" s="2"/>
       <c r="D63" s="2"/>
@@ -2658,7 +2693,7 @@
       <c r="V63" s="4"/>
       <c r="W63" s="4"/>
     </row>
-    <row r="64" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="64" spans="2:23" ht="30" customHeight="1">
       <c r="B64" s="5"/>
       <c r="C64" s="2"/>
       <c r="D64" s="2"/>
@@ -2682,7 +2717,7 @@
       <c r="V64" s="4"/>
       <c r="W64" s="4"/>
     </row>
-    <row r="65" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="65" spans="2:23" ht="30" customHeight="1">
       <c r="B65" s="5"/>
       <c r="C65" s="2"/>
       <c r="D65" s="2"/>
@@ -2706,7 +2741,7 @@
       <c r="V65" s="4"/>
       <c r="W65" s="4"/>
     </row>
-    <row r="66" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="66" spans="2:23" ht="30" customHeight="1">
       <c r="B66" s="5"/>
       <c r="C66" s="2"/>
       <c r="D66" s="2"/>
@@ -2730,7 +2765,7 @@
       <c r="V66" s="4"/>
       <c r="W66" s="4"/>
     </row>
-    <row r="67" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="67" spans="2:23" ht="30" customHeight="1">
       <c r="B67" s="5"/>
       <c r="C67" s="2"/>
       <c r="D67" s="2"/>
@@ -2754,7 +2789,7 @@
       <c r="V67" s="4"/>
       <c r="W67" s="4"/>
     </row>
-    <row r="68" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="68" spans="2:23" ht="30" customHeight="1">
       <c r="B68" s="5"/>
       <c r="C68" s="2"/>
       <c r="D68" s="2"/>
@@ -2778,7 +2813,7 @@
       <c r="V68" s="4"/>
       <c r="W68" s="4"/>
     </row>
-    <row r="69" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="69" spans="2:23" ht="30" customHeight="1">
       <c r="B69" s="5"/>
       <c r="C69" s="2"/>
       <c r="D69" s="2"/>
@@ -2802,7 +2837,7 @@
       <c r="V69" s="4"/>
       <c r="W69" s="4"/>
     </row>
-    <row r="70" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="70" spans="2:23" ht="30" customHeight="1">
       <c r="B70" s="5"/>
       <c r="C70" s="6"/>
       <c r="D70" s="6"/>
@@ -2826,7 +2861,7 @@
       <c r="V70" s="7"/>
       <c r="W70" s="4"/>
     </row>
-    <row r="71" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="71" spans="2:23" ht="30" customHeight="1">
       <c r="B71" s="5"/>
       <c r="C71" s="6"/>
       <c r="D71" s="6"/>
@@ -2850,7 +2885,7 @@
       <c r="V71" s="7"/>
       <c r="W71" s="4"/>
     </row>
-    <row r="72" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="72" spans="2:23" ht="30" customHeight="1">
       <c r="B72" s="5"/>
       <c r="C72" s="6"/>
       <c r="D72" s="6"/>
@@ -2874,7 +2909,7 @@
       <c r="V72" s="7"/>
       <c r="W72" s="4"/>
     </row>
-    <row r="73" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="73" spans="2:23" ht="30" customHeight="1">
       <c r="B73" s="5"/>
       <c r="C73" s="6"/>
       <c r="D73" s="6"/>
@@ -2898,7 +2933,7 @@
       <c r="V73" s="7"/>
       <c r="W73" s="4"/>
     </row>
-    <row r="74" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="74" spans="2:23" ht="30" customHeight="1">
       <c r="B74" s="5"/>
       <c r="C74" s="6"/>
       <c r="D74" s="6"/>
@@ -2922,7 +2957,7 @@
       <c r="V74" s="7"/>
       <c r="W74" s="4"/>
     </row>
-    <row r="75" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="75" spans="2:23" ht="30" customHeight="1">
       <c r="B75" s="5"/>
       <c r="C75" s="6"/>
       <c r="D75" s="6"/>
@@ -2946,7 +2981,7 @@
       <c r="V75" s="7"/>
       <c r="W75" s="4"/>
     </row>
-    <row r="76" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="76" spans="2:23" ht="30" customHeight="1">
       <c r="B76" s="5"/>
       <c r="C76" s="6"/>
       <c r="D76" s="6"/>
@@ -2970,7 +3005,7 @@
       <c r="V76" s="7"/>
       <c r="W76" s="4"/>
     </row>
-    <row r="77" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="77" spans="2:23" ht="30" customHeight="1">
       <c r="B77" s="5"/>
       <c r="C77" s="6"/>
       <c r="D77" s="6"/>
@@ -2994,7 +3029,7 @@
       <c r="V77" s="7"/>
       <c r="W77" s="4"/>
     </row>
-    <row r="78" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="78" spans="2:23" ht="30" customHeight="1">
       <c r="B78" s="5"/>
       <c r="C78" s="6"/>
       <c r="D78" s="6"/>
@@ -3018,7 +3053,7 @@
       <c r="V78" s="7"/>
       <c r="W78" s="4"/>
     </row>
-    <row r="79" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="79" spans="2:23" ht="30" customHeight="1">
       <c r="B79" s="5"/>
       <c r="C79" s="6"/>
       <c r="D79" s="6"/>
@@ -3042,7 +3077,7 @@
       <c r="V79" s="7"/>
       <c r="W79" s="4"/>
     </row>
-    <row r="80" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="80" spans="2:23" ht="30" customHeight="1">
       <c r="B80" s="5"/>
       <c r="C80" s="6"/>
       <c r="D80" s="6"/>
@@ -3066,7 +3101,7 @@
       <c r="V80" s="7"/>
       <c r="W80" s="4"/>
     </row>
-    <row r="81" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="81" spans="2:23" ht="30" customHeight="1">
       <c r="B81" s="5"/>
       <c r="C81" s="6"/>
       <c r="D81" s="6"/>
@@ -3090,7 +3125,7 @@
       <c r="V81" s="7"/>
       <c r="W81" s="4"/>
     </row>
-    <row r="82" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="82" spans="2:23" ht="30" customHeight="1">
       <c r="B82" s="5"/>
       <c r="C82" s="6"/>
       <c r="D82" s="6"/>
@@ -3114,7 +3149,7 @@
       <c r="V82" s="7"/>
       <c r="W82" s="4"/>
     </row>
-    <row r="83" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="83" spans="2:23" ht="30" customHeight="1">
       <c r="B83" s="5"/>
       <c r="C83" s="6"/>
       <c r="D83" s="6"/>
@@ -3138,7 +3173,7 @@
       <c r="V83" s="7"/>
       <c r="W83" s="4"/>
     </row>
-    <row r="84" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="84" spans="2:23" ht="30" customHeight="1">
       <c r="B84" s="5"/>
       <c r="C84" s="6"/>
       <c r="D84" s="6"/>
@@ -3162,7 +3197,7 @@
       <c r="V84" s="7"/>
       <c r="W84" s="4"/>
     </row>
-    <row r="85" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="85" spans="2:23" ht="30" customHeight="1">
       <c r="B85" s="5"/>
       <c r="C85" s="6"/>
       <c r="D85" s="6"/>
@@ -3186,7 +3221,7 @@
       <c r="V85" s="7"/>
       <c r="W85" s="4"/>
     </row>
-    <row r="86" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="86" spans="2:23" ht="30" customHeight="1">
       <c r="B86" s="5"/>
       <c r="C86" s="6"/>
       <c r="D86" s="6"/>
@@ -3210,7 +3245,7 @@
       <c r="V86" s="7"/>
       <c r="W86" s="4"/>
     </row>
-    <row r="87" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="87" spans="2:23" ht="30" customHeight="1">
       <c r="B87" s="5"/>
       <c r="C87" s="6"/>
       <c r="D87" s="6"/>
@@ -3234,7 +3269,7 @@
       <c r="V87" s="7"/>
       <c r="W87" s="4"/>
     </row>
-    <row r="88" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="88" spans="2:23" ht="30" customHeight="1">
       <c r="B88" s="5"/>
       <c r="C88" s="6"/>
       <c r="D88" s="6"/>
@@ -3258,7 +3293,7 @@
       <c r="V88" s="7"/>
       <c r="W88" s="4"/>
     </row>
-    <row r="89" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="89" spans="2:23" ht="30" customHeight="1">
       <c r="B89" s="5"/>
       <c r="C89" s="6"/>
       <c r="D89" s="6"/>
@@ -3282,7 +3317,7 @@
       <c r="V89" s="7"/>
       <c r="W89" s="4"/>
     </row>
-    <row r="90" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="90" spans="2:23" ht="30" customHeight="1">
       <c r="B90" s="5"/>
       <c r="C90" s="6"/>
       <c r="D90" s="6"/>
@@ -3306,7 +3341,7 @@
       <c r="V90" s="7"/>
       <c r="W90" s="4"/>
     </row>
-    <row r="91" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="91" spans="2:23" ht="30" customHeight="1">
       <c r="B91" s="5"/>
       <c r="C91" s="6"/>
       <c r="D91" s="6"/>
@@ -3330,7 +3365,7 @@
       <c r="V91" s="7"/>
       <c r="W91" s="4"/>
     </row>
-    <row r="92" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="92" spans="2:23" ht="30" customHeight="1">
       <c r="B92" s="5"/>
       <c r="C92" s="6"/>
       <c r="D92" s="6"/>
@@ -3354,7 +3389,7 @@
       <c r="V92" s="7"/>
       <c r="W92" s="4"/>
     </row>
-    <row r="93" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="93" spans="2:23" ht="30" customHeight="1">
       <c r="B93" s="5"/>
       <c r="C93" s="6"/>
       <c r="D93" s="6"/>
@@ -3378,7 +3413,7 @@
       <c r="V93" s="7"/>
       <c r="W93" s="4"/>
     </row>
-    <row r="94" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="94" spans="2:23" ht="30" customHeight="1">
       <c r="B94" s="5"/>
       <c r="C94" s="6"/>
       <c r="D94" s="6"/>
@@ -3402,7 +3437,7 @@
       <c r="V94" s="7"/>
       <c r="W94" s="4"/>
     </row>
-    <row r="95" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="95" spans="2:23" ht="30" customHeight="1">
       <c r="B95" s="5"/>
       <c r="C95" s="6"/>
       <c r="D95" s="6"/>
@@ -3426,7 +3461,7 @@
       <c r="V95" s="7"/>
       <c r="W95" s="4"/>
     </row>
-    <row r="96" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="96" spans="2:23" ht="30" customHeight="1">
       <c r="B96" s="5"/>
       <c r="C96" s="6"/>
       <c r="D96" s="6"/>
@@ -3450,7 +3485,7 @@
       <c r="V96" s="7"/>
       <c r="W96" s="4"/>
     </row>
-    <row r="97" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="97" spans="2:23" ht="30" customHeight="1">
       <c r="B97" s="5"/>
       <c r="C97" s="6"/>
       <c r="D97" s="6"/>
@@ -3474,7 +3509,7 @@
       <c r="V97" s="7"/>
       <c r="W97" s="4"/>
     </row>
-    <row r="98" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="98" spans="2:23" ht="30" customHeight="1">
       <c r="B98" s="5"/>
       <c r="C98" s="6"/>
       <c r="D98" s="6"/>
@@ -3498,7 +3533,7 @@
       <c r="V98" s="7"/>
       <c r="W98" s="4"/>
     </row>
-    <row r="99" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="99" spans="2:23" ht="30" customHeight="1">
       <c r="B99" s="5"/>
       <c r="C99" s="6"/>
       <c r="D99" s="6"/>
@@ -3522,7 +3557,7 @@
       <c r="V99" s="7"/>
       <c r="W99" s="4"/>
     </row>
-    <row r="100" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="100" spans="2:23" ht="30" customHeight="1">
       <c r="B100" s="5"/>
       <c r="C100" s="6"/>
       <c r="D100" s="6"/>
@@ -3546,7 +3581,7 @@
       <c r="V100" s="7"/>
       <c r="W100" s="4"/>
     </row>
-    <row r="101" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="101" spans="2:23" ht="30" customHeight="1">
       <c r="B101" s="5"/>
       <c r="C101" s="6"/>
       <c r="D101" s="6"/>
@@ -3570,7 +3605,7 @@
       <c r="V101" s="7"/>
       <c r="W101" s="4"/>
     </row>
-    <row r="102" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="102" spans="2:23" ht="30" customHeight="1">
       <c r="B102" s="5"/>
       <c r="C102" s="6"/>
       <c r="D102" s="6"/>
@@ -3594,7 +3629,7 @@
       <c r="V102" s="7"/>
       <c r="W102" s="4"/>
     </row>
-    <row r="103" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="103" spans="2:23" ht="30" customHeight="1">
       <c r="B103" s="5"/>
       <c r="C103" s="6"/>
       <c r="D103" s="6"/>
@@ -3618,7 +3653,7 @@
       <c r="V103" s="7"/>
       <c r="W103" s="4"/>
     </row>
-    <row r="104" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="104" spans="2:23" ht="30" customHeight="1">
       <c r="B104" s="5"/>
       <c r="C104" s="6"/>
       <c r="D104" s="6"/>
@@ -3642,7 +3677,7 @@
       <c r="V104" s="7"/>
       <c r="W104" s="4"/>
     </row>
-    <row r="105" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="105" spans="2:23" ht="30" customHeight="1">
       <c r="B105" s="5"/>
       <c r="C105" s="6"/>
       <c r="D105" s="6"/>
@@ -3666,7 +3701,7 @@
       <c r="V105" s="7"/>
       <c r="W105" s="4"/>
     </row>
-    <row r="106" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="106" spans="2:23" ht="30" customHeight="1">
       <c r="B106" s="5"/>
       <c r="C106" s="6"/>
       <c r="D106" s="6"/>
@@ -3690,7 +3725,7 @@
       <c r="V106" s="7"/>
       <c r="W106" s="4"/>
     </row>
-    <row r="107" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="107" spans="2:23" ht="30" customHeight="1">
       <c r="B107" s="5"/>
       <c r="C107" s="6"/>
       <c r="D107" s="6"/>
@@ -3714,7 +3749,7 @@
       <c r="V107" s="7"/>
       <c r="W107" s="4"/>
     </row>
-    <row r="108" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="108" spans="2:23" ht="30" customHeight="1">
       <c r="B108" s="5"/>
       <c r="C108" s="6"/>
       <c r="D108" s="6"/>
@@ -3738,7 +3773,7 @@
       <c r="V108" s="7"/>
       <c r="W108" s="4"/>
     </row>
-    <row r="109" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="109" spans="2:23" ht="30" customHeight="1">
       <c r="B109" s="5"/>
       <c r="C109" s="6"/>
       <c r="D109" s="6"/>
@@ -3762,7 +3797,7 @@
       <c r="V109" s="7"/>
       <c r="W109" s="4"/>
     </row>
-    <row r="110" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="110" spans="2:23" ht="30" customHeight="1">
       <c r="B110" s="5"/>
       <c r="C110" s="6"/>
       <c r="D110" s="6"/>
@@ -3786,7 +3821,7 @@
       <c r="V110" s="7"/>
       <c r="W110" s="4"/>
     </row>
-    <row r="111" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="111" spans="2:23" ht="30" customHeight="1">
       <c r="B111" s="5"/>
       <c r="C111" s="6"/>
       <c r="D111" s="6"/>
@@ -3810,7 +3845,7 @@
       <c r="V111" s="7"/>
       <c r="W111" s="4"/>
     </row>
-    <row r="112" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="112" spans="2:23" ht="30" customHeight="1">
       <c r="B112" s="5"/>
       <c r="C112" s="6"/>
       <c r="D112" s="6"/>
@@ -3834,7 +3869,7 @@
       <c r="V112" s="7"/>
       <c r="W112" s="4"/>
     </row>
-    <row r="113" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="113" spans="2:23" ht="30" customHeight="1">
       <c r="B113" s="5"/>
       <c r="C113" s="6"/>
       <c r="D113" s="6"/>
@@ -3858,7 +3893,7 @@
       <c r="V113" s="7"/>
       <c r="W113" s="4"/>
     </row>
-    <row r="114" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="114" spans="2:23" ht="30" customHeight="1">
       <c r="B114" s="5"/>
       <c r="C114" s="6"/>
       <c r="D114" s="6"/>
@@ -3882,7 +3917,7 @@
       <c r="V114" s="7"/>
       <c r="W114" s="4"/>
     </row>
-    <row r="115" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="115" spans="2:23" ht="30" customHeight="1">
       <c r="B115" s="5"/>
       <c r="C115" s="6"/>
       <c r="D115" s="6"/>
@@ -3906,7 +3941,7 @@
       <c r="V115" s="7"/>
       <c r="W115" s="4"/>
     </row>
-    <row r="116" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="116" spans="2:23" ht="30" customHeight="1">
       <c r="B116" s="5"/>
       <c r="C116" s="6"/>
       <c r="D116" s="6"/>
@@ -3930,7 +3965,7 @@
       <c r="V116" s="7"/>
       <c r="W116" s="4"/>
     </row>
-    <row r="117" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="117" spans="2:23" ht="30" customHeight="1">
       <c r="B117" s="5"/>
       <c r="C117" s="6"/>
       <c r="D117" s="6"/>
@@ -3954,7 +3989,7 @@
       <c r="V117" s="7"/>
       <c r="W117" s="4"/>
     </row>
-    <row r="118" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="118" spans="2:23" ht="30" customHeight="1">
       <c r="B118" s="5"/>
       <c r="C118" s="6"/>
       <c r="D118" s="6"/>
@@ -3978,7 +4013,7 @@
       <c r="V118" s="7"/>
       <c r="W118" s="4"/>
     </row>
-    <row r="119" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="119" spans="2:23" ht="30" customHeight="1">
       <c r="B119" s="5"/>
       <c r="C119" s="6"/>
       <c r="D119" s="6"/>
@@ -4002,7 +4037,7 @@
       <c r="V119" s="7"/>
       <c r="W119" s="4"/>
     </row>
-    <row r="120" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="120" spans="2:23" ht="30" customHeight="1">
       <c r="B120" s="5"/>
       <c r="C120" s="6"/>
       <c r="D120" s="6"/>
@@ -4026,7 +4061,7 @@
       <c r="V120" s="7"/>
       <c r="W120" s="4"/>
     </row>
-    <row r="121" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="121" spans="2:23" ht="30" customHeight="1">
       <c r="B121" s="5"/>
       <c r="C121" s="6"/>
       <c r="D121" s="6"/>
@@ -4050,7 +4085,7 @@
       <c r="V121" s="7"/>
       <c r="W121" s="4"/>
     </row>
-    <row r="122" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="122" spans="2:23" ht="30" customHeight="1">
       <c r="B122" s="5"/>
       <c r="C122" s="6"/>
       <c r="D122" s="6"/>
@@ -4074,7 +4109,7 @@
       <c r="V122" s="7"/>
       <c r="W122" s="4"/>
     </row>
-    <row r="123" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="123" spans="2:23" ht="30" customHeight="1">
       <c r="B123" s="5"/>
       <c r="C123" s="6"/>
       <c r="D123" s="6"/>
@@ -4098,7 +4133,7 @@
       <c r="V123" s="7"/>
       <c r="W123" s="4"/>
     </row>
-    <row r="124" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="124" spans="2:23" ht="30" customHeight="1">
       <c r="B124" s="5"/>
       <c r="C124" s="6"/>
       <c r="D124" s="6"/>
@@ -4122,7 +4157,7 @@
       <c r="V124" s="7"/>
       <c r="W124" s="4"/>
     </row>
-    <row r="125" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="125" spans="2:23" ht="30" customHeight="1">
       <c r="B125" s="5"/>
       <c r="C125" s="6"/>
       <c r="D125" s="6"/>
@@ -4146,7 +4181,7 @@
       <c r="V125" s="7"/>
       <c r="W125" s="4"/>
     </row>
-    <row r="126" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="126" spans="2:23" ht="30" customHeight="1">
       <c r="B126" s="5"/>
       <c r="C126" s="6"/>
       <c r="D126" s="6"/>
@@ -4170,7 +4205,7 @@
       <c r="V126" s="7"/>
       <c r="W126" s="4"/>
     </row>
-    <row r="127" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="127" spans="2:23" ht="30" customHeight="1">
       <c r="B127" s="5"/>
       <c r="C127" s="6"/>
       <c r="D127" s="6"/>
@@ -4194,7 +4229,7 @@
       <c r="V127" s="7"/>
       <c r="W127" s="4"/>
     </row>
-    <row r="128" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="128" spans="2:23" ht="30" customHeight="1">
       <c r="B128" s="5"/>
       <c r="C128" s="6"/>
       <c r="D128" s="6"/>
@@ -4218,7 +4253,7 @@
       <c r="V128" s="7"/>
       <c r="W128" s="4"/>
     </row>
-    <row r="129" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="129" spans="2:23" ht="30" customHeight="1">
       <c r="B129" s="5"/>
       <c r="C129" s="6"/>
       <c r="D129" s="6"/>
@@ -4242,7 +4277,7 @@
       <c r="V129" s="7"/>
       <c r="W129" s="4"/>
     </row>
-    <row r="130" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="130" spans="2:23" ht="30" customHeight="1">
       <c r="B130" s="5"/>
       <c r="C130" s="6"/>
       <c r="D130" s="6"/>
@@ -4266,7 +4301,7 @@
       <c r="V130" s="7"/>
       <c r="W130" s="4"/>
     </row>
-    <row r="131" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="131" spans="2:23" ht="30" customHeight="1">
       <c r="B131" s="5"/>
       <c r="C131" s="6"/>
       <c r="D131" s="6"/>
@@ -4290,7 +4325,7 @@
       <c r="V131" s="7"/>
       <c r="W131" s="4"/>
     </row>
-    <row r="132" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="132" spans="2:23" ht="30" customHeight="1">
       <c r="B132" s="5"/>
       <c r="C132" s="6"/>
       <c r="D132" s="6"/>
@@ -4314,7 +4349,7 @@
       <c r="V132" s="7"/>
       <c r="W132" s="4"/>
     </row>
-    <row r="133" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="133" spans="2:23" ht="30" customHeight="1">
       <c r="B133" s="5"/>
       <c r="C133" s="6"/>
       <c r="D133" s="6"/>
@@ -4338,7 +4373,7 @@
       <c r="V133" s="7"/>
       <c r="W133" s="4"/>
     </row>
-    <row r="134" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="134" spans="2:23" ht="30" customHeight="1">
       <c r="B134" s="5"/>
       <c r="C134" s="6"/>
       <c r="D134" s="6"/>
@@ -4362,7 +4397,7 @@
       <c r="V134" s="7"/>
       <c r="W134" s="4"/>
     </row>
-    <row r="135" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="135" spans="2:23" ht="30" customHeight="1">
       <c r="B135" s="5"/>
       <c r="C135" s="6"/>
       <c r="D135" s="6"/>
@@ -4386,7 +4421,7 @@
       <c r="V135" s="7"/>
       <c r="W135" s="4"/>
     </row>
-    <row r="136" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="136" spans="2:23" ht="30" customHeight="1">
       <c r="B136" s="5"/>
       <c r="C136" s="6"/>
       <c r="D136" s="6"/>
@@ -4410,7 +4445,7 @@
       <c r="V136" s="7"/>
       <c r="W136" s="4"/>
     </row>
-    <row r="137" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="137" spans="2:23" ht="30" customHeight="1">
       <c r="B137" s="5"/>
       <c r="C137" s="6"/>
       <c r="D137" s="6"/>
@@ -4434,7 +4469,7 @@
       <c r="V137" s="7"/>
       <c r="W137" s="4"/>
     </row>
-    <row r="138" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="138" spans="2:23" ht="30" customHeight="1">
       <c r="B138" s="5"/>
       <c r="C138" s="6"/>
       <c r="D138" s="6"/>
@@ -4458,7 +4493,7 @@
       <c r="V138" s="7"/>
       <c r="W138" s="4"/>
     </row>
-    <row r="139" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="139" spans="2:23" ht="30" customHeight="1">
       <c r="B139" s="5"/>
       <c r="C139" s="6"/>
       <c r="D139" s="6"/>
@@ -4482,7 +4517,7 @@
       <c r="V139" s="7"/>
       <c r="W139" s="4"/>
     </row>
-    <row r="140" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="140" spans="2:23" ht="30" customHeight="1">
       <c r="B140" s="5"/>
       <c r="C140" s="6"/>
       <c r="D140" s="6"/>
@@ -4506,7 +4541,7 @@
       <c r="V140" s="7"/>
       <c r="W140" s="4"/>
     </row>
-    <row r="141" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="141" spans="2:23" ht="30" customHeight="1">
       <c r="B141" s="5"/>
       <c r="C141" s="6"/>
       <c r="D141" s="6"/>
@@ -4530,7 +4565,7 @@
       <c r="V141" s="7"/>
       <c r="W141" s="4"/>
     </row>
-    <row r="142" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="142" spans="2:23" ht="30" customHeight="1">
       <c r="B142" s="5"/>
       <c r="C142" s="6"/>
       <c r="D142" s="6"/>
@@ -4554,7 +4589,7 @@
       <c r="V142" s="7"/>
       <c r="W142" s="4"/>
     </row>
-    <row r="143" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="143" spans="2:23" ht="30" customHeight="1">
       <c r="B143" s="5"/>
       <c r="C143" s="6"/>
       <c r="D143" s="6"/>
@@ -4578,7 +4613,7 @@
       <c r="V143" s="7"/>
       <c r="W143" s="4"/>
     </row>
-    <row r="144" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="144" spans="2:23" ht="30" customHeight="1">
       <c r="B144" s="5"/>
       <c r="C144" s="6"/>
       <c r="D144" s="6"/>
@@ -4602,95 +4637,110 @@
       <c r="V144" s="7"/>
       <c r="W144" s="4"/>
     </row>
-    <row r="145" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="145" spans="2:23" ht="30" customHeight="1">
       <c r="B145" s="8"/>
       <c r="W145" s="9"/>
     </row>
-    <row r="146" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="146" spans="2:23" ht="30" customHeight="1">
       <c r="B146" s="8"/>
       <c r="W146" s="9"/>
     </row>
-    <row r="147" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="147" spans="2:23" ht="30" customHeight="1">
       <c r="B147" s="8"/>
       <c r="W147" s="9"/>
     </row>
-    <row r="148" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="148" spans="2:23" ht="30" customHeight="1">
       <c r="B148" s="8"/>
       <c r="W148" s="9"/>
     </row>
-    <row r="149" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="149" spans="2:23" ht="30" customHeight="1">
       <c r="B149" s="8"/>
       <c r="W149" s="9"/>
     </row>
-    <row r="150" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="150" spans="2:23" ht="30" customHeight="1">
       <c r="B150" s="8"/>
       <c r="W150" s="9"/>
     </row>
-    <row r="151" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="151" spans="2:23" ht="30" customHeight="1">
       <c r="B151" s="8"/>
       <c r="W151" s="9"/>
     </row>
-    <row r="152" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="152" spans="2:23" ht="30" customHeight="1">
       <c r="B152" s="8"/>
       <c r="W152" s="9"/>
     </row>
-    <row r="153" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="153" spans="2:23" ht="30" customHeight="1">
       <c r="B153" s="8"/>
       <c r="W153" s="9"/>
     </row>
-    <row r="154" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="154" spans="2:23" ht="30" customHeight="1">
       <c r="B154" s="8"/>
       <c r="W154" s="9"/>
     </row>
-    <row r="155" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="155" spans="2:23" ht="30" customHeight="1">
       <c r="B155" s="8"/>
       <c r="W155" s="9"/>
     </row>
-    <row r="156" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="156" spans="2:23" ht="30" customHeight="1">
       <c r="B156" s="8"/>
       <c r="W156" s="9"/>
     </row>
-    <row r="157" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="157" spans="2:23" ht="30" customHeight="1">
       <c r="B157" s="8"/>
       <c r="W157" s="9"/>
     </row>
-    <row r="158" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="158" spans="2:23" ht="30" customHeight="1">
       <c r="B158" s="8"/>
       <c r="W158" s="9"/>
     </row>
-    <row r="159" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="159" spans="2:23" ht="30" customHeight="1">
       <c r="B159" s="8"/>
       <c r="W159" s="9"/>
     </row>
-    <row r="160" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="160" spans="2:23" ht="30" customHeight="1">
       <c r="B160" s="8"/>
     </row>
-    <row r="161" spans="2:2" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="161" spans="2:2" ht="30" customHeight="1">
       <c r="B161" s="8"/>
     </row>
-    <row r="162" spans="2:2" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="162" spans="2:2" ht="30" customHeight="1">
       <c r="B162" s="8"/>
     </row>
-    <row r="163" spans="2:2" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="163" spans="2:2" ht="30" customHeight="1">
       <c r="B163" s="8"/>
     </row>
-    <row r="164" spans="2:2" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="164" spans="2:2" ht="30" customHeight="1">
       <c r="B164" s="8"/>
     </row>
-    <row r="165" spans="2:2" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="165" spans="2:2" ht="30" customHeight="1">
       <c r="B165" s="8"/>
     </row>
-    <row r="166" spans="2:2" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="166" spans="2:2" ht="30" customHeight="1">
       <c r="B166" s="8"/>
     </row>
-    <row r="167" spans="2:2" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="167" spans="2:2" ht="30" customHeight="1">
       <c r="B167" s="8"/>
     </row>
-    <row r="168" spans="2:2" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="168" spans="2:2" ht="30" customHeight="1">
       <c r="B168" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="T2:T3"/>
+    <mergeCell ref="U2:U3"/>
+    <mergeCell ref="V2:V3"/>
     <mergeCell ref="W2:W3"/>
     <mergeCell ref="M2:M3"/>
     <mergeCell ref="N2:N3"/>
@@ -4699,21 +4749,6 @@
     <mergeCell ref="R2:R3"/>
     <mergeCell ref="S2:S3"/>
     <mergeCell ref="P2:P3"/>
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="L2:L3"/>
-    <mergeCell ref="T2:T3"/>
-    <mergeCell ref="U2:U3"/>
-    <mergeCell ref="V2:V3"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="F2:F3"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
